--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB19208-0923-48EC-9699-A8F3583C45F9}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83583697-7125-42C8-A249-C1EF45E4385E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4605" yWindow="345" windowWidth="21600" windowHeight="11295" tabRatio="735" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -7950,15 +7950,36 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7968,12 +7989,6 @@
     <xf numFmtId="176" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8007,23 +8022,86 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8031,69 +8109,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8121,6 +8136,36 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8151,53 +8196,8 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -9246,16 +9246,16 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="511" t="s">
+      <c r="D1" s="516" t="s">
         <v>643</v>
       </c>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
       <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
@@ -9872,7 +9872,7 @@
       <c r="F24" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="G24" s="578" t="s">
+      <c r="G24" s="500" t="s">
         <v>1018</v>
       </c>
       <c r="I24" s="24"/>
@@ -12997,7 +12997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -13050,7 +13050,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="579" t="s">
+      <c r="A3" s="501" t="s">
         <v>1019</v>
       </c>
       <c r="B3" s="146" t="s">
@@ -13410,7 +13410,7 @@
       <c r="A24" s="152" t="s">
         <v>926</v>
       </c>
-      <c r="B24" s="576" t="s">
+      <c r="B24" s="498" t="s">
         <v>1016</v>
       </c>
       <c r="C24" s="153" t="s">
@@ -13420,7 +13420,7 @@
       <c r="E24" s="147"/>
       <c r="F24" s="147"/>
       <c r="G24" s="147"/>
-      <c r="H24" s="577" t="s">
+      <c r="H24" s="499" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       <c r="C26" s="131" t="s">
         <v>685</v>
       </c>
-      <c r="D26" s="575" t="s">
+      <c r="D26" s="497" t="s">
         <v>1015</v>
       </c>
       <c r="E26" s="156"/>
@@ -13647,7 +13647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
@@ -13688,11 +13688,11 @@
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="574" t="s">
+      <c r="C3" s="579" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="574"/>
-      <c r="E3" s="574"/>
+      <c r="D3" s="579"/>
+      <c r="E3" s="579"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -14895,53 +14895,53 @@
       <c r="J52" s="93"/>
     </row>
     <row r="53" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B53" s="513" t="s">
+      <c r="B53" s="518" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="514"/>
-      <c r="D53" s="514"/>
-      <c r="E53" s="514"/>
-      <c r="F53" s="514"/>
-      <c r="G53" s="515"/>
+      <c r="C53" s="519"/>
+      <c r="D53" s="519"/>
+      <c r="E53" s="519"/>
+      <c r="F53" s="519"/>
+      <c r="G53" s="520"/>
       <c r="H53" s="31"/>
       <c r="I53" s="93"/>
       <c r="J53" s="93"/>
     </row>
     <row r="54" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B54" s="505" t="s">
+      <c r="B54" s="510" t="s">
         <v>990</v>
       </c>
-      <c r="C54" s="506"/>
-      <c r="D54" s="506"/>
-      <c r="E54" s="506"/>
-      <c r="F54" s="506"/>
-      <c r="G54" s="507"/>
+      <c r="C54" s="511"/>
+      <c r="D54" s="511"/>
+      <c r="E54" s="511"/>
+      <c r="F54" s="511"/>
+      <c r="G54" s="512"/>
       <c r="H54" s="31"/>
       <c r="I54" s="93"/>
       <c r="J54" s="93"/>
     </row>
     <row r="55" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B55" s="513" t="s">
+      <c r="B55" s="518" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="514"/>
-      <c r="D55" s="514"/>
-      <c r="E55" s="514"/>
-      <c r="F55" s="514"/>
-      <c r="G55" s="515"/>
+      <c r="C55" s="519"/>
+      <c r="D55" s="519"/>
+      <c r="E55" s="519"/>
+      <c r="F55" s="519"/>
+      <c r="G55" s="520"/>
       <c r="H55" s="31"/>
       <c r="I55" s="93"/>
       <c r="J55" s="93"/>
     </row>
     <row r="56" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B56" s="505" t="s">
+      <c r="B56" s="510" t="s">
         <v>991</v>
       </c>
-      <c r="C56" s="506"/>
-      <c r="D56" s="506"/>
-      <c r="E56" s="506"/>
-      <c r="F56" s="506"/>
-      <c r="G56" s="507"/>
+      <c r="C56" s="511"/>
+      <c r="D56" s="511"/>
+      <c r="E56" s="511"/>
+      <c r="F56" s="511"/>
+      <c r="G56" s="512"/>
       <c r="H56" s="31"/>
       <c r="I56" s="93"/>
       <c r="J56" s="93"/>
@@ -14976,13 +14976,13 @@
       <c r="B59" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="508" t="s">
+      <c r="C59" s="513" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="509"/>
-      <c r="E59" s="509"/>
-      <c r="F59" s="509"/>
-      <c r="G59" s="510"/>
+      <c r="D59" s="514"/>
+      <c r="E59" s="514"/>
+      <c r="F59" s="514"/>
+      <c r="G59" s="515"/>
       <c r="H59" s="31"/>
       <c r="I59" s="93"/>
       <c r="J59" s="93"/>
@@ -14991,13 +14991,13 @@
       <c r="B60" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="508" t="s">
+      <c r="C60" s="513" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="509"/>
-      <c r="E60" s="509"/>
-      <c r="F60" s="509"/>
-      <c r="G60" s="510"/>
+      <c r="D60" s="514"/>
+      <c r="E60" s="514"/>
+      <c r="F60" s="514"/>
+      <c r="G60" s="515"/>
       <c r="H60" s="31"/>
       <c r="I60" s="93"/>
       <c r="J60" s="93"/>
@@ -15006,13 +15006,13 @@
       <c r="B61" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="508" t="s">
+      <c r="C61" s="513" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="509"/>
-      <c r="E61" s="509"/>
-      <c r="F61" s="509"/>
-      <c r="G61" s="510"/>
+      <c r="D61" s="514"/>
+      <c r="E61" s="514"/>
+      <c r="F61" s="514"/>
+      <c r="G61" s="515"/>
       <c r="H61" s="31"/>
       <c r="I61" s="93"/>
       <c r="J61" s="93"/>
@@ -15051,7 +15051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:E30"/>
     </sheetView>
   </sheetViews>
@@ -15095,11 +15095,11 @@
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="574" t="s">
+      <c r="C3" s="579" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="574"/>
-      <c r="E3" s="574"/>
+      <c r="D3" s="579"/>
+      <c r="E3" s="579"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -15862,53 +15862,53 @@
       <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B37" s="513" t="s">
+      <c r="B37" s="518" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="514"/>
-      <c r="D37" s="514"/>
-      <c r="E37" s="514"/>
-      <c r="F37" s="514"/>
-      <c r="G37" s="515"/>
+      <c r="C37" s="519"/>
+      <c r="D37" s="519"/>
+      <c r="E37" s="519"/>
+      <c r="F37" s="519"/>
+      <c r="G37" s="520"/>
       <c r="H37" s="31"/>
       <c r="I37" s="93"/>
       <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B38" s="505" t="s">
+      <c r="B38" s="510" t="s">
         <v>990</v>
       </c>
-      <c r="C38" s="506"/>
-      <c r="D38" s="506"/>
-      <c r="E38" s="506"/>
-      <c r="F38" s="506"/>
-      <c r="G38" s="507"/>
+      <c r="C38" s="511"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="511"/>
+      <c r="F38" s="511"/>
+      <c r="G38" s="512"/>
       <c r="H38" s="31"/>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B39" s="513" t="s">
+      <c r="B39" s="518" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="514"/>
-      <c r="D39" s="514"/>
-      <c r="E39" s="514"/>
-      <c r="F39" s="514"/>
-      <c r="G39" s="515"/>
+      <c r="C39" s="519"/>
+      <c r="D39" s="519"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="519"/>
+      <c r="G39" s="520"/>
       <c r="H39" s="31"/>
       <c r="I39" s="93"/>
       <c r="J39" s="93"/>
     </row>
     <row r="40" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B40" s="505" t="s">
+      <c r="B40" s="510" t="s">
         <v>991</v>
       </c>
-      <c r="C40" s="506"/>
-      <c r="D40" s="506"/>
-      <c r="E40" s="506"/>
-      <c r="F40" s="506"/>
-      <c r="G40" s="507"/>
+      <c r="C40" s="511"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="511"/>
+      <c r="F40" s="511"/>
+      <c r="G40" s="512"/>
       <c r="H40" s="31"/>
       <c r="I40" s="93"/>
       <c r="J40" s="93"/>
@@ -15943,13 +15943,13 @@
       <c r="B43" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="508" t="s">
+      <c r="C43" s="513" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="509"/>
-      <c r="E43" s="509"/>
-      <c r="F43" s="509"/>
-      <c r="G43" s="510"/>
+      <c r="D43" s="514"/>
+      <c r="E43" s="514"/>
+      <c r="F43" s="514"/>
+      <c r="G43" s="515"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
@@ -15958,13 +15958,13 @@
       <c r="B44" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="508" t="s">
+      <c r="C44" s="513" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="509"/>
-      <c r="E44" s="509"/>
-      <c r="F44" s="509"/>
-      <c r="G44" s="510"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="514"/>
+      <c r="F44" s="514"/>
+      <c r="G44" s="515"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
@@ -15973,13 +15973,13 @@
       <c r="B45" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="508" t="s">
+      <c r="C45" s="513" t="s">
         <v>366</v>
       </c>
-      <c r="D45" s="509"/>
-      <c r="E45" s="509"/>
-      <c r="F45" s="509"/>
-      <c r="G45" s="510"/>
+      <c r="D45" s="514"/>
+      <c r="E45" s="514"/>
+      <c r="F45" s="514"/>
+      <c r="G45" s="515"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
@@ -16042,14 +16042,14 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="511" t="s">
+      <c r="D1" s="516" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
       <c r="J1" s="18" t="s">
         <v>635</v>
       </c>
@@ -16327,614 +16327,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="428" customFormat="1" ht="29.25">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="506" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="497"/>
-      <c r="J1" s="497"/>
-      <c r="K1" s="497"/>
-      <c r="L1" s="497"/>
-      <c r="M1" s="497"/>
-      <c r="N1" s="497"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
+      <c r="L1" s="506"/>
+      <c r="M1" s="506"/>
+      <c r="N1" s="506"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="507" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="500" t="s">
+      <c r="B2" s="507" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="500" t="s">
+      <c r="C2" s="507" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="508" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="502" t="s">
+      <c r="E2" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="502" t="s">
+      <c r="F2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="503" t="s">
+      <c r="G2" s="502" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="503"/>
-      <c r="I2" s="503" t="s">
+      <c r="H2" s="502"/>
+      <c r="I2" s="502" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="502" t="s">
+      <c r="J2" s="502"/>
+      <c r="K2" s="509" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="502" t="s">
+      <c r="L2" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="500" t="s">
+      <c r="M2" s="507" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="500" t="s">
+      <c r="N2" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="498" t="s">
+      <c r="O2" s="505" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="498"/>
-      <c r="Q2" s="498"/>
-      <c r="R2" s="498"/>
-      <c r="S2" s="498"/>
-      <c r="T2" s="498"/>
-      <c r="U2" s="498"/>
-      <c r="V2" s="498"/>
-      <c r="W2" s="498"/>
-      <c r="X2" s="498"/>
-      <c r="Y2" s="498"/>
-      <c r="Z2" s="498"/>
-      <c r="AA2" s="498"/>
-      <c r="AB2" s="498"/>
-      <c r="AC2" s="498"/>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="498"/>
-      <c r="AF2" s="498"/>
-      <c r="AG2" s="498"/>
-      <c r="AH2" s="498"/>
-      <c r="AI2" s="498"/>
-      <c r="AJ2" s="498"/>
-      <c r="AK2" s="498"/>
-      <c r="AL2" s="498"/>
-      <c r="AM2" s="498"/>
-      <c r="AN2" s="498"/>
-      <c r="AO2" s="498"/>
-      <c r="AP2" s="498"/>
-      <c r="AQ2" s="499" t="s">
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="505"/>
+      <c r="T2" s="505"/>
+      <c r="U2" s="505"/>
+      <c r="V2" s="505"/>
+      <c r="W2" s="505"/>
+      <c r="X2" s="505"/>
+      <c r="Y2" s="505"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="505"/>
+      <c r="AB2" s="505"/>
+      <c r="AC2" s="505"/>
+      <c r="AD2" s="505"/>
+      <c r="AE2" s="505"/>
+      <c r="AF2" s="505"/>
+      <c r="AG2" s="505"/>
+      <c r="AH2" s="505"/>
+      <c r="AI2" s="505"/>
+      <c r="AJ2" s="505"/>
+      <c r="AK2" s="505"/>
+      <c r="AL2" s="505"/>
+      <c r="AM2" s="505"/>
+      <c r="AN2" s="505"/>
+      <c r="AO2" s="505"/>
+      <c r="AP2" s="505"/>
+      <c r="AQ2" s="504" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="498"/>
-      <c r="AS2" s="498"/>
-      <c r="AT2" s="498"/>
-      <c r="AU2" s="498"/>
-      <c r="AV2" s="498"/>
-      <c r="AW2" s="498"/>
-      <c r="AX2" s="498"/>
-      <c r="AY2" s="498"/>
-      <c r="AZ2" s="498"/>
-      <c r="BA2" s="498"/>
-      <c r="BB2" s="498"/>
-      <c r="BC2" s="498"/>
-      <c r="BD2" s="498"/>
-      <c r="BE2" s="498"/>
-      <c r="BF2" s="498"/>
-      <c r="BG2" s="498"/>
-      <c r="BH2" s="498"/>
-      <c r="BI2" s="498"/>
-      <c r="BJ2" s="498"/>
-      <c r="BK2" s="498"/>
-      <c r="BL2" s="498"/>
-      <c r="BM2" s="498"/>
-      <c r="BN2" s="498"/>
-      <c r="BO2" s="498"/>
-      <c r="BP2" s="498"/>
-      <c r="BQ2" s="498"/>
-      <c r="BR2" s="498"/>
-      <c r="BS2" s="498"/>
-      <c r="BT2" s="498"/>
-      <c r="BU2" s="498"/>
-      <c r="BV2" s="499" t="s">
+      <c r="AR2" s="505"/>
+      <c r="AS2" s="505"/>
+      <c r="AT2" s="505"/>
+      <c r="AU2" s="505"/>
+      <c r="AV2" s="505"/>
+      <c r="AW2" s="505"/>
+      <c r="AX2" s="505"/>
+      <c r="AY2" s="505"/>
+      <c r="AZ2" s="505"/>
+      <c r="BA2" s="505"/>
+      <c r="BB2" s="505"/>
+      <c r="BC2" s="505"/>
+      <c r="BD2" s="505"/>
+      <c r="BE2" s="505"/>
+      <c r="BF2" s="505"/>
+      <c r="BG2" s="505"/>
+      <c r="BH2" s="505"/>
+      <c r="BI2" s="505"/>
+      <c r="BJ2" s="505"/>
+      <c r="BK2" s="505"/>
+      <c r="BL2" s="505"/>
+      <c r="BM2" s="505"/>
+      <c r="BN2" s="505"/>
+      <c r="BO2" s="505"/>
+      <c r="BP2" s="505"/>
+      <c r="BQ2" s="505"/>
+      <c r="BR2" s="505"/>
+      <c r="BS2" s="505"/>
+      <c r="BT2" s="505"/>
+      <c r="BU2" s="505"/>
+      <c r="BV2" s="504" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="498"/>
-      <c r="BX2" s="498"/>
-      <c r="BY2" s="498"/>
-      <c r="BZ2" s="498"/>
-      <c r="CA2" s="498"/>
-      <c r="CB2" s="498"/>
-      <c r="CC2" s="498"/>
-      <c r="CD2" s="498"/>
-      <c r="CE2" s="498"/>
-      <c r="CF2" s="498"/>
-      <c r="CG2" s="498"/>
-      <c r="CH2" s="498"/>
-      <c r="CI2" s="498"/>
-      <c r="CJ2" s="498"/>
-      <c r="CK2" s="498"/>
-      <c r="CL2" s="498"/>
-      <c r="CM2" s="498"/>
-      <c r="CN2" s="498"/>
-      <c r="CO2" s="498"/>
-      <c r="CP2" s="498"/>
-      <c r="CQ2" s="498"/>
-      <c r="CR2" s="498"/>
-      <c r="CS2" s="498"/>
-      <c r="CT2" s="498"/>
-      <c r="CU2" s="498"/>
-      <c r="CV2" s="498"/>
-      <c r="CW2" s="498"/>
-      <c r="CX2" s="498"/>
-      <c r="CY2" s="498"/>
-      <c r="CZ2" s="498" t="s">
+      <c r="BW2" s="505"/>
+      <c r="BX2" s="505"/>
+      <c r="BY2" s="505"/>
+      <c r="BZ2" s="505"/>
+      <c r="CA2" s="505"/>
+      <c r="CB2" s="505"/>
+      <c r="CC2" s="505"/>
+      <c r="CD2" s="505"/>
+      <c r="CE2" s="505"/>
+      <c r="CF2" s="505"/>
+      <c r="CG2" s="505"/>
+      <c r="CH2" s="505"/>
+      <c r="CI2" s="505"/>
+      <c r="CJ2" s="505"/>
+      <c r="CK2" s="505"/>
+      <c r="CL2" s="505"/>
+      <c r="CM2" s="505"/>
+      <c r="CN2" s="505"/>
+      <c r="CO2" s="505"/>
+      <c r="CP2" s="505"/>
+      <c r="CQ2" s="505"/>
+      <c r="CR2" s="505"/>
+      <c r="CS2" s="505"/>
+      <c r="CT2" s="505"/>
+      <c r="CU2" s="505"/>
+      <c r="CV2" s="505"/>
+      <c r="CW2" s="505"/>
+      <c r="CX2" s="505"/>
+      <c r="CY2" s="505"/>
+      <c r="CZ2" s="505" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="498"/>
-      <c r="DB2" s="498"/>
-      <c r="DC2" s="498"/>
-      <c r="DD2" s="498"/>
-      <c r="DE2" s="498"/>
-      <c r="DF2" s="498"/>
-      <c r="DG2" s="498"/>
-      <c r="DH2" s="498"/>
-      <c r="DI2" s="498"/>
-      <c r="DJ2" s="498"/>
-      <c r="DK2" s="498"/>
-      <c r="DL2" s="498"/>
-      <c r="DM2" s="498"/>
-      <c r="DN2" s="498"/>
-      <c r="DO2" s="498"/>
-      <c r="DP2" s="498"/>
-      <c r="DQ2" s="498"/>
-      <c r="DR2" s="498"/>
-      <c r="DS2" s="498"/>
-      <c r="DT2" s="498"/>
-      <c r="DU2" s="498"/>
-      <c r="DV2" s="498"/>
-      <c r="DW2" s="498"/>
-      <c r="DX2" s="498"/>
-      <c r="DY2" s="498"/>
-      <c r="DZ2" s="498"/>
-      <c r="EA2" s="498"/>
-      <c r="EB2" s="498"/>
-      <c r="EC2" s="498"/>
-      <c r="ED2" s="498"/>
-      <c r="EE2" s="499" t="s">
+      <c r="DA2" s="505"/>
+      <c r="DB2" s="505"/>
+      <c r="DC2" s="505"/>
+      <c r="DD2" s="505"/>
+      <c r="DE2" s="505"/>
+      <c r="DF2" s="505"/>
+      <c r="DG2" s="505"/>
+      <c r="DH2" s="505"/>
+      <c r="DI2" s="505"/>
+      <c r="DJ2" s="505"/>
+      <c r="DK2" s="505"/>
+      <c r="DL2" s="505"/>
+      <c r="DM2" s="505"/>
+      <c r="DN2" s="505"/>
+      <c r="DO2" s="505"/>
+      <c r="DP2" s="505"/>
+      <c r="DQ2" s="505"/>
+      <c r="DR2" s="505"/>
+      <c r="DS2" s="505"/>
+      <c r="DT2" s="505"/>
+      <c r="DU2" s="505"/>
+      <c r="DV2" s="505"/>
+      <c r="DW2" s="505"/>
+      <c r="DX2" s="505"/>
+      <c r="DY2" s="505"/>
+      <c r="DZ2" s="505"/>
+      <c r="EA2" s="505"/>
+      <c r="EB2" s="505"/>
+      <c r="EC2" s="505"/>
+      <c r="ED2" s="505"/>
+      <c r="EE2" s="504" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="498"/>
-      <c r="EG2" s="498"/>
-      <c r="EH2" s="498"/>
-      <c r="EI2" s="498"/>
-      <c r="EJ2" s="498"/>
-      <c r="EK2" s="498"/>
-      <c r="EL2" s="498"/>
-      <c r="EM2" s="498"/>
-      <c r="EN2" s="498"/>
-      <c r="EO2" s="498"/>
-      <c r="EP2" s="498"/>
-      <c r="EQ2" s="498"/>
-      <c r="ER2" s="498"/>
-      <c r="ES2" s="498"/>
-      <c r="ET2" s="498"/>
-      <c r="EU2" s="498"/>
-      <c r="EV2" s="498"/>
-      <c r="EW2" s="498"/>
-      <c r="EX2" s="498"/>
-      <c r="EY2" s="498"/>
-      <c r="EZ2" s="498"/>
-      <c r="FA2" s="498"/>
-      <c r="FB2" s="498"/>
-      <c r="FC2" s="498"/>
-      <c r="FD2" s="498"/>
-      <c r="FE2" s="498"/>
-      <c r="FF2" s="498"/>
-      <c r="FG2" s="498"/>
-      <c r="FH2" s="498"/>
-      <c r="FI2" s="499" t="s">
+      <c r="EF2" s="505"/>
+      <c r="EG2" s="505"/>
+      <c r="EH2" s="505"/>
+      <c r="EI2" s="505"/>
+      <c r="EJ2" s="505"/>
+      <c r="EK2" s="505"/>
+      <c r="EL2" s="505"/>
+      <c r="EM2" s="505"/>
+      <c r="EN2" s="505"/>
+      <c r="EO2" s="505"/>
+      <c r="EP2" s="505"/>
+      <c r="EQ2" s="505"/>
+      <c r="ER2" s="505"/>
+      <c r="ES2" s="505"/>
+      <c r="ET2" s="505"/>
+      <c r="EU2" s="505"/>
+      <c r="EV2" s="505"/>
+      <c r="EW2" s="505"/>
+      <c r="EX2" s="505"/>
+      <c r="EY2" s="505"/>
+      <c r="EZ2" s="505"/>
+      <c r="FA2" s="505"/>
+      <c r="FB2" s="505"/>
+      <c r="FC2" s="505"/>
+      <c r="FD2" s="505"/>
+      <c r="FE2" s="505"/>
+      <c r="FF2" s="505"/>
+      <c r="FG2" s="505"/>
+      <c r="FH2" s="505"/>
+      <c r="FI2" s="504" t="s">
         <v>23</v>
       </c>
-      <c r="FJ2" s="499"/>
-      <c r="FK2" s="499"/>
-      <c r="FL2" s="499"/>
-      <c r="FM2" s="499"/>
-      <c r="FN2" s="499"/>
-      <c r="FO2" s="499"/>
-      <c r="FP2" s="499"/>
-      <c r="FQ2" s="499"/>
-      <c r="FR2" s="499"/>
-      <c r="FS2" s="499"/>
-      <c r="FT2" s="499"/>
-      <c r="FU2" s="499"/>
-      <c r="FV2" s="499"/>
-      <c r="FW2" s="499"/>
-      <c r="FX2" s="499"/>
-      <c r="FY2" s="499"/>
-      <c r="FZ2" s="499"/>
-      <c r="GA2" s="499"/>
-      <c r="GB2" s="499"/>
-      <c r="GC2" s="499"/>
-      <c r="GD2" s="499"/>
-      <c r="GE2" s="499"/>
-      <c r="GF2" s="499"/>
-      <c r="GG2" s="499"/>
-      <c r="GH2" s="499"/>
-      <c r="GI2" s="499"/>
-      <c r="GJ2" s="499"/>
-      <c r="GK2" s="499"/>
-      <c r="GL2" s="499"/>
-      <c r="GM2" s="499"/>
-      <c r="GN2" s="499" t="s">
+      <c r="FJ2" s="504"/>
+      <c r="FK2" s="504"/>
+      <c r="FL2" s="504"/>
+      <c r="FM2" s="504"/>
+      <c r="FN2" s="504"/>
+      <c r="FO2" s="504"/>
+      <c r="FP2" s="504"/>
+      <c r="FQ2" s="504"/>
+      <c r="FR2" s="504"/>
+      <c r="FS2" s="504"/>
+      <c r="FT2" s="504"/>
+      <c r="FU2" s="504"/>
+      <c r="FV2" s="504"/>
+      <c r="FW2" s="504"/>
+      <c r="FX2" s="504"/>
+      <c r="FY2" s="504"/>
+      <c r="FZ2" s="504"/>
+      <c r="GA2" s="504"/>
+      <c r="GB2" s="504"/>
+      <c r="GC2" s="504"/>
+      <c r="GD2" s="504"/>
+      <c r="GE2" s="504"/>
+      <c r="GF2" s="504"/>
+      <c r="GG2" s="504"/>
+      <c r="GH2" s="504"/>
+      <c r="GI2" s="504"/>
+      <c r="GJ2" s="504"/>
+      <c r="GK2" s="504"/>
+      <c r="GL2" s="504"/>
+      <c r="GM2" s="504"/>
+      <c r="GN2" s="504" t="s">
         <v>24</v>
       </c>
-      <c r="GO2" s="499"/>
-      <c r="GP2" s="499"/>
-      <c r="GQ2" s="499"/>
-      <c r="GR2" s="499"/>
-      <c r="GS2" s="499"/>
-      <c r="GT2" s="499"/>
-      <c r="GU2" s="499"/>
-      <c r="GV2" s="499"/>
-      <c r="GW2" s="499"/>
-      <c r="GX2" s="499"/>
-      <c r="GY2" s="499"/>
-      <c r="GZ2" s="499"/>
-      <c r="HA2" s="499"/>
-      <c r="HB2" s="499"/>
-      <c r="HC2" s="499"/>
-      <c r="HD2" s="499"/>
-      <c r="HE2" s="499"/>
-      <c r="HF2" s="499"/>
-      <c r="HG2" s="499"/>
-      <c r="HH2" s="499"/>
-      <c r="HI2" s="499"/>
-      <c r="HJ2" s="499"/>
-      <c r="HK2" s="499"/>
-      <c r="HL2" s="499"/>
-      <c r="HM2" s="499"/>
-      <c r="HN2" s="499"/>
-      <c r="HO2" s="499"/>
-      <c r="HP2" s="499"/>
-      <c r="HQ2" s="499"/>
-      <c r="HR2" s="499"/>
-      <c r="HS2" s="498" t="s">
+      <c r="GO2" s="504"/>
+      <c r="GP2" s="504"/>
+      <c r="GQ2" s="504"/>
+      <c r="GR2" s="504"/>
+      <c r="GS2" s="504"/>
+      <c r="GT2" s="504"/>
+      <c r="GU2" s="504"/>
+      <c r="GV2" s="504"/>
+      <c r="GW2" s="504"/>
+      <c r="GX2" s="504"/>
+      <c r="GY2" s="504"/>
+      <c r="GZ2" s="504"/>
+      <c r="HA2" s="504"/>
+      <c r="HB2" s="504"/>
+      <c r="HC2" s="504"/>
+      <c r="HD2" s="504"/>
+      <c r="HE2" s="504"/>
+      <c r="HF2" s="504"/>
+      <c r="HG2" s="504"/>
+      <c r="HH2" s="504"/>
+      <c r="HI2" s="504"/>
+      <c r="HJ2" s="504"/>
+      <c r="HK2" s="504"/>
+      <c r="HL2" s="504"/>
+      <c r="HM2" s="504"/>
+      <c r="HN2" s="504"/>
+      <c r="HO2" s="504"/>
+      <c r="HP2" s="504"/>
+      <c r="HQ2" s="504"/>
+      <c r="HR2" s="504"/>
+      <c r="HS2" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="498"/>
-      <c r="HU2" s="498"/>
-      <c r="HV2" s="498"/>
-      <c r="HW2" s="498"/>
-      <c r="HX2" s="498"/>
-      <c r="HY2" s="498"/>
-      <c r="HZ2" s="498"/>
-      <c r="IA2" s="498"/>
-      <c r="IB2" s="498"/>
-      <c r="IC2" s="498"/>
-      <c r="ID2" s="498"/>
+      <c r="HT2" s="505"/>
+      <c r="HU2" s="505"/>
+      <c r="HV2" s="505"/>
+      <c r="HW2" s="505"/>
+      <c r="HX2" s="505"/>
+      <c r="HY2" s="505"/>
+      <c r="HZ2" s="505"/>
+      <c r="IA2" s="505"/>
+      <c r="IB2" s="505"/>
+      <c r="IC2" s="505"/>
+      <c r="ID2" s="505"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="500"/>
-      <c r="B3" s="500"/>
-      <c r="C3" s="500"/>
-      <c r="D3" s="501"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="503"/>
-      <c r="H3" s="503"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="503"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="502"/>
-      <c r="M3" s="500"/>
-      <c r="N3" s="500"/>
-      <c r="O3" s="504" t="s">
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
+      <c r="J3" s="502"/>
+      <c r="K3" s="509"/>
+      <c r="L3" s="509"/>
+      <c r="M3" s="507"/>
+      <c r="N3" s="507"/>
+      <c r="O3" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="504"/>
-      <c r="Q3" s="504"/>
-      <c r="R3" s="504"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="504"/>
-      <c r="U3" s="504"/>
-      <c r="V3" s="504" t="s">
+      <c r="P3" s="503"/>
+      <c r="Q3" s="503"/>
+      <c r="R3" s="503"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="503"/>
+      <c r="U3" s="503"/>
+      <c r="V3" s="503" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="504"/>
-      <c r="X3" s="504"/>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="504"/>
-      <c r="AA3" s="504"/>
-      <c r="AB3" s="504"/>
-      <c r="AC3" s="504" t="s">
+      <c r="W3" s="503"/>
+      <c r="X3" s="503"/>
+      <c r="Y3" s="503"/>
+      <c r="Z3" s="503"/>
+      <c r="AA3" s="503"/>
+      <c r="AB3" s="503"/>
+      <c r="AC3" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="504"/>
-      <c r="AE3" s="504"/>
-      <c r="AF3" s="504"/>
-      <c r="AG3" s="504"/>
-      <c r="AH3" s="504"/>
-      <c r="AI3" s="504"/>
-      <c r="AJ3" s="504" t="s">
+      <c r="AD3" s="503"/>
+      <c r="AE3" s="503"/>
+      <c r="AF3" s="503"/>
+      <c r="AG3" s="503"/>
+      <c r="AH3" s="503"/>
+      <c r="AI3" s="503"/>
+      <c r="AJ3" s="503" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="504"/>
-      <c r="AL3" s="504"/>
-      <c r="AM3" s="504"/>
-      <c r="AN3" s="504"/>
-      <c r="AO3" s="504"/>
-      <c r="AP3" s="504"/>
-      <c r="AQ3" s="504" t="s">
+      <c r="AK3" s="503"/>
+      <c r="AL3" s="503"/>
+      <c r="AM3" s="503"/>
+      <c r="AN3" s="503"/>
+      <c r="AO3" s="503"/>
+      <c r="AP3" s="503"/>
+      <c r="AQ3" s="503" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="504"/>
-      <c r="AS3" s="504"/>
-      <c r="AT3" s="504"/>
-      <c r="AU3" s="504"/>
-      <c r="AV3" s="504"/>
-      <c r="AW3" s="504"/>
-      <c r="AX3" s="504" t="s">
+      <c r="AR3" s="503"/>
+      <c r="AS3" s="503"/>
+      <c r="AT3" s="503"/>
+      <c r="AU3" s="503"/>
+      <c r="AV3" s="503"/>
+      <c r="AW3" s="503"/>
+      <c r="AX3" s="503" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="504"/>
-      <c r="AZ3" s="504"/>
-      <c r="BA3" s="504"/>
-      <c r="BB3" s="504"/>
-      <c r="BC3" s="504"/>
-      <c r="BD3" s="504"/>
-      <c r="BE3" s="504" t="s">
+      <c r="AY3" s="503"/>
+      <c r="AZ3" s="503"/>
+      <c r="BA3" s="503"/>
+      <c r="BB3" s="503"/>
+      <c r="BC3" s="503"/>
+      <c r="BD3" s="503"/>
+      <c r="BE3" s="503" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="504"/>
-      <c r="BG3" s="504"/>
-      <c r="BH3" s="504"/>
-      <c r="BI3" s="504"/>
-      <c r="BJ3" s="504"/>
-      <c r="BK3" s="504"/>
-      <c r="BL3" s="504" t="s">
+      <c r="BF3" s="503"/>
+      <c r="BG3" s="503"/>
+      <c r="BH3" s="503"/>
+      <c r="BI3" s="503"/>
+      <c r="BJ3" s="503"/>
+      <c r="BK3" s="503"/>
+      <c r="BL3" s="503" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="504"/>
-      <c r="BN3" s="504"/>
-      <c r="BO3" s="504"/>
-      <c r="BP3" s="504"/>
-      <c r="BQ3" s="504"/>
-      <c r="BR3" s="504"/>
-      <c r="BS3" s="504" t="s">
+      <c r="BM3" s="503"/>
+      <c r="BN3" s="503"/>
+      <c r="BO3" s="503"/>
+      <c r="BP3" s="503"/>
+      <c r="BQ3" s="503"/>
+      <c r="BR3" s="503"/>
+      <c r="BS3" s="503" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="504"/>
-      <c r="BU3" s="504"/>
-      <c r="BV3" s="504"/>
-      <c r="BW3" s="504"/>
-      <c r="BX3" s="504"/>
-      <c r="BY3" s="504"/>
-      <c r="BZ3" s="504" t="s">
+      <c r="BT3" s="503"/>
+      <c r="BU3" s="503"/>
+      <c r="BV3" s="503"/>
+      <c r="BW3" s="503"/>
+      <c r="BX3" s="503"/>
+      <c r="BY3" s="503"/>
+      <c r="BZ3" s="503" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="504"/>
-      <c r="CB3" s="504"/>
-      <c r="CC3" s="504"/>
-      <c r="CD3" s="504"/>
-      <c r="CE3" s="504"/>
-      <c r="CF3" s="504"/>
-      <c r="CG3" s="504" t="s">
+      <c r="CA3" s="503"/>
+      <c r="CB3" s="503"/>
+      <c r="CC3" s="503"/>
+      <c r="CD3" s="503"/>
+      <c r="CE3" s="503"/>
+      <c r="CF3" s="503"/>
+      <c r="CG3" s="503" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="504"/>
-      <c r="CI3" s="504"/>
-      <c r="CJ3" s="504"/>
-      <c r="CK3" s="504"/>
-      <c r="CL3" s="504"/>
-      <c r="CM3" s="504"/>
-      <c r="CN3" s="504" t="s">
+      <c r="CH3" s="503"/>
+      <c r="CI3" s="503"/>
+      <c r="CJ3" s="503"/>
+      <c r="CK3" s="503"/>
+      <c r="CL3" s="503"/>
+      <c r="CM3" s="503"/>
+      <c r="CN3" s="503" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="504"/>
-      <c r="CP3" s="504"/>
-      <c r="CQ3" s="504"/>
-      <c r="CR3" s="504"/>
-      <c r="CS3" s="504"/>
-      <c r="CT3" s="504"/>
-      <c r="CU3" s="504" t="s">
+      <c r="CO3" s="503"/>
+      <c r="CP3" s="503"/>
+      <c r="CQ3" s="503"/>
+      <c r="CR3" s="503"/>
+      <c r="CS3" s="503"/>
+      <c r="CT3" s="503"/>
+      <c r="CU3" s="503" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="504"/>
-      <c r="CW3" s="504"/>
-      <c r="CX3" s="504"/>
-      <c r="CY3" s="504"/>
-      <c r="CZ3" s="504"/>
-      <c r="DA3" s="504"/>
-      <c r="DB3" s="504" t="s">
+      <c r="CV3" s="503"/>
+      <c r="CW3" s="503"/>
+      <c r="CX3" s="503"/>
+      <c r="CY3" s="503"/>
+      <c r="CZ3" s="503"/>
+      <c r="DA3" s="503"/>
+      <c r="DB3" s="503" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="504"/>
-      <c r="DD3" s="504"/>
-      <c r="DE3" s="504"/>
-      <c r="DF3" s="504"/>
-      <c r="DG3" s="504"/>
-      <c r="DH3" s="504"/>
-      <c r="DI3" s="504" t="s">
+      <c r="DC3" s="503"/>
+      <c r="DD3" s="503"/>
+      <c r="DE3" s="503"/>
+      <c r="DF3" s="503"/>
+      <c r="DG3" s="503"/>
+      <c r="DH3" s="503"/>
+      <c r="DI3" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="504"/>
-      <c r="DK3" s="504"/>
-      <c r="DL3" s="504"/>
-      <c r="DM3" s="504"/>
-      <c r="DN3" s="504"/>
-      <c r="DO3" s="504"/>
-      <c r="DP3" s="504" t="s">
+      <c r="DJ3" s="503"/>
+      <c r="DK3" s="503"/>
+      <c r="DL3" s="503"/>
+      <c r="DM3" s="503"/>
+      <c r="DN3" s="503"/>
+      <c r="DO3" s="503"/>
+      <c r="DP3" s="503" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="504"/>
-      <c r="DR3" s="504"/>
-      <c r="DS3" s="504"/>
-      <c r="DT3" s="504"/>
-      <c r="DU3" s="504"/>
-      <c r="DV3" s="504"/>
-      <c r="DW3" s="504" t="s">
+      <c r="DQ3" s="503"/>
+      <c r="DR3" s="503"/>
+      <c r="DS3" s="503"/>
+      <c r="DT3" s="503"/>
+      <c r="DU3" s="503"/>
+      <c r="DV3" s="503"/>
+      <c r="DW3" s="503" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="504"/>
-      <c r="DY3" s="504"/>
-      <c r="DZ3" s="504"/>
-      <c r="EA3" s="504"/>
-      <c r="EB3" s="504"/>
-      <c r="EC3" s="504"/>
-      <c r="ED3" s="504" t="s">
+      <c r="DX3" s="503"/>
+      <c r="DY3" s="503"/>
+      <c r="DZ3" s="503"/>
+      <c r="EA3" s="503"/>
+      <c r="EB3" s="503"/>
+      <c r="EC3" s="503"/>
+      <c r="ED3" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="504"/>
-      <c r="EF3" s="504"/>
-      <c r="EG3" s="504"/>
-      <c r="EH3" s="504"/>
-      <c r="EI3" s="504"/>
-      <c r="EJ3" s="504"/>
-      <c r="EK3" s="504" t="s">
+      <c r="EE3" s="503"/>
+      <c r="EF3" s="503"/>
+      <c r="EG3" s="503"/>
+      <c r="EH3" s="503"/>
+      <c r="EI3" s="503"/>
+      <c r="EJ3" s="503"/>
+      <c r="EK3" s="503" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="504"/>
-      <c r="EM3" s="504"/>
-      <c r="EN3" s="504"/>
-      <c r="EO3" s="504"/>
-      <c r="EP3" s="504"/>
-      <c r="EQ3" s="504"/>
-      <c r="ER3" s="504" t="s">
+      <c r="EL3" s="503"/>
+      <c r="EM3" s="503"/>
+      <c r="EN3" s="503"/>
+      <c r="EO3" s="503"/>
+      <c r="EP3" s="503"/>
+      <c r="EQ3" s="503"/>
+      <c r="ER3" s="503" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="504"/>
-      <c r="ET3" s="504"/>
-      <c r="EU3" s="504"/>
-      <c r="EV3" s="504"/>
-      <c r="EW3" s="504"/>
-      <c r="EX3" s="504"/>
-      <c r="EY3" s="504" t="s">
+      <c r="ES3" s="503"/>
+      <c r="ET3" s="503"/>
+      <c r="EU3" s="503"/>
+      <c r="EV3" s="503"/>
+      <c r="EW3" s="503"/>
+      <c r="EX3" s="503"/>
+      <c r="EY3" s="503" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="504"/>
-      <c r="FA3" s="504"/>
-      <c r="FB3" s="504"/>
-      <c r="FC3" s="504"/>
-      <c r="FD3" s="504"/>
-      <c r="FE3" s="504"/>
-      <c r="FF3" s="504" t="s">
+      <c r="EZ3" s="503"/>
+      <c r="FA3" s="503"/>
+      <c r="FB3" s="503"/>
+      <c r="FC3" s="503"/>
+      <c r="FD3" s="503"/>
+      <c r="FE3" s="503"/>
+      <c r="FF3" s="503" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="504"/>
-      <c r="FH3" s="504"/>
-      <c r="FI3" s="504"/>
-      <c r="FJ3" s="504"/>
-      <c r="FK3" s="504"/>
-      <c r="FL3" s="504"/>
-      <c r="FM3" s="504" t="s">
+      <c r="FG3" s="503"/>
+      <c r="FH3" s="503"/>
+      <c r="FI3" s="503"/>
+      <c r="FJ3" s="503"/>
+      <c r="FK3" s="503"/>
+      <c r="FL3" s="503"/>
+      <c r="FM3" s="503" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="504"/>
-      <c r="FO3" s="504"/>
-      <c r="FP3" s="504"/>
-      <c r="FQ3" s="504"/>
-      <c r="FR3" s="504"/>
-      <c r="FS3" s="504"/>
-      <c r="FT3" s="504" t="s">
+      <c r="FN3" s="503"/>
+      <c r="FO3" s="503"/>
+      <c r="FP3" s="503"/>
+      <c r="FQ3" s="503"/>
+      <c r="FR3" s="503"/>
+      <c r="FS3" s="503"/>
+      <c r="FT3" s="503" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="504"/>
-      <c r="FV3" s="504"/>
-      <c r="FW3" s="504"/>
-      <c r="FX3" s="504"/>
-      <c r="FY3" s="504"/>
-      <c r="FZ3" s="504"/>
-      <c r="GA3" s="504" t="s">
+      <c r="FU3" s="503"/>
+      <c r="FV3" s="503"/>
+      <c r="FW3" s="503"/>
+      <c r="FX3" s="503"/>
+      <c r="FY3" s="503"/>
+      <c r="FZ3" s="503"/>
+      <c r="GA3" s="503" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="504"/>
-      <c r="GC3" s="504"/>
-      <c r="GD3" s="504"/>
-      <c r="GE3" s="504"/>
-      <c r="GF3" s="504"/>
-      <c r="GG3" s="504"/>
-      <c r="GH3" s="504" t="s">
+      <c r="GB3" s="503"/>
+      <c r="GC3" s="503"/>
+      <c r="GD3" s="503"/>
+      <c r="GE3" s="503"/>
+      <c r="GF3" s="503"/>
+      <c r="GG3" s="503"/>
+      <c r="GH3" s="503" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="504"/>
-      <c r="GJ3" s="504"/>
-      <c r="GK3" s="504"/>
-      <c r="GL3" s="504"/>
-      <c r="GM3" s="504"/>
-      <c r="GN3" s="504"/>
-      <c r="GO3" s="504" t="s">
+      <c r="GI3" s="503"/>
+      <c r="GJ3" s="503"/>
+      <c r="GK3" s="503"/>
+      <c r="GL3" s="503"/>
+      <c r="GM3" s="503"/>
+      <c r="GN3" s="503"/>
+      <c r="GO3" s="503" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="504"/>
-      <c r="GQ3" s="504"/>
-      <c r="GR3" s="504"/>
-      <c r="GS3" s="504"/>
-      <c r="GT3" s="504"/>
-      <c r="GU3" s="504"/>
-      <c r="GV3" s="504" t="s">
+      <c r="GP3" s="503"/>
+      <c r="GQ3" s="503"/>
+      <c r="GR3" s="503"/>
+      <c r="GS3" s="503"/>
+      <c r="GT3" s="503"/>
+      <c r="GU3" s="503"/>
+      <c r="GV3" s="503" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="504"/>
-      <c r="GX3" s="504"/>
-      <c r="GY3" s="504"/>
-      <c r="GZ3" s="504"/>
-      <c r="HA3" s="504"/>
-      <c r="HB3" s="504"/>
-      <c r="HC3" s="504" t="s">
+      <c r="GW3" s="503"/>
+      <c r="GX3" s="503"/>
+      <c r="GY3" s="503"/>
+      <c r="GZ3" s="503"/>
+      <c r="HA3" s="503"/>
+      <c r="HB3" s="503"/>
+      <c r="HC3" s="503" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="504"/>
-      <c r="HE3" s="504"/>
-      <c r="HF3" s="504"/>
-      <c r="HG3" s="504"/>
-      <c r="HH3" s="504"/>
-      <c r="HI3" s="504"/>
-      <c r="HJ3" s="504" t="s">
+      <c r="HD3" s="503"/>
+      <c r="HE3" s="503"/>
+      <c r="HF3" s="503"/>
+      <c r="HG3" s="503"/>
+      <c r="HH3" s="503"/>
+      <c r="HI3" s="503"/>
+      <c r="HJ3" s="503" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="504"/>
-      <c r="HL3" s="504"/>
-      <c r="HM3" s="504"/>
-      <c r="HN3" s="504"/>
-      <c r="HO3" s="504"/>
-      <c r="HP3" s="504"/>
-      <c r="HQ3" s="504" t="s">
+      <c r="HK3" s="503"/>
+      <c r="HL3" s="503"/>
+      <c r="HM3" s="503"/>
+      <c r="HN3" s="503"/>
+      <c r="HO3" s="503"/>
+      <c r="HP3" s="503"/>
+      <c r="HQ3" s="503" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="504"/>
-      <c r="HS3" s="504"/>
-      <c r="HT3" s="504"/>
-      <c r="HU3" s="504"/>
-      <c r="HV3" s="504"/>
-      <c r="HW3" s="504"/>
-      <c r="HX3" s="504" t="s">
+      <c r="HR3" s="503"/>
+      <c r="HS3" s="503"/>
+      <c r="HT3" s="503"/>
+      <c r="HU3" s="503"/>
+      <c r="HV3" s="503"/>
+      <c r="HW3" s="503"/>
+      <c r="HX3" s="503" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="504"/>
-      <c r="HZ3" s="504"/>
-      <c r="IA3" s="504"/>
-      <c r="IB3" s="504"/>
-      <c r="IC3" s="504"/>
-      <c r="ID3" s="504"/>
+      <c r="HY3" s="503"/>
+      <c r="HZ3" s="503"/>
+      <c r="IA3" s="503"/>
+      <c r="IB3" s="503"/>
+      <c r="IC3" s="503"/>
+      <c r="ID3" s="503"/>
     </row>
     <row r="4" spans="1:238" s="429" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="500"/>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="509"/>
       <c r="G4" s="443" t="s">
         <v>58</v>
       </c>
@@ -16947,10 +16947,10 @@
       <c r="J4" s="442" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="502"/>
-      <c r="L4" s="502"/>
-      <c r="M4" s="500"/>
-      <c r="N4" s="500"/>
+      <c r="K4" s="509"/>
+      <c r="L4" s="509"/>
+      <c r="M4" s="507"/>
+      <c r="N4" s="507"/>
       <c r="O4" s="471">
         <v>43497</v>
       </c>
@@ -29754,6 +29754,43 @@
   </sheetData>
   <autoFilter ref="A4:XEI375" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O2:AP2"/>
+    <mergeCell ref="AQ2:BU2"/>
+    <mergeCell ref="BV2:CY2"/>
+    <mergeCell ref="CZ2:ED2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="FI2:GM2"/>
+    <mergeCell ref="GN2:HR2"/>
+    <mergeCell ref="HS2:ID2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="FM3:FS3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="GH3:GN3"/>
+    <mergeCell ref="GO3:GU3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="GV3:HB3"/>
     <mergeCell ref="HC3:HI3"/>
@@ -29770,43 +29807,6 @@
     <mergeCell ref="DP3:DV3"/>
     <mergeCell ref="DW3:EC3"/>
     <mergeCell ref="EE2:FH2"/>
-    <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
-    <mergeCell ref="GH3:GN3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="FI2:GM2"/>
-    <mergeCell ref="GN2:HR2"/>
-    <mergeCell ref="HS2:ID2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O2:AP2"/>
-    <mergeCell ref="AQ2:BU2"/>
-    <mergeCell ref="BV2:CY2"/>
-    <mergeCell ref="CZ2:ED2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.118055555555556" bottom="0.118055555555556" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -33961,26 +33961,26 @@
       <c r="F2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
-      <c r="L2" s="511"/>
-      <c r="M2" s="511"/>
-      <c r="N2" s="511"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="512" t="s">
+      <c r="C3" s="517" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -35067,53 +35067,53 @@
       <c r="J42" s="93"/>
     </row>
     <row r="43" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B43" s="513" t="s">
+      <c r="B43" s="518" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="514"/>
-      <c r="D43" s="514"/>
-      <c r="E43" s="514"/>
-      <c r="F43" s="514"/>
-      <c r="G43" s="515"/>
+      <c r="C43" s="519"/>
+      <c r="D43" s="519"/>
+      <c r="E43" s="519"/>
+      <c r="F43" s="519"/>
+      <c r="G43" s="520"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
     </row>
     <row r="44" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B44" s="505" t="s">
+      <c r="B44" s="510" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="506"/>
-      <c r="D44" s="506"/>
-      <c r="E44" s="506"/>
-      <c r="F44" s="506"/>
-      <c r="G44" s="507"/>
+      <c r="C44" s="511"/>
+      <c r="D44" s="511"/>
+      <c r="E44" s="511"/>
+      <c r="F44" s="511"/>
+      <c r="G44" s="512"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
     </row>
     <row r="45" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B45" s="513" t="s">
+      <c r="B45" s="518" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="514"/>
-      <c r="D45" s="514"/>
-      <c r="E45" s="514"/>
-      <c r="F45" s="514"/>
-      <c r="G45" s="515"/>
+      <c r="C45" s="519"/>
+      <c r="D45" s="519"/>
+      <c r="E45" s="519"/>
+      <c r="F45" s="519"/>
+      <c r="G45" s="520"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
     </row>
     <row r="46" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B46" s="505" t="s">
+      <c r="B46" s="510" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="506"/>
-      <c r="D46" s="506"/>
-      <c r="E46" s="506"/>
-      <c r="F46" s="506"/>
-      <c r="G46" s="507"/>
+      <c r="C46" s="511"/>
+      <c r="D46" s="511"/>
+      <c r="E46" s="511"/>
+      <c r="F46" s="511"/>
+      <c r="G46" s="512"/>
       <c r="H46" s="31"/>
       <c r="I46" s="93"/>
       <c r="J46" s="93"/>
@@ -35147,13 +35147,13 @@
       <c r="B49" s="391" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="508" t="s">
+      <c r="C49" s="513" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="509"/>
-      <c r="E49" s="509"/>
-      <c r="F49" s="509"/>
-      <c r="G49" s="510"/>
+      <c r="D49" s="514"/>
+      <c r="E49" s="514"/>
+      <c r="F49" s="514"/>
+      <c r="G49" s="515"/>
       <c r="H49" s="31"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93"/>
@@ -35162,13 +35162,13 @@
       <c r="B50" s="391" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="508" t="s">
+      <c r="C50" s="513" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="509"/>
-      <c r="E50" s="509"/>
-      <c r="F50" s="509"/>
-      <c r="G50" s="510"/>
+      <c r="D50" s="514"/>
+      <c r="E50" s="514"/>
+      <c r="F50" s="514"/>
+      <c r="G50" s="515"/>
       <c r="H50" s="31"/>
       <c r="I50" s="93"/>
       <c r="J50" s="93"/>
@@ -35177,13 +35177,13 @@
       <c r="B51" s="391" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="508" t="s">
+      <c r="C51" s="513" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="509"/>
-      <c r="E51" s="509"/>
-      <c r="F51" s="509"/>
-      <c r="G51" s="510"/>
+      <c r="D51" s="514"/>
+      <c r="E51" s="514"/>
+      <c r="F51" s="514"/>
+      <c r="G51" s="515"/>
       <c r="H51" s="31"/>
       <c r="I51" s="93"/>
       <c r="J51" s="93"/>
@@ -35249,16 +35249,16 @@
       <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="511" t="s">
+      <c r="E2" s="516" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
-      <c r="L2" s="511"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="J3" s="6" t="s">
@@ -35267,17 +35267,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="339" customFormat="1" ht="15.75">
-      <c r="A4" s="516" t="s">
+      <c r="A4" s="545" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="516"/>
-      <c r="C4" s="516"/>
-      <c r="D4" s="516"/>
-      <c r="E4" s="516"/>
-      <c r="F4" s="516"/>
-      <c r="G4" s="516"/>
-      <c r="H4" s="516"/>
-      <c r="I4" s="516"/>
+      <c r="B4" s="545"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="545"/>
+      <c r="E4" s="545"/>
+      <c r="F4" s="545"/>
+      <c r="G4" s="545"/>
+      <c r="H4" s="545"/>
+      <c r="I4" s="545"/>
     </row>
     <row r="5" spans="1:14" s="340" customFormat="1" ht="16.5">
       <c r="A5" s="344" t="s">
@@ -35295,12 +35295,12 @@
       <c r="E5" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="517" t="s">
+      <c r="F5" s="546" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="517"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="517"/>
+      <c r="G5" s="546"/>
+      <c r="H5" s="546"/>
+      <c r="I5" s="546"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35333,12 +35333,12 @@
       <c r="E6" s="345">
         <v>0</v>
       </c>
-      <c r="F6" s="518" t="s">
+      <c r="F6" s="536" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="519"/>
-      <c r="H6" s="519"/>
-      <c r="I6" s="520"/>
+      <c r="G6" s="537"/>
+      <c r="H6" s="537"/>
+      <c r="I6" s="538"/>
       <c r="J6" s="345" t="s">
         <v>374</v>
       </c>
@@ -35369,12 +35369,12 @@
       <c r="E7" s="346">
         <v>0</v>
       </c>
-      <c r="F7" s="521" t="s">
+      <c r="F7" s="530" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="522"/>
-      <c r="H7" s="522"/>
-      <c r="I7" s="523"/>
+      <c r="G7" s="548"/>
+      <c r="H7" s="548"/>
+      <c r="I7" s="549"/>
       <c r="J7" s="346" t="s">
         <v>376</v>
       </c>
@@ -35405,12 +35405,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="346"/>
-      <c r="F8" s="524" t="s">
+      <c r="F8" s="521" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="525"/>
-      <c r="H8" s="525"/>
-      <c r="I8" s="526"/>
+      <c r="G8" s="522"/>
+      <c r="H8" s="522"/>
+      <c r="I8" s="523"/>
       <c r="J8" s="346" t="s">
         <v>379</v>
       </c>
@@ -35443,12 +35443,12 @@
       <c r="E9" s="345">
         <v>0</v>
       </c>
-      <c r="F9" s="518" t="s">
+      <c r="F9" s="536" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="519"/>
-      <c r="H9" s="519"/>
-      <c r="I9" s="520"/>
+      <c r="G9" s="537"/>
+      <c r="H9" s="537"/>
+      <c r="I9" s="538"/>
       <c r="J9" s="345" t="s">
         <v>383</v>
       </c>
@@ -35481,12 +35481,12 @@
       <c r="E10" s="346">
         <v>0</v>
       </c>
-      <c r="F10" s="524" t="s">
+      <c r="F10" s="521" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="525"/>
-      <c r="H10" s="525"/>
-      <c r="I10" s="526"/>
+      <c r="G10" s="522"/>
+      <c r="H10" s="522"/>
+      <c r="I10" s="523"/>
       <c r="J10" s="346" t="s">
         <v>386</v>
       </c>
@@ -35517,12 +35517,12 @@
       <c r="E11" s="346">
         <v>0</v>
       </c>
-      <c r="F11" s="524" t="s">
+      <c r="F11" s="521" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="525"/>
-      <c r="H11" s="525"/>
-      <c r="I11" s="526"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="523"/>
       <c r="J11" s="346" t="s">
         <v>318</v>
       </c>
@@ -35553,12 +35553,12 @@
       <c r="E12" s="346">
         <v>3</v>
       </c>
-      <c r="F12" s="524" t="s">
+      <c r="F12" s="521" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="525"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="526"/>
+      <c r="G12" s="522"/>
+      <c r="H12" s="522"/>
+      <c r="I12" s="523"/>
       <c r="J12" s="346" t="s">
         <v>389</v>
       </c>
@@ -35589,12 +35589,12 @@
       <c r="E13" s="346">
         <v>3</v>
       </c>
-      <c r="F13" s="524" t="s">
+      <c r="F13" s="521" t="s">
         <v>394</v>
       </c>
-      <c r="G13" s="525"/>
-      <c r="H13" s="525"/>
-      <c r="I13" s="526"/>
+      <c r="G13" s="522"/>
+      <c r="H13" s="522"/>
+      <c r="I13" s="523"/>
       <c r="J13" s="346" t="s">
         <v>392</v>
       </c>
@@ -35625,12 +35625,12 @@
       <c r="E14" s="346">
         <v>0</v>
       </c>
-      <c r="F14" s="524" t="s">
+      <c r="F14" s="521" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="525"/>
-      <c r="H14" s="525"/>
-      <c r="I14" s="526"/>
+      <c r="G14" s="522"/>
+      <c r="H14" s="522"/>
+      <c r="I14" s="523"/>
       <c r="J14" s="346" t="s">
         <v>395</v>
       </c>
@@ -35663,12 +35663,12 @@
       <c r="E15" s="346">
         <v>3</v>
       </c>
-      <c r="F15" s="524" t="s">
+      <c r="F15" s="521" t="s">
         <v>401</v>
       </c>
-      <c r="G15" s="525"/>
-      <c r="H15" s="525"/>
-      <c r="I15" s="526"/>
+      <c r="G15" s="522"/>
+      <c r="H15" s="522"/>
+      <c r="I15" s="523"/>
       <c r="J15" s="346" t="s">
         <v>399</v>
       </c>
@@ -35699,12 +35699,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="346"/>
-      <c r="F16" s="524" t="s">
+      <c r="F16" s="521" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="525"/>
-      <c r="H16" s="525"/>
-      <c r="I16" s="526"/>
+      <c r="G16" s="522"/>
+      <c r="H16" s="522"/>
+      <c r="I16" s="523"/>
       <c r="J16" s="346" t="s">
         <v>403</v>
       </c>
@@ -35731,12 +35731,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="346"/>
-      <c r="F17" s="524" t="s">
+      <c r="F17" s="521" t="s">
         <v>411</v>
       </c>
-      <c r="G17" s="525"/>
-      <c r="H17" s="525"/>
-      <c r="I17" s="526"/>
+      <c r="G17" s="522"/>
+      <c r="H17" s="522"/>
+      <c r="I17" s="523"/>
       <c r="J17" s="346" t="s">
         <v>408</v>
       </c>
@@ -35763,12 +35763,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="346"/>
-      <c r="F18" s="524" t="s">
+      <c r="F18" s="521" t="s">
         <v>414</v>
       </c>
-      <c r="G18" s="525"/>
-      <c r="H18" s="525"/>
-      <c r="I18" s="526"/>
+      <c r="G18" s="522"/>
+      <c r="H18" s="522"/>
+      <c r="I18" s="523"/>
       <c r="J18" s="346" t="s">
         <v>412</v>
       </c>
@@ -35795,12 +35795,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="346"/>
-      <c r="F19" s="524" t="s">
+      <c r="F19" s="521" t="s">
         <v>417</v>
       </c>
-      <c r="G19" s="525"/>
-      <c r="H19" s="525"/>
-      <c r="I19" s="526"/>
+      <c r="G19" s="522"/>
+      <c r="H19" s="522"/>
+      <c r="I19" s="523"/>
       <c r="J19" s="346" t="s">
         <v>415</v>
       </c>
@@ -35827,12 +35827,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="346"/>
-      <c r="F20" s="527" t="s">
+      <c r="F20" s="547" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="525"/>
-      <c r="H20" s="525"/>
-      <c r="I20" s="526"/>
+      <c r="G20" s="522"/>
+      <c r="H20" s="522"/>
+      <c r="I20" s="523"/>
       <c r="J20" s="346" t="s">
         <v>418</v>
       </c>
@@ -35859,12 +35859,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="346"/>
-      <c r="F21" s="527" t="s">
+      <c r="F21" s="547" t="s">
         <v>423</v>
       </c>
-      <c r="G21" s="525"/>
-      <c r="H21" s="525"/>
-      <c r="I21" s="526"/>
+      <c r="G21" s="522"/>
+      <c r="H21" s="522"/>
+      <c r="I21" s="523"/>
       <c r="J21" s="346" t="s">
         <v>421</v>
       </c>
@@ -35891,12 +35891,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="346"/>
-      <c r="F22" s="528" t="s">
+      <c r="F22" s="529" t="s">
         <v>425</v>
       </c>
-      <c r="G22" s="528"/>
-      <c r="H22" s="528"/>
-      <c r="I22" s="528"/>
+      <c r="G22" s="529"/>
+      <c r="H22" s="529"/>
+      <c r="I22" s="529"/>
       <c r="J22" s="346" t="s">
         <v>323</v>
       </c>
@@ -35927,12 +35927,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="345"/>
-      <c r="F23" s="529" t="s">
+      <c r="F23" s="542" t="s">
         <v>427</v>
       </c>
-      <c r="G23" s="530"/>
-      <c r="H23" s="530"/>
-      <c r="I23" s="531"/>
+      <c r="G23" s="543"/>
+      <c r="H23" s="543"/>
+      <c r="I23" s="544"/>
       <c r="J23" s="345" t="s">
         <v>426</v>
       </c>
@@ -35959,12 +35959,12 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="346"/>
-      <c r="F24" s="521" t="s">
+      <c r="F24" s="530" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="525"/>
-      <c r="H24" s="525"/>
-      <c r="I24" s="525"/>
+      <c r="G24" s="522"/>
+      <c r="H24" s="522"/>
+      <c r="I24" s="522"/>
       <c r="J24" s="367"/>
       <c r="K24" s="367"/>
       <c r="L24" s="367"/>
@@ -35975,17 +35975,17 @@
       <c r="Q24" s="368"/>
     </row>
     <row r="25" spans="1:18" s="341" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="516" t="s">
+      <c r="A25" s="545" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="516"/>
-      <c r="C25" s="516"/>
-      <c r="D25" s="516"/>
-      <c r="E25" s="516"/>
-      <c r="F25" s="516"/>
-      <c r="G25" s="516"/>
-      <c r="H25" s="516"/>
-      <c r="I25" s="516"/>
+      <c r="B25" s="545"/>
+      <c r="C25" s="545"/>
+      <c r="D25" s="545"/>
+      <c r="E25" s="545"/>
+      <c r="F25" s="545"/>
+      <c r="G25" s="545"/>
+      <c r="H25" s="545"/>
+      <c r="I25" s="545"/>
       <c r="J25" s="369" t="s">
         <v>431</v>
       </c>
@@ -36014,12 +36014,12 @@
       <c r="E26" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="517" t="s">
+      <c r="F26" s="546" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="517"/>
-      <c r="H26" s="517"/>
-      <c r="I26" s="517"/>
+      <c r="G26" s="546"/>
+      <c r="H26" s="546"/>
+      <c r="I26" s="546"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36056,12 +36056,12 @@
       <c r="E27" s="345">
         <v>0</v>
       </c>
-      <c r="F27" s="518" t="s">
+      <c r="F27" s="536" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="519"/>
-      <c r="H27" s="519"/>
-      <c r="I27" s="520"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="537"/>
+      <c r="I27" s="538"/>
       <c r="J27" s="362" t="s">
         <v>374</v>
       </c>
@@ -36090,12 +36090,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="345"/>
-      <c r="F28" s="518" t="s">
+      <c r="F28" s="536" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="519"/>
-      <c r="H28" s="519"/>
-      <c r="I28" s="520"/>
+      <c r="G28" s="537"/>
+      <c r="H28" s="537"/>
+      <c r="I28" s="538"/>
       <c r="J28" s="365" t="s">
         <v>433</v>
       </c>
@@ -36124,12 +36124,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="346"/>
-      <c r="F29" s="524" t="s">
+      <c r="F29" s="521" t="s">
         <v>437</v>
       </c>
-      <c r="G29" s="525"/>
-      <c r="H29" s="525"/>
-      <c r="I29" s="526"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="522"/>
+      <c r="I29" s="523"/>
       <c r="J29" s="346" t="s">
         <v>436</v>
       </c>
@@ -36161,12 +36161,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="346"/>
-      <c r="F30" s="524" t="s">
+      <c r="F30" s="521" t="s">
         <v>439</v>
       </c>
-      <c r="G30" s="525"/>
-      <c r="H30" s="525"/>
-      <c r="I30" s="526"/>
+      <c r="G30" s="522"/>
+      <c r="H30" s="522"/>
+      <c r="I30" s="523"/>
       <c r="J30" s="246" t="s">
         <v>440</v>
       </c>
@@ -36199,12 +36199,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="246"/>
-      <c r="F31" s="528" t="s">
+      <c r="F31" s="529" t="s">
         <v>444</v>
       </c>
-      <c r="G31" s="528"/>
-      <c r="H31" s="528"/>
-      <c r="I31" s="528"/>
+      <c r="G31" s="529"/>
+      <c r="H31" s="529"/>
+      <c r="I31" s="529"/>
       <c r="J31" s="246" t="s">
         <v>443</v>
       </c>
@@ -36233,12 +36233,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="246"/>
-      <c r="F32" s="532" t="s">
+      <c r="F32" s="539" t="s">
         <v>448</v>
       </c>
-      <c r="G32" s="533"/>
-      <c r="H32" s="533"/>
-      <c r="I32" s="534"/>
+      <c r="G32" s="540"/>
+      <c r="H32" s="540"/>
+      <c r="I32" s="541"/>
       <c r="J32" s="246" t="s">
         <v>447</v>
       </c>
@@ -36267,12 +36267,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="353"/>
-      <c r="F33" s="535" t="s">
+      <c r="F33" s="526" t="s">
         <v>451</v>
       </c>
-      <c r="G33" s="536"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="537"/>
+      <c r="G33" s="527"/>
+      <c r="H33" s="527"/>
+      <c r="I33" s="528"/>
       <c r="J33" s="351" t="s">
         <v>450</v>
       </c>
@@ -36309,12 +36309,12 @@
       <c r="E34" s="354">
         <v>0</v>
       </c>
-      <c r="F34" s="528" t="s">
+      <c r="F34" s="529" t="s">
         <v>425</v>
       </c>
-      <c r="G34" s="528"/>
-      <c r="H34" s="528"/>
-      <c r="I34" s="528"/>
+      <c r="G34" s="529"/>
+      <c r="H34" s="529"/>
+      <c r="I34" s="529"/>
       <c r="J34" s="346" t="s">
         <v>323</v>
       </c>
@@ -36344,12 +36344,12 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="346"/>
-      <c r="F35" s="521" t="s">
+      <c r="F35" s="530" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="525"/>
-      <c r="H35" s="525"/>
-      <c r="I35" s="525"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="522"/>
+      <c r="I35" s="522"/>
       <c r="J35" s="369" t="s">
         <v>453</v>
       </c>
@@ -36373,24 +36373,24 @@
       <c r="Q36" s="340"/>
     </row>
     <row r="37" spans="1:18" s="342" customFormat="1" ht="16.5">
-      <c r="A37" s="538" t="s">
+      <c r="A37" s="531" t="s">
         <v>454</v>
       </c>
-      <c r="B37" s="539"/>
-      <c r="C37" s="539"/>
-      <c r="D37" s="539"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="539"/>
-      <c r="G37" s="539"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540" t="s">
+      <c r="B37" s="532"/>
+      <c r="C37" s="532"/>
+      <c r="D37" s="532"/>
+      <c r="E37" s="532"/>
+      <c r="F37" s="532"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="532"/>
+      <c r="I37" s="532"/>
+      <c r="J37" s="533" t="s">
         <v>455</v>
       </c>
-      <c r="K37" s="541"/>
-      <c r="L37" s="541"/>
-      <c r="M37" s="541"/>
-      <c r="N37" s="542"/>
+      <c r="K37" s="534"/>
+      <c r="L37" s="534"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="535"/>
     </row>
     <row r="38" spans="1:18" s="342" customFormat="1" ht="16.5">
       <c r="A38" s="344" t="s">
@@ -36408,12 +36408,12 @@
       <c r="E38" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="543" t="s">
+      <c r="F38" s="524" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="544"/>
-      <c r="H38" s="544"/>
-      <c r="I38" s="544"/>
+      <c r="G38" s="525"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="525"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -36446,12 +36446,12 @@
       <c r="E39" s="346">
         <v>0</v>
       </c>
-      <c r="F39" s="524" t="s">
+      <c r="F39" s="521" t="s">
         <v>375</v>
       </c>
-      <c r="G39" s="525"/>
-      <c r="H39" s="525"/>
-      <c r="I39" s="525"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="522"/>
+      <c r="I39" s="522"/>
       <c r="J39" s="100" t="s">
         <v>374</v>
       </c>
@@ -36482,12 +36482,12 @@
       <c r="E40" s="346">
         <v>0</v>
       </c>
-      <c r="F40" s="524" t="s">
+      <c r="F40" s="521" t="s">
         <v>458</v>
       </c>
-      <c r="G40" s="525"/>
-      <c r="H40" s="525"/>
-      <c r="I40" s="525"/>
+      <c r="G40" s="522"/>
+      <c r="H40" s="522"/>
+      <c r="I40" s="522"/>
       <c r="J40" s="346" t="s">
         <v>456</v>
       </c>
@@ -36497,12 +36497,12 @@
       <c r="L40" s="346">
         <v>10</v>
       </c>
-      <c r="M40" s="524" t="s">
+      <c r="M40" s="521" t="s">
         <v>458</v>
       </c>
-      <c r="N40" s="525"/>
-      <c r="O40" s="525"/>
-      <c r="P40" s="525"/>
+      <c r="N40" s="522"/>
+      <c r="O40" s="522"/>
+      <c r="P40" s="522"/>
     </row>
     <row r="41" spans="1:18" s="342" customFormat="1" ht="15.75">
       <c r="A41" s="346" t="s">
@@ -36520,12 +36520,12 @@
       <c r="E41" s="346">
         <v>0</v>
       </c>
-      <c r="F41" s="524" t="s">
+      <c r="F41" s="521" t="s">
         <v>460</v>
       </c>
-      <c r="G41" s="525"/>
-      <c r="H41" s="525"/>
-      <c r="I41" s="525"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="522"/>
+      <c r="I41" s="522"/>
       <c r="J41" s="346" t="s">
         <v>459</v>
       </c>
@@ -36535,12 +36535,12 @@
       <c r="L41" s="346">
         <v>4</v>
       </c>
-      <c r="M41" s="524" t="s">
+      <c r="M41" s="521" t="s">
         <v>460</v>
       </c>
-      <c r="N41" s="525"/>
-      <c r="O41" s="525"/>
-      <c r="P41" s="525"/>
+      <c r="N41" s="522"/>
+      <c r="O41" s="522"/>
+      <c r="P41" s="522"/>
     </row>
     <row r="42" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A42" s="346" t="s">
@@ -36558,12 +36558,12 @@
       <c r="E42" s="346">
         <v>0</v>
       </c>
-      <c r="F42" s="524" t="s">
+      <c r="F42" s="521" t="s">
         <v>463</v>
       </c>
-      <c r="G42" s="525"/>
-      <c r="H42" s="525"/>
-      <c r="I42" s="525"/>
+      <c r="G42" s="522"/>
+      <c r="H42" s="522"/>
+      <c r="I42" s="522"/>
       <c r="J42" s="346" t="s">
         <v>461</v>
       </c>
@@ -36573,12 +36573,12 @@
       <c r="L42" s="346">
         <v>4</v>
       </c>
-      <c r="M42" s="524" t="s">
+      <c r="M42" s="521" t="s">
         <v>463</v>
       </c>
-      <c r="N42" s="525"/>
-      <c r="O42" s="525"/>
-      <c r="P42" s="525"/>
+      <c r="N42" s="522"/>
+      <c r="O42" s="522"/>
+      <c r="P42" s="522"/>
     </row>
     <row r="43" spans="1:18" s="341" customFormat="1" ht="15.75">
       <c r="A43" s="346" t="s">
@@ -36596,12 +36596,12 @@
       <c r="E43" s="346">
         <v>0</v>
       </c>
-      <c r="F43" s="524" t="s">
+      <c r="F43" s="521" t="s">
         <v>382</v>
       </c>
-      <c r="G43" s="525"/>
-      <c r="H43" s="525"/>
-      <c r="I43" s="525"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="522"/>
+      <c r="I43" s="522"/>
       <c r="J43" s="346" t="s">
         <v>379</v>
       </c>
@@ -36611,12 +36611,12 @@
       <c r="L43" s="346">
         <v>4</v>
       </c>
-      <c r="M43" s="524" t="s">
+      <c r="M43" s="521" t="s">
         <v>382</v>
       </c>
-      <c r="N43" s="525"/>
-      <c r="O43" s="525"/>
-      <c r="P43" s="525"/>
+      <c r="N43" s="522"/>
+      <c r="O43" s="522"/>
+      <c r="P43" s="522"/>
     </row>
     <row r="44" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A44" s="346" t="s">
@@ -36634,12 +36634,12 @@
       <c r="E44" s="346">
         <v>0</v>
       </c>
-      <c r="F44" s="524" t="s">
+      <c r="F44" s="521" t="s">
         <v>466</v>
       </c>
-      <c r="G44" s="525"/>
-      <c r="H44" s="525"/>
-      <c r="I44" s="525"/>
+      <c r="G44" s="522"/>
+      <c r="H44" s="522"/>
+      <c r="I44" s="522"/>
       <c r="J44" s="346" t="s">
         <v>464</v>
       </c>
@@ -36649,12 +36649,12 @@
       <c r="L44" s="346">
         <v>4</v>
       </c>
-      <c r="M44" s="524" t="s">
+      <c r="M44" s="521" t="s">
         <v>467</v>
       </c>
-      <c r="N44" s="525"/>
-      <c r="O44" s="525"/>
-      <c r="P44" s="525"/>
+      <c r="N44" s="522"/>
+      <c r="O44" s="522"/>
+      <c r="P44" s="522"/>
     </row>
     <row r="45" spans="1:18" s="340" customFormat="1" ht="33">
       <c r="A45" s="346" t="s">
@@ -36672,12 +36672,12 @@
       <c r="E45" s="346">
         <v>0</v>
       </c>
-      <c r="F45" s="524" t="s">
+      <c r="F45" s="521" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="525"/>
-      <c r="H45" s="525"/>
-      <c r="I45" s="525"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="522"/>
+      <c r="I45" s="522"/>
       <c r="J45" s="100" t="s">
         <v>468</v>
       </c>
@@ -36710,12 +36710,12 @@
       <c r="E46" s="346">
         <v>0</v>
       </c>
-      <c r="F46" s="524" t="s">
+      <c r="F46" s="521" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="525"/>
-      <c r="H46" s="525"/>
-      <c r="I46" s="525"/>
+      <c r="G46" s="522"/>
+      <c r="H46" s="522"/>
+      <c r="I46" s="522"/>
       <c r="J46" s="359" t="s">
         <v>326</v>
       </c>
@@ -36746,12 +36746,12 @@
       <c r="E47" s="346">
         <v>0</v>
       </c>
-      <c r="F47" s="524" t="s">
+      <c r="F47" s="521" t="s">
         <v>471</v>
       </c>
-      <c r="G47" s="525"/>
-      <c r="H47" s="525"/>
-      <c r="I47" s="526"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="522"/>
+      <c r="I47" s="523"/>
       <c r="J47" s="100" t="s">
         <v>472</v>
       </c>
@@ -36782,12 +36782,12 @@
       <c r="E48" s="346">
         <v>3</v>
       </c>
-      <c r="F48" s="524" t="s">
+      <c r="F48" s="521" t="s">
         <v>475</v>
       </c>
-      <c r="G48" s="525"/>
-      <c r="H48" s="525"/>
-      <c r="I48" s="526"/>
+      <c r="G48" s="522"/>
+      <c r="H48" s="522"/>
+      <c r="I48" s="523"/>
       <c r="J48" s="100" t="s">
         <v>476</v>
       </c>
@@ -36816,12 +36816,12 @@
       <c r="E49" s="346">
         <v>0</v>
       </c>
-      <c r="F49" s="524" t="s">
+      <c r="F49" s="521" t="s">
         <v>397</v>
       </c>
-      <c r="G49" s="525"/>
-      <c r="H49" s="525"/>
-      <c r="I49" s="526"/>
+      <c r="G49" s="522"/>
+      <c r="H49" s="522"/>
+      <c r="I49" s="523"/>
       <c r="J49" s="346" t="s">
         <v>395</v>
       </c>
@@ -36941,12 +36941,12 @@
       <c r="E53" s="354">
         <v>0</v>
       </c>
-      <c r="F53" s="524" t="s">
+      <c r="F53" s="521" t="s">
         <v>425</v>
       </c>
-      <c r="G53" s="525"/>
-      <c r="H53" s="525"/>
-      <c r="I53" s="526"/>
+      <c r="G53" s="522"/>
+      <c r="H53" s="522"/>
+      <c r="I53" s="523"/>
       <c r="J53" s="346" t="s">
         <v>323</v>
       </c>
@@ -37893,59 +37893,59 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37986,16 +37986,16 @@
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="511" t="s">
+      <c r="D2" s="516" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="516"/>
       <c r="N2" s="331" t="s">
         <v>498</v>
       </c>
@@ -38813,45 +38813,45 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="511" t="s">
+      <c r="D1" s="516" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="550" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="546"/>
-      <c r="C2" s="546"/>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="547"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="552"/>
       <c r="J2" s="227" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="548" t="s">
+      <c r="A3" s="553" t="s">
         <v>545</v>
       </c>
-      <c r="B3" s="549"/>
-      <c r="C3" s="549"/>
-      <c r="D3" s="549"/>
-      <c r="E3" s="549"/>
-      <c r="F3" s="549"/>
-      <c r="G3" s="549"/>
-      <c r="H3" s="549"/>
-      <c r="I3" s="550"/>
+      <c r="B3" s="554"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="555"/>
       <c r="J3" s="6" t="s">
         <v>546</v>
       </c>
@@ -38873,12 +38873,12 @@
       <c r="E4" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="551" t="s">
+      <c r="F4" s="556" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="552"/>
-      <c r="H4" s="552"/>
-      <c r="I4" s="553"/>
+      <c r="G4" s="557"/>
+      <c r="H4" s="557"/>
+      <c r="I4" s="558"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="280" t="s">
@@ -39820,30 +39820,30 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="511" t="s">
+      <c r="D1" s="516" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
       <c r="N1" s="284"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="271" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="554"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="556"/>
+      <c r="B2" s="569"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="571"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
@@ -39897,12 +39897,12 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="557" t="s">
+      <c r="F4" s="572" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="558"/>
-      <c r="H4" s="558"/>
-      <c r="I4" s="559"/>
+      <c r="G4" s="573"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="574"/>
       <c r="J4" s="107"/>
       <c r="K4" s="100"/>
       <c r="L4" s="101"/>
@@ -39925,12 +39925,12 @@
       <c r="E5" s="280">
         <v>0</v>
       </c>
-      <c r="F5" s="560" t="s">
+      <c r="F5" s="575" t="s">
         <v>630</v>
       </c>
-      <c r="G5" s="561"/>
-      <c r="H5" s="561"/>
-      <c r="I5" s="562"/>
+      <c r="G5" s="576"/>
+      <c r="H5" s="576"/>
+      <c r="I5" s="577"/>
       <c r="J5" s="107" t="s">
         <v>621</v>
       </c>
@@ -39963,12 +39963,12 @@
       <c r="E6" s="280">
         <v>0</v>
       </c>
-      <c r="F6" s="560" t="s">
+      <c r="F6" s="575" t="s">
         <v>632</v>
       </c>
-      <c r="G6" s="561"/>
-      <c r="H6" s="561"/>
-      <c r="I6" s="563"/>
+      <c r="G6" s="576"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="578"/>
       <c r="J6" s="107" t="s">
         <v>623</v>
       </c>
@@ -40001,12 +40001,12 @@
       <c r="E7" s="281">
         <v>0</v>
       </c>
-      <c r="F7" s="564" t="s">
+      <c r="F7" s="559" t="s">
         <v>633</v>
       </c>
-      <c r="G7" s="565"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="566"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="561"/>
       <c r="J7" s="280" t="s">
         <v>338</v>
       </c>
@@ -40057,12 +40057,12 @@
       <c r="E9" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="551" t="s">
+      <c r="F9" s="556" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="552"/>
-      <c r="H9" s="552"/>
-      <c r="I9" s="553"/>
+      <c r="G9" s="557"/>
+      <c r="H9" s="557"/>
+      <c r="I9" s="558"/>
       <c r="J9" s="290" t="s">
         <v>635</v>
       </c>
@@ -40087,12 +40087,12 @@
       <c r="E10" s="280">
         <v>0</v>
       </c>
-      <c r="F10" s="567" t="s">
+      <c r="F10" s="562" t="s">
         <v>638</v>
       </c>
-      <c r="G10" s="568"/>
-      <c r="H10" s="568"/>
-      <c r="I10" s="569"/>
+      <c r="G10" s="563"/>
+      <c r="H10" s="563"/>
+      <c r="I10" s="564"/>
       <c r="J10" s="280" t="s">
         <v>637</v>
       </c>
@@ -40121,12 +40121,12 @@
       <c r="E11" s="280">
         <v>0</v>
       </c>
-      <c r="F11" s="570" t="s">
+      <c r="F11" s="565" t="s">
         <v>641</v>
       </c>
-      <c r="G11" s="571"/>
-      <c r="H11" s="571"/>
-      <c r="I11" s="572"/>
+      <c r="G11" s="566"/>
+      <c r="H11" s="566"/>
+      <c r="I11" s="567"/>
       <c r="J11" s="280" t="s">
         <v>640</v>
       </c>
@@ -40145,10 +40145,10 @@
       <c r="C12" s="278"/>
       <c r="D12" s="278"/>
       <c r="E12" s="278"/>
-      <c r="F12" s="570"/>
-      <c r="G12" s="571"/>
-      <c r="H12" s="571"/>
-      <c r="I12" s="573"/>
+      <c r="F12" s="565"/>
+      <c r="G12" s="566"/>
+      <c r="H12" s="566"/>
+      <c r="I12" s="568"/>
       <c r="J12" s="107"/>
       <c r="K12" s="100"/>
       <c r="L12" s="101"/>
@@ -40220,16 +40220,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83583697-7125-42C8-A249-C1EF45E4385E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9AE8E5-28C9-45C3-9E5E-90D02D51358F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="11.质检结果判定接口MES-&gt;ERP" sheetId="42" r:id="rId15"/>
     <sheet name="12.销售交货单上下架需求" sheetId="39" r:id="rId16"/>
     <sheet name="13.上下架信息回传" sheetId="40" r:id="rId17"/>
-    <sheet name="14.库存对账接口" sheetId="50" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="51" r:id="rId18"/>
+    <sheet name="14.库存对账接口" sheetId="50" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目主计划!$A$4:$XEI$375</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1024">
   <si>
     <t>BTR SAP与MES系统对接</t>
   </si>
@@ -5227,6 +5228,10 @@
     <t>重量</t>
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
+  <si>
+    <t>S:成功、E:失败</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5238,7 +5243,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="89">
+  <fonts count="90">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5806,6 +5811,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -6552,7 +6563,7 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="580">
+  <cellXfs count="581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7965,30 +7976,30 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8022,6 +8033,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8031,84 +8066,60 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8136,6 +8147,36 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8166,38 +8207,11 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -8842,16 +8856,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8874,8 +8888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13182600" y="3576320"/>
-          <a:ext cx="5387975" cy="1518920"/>
+          <a:off x="12341225" y="2752725"/>
+          <a:ext cx="5394325" cy="1518920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9221,7 +9235,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9844,8 +9858,8 @@
       <c r="F23" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G23" s="85" t="s">
-        <v>348</v>
+      <c r="G23" s="580" t="s">
+        <v>1023</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -9925,7 +9939,7 @@
     <hyperlink ref="H2" location="接口清单!A1" display="返回" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9933,8 +9947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11531,8 +11545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12997,8 +13011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13647,8 +13661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -15051,8 +15065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -16016,6 +16030,19 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974CE62-D65D-4666-8CA6-0A38015F8095}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="89" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -16327,222 +16354,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="428" customFormat="1" ht="29.25">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="502" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
-      <c r="L1" s="506"/>
-      <c r="M1" s="506"/>
-      <c r="N1" s="506"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
+      <c r="N1" s="502"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="505" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="507" t="s">
+      <c r="B2" s="505" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="507" t="s">
+      <c r="C2" s="505" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="508" t="s">
+      <c r="D2" s="506" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="509" t="s">
+      <c r="E2" s="507" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="509" t="s">
+      <c r="F2" s="507" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="502" t="s">
+      <c r="G2" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="502"/>
-      <c r="I2" s="502" t="s">
+      <c r="H2" s="508"/>
+      <c r="I2" s="508" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="509" t="s">
+      <c r="J2" s="508"/>
+      <c r="K2" s="507" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="509" t="s">
+      <c r="L2" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="507" t="s">
+      <c r="M2" s="505" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="507" t="s">
+      <c r="N2" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="505" t="s">
+      <c r="O2" s="503" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="505"/>
-      <c r="T2" s="505"/>
-      <c r="U2" s="505"/>
-      <c r="V2" s="505"/>
-      <c r="W2" s="505"/>
-      <c r="X2" s="505"/>
-      <c r="Y2" s="505"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="505"/>
-      <c r="AB2" s="505"/>
-      <c r="AC2" s="505"/>
-      <c r="AD2" s="505"/>
-      <c r="AE2" s="505"/>
-      <c r="AF2" s="505"/>
-      <c r="AG2" s="505"/>
-      <c r="AH2" s="505"/>
-      <c r="AI2" s="505"/>
-      <c r="AJ2" s="505"/>
-      <c r="AK2" s="505"/>
-      <c r="AL2" s="505"/>
-      <c r="AM2" s="505"/>
-      <c r="AN2" s="505"/>
-      <c r="AO2" s="505"/>
-      <c r="AP2" s="505"/>
+      <c r="P2" s="503"/>
+      <c r="Q2" s="503"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="503"/>
+      <c r="U2" s="503"/>
+      <c r="V2" s="503"/>
+      <c r="W2" s="503"/>
+      <c r="X2" s="503"/>
+      <c r="Y2" s="503"/>
+      <c r="Z2" s="503"/>
+      <c r="AA2" s="503"/>
+      <c r="AB2" s="503"/>
+      <c r="AC2" s="503"/>
+      <c r="AD2" s="503"/>
+      <c r="AE2" s="503"/>
+      <c r="AF2" s="503"/>
+      <c r="AG2" s="503"/>
+      <c r="AH2" s="503"/>
+      <c r="AI2" s="503"/>
+      <c r="AJ2" s="503"/>
+      <c r="AK2" s="503"/>
+      <c r="AL2" s="503"/>
+      <c r="AM2" s="503"/>
+      <c r="AN2" s="503"/>
+      <c r="AO2" s="503"/>
+      <c r="AP2" s="503"/>
       <c r="AQ2" s="504" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="505"/>
-      <c r="AS2" s="505"/>
-      <c r="AT2" s="505"/>
-      <c r="AU2" s="505"/>
-      <c r="AV2" s="505"/>
-      <c r="AW2" s="505"/>
-      <c r="AX2" s="505"/>
-      <c r="AY2" s="505"/>
-      <c r="AZ2" s="505"/>
-      <c r="BA2" s="505"/>
-      <c r="BB2" s="505"/>
-      <c r="BC2" s="505"/>
-      <c r="BD2" s="505"/>
-      <c r="BE2" s="505"/>
-      <c r="BF2" s="505"/>
-      <c r="BG2" s="505"/>
-      <c r="BH2" s="505"/>
-      <c r="BI2" s="505"/>
-      <c r="BJ2" s="505"/>
-      <c r="BK2" s="505"/>
-      <c r="BL2" s="505"/>
-      <c r="BM2" s="505"/>
-      <c r="BN2" s="505"/>
-      <c r="BO2" s="505"/>
-      <c r="BP2" s="505"/>
-      <c r="BQ2" s="505"/>
-      <c r="BR2" s="505"/>
-      <c r="BS2" s="505"/>
-      <c r="BT2" s="505"/>
-      <c r="BU2" s="505"/>
+      <c r="AR2" s="503"/>
+      <c r="AS2" s="503"/>
+      <c r="AT2" s="503"/>
+      <c r="AU2" s="503"/>
+      <c r="AV2" s="503"/>
+      <c r="AW2" s="503"/>
+      <c r="AX2" s="503"/>
+      <c r="AY2" s="503"/>
+      <c r="AZ2" s="503"/>
+      <c r="BA2" s="503"/>
+      <c r="BB2" s="503"/>
+      <c r="BC2" s="503"/>
+      <c r="BD2" s="503"/>
+      <c r="BE2" s="503"/>
+      <c r="BF2" s="503"/>
+      <c r="BG2" s="503"/>
+      <c r="BH2" s="503"/>
+      <c r="BI2" s="503"/>
+      <c r="BJ2" s="503"/>
+      <c r="BK2" s="503"/>
+      <c r="BL2" s="503"/>
+      <c r="BM2" s="503"/>
+      <c r="BN2" s="503"/>
+      <c r="BO2" s="503"/>
+      <c r="BP2" s="503"/>
+      <c r="BQ2" s="503"/>
+      <c r="BR2" s="503"/>
+      <c r="BS2" s="503"/>
+      <c r="BT2" s="503"/>
+      <c r="BU2" s="503"/>
       <c r="BV2" s="504" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="505"/>
-      <c r="BX2" s="505"/>
-      <c r="BY2" s="505"/>
-      <c r="BZ2" s="505"/>
-      <c r="CA2" s="505"/>
-      <c r="CB2" s="505"/>
-      <c r="CC2" s="505"/>
-      <c r="CD2" s="505"/>
-      <c r="CE2" s="505"/>
-      <c r="CF2" s="505"/>
-      <c r="CG2" s="505"/>
-      <c r="CH2" s="505"/>
-      <c r="CI2" s="505"/>
-      <c r="CJ2" s="505"/>
-      <c r="CK2" s="505"/>
-      <c r="CL2" s="505"/>
-      <c r="CM2" s="505"/>
-      <c r="CN2" s="505"/>
-      <c r="CO2" s="505"/>
-      <c r="CP2" s="505"/>
-      <c r="CQ2" s="505"/>
-      <c r="CR2" s="505"/>
-      <c r="CS2" s="505"/>
-      <c r="CT2" s="505"/>
-      <c r="CU2" s="505"/>
-      <c r="CV2" s="505"/>
-      <c r="CW2" s="505"/>
-      <c r="CX2" s="505"/>
-      <c r="CY2" s="505"/>
-      <c r="CZ2" s="505" t="s">
+      <c r="BW2" s="503"/>
+      <c r="BX2" s="503"/>
+      <c r="BY2" s="503"/>
+      <c r="BZ2" s="503"/>
+      <c r="CA2" s="503"/>
+      <c r="CB2" s="503"/>
+      <c r="CC2" s="503"/>
+      <c r="CD2" s="503"/>
+      <c r="CE2" s="503"/>
+      <c r="CF2" s="503"/>
+      <c r="CG2" s="503"/>
+      <c r="CH2" s="503"/>
+      <c r="CI2" s="503"/>
+      <c r="CJ2" s="503"/>
+      <c r="CK2" s="503"/>
+      <c r="CL2" s="503"/>
+      <c r="CM2" s="503"/>
+      <c r="CN2" s="503"/>
+      <c r="CO2" s="503"/>
+      <c r="CP2" s="503"/>
+      <c r="CQ2" s="503"/>
+      <c r="CR2" s="503"/>
+      <c r="CS2" s="503"/>
+      <c r="CT2" s="503"/>
+      <c r="CU2" s="503"/>
+      <c r="CV2" s="503"/>
+      <c r="CW2" s="503"/>
+      <c r="CX2" s="503"/>
+      <c r="CY2" s="503"/>
+      <c r="CZ2" s="503" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="505"/>
-      <c r="DB2" s="505"/>
-      <c r="DC2" s="505"/>
-      <c r="DD2" s="505"/>
-      <c r="DE2" s="505"/>
-      <c r="DF2" s="505"/>
-      <c r="DG2" s="505"/>
-      <c r="DH2" s="505"/>
-      <c r="DI2" s="505"/>
-      <c r="DJ2" s="505"/>
-      <c r="DK2" s="505"/>
-      <c r="DL2" s="505"/>
-      <c r="DM2" s="505"/>
-      <c r="DN2" s="505"/>
-      <c r="DO2" s="505"/>
-      <c r="DP2" s="505"/>
-      <c r="DQ2" s="505"/>
-      <c r="DR2" s="505"/>
-      <c r="DS2" s="505"/>
-      <c r="DT2" s="505"/>
-      <c r="DU2" s="505"/>
-      <c r="DV2" s="505"/>
-      <c r="DW2" s="505"/>
-      <c r="DX2" s="505"/>
-      <c r="DY2" s="505"/>
-      <c r="DZ2" s="505"/>
-      <c r="EA2" s="505"/>
-      <c r="EB2" s="505"/>
-      <c r="EC2" s="505"/>
-      <c r="ED2" s="505"/>
+      <c r="DA2" s="503"/>
+      <c r="DB2" s="503"/>
+      <c r="DC2" s="503"/>
+      <c r="DD2" s="503"/>
+      <c r="DE2" s="503"/>
+      <c r="DF2" s="503"/>
+      <c r="DG2" s="503"/>
+      <c r="DH2" s="503"/>
+      <c r="DI2" s="503"/>
+      <c r="DJ2" s="503"/>
+      <c r="DK2" s="503"/>
+      <c r="DL2" s="503"/>
+      <c r="DM2" s="503"/>
+      <c r="DN2" s="503"/>
+      <c r="DO2" s="503"/>
+      <c r="DP2" s="503"/>
+      <c r="DQ2" s="503"/>
+      <c r="DR2" s="503"/>
+      <c r="DS2" s="503"/>
+      <c r="DT2" s="503"/>
+      <c r="DU2" s="503"/>
+      <c r="DV2" s="503"/>
+      <c r="DW2" s="503"/>
+      <c r="DX2" s="503"/>
+      <c r="DY2" s="503"/>
+      <c r="DZ2" s="503"/>
+      <c r="EA2" s="503"/>
+      <c r="EB2" s="503"/>
+      <c r="EC2" s="503"/>
+      <c r="ED2" s="503"/>
       <c r="EE2" s="504" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="505"/>
-      <c r="EG2" s="505"/>
-      <c r="EH2" s="505"/>
-      <c r="EI2" s="505"/>
-      <c r="EJ2" s="505"/>
-      <c r="EK2" s="505"/>
-      <c r="EL2" s="505"/>
-      <c r="EM2" s="505"/>
-      <c r="EN2" s="505"/>
-      <c r="EO2" s="505"/>
-      <c r="EP2" s="505"/>
-      <c r="EQ2" s="505"/>
-      <c r="ER2" s="505"/>
-      <c r="ES2" s="505"/>
-      <c r="ET2" s="505"/>
-      <c r="EU2" s="505"/>
-      <c r="EV2" s="505"/>
-      <c r="EW2" s="505"/>
-      <c r="EX2" s="505"/>
-      <c r="EY2" s="505"/>
-      <c r="EZ2" s="505"/>
-      <c r="FA2" s="505"/>
-      <c r="FB2" s="505"/>
-      <c r="FC2" s="505"/>
-      <c r="FD2" s="505"/>
-      <c r="FE2" s="505"/>
-      <c r="FF2" s="505"/>
-      <c r="FG2" s="505"/>
-      <c r="FH2" s="505"/>
+      <c r="EF2" s="503"/>
+      <c r="EG2" s="503"/>
+      <c r="EH2" s="503"/>
+      <c r="EI2" s="503"/>
+      <c r="EJ2" s="503"/>
+      <c r="EK2" s="503"/>
+      <c r="EL2" s="503"/>
+      <c r="EM2" s="503"/>
+      <c r="EN2" s="503"/>
+      <c r="EO2" s="503"/>
+      <c r="EP2" s="503"/>
+      <c r="EQ2" s="503"/>
+      <c r="ER2" s="503"/>
+      <c r="ES2" s="503"/>
+      <c r="ET2" s="503"/>
+      <c r="EU2" s="503"/>
+      <c r="EV2" s="503"/>
+      <c r="EW2" s="503"/>
+      <c r="EX2" s="503"/>
+      <c r="EY2" s="503"/>
+      <c r="EZ2" s="503"/>
+      <c r="FA2" s="503"/>
+      <c r="FB2" s="503"/>
+      <c r="FC2" s="503"/>
+      <c r="FD2" s="503"/>
+      <c r="FE2" s="503"/>
+      <c r="FF2" s="503"/>
+      <c r="FG2" s="503"/>
+      <c r="FH2" s="503"/>
       <c r="FI2" s="504" t="s">
         <v>23</v>
       </c>
@@ -16609,332 +16636,332 @@
       <c r="HP2" s="504"/>
       <c r="HQ2" s="504"/>
       <c r="HR2" s="504"/>
-      <c r="HS2" s="505" t="s">
+      <c r="HS2" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="505"/>
-      <c r="HU2" s="505"/>
-      <c r="HV2" s="505"/>
-      <c r="HW2" s="505"/>
-      <c r="HX2" s="505"/>
-      <c r="HY2" s="505"/>
-      <c r="HZ2" s="505"/>
-      <c r="IA2" s="505"/>
-      <c r="IB2" s="505"/>
-      <c r="IC2" s="505"/>
-      <c r="ID2" s="505"/>
+      <c r="HT2" s="503"/>
+      <c r="HU2" s="503"/>
+      <c r="HV2" s="503"/>
+      <c r="HW2" s="503"/>
+      <c r="HX2" s="503"/>
+      <c r="HY2" s="503"/>
+      <c r="HZ2" s="503"/>
+      <c r="IA2" s="503"/>
+      <c r="IB2" s="503"/>
+      <c r="IC2" s="503"/>
+      <c r="ID2" s="503"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="508"/>
-      <c r="E3" s="509"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="507"/>
-      <c r="N3" s="507"/>
-      <c r="O3" s="503" t="s">
+      <c r="A3" s="505"/>
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="507"/>
+      <c r="L3" s="507"/>
+      <c r="M3" s="505"/>
+      <c r="N3" s="505"/>
+      <c r="O3" s="509" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="503"/>
-      <c r="Q3" s="503"/>
-      <c r="R3" s="503"/>
-      <c r="S3" s="503"/>
-      <c r="T3" s="503"/>
-      <c r="U3" s="503"/>
-      <c r="V3" s="503" t="s">
+      <c r="P3" s="509"/>
+      <c r="Q3" s="509"/>
+      <c r="R3" s="509"/>
+      <c r="S3" s="509"/>
+      <c r="T3" s="509"/>
+      <c r="U3" s="509"/>
+      <c r="V3" s="509" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="503"/>
-      <c r="X3" s="503"/>
-      <c r="Y3" s="503"/>
-      <c r="Z3" s="503"/>
-      <c r="AA3" s="503"/>
-      <c r="AB3" s="503"/>
-      <c r="AC3" s="503" t="s">
+      <c r="W3" s="509"/>
+      <c r="X3" s="509"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="509"/>
+      <c r="AA3" s="509"/>
+      <c r="AB3" s="509"/>
+      <c r="AC3" s="509" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="503"/>
-      <c r="AE3" s="503"/>
-      <c r="AF3" s="503"/>
-      <c r="AG3" s="503"/>
-      <c r="AH3" s="503"/>
-      <c r="AI3" s="503"/>
-      <c r="AJ3" s="503" t="s">
+      <c r="AD3" s="509"/>
+      <c r="AE3" s="509"/>
+      <c r="AF3" s="509"/>
+      <c r="AG3" s="509"/>
+      <c r="AH3" s="509"/>
+      <c r="AI3" s="509"/>
+      <c r="AJ3" s="509" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="503"/>
-      <c r="AL3" s="503"/>
-      <c r="AM3" s="503"/>
-      <c r="AN3" s="503"/>
-      <c r="AO3" s="503"/>
-      <c r="AP3" s="503"/>
-      <c r="AQ3" s="503" t="s">
+      <c r="AK3" s="509"/>
+      <c r="AL3" s="509"/>
+      <c r="AM3" s="509"/>
+      <c r="AN3" s="509"/>
+      <c r="AO3" s="509"/>
+      <c r="AP3" s="509"/>
+      <c r="AQ3" s="509" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="503"/>
-      <c r="AS3" s="503"/>
-      <c r="AT3" s="503"/>
-      <c r="AU3" s="503"/>
-      <c r="AV3" s="503"/>
-      <c r="AW3" s="503"/>
-      <c r="AX3" s="503" t="s">
+      <c r="AR3" s="509"/>
+      <c r="AS3" s="509"/>
+      <c r="AT3" s="509"/>
+      <c r="AU3" s="509"/>
+      <c r="AV3" s="509"/>
+      <c r="AW3" s="509"/>
+      <c r="AX3" s="509" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="503"/>
-      <c r="AZ3" s="503"/>
-      <c r="BA3" s="503"/>
-      <c r="BB3" s="503"/>
-      <c r="BC3" s="503"/>
-      <c r="BD3" s="503"/>
-      <c r="BE3" s="503" t="s">
+      <c r="AY3" s="509"/>
+      <c r="AZ3" s="509"/>
+      <c r="BA3" s="509"/>
+      <c r="BB3" s="509"/>
+      <c r="BC3" s="509"/>
+      <c r="BD3" s="509"/>
+      <c r="BE3" s="509" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="503"/>
-      <c r="BG3" s="503"/>
-      <c r="BH3" s="503"/>
-      <c r="BI3" s="503"/>
-      <c r="BJ3" s="503"/>
-      <c r="BK3" s="503"/>
-      <c r="BL3" s="503" t="s">
+      <c r="BF3" s="509"/>
+      <c r="BG3" s="509"/>
+      <c r="BH3" s="509"/>
+      <c r="BI3" s="509"/>
+      <c r="BJ3" s="509"/>
+      <c r="BK3" s="509"/>
+      <c r="BL3" s="509" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="503"/>
-      <c r="BN3" s="503"/>
-      <c r="BO3" s="503"/>
-      <c r="BP3" s="503"/>
-      <c r="BQ3" s="503"/>
-      <c r="BR3" s="503"/>
-      <c r="BS3" s="503" t="s">
+      <c r="BM3" s="509"/>
+      <c r="BN3" s="509"/>
+      <c r="BO3" s="509"/>
+      <c r="BP3" s="509"/>
+      <c r="BQ3" s="509"/>
+      <c r="BR3" s="509"/>
+      <c r="BS3" s="509" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="503"/>
-      <c r="BU3" s="503"/>
-      <c r="BV3" s="503"/>
-      <c r="BW3" s="503"/>
-      <c r="BX3" s="503"/>
-      <c r="BY3" s="503"/>
-      <c r="BZ3" s="503" t="s">
+      <c r="BT3" s="509"/>
+      <c r="BU3" s="509"/>
+      <c r="BV3" s="509"/>
+      <c r="BW3" s="509"/>
+      <c r="BX3" s="509"/>
+      <c r="BY3" s="509"/>
+      <c r="BZ3" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="503"/>
-      <c r="CB3" s="503"/>
-      <c r="CC3" s="503"/>
-      <c r="CD3" s="503"/>
-      <c r="CE3" s="503"/>
-      <c r="CF3" s="503"/>
-      <c r="CG3" s="503" t="s">
+      <c r="CA3" s="509"/>
+      <c r="CB3" s="509"/>
+      <c r="CC3" s="509"/>
+      <c r="CD3" s="509"/>
+      <c r="CE3" s="509"/>
+      <c r="CF3" s="509"/>
+      <c r="CG3" s="509" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="503"/>
-      <c r="CI3" s="503"/>
-      <c r="CJ3" s="503"/>
-      <c r="CK3" s="503"/>
-      <c r="CL3" s="503"/>
-      <c r="CM3" s="503"/>
-      <c r="CN3" s="503" t="s">
+      <c r="CH3" s="509"/>
+      <c r="CI3" s="509"/>
+      <c r="CJ3" s="509"/>
+      <c r="CK3" s="509"/>
+      <c r="CL3" s="509"/>
+      <c r="CM3" s="509"/>
+      <c r="CN3" s="509" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="503"/>
-      <c r="CP3" s="503"/>
-      <c r="CQ3" s="503"/>
-      <c r="CR3" s="503"/>
-      <c r="CS3" s="503"/>
-      <c r="CT3" s="503"/>
-      <c r="CU3" s="503" t="s">
+      <c r="CO3" s="509"/>
+      <c r="CP3" s="509"/>
+      <c r="CQ3" s="509"/>
+      <c r="CR3" s="509"/>
+      <c r="CS3" s="509"/>
+      <c r="CT3" s="509"/>
+      <c r="CU3" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="503"/>
-      <c r="CW3" s="503"/>
-      <c r="CX3" s="503"/>
-      <c r="CY3" s="503"/>
-      <c r="CZ3" s="503"/>
-      <c r="DA3" s="503"/>
-      <c r="DB3" s="503" t="s">
+      <c r="CV3" s="509"/>
+      <c r="CW3" s="509"/>
+      <c r="CX3" s="509"/>
+      <c r="CY3" s="509"/>
+      <c r="CZ3" s="509"/>
+      <c r="DA3" s="509"/>
+      <c r="DB3" s="509" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="503"/>
-      <c r="DD3" s="503"/>
-      <c r="DE3" s="503"/>
-      <c r="DF3" s="503"/>
-      <c r="DG3" s="503"/>
-      <c r="DH3" s="503"/>
-      <c r="DI3" s="503" t="s">
+      <c r="DC3" s="509"/>
+      <c r="DD3" s="509"/>
+      <c r="DE3" s="509"/>
+      <c r="DF3" s="509"/>
+      <c r="DG3" s="509"/>
+      <c r="DH3" s="509"/>
+      <c r="DI3" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="503"/>
-      <c r="DK3" s="503"/>
-      <c r="DL3" s="503"/>
-      <c r="DM3" s="503"/>
-      <c r="DN3" s="503"/>
-      <c r="DO3" s="503"/>
-      <c r="DP3" s="503" t="s">
+      <c r="DJ3" s="509"/>
+      <c r="DK3" s="509"/>
+      <c r="DL3" s="509"/>
+      <c r="DM3" s="509"/>
+      <c r="DN3" s="509"/>
+      <c r="DO3" s="509"/>
+      <c r="DP3" s="509" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="503"/>
-      <c r="DR3" s="503"/>
-      <c r="DS3" s="503"/>
-      <c r="DT3" s="503"/>
-      <c r="DU3" s="503"/>
-      <c r="DV3" s="503"/>
-      <c r="DW3" s="503" t="s">
+      <c r="DQ3" s="509"/>
+      <c r="DR3" s="509"/>
+      <c r="DS3" s="509"/>
+      <c r="DT3" s="509"/>
+      <c r="DU3" s="509"/>
+      <c r="DV3" s="509"/>
+      <c r="DW3" s="509" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="503"/>
-      <c r="DY3" s="503"/>
-      <c r="DZ3" s="503"/>
-      <c r="EA3" s="503"/>
-      <c r="EB3" s="503"/>
-      <c r="EC3" s="503"/>
-      <c r="ED3" s="503" t="s">
+      <c r="DX3" s="509"/>
+      <c r="DY3" s="509"/>
+      <c r="DZ3" s="509"/>
+      <c r="EA3" s="509"/>
+      <c r="EB3" s="509"/>
+      <c r="EC3" s="509"/>
+      <c r="ED3" s="509" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="503"/>
-      <c r="EF3" s="503"/>
-      <c r="EG3" s="503"/>
-      <c r="EH3" s="503"/>
-      <c r="EI3" s="503"/>
-      <c r="EJ3" s="503"/>
-      <c r="EK3" s="503" t="s">
+      <c r="EE3" s="509"/>
+      <c r="EF3" s="509"/>
+      <c r="EG3" s="509"/>
+      <c r="EH3" s="509"/>
+      <c r="EI3" s="509"/>
+      <c r="EJ3" s="509"/>
+      <c r="EK3" s="509" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="503"/>
-      <c r="EM3" s="503"/>
-      <c r="EN3" s="503"/>
-      <c r="EO3" s="503"/>
-      <c r="EP3" s="503"/>
-      <c r="EQ3" s="503"/>
-      <c r="ER3" s="503" t="s">
+      <c r="EL3" s="509"/>
+      <c r="EM3" s="509"/>
+      <c r="EN3" s="509"/>
+      <c r="EO3" s="509"/>
+      <c r="EP3" s="509"/>
+      <c r="EQ3" s="509"/>
+      <c r="ER3" s="509" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="503"/>
-      <c r="ET3" s="503"/>
-      <c r="EU3" s="503"/>
-      <c r="EV3" s="503"/>
-      <c r="EW3" s="503"/>
-      <c r="EX3" s="503"/>
-      <c r="EY3" s="503" t="s">
+      <c r="ES3" s="509"/>
+      <c r="ET3" s="509"/>
+      <c r="EU3" s="509"/>
+      <c r="EV3" s="509"/>
+      <c r="EW3" s="509"/>
+      <c r="EX3" s="509"/>
+      <c r="EY3" s="509" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="503"/>
-      <c r="FA3" s="503"/>
-      <c r="FB3" s="503"/>
-      <c r="FC3" s="503"/>
-      <c r="FD3" s="503"/>
-      <c r="FE3" s="503"/>
-      <c r="FF3" s="503" t="s">
+      <c r="EZ3" s="509"/>
+      <c r="FA3" s="509"/>
+      <c r="FB3" s="509"/>
+      <c r="FC3" s="509"/>
+      <c r="FD3" s="509"/>
+      <c r="FE3" s="509"/>
+      <c r="FF3" s="509" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="503"/>
-      <c r="FH3" s="503"/>
-      <c r="FI3" s="503"/>
-      <c r="FJ3" s="503"/>
-      <c r="FK3" s="503"/>
-      <c r="FL3" s="503"/>
-      <c r="FM3" s="503" t="s">
+      <c r="FG3" s="509"/>
+      <c r="FH3" s="509"/>
+      <c r="FI3" s="509"/>
+      <c r="FJ3" s="509"/>
+      <c r="FK3" s="509"/>
+      <c r="FL3" s="509"/>
+      <c r="FM3" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="503"/>
-      <c r="FO3" s="503"/>
-      <c r="FP3" s="503"/>
-      <c r="FQ3" s="503"/>
-      <c r="FR3" s="503"/>
-      <c r="FS3" s="503"/>
-      <c r="FT3" s="503" t="s">
+      <c r="FN3" s="509"/>
+      <c r="FO3" s="509"/>
+      <c r="FP3" s="509"/>
+      <c r="FQ3" s="509"/>
+      <c r="FR3" s="509"/>
+      <c r="FS3" s="509"/>
+      <c r="FT3" s="509" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="503"/>
-      <c r="FV3" s="503"/>
-      <c r="FW3" s="503"/>
-      <c r="FX3" s="503"/>
-      <c r="FY3" s="503"/>
-      <c r="FZ3" s="503"/>
-      <c r="GA3" s="503" t="s">
+      <c r="FU3" s="509"/>
+      <c r="FV3" s="509"/>
+      <c r="FW3" s="509"/>
+      <c r="FX3" s="509"/>
+      <c r="FY3" s="509"/>
+      <c r="FZ3" s="509"/>
+      <c r="GA3" s="509" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="503"/>
-      <c r="GC3" s="503"/>
-      <c r="GD3" s="503"/>
-      <c r="GE3" s="503"/>
-      <c r="GF3" s="503"/>
-      <c r="GG3" s="503"/>
-      <c r="GH3" s="503" t="s">
+      <c r="GB3" s="509"/>
+      <c r="GC3" s="509"/>
+      <c r="GD3" s="509"/>
+      <c r="GE3" s="509"/>
+      <c r="GF3" s="509"/>
+      <c r="GG3" s="509"/>
+      <c r="GH3" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="503"/>
-      <c r="GJ3" s="503"/>
-      <c r="GK3" s="503"/>
-      <c r="GL3" s="503"/>
-      <c r="GM3" s="503"/>
-      <c r="GN3" s="503"/>
-      <c r="GO3" s="503" t="s">
+      <c r="GI3" s="509"/>
+      <c r="GJ3" s="509"/>
+      <c r="GK3" s="509"/>
+      <c r="GL3" s="509"/>
+      <c r="GM3" s="509"/>
+      <c r="GN3" s="509"/>
+      <c r="GO3" s="509" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="503"/>
-      <c r="GQ3" s="503"/>
-      <c r="GR3" s="503"/>
-      <c r="GS3" s="503"/>
-      <c r="GT3" s="503"/>
-      <c r="GU3" s="503"/>
-      <c r="GV3" s="503" t="s">
+      <c r="GP3" s="509"/>
+      <c r="GQ3" s="509"/>
+      <c r="GR3" s="509"/>
+      <c r="GS3" s="509"/>
+      <c r="GT3" s="509"/>
+      <c r="GU3" s="509"/>
+      <c r="GV3" s="509" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="503"/>
-      <c r="GX3" s="503"/>
-      <c r="GY3" s="503"/>
-      <c r="GZ3" s="503"/>
-      <c r="HA3" s="503"/>
-      <c r="HB3" s="503"/>
-      <c r="HC3" s="503" t="s">
+      <c r="GW3" s="509"/>
+      <c r="GX3" s="509"/>
+      <c r="GY3" s="509"/>
+      <c r="GZ3" s="509"/>
+      <c r="HA3" s="509"/>
+      <c r="HB3" s="509"/>
+      <c r="HC3" s="509" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="503"/>
-      <c r="HE3" s="503"/>
-      <c r="HF3" s="503"/>
-      <c r="HG3" s="503"/>
-      <c r="HH3" s="503"/>
-      <c r="HI3" s="503"/>
-      <c r="HJ3" s="503" t="s">
+      <c r="HD3" s="509"/>
+      <c r="HE3" s="509"/>
+      <c r="HF3" s="509"/>
+      <c r="HG3" s="509"/>
+      <c r="HH3" s="509"/>
+      <c r="HI3" s="509"/>
+      <c r="HJ3" s="509" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="503"/>
-      <c r="HL3" s="503"/>
-      <c r="HM3" s="503"/>
-      <c r="HN3" s="503"/>
-      <c r="HO3" s="503"/>
-      <c r="HP3" s="503"/>
-      <c r="HQ3" s="503" t="s">
+      <c r="HK3" s="509"/>
+      <c r="HL3" s="509"/>
+      <c r="HM3" s="509"/>
+      <c r="HN3" s="509"/>
+      <c r="HO3" s="509"/>
+      <c r="HP3" s="509"/>
+      <c r="HQ3" s="509" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="503"/>
-      <c r="HS3" s="503"/>
-      <c r="HT3" s="503"/>
-      <c r="HU3" s="503"/>
-      <c r="HV3" s="503"/>
-      <c r="HW3" s="503"/>
-      <c r="HX3" s="503" t="s">
+      <c r="HR3" s="509"/>
+      <c r="HS3" s="509"/>
+      <c r="HT3" s="509"/>
+      <c r="HU3" s="509"/>
+      <c r="HV3" s="509"/>
+      <c r="HW3" s="509"/>
+      <c r="HX3" s="509" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="503"/>
-      <c r="HZ3" s="503"/>
-      <c r="IA3" s="503"/>
-      <c r="IB3" s="503"/>
-      <c r="IC3" s="503"/>
-      <c r="ID3" s="503"/>
+      <c r="HY3" s="509"/>
+      <c r="HZ3" s="509"/>
+      <c r="IA3" s="509"/>
+      <c r="IB3" s="509"/>
+      <c r="IC3" s="509"/>
+      <c r="ID3" s="509"/>
     </row>
     <row r="4" spans="1:238" s="429" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="507"/>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="509"/>
-      <c r="F4" s="509"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
       <c r="G4" s="443" t="s">
         <v>58</v>
       </c>
@@ -16947,10 +16974,10 @@
       <c r="J4" s="442" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="509"/>
-      <c r="L4" s="509"/>
-      <c r="M4" s="507"/>
-      <c r="N4" s="507"/>
+      <c r="K4" s="507"/>
+      <c r="L4" s="507"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="505"/>
       <c r="O4" s="471">
         <v>43497</v>
       </c>
@@ -29754,6 +29781,43 @@
   </sheetData>
   <autoFilter ref="A4:XEI375" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="GV3:HB3"/>
+    <mergeCell ref="HC3:HI3"/>
+    <mergeCell ref="HJ3:HP3"/>
+    <mergeCell ref="HQ3:HW3"/>
+    <mergeCell ref="ED3:EJ3"/>
+    <mergeCell ref="EK3:EQ3"/>
+    <mergeCell ref="ER3:EX3"/>
+    <mergeCell ref="EY3:FE3"/>
+    <mergeCell ref="FF3:FL3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="DB3:DH3"/>
+    <mergeCell ref="DI3:DO3"/>
+    <mergeCell ref="DP3:DV3"/>
+    <mergeCell ref="DW3:EC3"/>
+    <mergeCell ref="EE2:FH2"/>
+    <mergeCell ref="FM3:FS3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="GH3:GN3"/>
+    <mergeCell ref="GO3:GU3"/>
+    <mergeCell ref="FI2:GM2"/>
+    <mergeCell ref="GN2:HR2"/>
+    <mergeCell ref="HS2:ID2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="HX3:ID3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="O2:AP2"/>
     <mergeCell ref="AQ2:BU2"/>
@@ -29770,43 +29834,6 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="G2:H3"/>
-    <mergeCell ref="FI2:GM2"/>
-    <mergeCell ref="GN2:HR2"/>
-    <mergeCell ref="HS2:ID2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
-    <mergeCell ref="GH3:GN3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="GV3:HB3"/>
-    <mergeCell ref="HC3:HI3"/>
-    <mergeCell ref="HJ3:HP3"/>
-    <mergeCell ref="HQ3:HW3"/>
-    <mergeCell ref="ED3:EJ3"/>
-    <mergeCell ref="EK3:EQ3"/>
-    <mergeCell ref="ER3:EX3"/>
-    <mergeCell ref="EY3:FE3"/>
-    <mergeCell ref="FF3:FL3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="DB3:DH3"/>
-    <mergeCell ref="DI3:DO3"/>
-    <mergeCell ref="DP3:DV3"/>
-    <mergeCell ref="DW3:EC3"/>
-    <mergeCell ref="EE2:FH2"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.118055555555556" bottom="0.118055555555556" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -33925,8 +33952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -35222,8 +35249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:I24"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -35267,17 +35294,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="339" customFormat="1" ht="15.75">
-      <c r="A4" s="545" t="s">
+      <c r="A4" s="521" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="545"/>
-      <c r="C4" s="545"/>
-      <c r="D4" s="545"/>
-      <c r="E4" s="545"/>
-      <c r="F4" s="545"/>
-      <c r="G4" s="545"/>
-      <c r="H4" s="545"/>
-      <c r="I4" s="545"/>
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="521"/>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="521"/>
     </row>
     <row r="5" spans="1:14" s="340" customFormat="1" ht="16.5">
       <c r="A5" s="344" t="s">
@@ -35295,12 +35322,12 @@
       <c r="E5" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="546" t="s">
+      <c r="F5" s="522" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="546"/>
-      <c r="H5" s="546"/>
-      <c r="I5" s="546"/>
+      <c r="G5" s="522"/>
+      <c r="H5" s="522"/>
+      <c r="I5" s="522"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35333,12 +35360,12 @@
       <c r="E6" s="345">
         <v>0</v>
       </c>
-      <c r="F6" s="536" t="s">
+      <c r="F6" s="523" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="537"/>
-      <c r="H6" s="537"/>
-      <c r="I6" s="538"/>
+      <c r="G6" s="524"/>
+      <c r="H6" s="524"/>
+      <c r="I6" s="525"/>
       <c r="J6" s="345" t="s">
         <v>374</v>
       </c>
@@ -35369,12 +35396,12 @@
       <c r="E7" s="346">
         <v>0</v>
       </c>
-      <c r="F7" s="530" t="s">
+      <c r="F7" s="526" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="548"/>
-      <c r="H7" s="548"/>
-      <c r="I7" s="549"/>
+      <c r="G7" s="527"/>
+      <c r="H7" s="527"/>
+      <c r="I7" s="528"/>
       <c r="J7" s="346" t="s">
         <v>376</v>
       </c>
@@ -35405,12 +35432,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="346"/>
-      <c r="F8" s="521" t="s">
+      <c r="F8" s="529" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="522"/>
-      <c r="H8" s="522"/>
-      <c r="I8" s="523"/>
+      <c r="G8" s="530"/>
+      <c r="H8" s="530"/>
+      <c r="I8" s="531"/>
       <c r="J8" s="346" t="s">
         <v>379</v>
       </c>
@@ -35443,12 +35470,12 @@
       <c r="E9" s="345">
         <v>0</v>
       </c>
-      <c r="F9" s="536" t="s">
+      <c r="F9" s="523" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="537"/>
-      <c r="H9" s="537"/>
-      <c r="I9" s="538"/>
+      <c r="G9" s="524"/>
+      <c r="H9" s="524"/>
+      <c r="I9" s="525"/>
       <c r="J9" s="345" t="s">
         <v>383</v>
       </c>
@@ -35481,12 +35508,12 @@
       <c r="E10" s="346">
         <v>0</v>
       </c>
-      <c r="F10" s="521" t="s">
+      <c r="F10" s="529" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="522"/>
-      <c r="H10" s="522"/>
-      <c r="I10" s="523"/>
+      <c r="G10" s="530"/>
+      <c r="H10" s="530"/>
+      <c r="I10" s="531"/>
       <c r="J10" s="346" t="s">
         <v>386</v>
       </c>
@@ -35517,12 +35544,12 @@
       <c r="E11" s="346">
         <v>0</v>
       </c>
-      <c r="F11" s="521" t="s">
+      <c r="F11" s="529" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="522"/>
-      <c r="H11" s="522"/>
-      <c r="I11" s="523"/>
+      <c r="G11" s="530"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="531"/>
       <c r="J11" s="346" t="s">
         <v>318</v>
       </c>
@@ -35553,12 +35580,12 @@
       <c r="E12" s="346">
         <v>3</v>
       </c>
-      <c r="F12" s="521" t="s">
+      <c r="F12" s="529" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="522"/>
-      <c r="H12" s="522"/>
-      <c r="I12" s="523"/>
+      <c r="G12" s="530"/>
+      <c r="H12" s="530"/>
+      <c r="I12" s="531"/>
       <c r="J12" s="346" t="s">
         <v>389</v>
       </c>
@@ -35589,12 +35616,12 @@
       <c r="E13" s="346">
         <v>3</v>
       </c>
-      <c r="F13" s="521" t="s">
+      <c r="F13" s="529" t="s">
         <v>394</v>
       </c>
-      <c r="G13" s="522"/>
-      <c r="H13" s="522"/>
-      <c r="I13" s="523"/>
+      <c r="G13" s="530"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="531"/>
       <c r="J13" s="346" t="s">
         <v>392</v>
       </c>
@@ -35625,12 +35652,12 @@
       <c r="E14" s="346">
         <v>0</v>
       </c>
-      <c r="F14" s="521" t="s">
+      <c r="F14" s="529" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="522"/>
-      <c r="H14" s="522"/>
-      <c r="I14" s="523"/>
+      <c r="G14" s="530"/>
+      <c r="H14" s="530"/>
+      <c r="I14" s="531"/>
       <c r="J14" s="346" t="s">
         <v>395</v>
       </c>
@@ -35663,12 +35690,12 @@
       <c r="E15" s="346">
         <v>3</v>
       </c>
-      <c r="F15" s="521" t="s">
+      <c r="F15" s="529" t="s">
         <v>401</v>
       </c>
-      <c r="G15" s="522"/>
-      <c r="H15" s="522"/>
-      <c r="I15" s="523"/>
+      <c r="G15" s="530"/>
+      <c r="H15" s="530"/>
+      <c r="I15" s="531"/>
       <c r="J15" s="346" t="s">
         <v>399</v>
       </c>
@@ -35699,12 +35726,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="346"/>
-      <c r="F16" s="521" t="s">
+      <c r="F16" s="529" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="522"/>
-      <c r="H16" s="522"/>
-      <c r="I16" s="523"/>
+      <c r="G16" s="530"/>
+      <c r="H16" s="530"/>
+      <c r="I16" s="531"/>
       <c r="J16" s="346" t="s">
         <v>403</v>
       </c>
@@ -35731,12 +35758,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="346"/>
-      <c r="F17" s="521" t="s">
+      <c r="F17" s="529" t="s">
         <v>411</v>
       </c>
-      <c r="G17" s="522"/>
-      <c r="H17" s="522"/>
-      <c r="I17" s="523"/>
+      <c r="G17" s="530"/>
+      <c r="H17" s="530"/>
+      <c r="I17" s="531"/>
       <c r="J17" s="346" t="s">
         <v>408</v>
       </c>
@@ -35763,12 +35790,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="346"/>
-      <c r="F18" s="521" t="s">
+      <c r="F18" s="529" t="s">
         <v>414</v>
       </c>
-      <c r="G18" s="522"/>
-      <c r="H18" s="522"/>
-      <c r="I18" s="523"/>
+      <c r="G18" s="530"/>
+      <c r="H18" s="530"/>
+      <c r="I18" s="531"/>
       <c r="J18" s="346" t="s">
         <v>412</v>
       </c>
@@ -35795,12 +35822,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="346"/>
-      <c r="F19" s="521" t="s">
+      <c r="F19" s="529" t="s">
         <v>417</v>
       </c>
-      <c r="G19" s="522"/>
-      <c r="H19" s="522"/>
-      <c r="I19" s="523"/>
+      <c r="G19" s="530"/>
+      <c r="H19" s="530"/>
+      <c r="I19" s="531"/>
       <c r="J19" s="346" t="s">
         <v>415</v>
       </c>
@@ -35827,12 +35854,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="346"/>
-      <c r="F20" s="547" t="s">
+      <c r="F20" s="532" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="522"/>
-      <c r="H20" s="522"/>
-      <c r="I20" s="523"/>
+      <c r="G20" s="530"/>
+      <c r="H20" s="530"/>
+      <c r="I20" s="531"/>
       <c r="J20" s="346" t="s">
         <v>418</v>
       </c>
@@ -35859,12 +35886,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="346"/>
-      <c r="F21" s="547" t="s">
+      <c r="F21" s="532" t="s">
         <v>423</v>
       </c>
-      <c r="G21" s="522"/>
-      <c r="H21" s="522"/>
-      <c r="I21" s="523"/>
+      <c r="G21" s="530"/>
+      <c r="H21" s="530"/>
+      <c r="I21" s="531"/>
       <c r="J21" s="346" t="s">
         <v>421</v>
       </c>
@@ -35891,12 +35918,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="346"/>
-      <c r="F22" s="529" t="s">
+      <c r="F22" s="533" t="s">
         <v>425</v>
       </c>
-      <c r="G22" s="529"/>
-      <c r="H22" s="529"/>
-      <c r="I22" s="529"/>
+      <c r="G22" s="533"/>
+      <c r="H22" s="533"/>
+      <c r="I22" s="533"/>
       <c r="J22" s="346" t="s">
         <v>323</v>
       </c>
@@ -35927,12 +35954,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="345"/>
-      <c r="F23" s="542" t="s">
+      <c r="F23" s="534" t="s">
         <v>427</v>
       </c>
-      <c r="G23" s="543"/>
-      <c r="H23" s="543"/>
-      <c r="I23" s="544"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="535"/>
+      <c r="I23" s="536"/>
       <c r="J23" s="345" t="s">
         <v>426</v>
       </c>
@@ -35959,12 +35986,12 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="346"/>
-      <c r="F24" s="530" t="s">
+      <c r="F24" s="526" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="522"/>
-      <c r="H24" s="522"/>
-      <c r="I24" s="522"/>
+      <c r="G24" s="530"/>
+      <c r="H24" s="530"/>
+      <c r="I24" s="530"/>
       <c r="J24" s="367"/>
       <c r="K24" s="367"/>
       <c r="L24" s="367"/>
@@ -35975,17 +36002,17 @@
       <c r="Q24" s="368"/>
     </row>
     <row r="25" spans="1:18" s="341" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="545" t="s">
+      <c r="A25" s="521" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="545"/>
-      <c r="C25" s="545"/>
-      <c r="D25" s="545"/>
-      <c r="E25" s="545"/>
-      <c r="F25" s="545"/>
-      <c r="G25" s="545"/>
-      <c r="H25" s="545"/>
-      <c r="I25" s="545"/>
+      <c r="B25" s="521"/>
+      <c r="C25" s="521"/>
+      <c r="D25" s="521"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="521"/>
+      <c r="G25" s="521"/>
+      <c r="H25" s="521"/>
+      <c r="I25" s="521"/>
       <c r="J25" s="369" t="s">
         <v>431</v>
       </c>
@@ -36014,12 +36041,12 @@
       <c r="E26" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="546" t="s">
+      <c r="F26" s="522" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="546"/>
-      <c r="H26" s="546"/>
-      <c r="I26" s="546"/>
+      <c r="G26" s="522"/>
+      <c r="H26" s="522"/>
+      <c r="I26" s="522"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36056,12 +36083,12 @@
       <c r="E27" s="345">
         <v>0</v>
       </c>
-      <c r="F27" s="536" t="s">
+      <c r="F27" s="523" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="537"/>
-      <c r="H27" s="537"/>
-      <c r="I27" s="538"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="524"/>
+      <c r="I27" s="525"/>
       <c r="J27" s="362" t="s">
         <v>374</v>
       </c>
@@ -36090,12 +36117,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="345"/>
-      <c r="F28" s="536" t="s">
+      <c r="F28" s="523" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="537"/>
-      <c r="H28" s="537"/>
-      <c r="I28" s="538"/>
+      <c r="G28" s="524"/>
+      <c r="H28" s="524"/>
+      <c r="I28" s="525"/>
       <c r="J28" s="365" t="s">
         <v>433</v>
       </c>
@@ -36124,12 +36151,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="346"/>
-      <c r="F29" s="521" t="s">
+      <c r="F29" s="529" t="s">
         <v>437</v>
       </c>
-      <c r="G29" s="522"/>
-      <c r="H29" s="522"/>
-      <c r="I29" s="523"/>
+      <c r="G29" s="530"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
       <c r="J29" s="346" t="s">
         <v>436</v>
       </c>
@@ -36161,12 +36188,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="346"/>
-      <c r="F30" s="521" t="s">
+      <c r="F30" s="529" t="s">
         <v>439</v>
       </c>
-      <c r="G30" s="522"/>
-      <c r="H30" s="522"/>
-      <c r="I30" s="523"/>
+      <c r="G30" s="530"/>
+      <c r="H30" s="530"/>
+      <c r="I30" s="531"/>
       <c r="J30" s="246" t="s">
         <v>440</v>
       </c>
@@ -36199,12 +36226,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="246"/>
-      <c r="F31" s="529" t="s">
+      <c r="F31" s="533" t="s">
         <v>444</v>
       </c>
-      <c r="G31" s="529"/>
-      <c r="H31" s="529"/>
-      <c r="I31" s="529"/>
+      <c r="G31" s="533"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="533"/>
       <c r="J31" s="246" t="s">
         <v>443</v>
       </c>
@@ -36233,12 +36260,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="246"/>
-      <c r="F32" s="539" t="s">
+      <c r="F32" s="537" t="s">
         <v>448</v>
       </c>
-      <c r="G32" s="540"/>
-      <c r="H32" s="540"/>
-      <c r="I32" s="541"/>
+      <c r="G32" s="538"/>
+      <c r="H32" s="538"/>
+      <c r="I32" s="539"/>
       <c r="J32" s="246" t="s">
         <v>447</v>
       </c>
@@ -36267,12 +36294,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="353"/>
-      <c r="F33" s="526" t="s">
+      <c r="F33" s="540" t="s">
         <v>451</v>
       </c>
-      <c r="G33" s="527"/>
-      <c r="H33" s="527"/>
-      <c r="I33" s="528"/>
+      <c r="G33" s="541"/>
+      <c r="H33" s="541"/>
+      <c r="I33" s="542"/>
       <c r="J33" s="351" t="s">
         <v>450</v>
       </c>
@@ -36309,12 +36336,12 @@
       <c r="E34" s="354">
         <v>0</v>
       </c>
-      <c r="F34" s="529" t="s">
+      <c r="F34" s="533" t="s">
         <v>425</v>
       </c>
-      <c r="G34" s="529"/>
-      <c r="H34" s="529"/>
-      <c r="I34" s="529"/>
+      <c r="G34" s="533"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="533"/>
       <c r="J34" s="346" t="s">
         <v>323</v>
       </c>
@@ -36344,12 +36371,12 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="346"/>
-      <c r="F35" s="530" t="s">
+      <c r="F35" s="526" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="522"/>
-      <c r="H35" s="522"/>
-      <c r="I35" s="522"/>
+      <c r="G35" s="530"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="530"/>
       <c r="J35" s="369" t="s">
         <v>453</v>
       </c>
@@ -36373,24 +36400,24 @@
       <c r="Q36" s="340"/>
     </row>
     <row r="37" spans="1:18" s="342" customFormat="1" ht="16.5">
-      <c r="A37" s="531" t="s">
+      <c r="A37" s="543" t="s">
         <v>454</v>
       </c>
-      <c r="B37" s="532"/>
-      <c r="C37" s="532"/>
-      <c r="D37" s="532"/>
-      <c r="E37" s="532"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="532"/>
-      <c r="H37" s="532"/>
-      <c r="I37" s="532"/>
-      <c r="J37" s="533" t="s">
+      <c r="B37" s="544"/>
+      <c r="C37" s="544"/>
+      <c r="D37" s="544"/>
+      <c r="E37" s="544"/>
+      <c r="F37" s="544"/>
+      <c r="G37" s="544"/>
+      <c r="H37" s="544"/>
+      <c r="I37" s="544"/>
+      <c r="J37" s="545" t="s">
         <v>455</v>
       </c>
-      <c r="K37" s="534"/>
-      <c r="L37" s="534"/>
-      <c r="M37" s="534"/>
-      <c r="N37" s="535"/>
+      <c r="K37" s="546"/>
+      <c r="L37" s="546"/>
+      <c r="M37" s="546"/>
+      <c r="N37" s="547"/>
     </row>
     <row r="38" spans="1:18" s="342" customFormat="1" ht="16.5">
       <c r="A38" s="344" t="s">
@@ -36408,12 +36435,12 @@
       <c r="E38" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="524" t="s">
+      <c r="F38" s="548" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="525"/>
-      <c r="H38" s="525"/>
-      <c r="I38" s="525"/>
+      <c r="G38" s="549"/>
+      <c r="H38" s="549"/>
+      <c r="I38" s="549"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -36446,12 +36473,12 @@
       <c r="E39" s="346">
         <v>0</v>
       </c>
-      <c r="F39" s="521" t="s">
+      <c r="F39" s="529" t="s">
         <v>375</v>
       </c>
-      <c r="G39" s="522"/>
-      <c r="H39" s="522"/>
-      <c r="I39" s="522"/>
+      <c r="G39" s="530"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="530"/>
       <c r="J39" s="100" t="s">
         <v>374</v>
       </c>
@@ -36482,12 +36509,12 @@
       <c r="E40" s="346">
         <v>0</v>
       </c>
-      <c r="F40" s="521" t="s">
+      <c r="F40" s="529" t="s">
         <v>458</v>
       </c>
-      <c r="G40" s="522"/>
-      <c r="H40" s="522"/>
-      <c r="I40" s="522"/>
+      <c r="G40" s="530"/>
+      <c r="H40" s="530"/>
+      <c r="I40" s="530"/>
       <c r="J40" s="346" t="s">
         <v>456</v>
       </c>
@@ -36497,12 +36524,12 @@
       <c r="L40" s="346">
         <v>10</v>
       </c>
-      <c r="M40" s="521" t="s">
+      <c r="M40" s="529" t="s">
         <v>458</v>
       </c>
-      <c r="N40" s="522"/>
-      <c r="O40" s="522"/>
-      <c r="P40" s="522"/>
+      <c r="N40" s="530"/>
+      <c r="O40" s="530"/>
+      <c r="P40" s="530"/>
     </row>
     <row r="41" spans="1:18" s="342" customFormat="1" ht="15.75">
       <c r="A41" s="346" t="s">
@@ -36520,12 +36547,12 @@
       <c r="E41" s="346">
         <v>0</v>
       </c>
-      <c r="F41" s="521" t="s">
+      <c r="F41" s="529" t="s">
         <v>460</v>
       </c>
-      <c r="G41" s="522"/>
-      <c r="H41" s="522"/>
-      <c r="I41" s="522"/>
+      <c r="G41" s="530"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="530"/>
       <c r="J41" s="346" t="s">
         <v>459</v>
       </c>
@@ -36535,12 +36562,12 @@
       <c r="L41" s="346">
         <v>4</v>
       </c>
-      <c r="M41" s="521" t="s">
+      <c r="M41" s="529" t="s">
         <v>460</v>
       </c>
-      <c r="N41" s="522"/>
-      <c r="O41" s="522"/>
-      <c r="P41" s="522"/>
+      <c r="N41" s="530"/>
+      <c r="O41" s="530"/>
+      <c r="P41" s="530"/>
     </row>
     <row r="42" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A42" s="346" t="s">
@@ -36558,12 +36585,12 @@
       <c r="E42" s="346">
         <v>0</v>
       </c>
-      <c r="F42" s="521" t="s">
+      <c r="F42" s="529" t="s">
         <v>463</v>
       </c>
-      <c r="G42" s="522"/>
-      <c r="H42" s="522"/>
-      <c r="I42" s="522"/>
+      <c r="G42" s="530"/>
+      <c r="H42" s="530"/>
+      <c r="I42" s="530"/>
       <c r="J42" s="346" t="s">
         <v>461</v>
       </c>
@@ -36573,12 +36600,12 @@
       <c r="L42" s="346">
         <v>4</v>
       </c>
-      <c r="M42" s="521" t="s">
+      <c r="M42" s="529" t="s">
         <v>463</v>
       </c>
-      <c r="N42" s="522"/>
-      <c r="O42" s="522"/>
-      <c r="P42" s="522"/>
+      <c r="N42" s="530"/>
+      <c r="O42" s="530"/>
+      <c r="P42" s="530"/>
     </row>
     <row r="43" spans="1:18" s="341" customFormat="1" ht="15.75">
       <c r="A43" s="346" t="s">
@@ -36596,12 +36623,12 @@
       <c r="E43" s="346">
         <v>0</v>
       </c>
-      <c r="F43" s="521" t="s">
+      <c r="F43" s="529" t="s">
         <v>382</v>
       </c>
-      <c r="G43" s="522"/>
-      <c r="H43" s="522"/>
-      <c r="I43" s="522"/>
+      <c r="G43" s="530"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="530"/>
       <c r="J43" s="346" t="s">
         <v>379</v>
       </c>
@@ -36611,12 +36638,12 @@
       <c r="L43" s="346">
         <v>4</v>
       </c>
-      <c r="M43" s="521" t="s">
+      <c r="M43" s="529" t="s">
         <v>382</v>
       </c>
-      <c r="N43" s="522"/>
-      <c r="O43" s="522"/>
-      <c r="P43" s="522"/>
+      <c r="N43" s="530"/>
+      <c r="O43" s="530"/>
+      <c r="P43" s="530"/>
     </row>
     <row r="44" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A44" s="346" t="s">
@@ -36634,12 +36661,12 @@
       <c r="E44" s="346">
         <v>0</v>
       </c>
-      <c r="F44" s="521" t="s">
+      <c r="F44" s="529" t="s">
         <v>466</v>
       </c>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
-      <c r="I44" s="522"/>
+      <c r="G44" s="530"/>
+      <c r="H44" s="530"/>
+      <c r="I44" s="530"/>
       <c r="J44" s="346" t="s">
         <v>464</v>
       </c>
@@ -36649,12 +36676,12 @@
       <c r="L44" s="346">
         <v>4</v>
       </c>
-      <c r="M44" s="521" t="s">
+      <c r="M44" s="529" t="s">
         <v>467</v>
       </c>
-      <c r="N44" s="522"/>
-      <c r="O44" s="522"/>
-      <c r="P44" s="522"/>
+      <c r="N44" s="530"/>
+      <c r="O44" s="530"/>
+      <c r="P44" s="530"/>
     </row>
     <row r="45" spans="1:18" s="340" customFormat="1" ht="33">
       <c r="A45" s="346" t="s">
@@ -36672,12 +36699,12 @@
       <c r="E45" s="346">
         <v>0</v>
       </c>
-      <c r="F45" s="521" t="s">
+      <c r="F45" s="529" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="522"/>
-      <c r="H45" s="522"/>
-      <c r="I45" s="522"/>
+      <c r="G45" s="530"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="530"/>
       <c r="J45" s="100" t="s">
         <v>468</v>
       </c>
@@ -36710,12 +36737,12 @@
       <c r="E46" s="346">
         <v>0</v>
       </c>
-      <c r="F46" s="521" t="s">
+      <c r="F46" s="529" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="522"/>
-      <c r="H46" s="522"/>
-      <c r="I46" s="522"/>
+      <c r="G46" s="530"/>
+      <c r="H46" s="530"/>
+      <c r="I46" s="530"/>
       <c r="J46" s="359" t="s">
         <v>326</v>
       </c>
@@ -36746,12 +36773,12 @@
       <c r="E47" s="346">
         <v>0</v>
       </c>
-      <c r="F47" s="521" t="s">
+      <c r="F47" s="529" t="s">
         <v>471</v>
       </c>
-      <c r="G47" s="522"/>
-      <c r="H47" s="522"/>
-      <c r="I47" s="523"/>
+      <c r="G47" s="530"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
       <c r="J47" s="100" t="s">
         <v>472</v>
       </c>
@@ -36782,12 +36809,12 @@
       <c r="E48" s="346">
         <v>3</v>
       </c>
-      <c r="F48" s="521" t="s">
+      <c r="F48" s="529" t="s">
         <v>475</v>
       </c>
-      <c r="G48" s="522"/>
-      <c r="H48" s="522"/>
-      <c r="I48" s="523"/>
+      <c r="G48" s="530"/>
+      <c r="H48" s="530"/>
+      <c r="I48" s="531"/>
       <c r="J48" s="100" t="s">
         <v>476</v>
       </c>
@@ -36816,12 +36843,12 @@
       <c r="E49" s="346">
         <v>0</v>
       </c>
-      <c r="F49" s="521" t="s">
+      <c r="F49" s="529" t="s">
         <v>397</v>
       </c>
-      <c r="G49" s="522"/>
-      <c r="H49" s="522"/>
-      <c r="I49" s="523"/>
+      <c r="G49" s="530"/>
+      <c r="H49" s="530"/>
+      <c r="I49" s="531"/>
       <c r="J49" s="346" t="s">
         <v>395</v>
       </c>
@@ -36941,12 +36968,12 @@
       <c r="E53" s="354">
         <v>0</v>
       </c>
-      <c r="F53" s="521" t="s">
+      <c r="F53" s="529" t="s">
         <v>425</v>
       </c>
-      <c r="G53" s="522"/>
-      <c r="H53" s="522"/>
-      <c r="I53" s="523"/>
+      <c r="G53" s="530"/>
+      <c r="H53" s="530"/>
+      <c r="I53" s="531"/>
       <c r="J53" s="346" t="s">
         <v>323</v>
       </c>
@@ -37893,59 +37920,59 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="M41:P41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37958,7 +37985,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38788,8 +38815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -39084,7 +39111,7 @@
       <c r="H12" s="304"/>
       <c r="I12" s="304"/>
     </row>
-    <row r="13" spans="1:13" s="235" customFormat="1">
+    <row r="13" spans="1:13" s="235" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="303" t="s">
         <v>565</v>
       </c>
@@ -39836,14 +39863,14 @@
       <c r="A2" s="271" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="569"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="570"/>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="571"/>
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="560"/>
+      <c r="F2" s="560"/>
+      <c r="G2" s="560"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="561"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
@@ -39897,12 +39924,12 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="572" t="s">
+      <c r="F4" s="562" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="573"/>
-      <c r="H4" s="573"/>
-      <c r="I4" s="574"/>
+      <c r="G4" s="563"/>
+      <c r="H4" s="563"/>
+      <c r="I4" s="564"/>
       <c r="J4" s="107"/>
       <c r="K4" s="100"/>
       <c r="L4" s="101"/>
@@ -39925,12 +39952,12 @@
       <c r="E5" s="280">
         <v>0</v>
       </c>
-      <c r="F5" s="575" t="s">
+      <c r="F5" s="565" t="s">
         <v>630</v>
       </c>
-      <c r="G5" s="576"/>
-      <c r="H5" s="576"/>
-      <c r="I5" s="577"/>
+      <c r="G5" s="566"/>
+      <c r="H5" s="566"/>
+      <c r="I5" s="567"/>
       <c r="J5" s="107" t="s">
         <v>621</v>
       </c>
@@ -39963,12 +39990,12 @@
       <c r="E6" s="280">
         <v>0</v>
       </c>
-      <c r="F6" s="575" t="s">
+      <c r="F6" s="565" t="s">
         <v>632</v>
       </c>
-      <c r="G6" s="576"/>
-      <c r="H6" s="576"/>
-      <c r="I6" s="578"/>
+      <c r="G6" s="566"/>
+      <c r="H6" s="566"/>
+      <c r="I6" s="568"/>
       <c r="J6" s="107" t="s">
         <v>623</v>
       </c>
@@ -40001,12 +40028,12 @@
       <c r="E7" s="281">
         <v>0</v>
       </c>
-      <c r="F7" s="559" t="s">
+      <c r="F7" s="569" t="s">
         <v>633</v>
       </c>
-      <c r="G7" s="560"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="561"/>
+      <c r="G7" s="570"/>
+      <c r="H7" s="570"/>
+      <c r="I7" s="571"/>
       <c r="J7" s="280" t="s">
         <v>338</v>
       </c>
@@ -40087,12 +40114,12 @@
       <c r="E10" s="280">
         <v>0</v>
       </c>
-      <c r="F10" s="562" t="s">
+      <c r="F10" s="572" t="s">
         <v>638</v>
       </c>
-      <c r="G10" s="563"/>
-      <c r="H10" s="563"/>
-      <c r="I10" s="564"/>
+      <c r="G10" s="573"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="574"/>
       <c r="J10" s="280" t="s">
         <v>637</v>
       </c>
@@ -40121,12 +40148,12 @@
       <c r="E11" s="280">
         <v>0</v>
       </c>
-      <c r="F11" s="565" t="s">
+      <c r="F11" s="575" t="s">
         <v>641</v>
       </c>
-      <c r="G11" s="566"/>
-      <c r="H11" s="566"/>
-      <c r="I11" s="567"/>
+      <c r="G11" s="576"/>
+      <c r="H11" s="576"/>
+      <c r="I11" s="577"/>
       <c r="J11" s="280" t="s">
         <v>640</v>
       </c>
@@ -40145,10 +40172,10 @@
       <c r="C12" s="278"/>
       <c r="D12" s="278"/>
       <c r="E12" s="278"/>
-      <c r="F12" s="565"/>
-      <c r="G12" s="566"/>
-      <c r="H12" s="566"/>
-      <c r="I12" s="568"/>
+      <c r="F12" s="575"/>
+      <c r="G12" s="576"/>
+      <c r="H12" s="576"/>
+      <c r="I12" s="578"/>
       <c r="J12" s="107"/>
       <c r="K12" s="100"/>
       <c r="L12" s="101"/>
@@ -40220,16 +40247,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9AE8E5-28C9-45C3-9E5E-90D02D51358F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DEAF93-7FD8-41FA-9E1A-ECBB5E7E9D61}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="735" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,7 @@
     <sheet name="11.质检结果判定接口MES-&gt;ERP" sheetId="42" r:id="rId15"/>
     <sheet name="12.销售交货单上下架需求" sheetId="39" r:id="rId16"/>
     <sheet name="13.上下架信息回传" sheetId="40" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="51" r:id="rId18"/>
-    <sheet name="14.库存对账接口" sheetId="50" r:id="rId19"/>
+    <sheet name="14.库存对账接口" sheetId="50" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目主计划!$A$4:$XEI$375</definedName>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1025">
   <si>
     <t>BTR SAP与MES系统对接</t>
   </si>
@@ -5232,6 +5231,10 @@
     <t>S:成功、E:失败</t>
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
+  <si>
+    <t>C：创建，U：修改：D：删除</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5243,7 +5246,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="89">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5811,12 +5814,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -7976,6 +7973,9 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8209,9 +8209,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -9235,7 +9232,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9260,16 +9257,16 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="516" t="s">
+      <c r="D1" s="517" t="s">
         <v>643</v>
       </c>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
       <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
@@ -9858,7 +9855,7 @@
       <c r="F23" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G23" s="580" t="s">
+      <c r="G23" s="502" t="s">
         <v>1023</v>
       </c>
       <c r="I23" s="24"/>
@@ -9947,8 +9944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10775,7 +10772,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10997,7 +10994,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13702,11 +13699,11 @@
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="579" t="s">
+      <c r="C3" s="580" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="579"/>
-      <c r="E3" s="579"/>
+      <c r="D3" s="580"/>
+      <c r="E3" s="580"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -14909,53 +14906,53 @@
       <c r="J52" s="93"/>
     </row>
     <row r="53" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B53" s="518" t="s">
+      <c r="B53" s="519" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="519"/>
-      <c r="D53" s="519"/>
-      <c r="E53" s="519"/>
-      <c r="F53" s="519"/>
-      <c r="G53" s="520"/>
+      <c r="C53" s="520"/>
+      <c r="D53" s="520"/>
+      <c r="E53" s="520"/>
+      <c r="F53" s="520"/>
+      <c r="G53" s="521"/>
       <c r="H53" s="31"/>
       <c r="I53" s="93"/>
       <c r="J53" s="93"/>
     </row>
     <row r="54" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B54" s="510" t="s">
+      <c r="B54" s="511" t="s">
         <v>990</v>
       </c>
-      <c r="C54" s="511"/>
-      <c r="D54" s="511"/>
-      <c r="E54" s="511"/>
-      <c r="F54" s="511"/>
-      <c r="G54" s="512"/>
+      <c r="C54" s="512"/>
+      <c r="D54" s="512"/>
+      <c r="E54" s="512"/>
+      <c r="F54" s="512"/>
+      <c r="G54" s="513"/>
       <c r="H54" s="31"/>
       <c r="I54" s="93"/>
       <c r="J54" s="93"/>
     </row>
     <row r="55" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B55" s="518" t="s">
+      <c r="B55" s="519" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="519"/>
-      <c r="D55" s="519"/>
-      <c r="E55" s="519"/>
-      <c r="F55" s="519"/>
-      <c r="G55" s="520"/>
+      <c r="C55" s="520"/>
+      <c r="D55" s="520"/>
+      <c r="E55" s="520"/>
+      <c r="F55" s="520"/>
+      <c r="G55" s="521"/>
       <c r="H55" s="31"/>
       <c r="I55" s="93"/>
       <c r="J55" s="93"/>
     </row>
     <row r="56" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B56" s="510" t="s">
+      <c r="B56" s="511" t="s">
         <v>991</v>
       </c>
-      <c r="C56" s="511"/>
-      <c r="D56" s="511"/>
-      <c r="E56" s="511"/>
-      <c r="F56" s="511"/>
-      <c r="G56" s="512"/>
+      <c r="C56" s="512"/>
+      <c r="D56" s="512"/>
+      <c r="E56" s="512"/>
+      <c r="F56" s="512"/>
+      <c r="G56" s="513"/>
       <c r="H56" s="31"/>
       <c r="I56" s="93"/>
       <c r="J56" s="93"/>
@@ -14990,13 +14987,13 @@
       <c r="B59" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="513" t="s">
+      <c r="C59" s="514" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="514"/>
-      <c r="E59" s="514"/>
-      <c r="F59" s="514"/>
-      <c r="G59" s="515"/>
+      <c r="D59" s="515"/>
+      <c r="E59" s="515"/>
+      <c r="F59" s="515"/>
+      <c r="G59" s="516"/>
       <c r="H59" s="31"/>
       <c r="I59" s="93"/>
       <c r="J59" s="93"/>
@@ -15005,13 +15002,13 @@
       <c r="B60" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="513" t="s">
+      <c r="C60" s="514" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="514"/>
-      <c r="E60" s="514"/>
-      <c r="F60" s="514"/>
-      <c r="G60" s="515"/>
+      <c r="D60" s="515"/>
+      <c r="E60" s="515"/>
+      <c r="F60" s="515"/>
+      <c r="G60" s="516"/>
       <c r="H60" s="31"/>
       <c r="I60" s="93"/>
       <c r="J60" s="93"/>
@@ -15020,13 +15017,13 @@
       <c r="B61" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="513" t="s">
+      <c r="C61" s="514" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="514"/>
-      <c r="E61" s="514"/>
-      <c r="F61" s="514"/>
-      <c r="G61" s="515"/>
+      <c r="D61" s="515"/>
+      <c r="E61" s="515"/>
+      <c r="F61" s="515"/>
+      <c r="G61" s="516"/>
       <c r="H61" s="31"/>
       <c r="I61" s="93"/>
       <c r="J61" s="93"/>
@@ -15065,7 +15062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E30" sqref="E26:E30"/>
     </sheetView>
   </sheetViews>
@@ -15109,11 +15106,11 @@
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="579" t="s">
+      <c r="C3" s="580" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="579"/>
-      <c r="E3" s="579"/>
+      <c r="D3" s="580"/>
+      <c r="E3" s="580"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -15876,53 +15873,53 @@
       <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B37" s="518" t="s">
+      <c r="B37" s="519" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="519"/>
-      <c r="D37" s="519"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="519"/>
-      <c r="G37" s="520"/>
+      <c r="C37" s="520"/>
+      <c r="D37" s="520"/>
+      <c r="E37" s="520"/>
+      <c r="F37" s="520"/>
+      <c r="G37" s="521"/>
       <c r="H37" s="31"/>
       <c r="I37" s="93"/>
       <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B38" s="510" t="s">
+      <c r="B38" s="511" t="s">
         <v>990</v>
       </c>
-      <c r="C38" s="511"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="512"/>
+      <c r="C38" s="512"/>
+      <c r="D38" s="512"/>
+      <c r="E38" s="512"/>
+      <c r="F38" s="512"/>
+      <c r="G38" s="513"/>
       <c r="H38" s="31"/>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B39" s="518" t="s">
+      <c r="B39" s="519" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="519"/>
-      <c r="D39" s="519"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="519"/>
-      <c r="G39" s="520"/>
+      <c r="C39" s="520"/>
+      <c r="D39" s="520"/>
+      <c r="E39" s="520"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="521"/>
       <c r="H39" s="31"/>
       <c r="I39" s="93"/>
       <c r="J39" s="93"/>
     </row>
     <row r="40" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B40" s="510" t="s">
+      <c r="B40" s="511" t="s">
         <v>991</v>
       </c>
-      <c r="C40" s="511"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
-      <c r="G40" s="512"/>
+      <c r="C40" s="512"/>
+      <c r="D40" s="512"/>
+      <c r="E40" s="512"/>
+      <c r="F40" s="512"/>
+      <c r="G40" s="513"/>
       <c r="H40" s="31"/>
       <c r="I40" s="93"/>
       <c r="J40" s="93"/>
@@ -15957,13 +15954,13 @@
       <c r="B43" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="513" t="s">
+      <c r="C43" s="514" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="514"/>
-      <c r="E43" s="514"/>
-      <c r="F43" s="514"/>
-      <c r="G43" s="515"/>
+      <c r="D43" s="515"/>
+      <c r="E43" s="515"/>
+      <c r="F43" s="515"/>
+      <c r="G43" s="516"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
@@ -15972,13 +15969,13 @@
       <c r="B44" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="513" t="s">
+      <c r="C44" s="514" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="514"/>
-      <c r="E44" s="514"/>
-      <c r="F44" s="514"/>
-      <c r="G44" s="515"/>
+      <c r="D44" s="515"/>
+      <c r="E44" s="515"/>
+      <c r="F44" s="515"/>
+      <c r="G44" s="516"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
@@ -15987,13 +15984,13 @@
       <c r="B45" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="513" t="s">
+      <c r="C45" s="514" t="s">
         <v>366</v>
       </c>
-      <c r="D45" s="514"/>
-      <c r="E45" s="514"/>
-      <c r="F45" s="514"/>
-      <c r="G45" s="515"/>
+      <c r="D45" s="515"/>
+      <c r="E45" s="515"/>
+      <c r="F45" s="515"/>
+      <c r="G45" s="516"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
@@ -16030,19 +16027,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974CE62-D65D-4666-8CA6-0A38015F8095}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="89" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -16069,14 +16053,14 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="516" t="s">
+      <c r="D1" s="517" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
       <c r="J1" s="18" t="s">
         <v>635</v>
       </c>
@@ -16354,614 +16338,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="428" customFormat="1" ht="29.25">
-      <c r="A1" s="502" t="s">
+      <c r="A1" s="503" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="502"/>
-      <c r="C1" s="502"/>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
-      <c r="N1" s="502"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="503"/>
+      <c r="L1" s="503"/>
+      <c r="M1" s="503"/>
+      <c r="N1" s="503"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="506" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="506" t="s">
+      <c r="D2" s="507" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="507" t="s">
+      <c r="E2" s="508" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="508" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="508" t="s">
+      <c r="G2" s="509" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508" t="s">
+      <c r="H2" s="509"/>
+      <c r="I2" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="508"/>
-      <c r="K2" s="507" t="s">
+      <c r="J2" s="509"/>
+      <c r="K2" s="508" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="507" t="s">
+      <c r="L2" s="508" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="505" t="s">
+      <c r="M2" s="506" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="505" t="s">
+      <c r="N2" s="506" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="503" t="s">
+      <c r="O2" s="504" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="503"/>
-      <c r="Q2" s="503"/>
-      <c r="R2" s="503"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="503"/>
-      <c r="U2" s="503"/>
-      <c r="V2" s="503"/>
-      <c r="W2" s="503"/>
-      <c r="X2" s="503"/>
-      <c r="Y2" s="503"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="503"/>
-      <c r="AB2" s="503"/>
-      <c r="AC2" s="503"/>
-      <c r="AD2" s="503"/>
-      <c r="AE2" s="503"/>
-      <c r="AF2" s="503"/>
-      <c r="AG2" s="503"/>
-      <c r="AH2" s="503"/>
-      <c r="AI2" s="503"/>
-      <c r="AJ2" s="503"/>
-      <c r="AK2" s="503"/>
-      <c r="AL2" s="503"/>
-      <c r="AM2" s="503"/>
-      <c r="AN2" s="503"/>
-      <c r="AO2" s="503"/>
-      <c r="AP2" s="503"/>
-      <c r="AQ2" s="504" t="s">
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="504"/>
+      <c r="S2" s="504"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="504"/>
+      <c r="AA2" s="504"/>
+      <c r="AB2" s="504"/>
+      <c r="AC2" s="504"/>
+      <c r="AD2" s="504"/>
+      <c r="AE2" s="504"/>
+      <c r="AF2" s="504"/>
+      <c r="AG2" s="504"/>
+      <c r="AH2" s="504"/>
+      <c r="AI2" s="504"/>
+      <c r="AJ2" s="504"/>
+      <c r="AK2" s="504"/>
+      <c r="AL2" s="504"/>
+      <c r="AM2" s="504"/>
+      <c r="AN2" s="504"/>
+      <c r="AO2" s="504"/>
+      <c r="AP2" s="504"/>
+      <c r="AQ2" s="505" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="503"/>
-      <c r="AS2" s="503"/>
-      <c r="AT2" s="503"/>
-      <c r="AU2" s="503"/>
-      <c r="AV2" s="503"/>
-      <c r="AW2" s="503"/>
-      <c r="AX2" s="503"/>
-      <c r="AY2" s="503"/>
-      <c r="AZ2" s="503"/>
-      <c r="BA2" s="503"/>
-      <c r="BB2" s="503"/>
-      <c r="BC2" s="503"/>
-      <c r="BD2" s="503"/>
-      <c r="BE2" s="503"/>
-      <c r="BF2" s="503"/>
-      <c r="BG2" s="503"/>
-      <c r="BH2" s="503"/>
-      <c r="BI2" s="503"/>
-      <c r="BJ2" s="503"/>
-      <c r="BK2" s="503"/>
-      <c r="BL2" s="503"/>
-      <c r="BM2" s="503"/>
-      <c r="BN2" s="503"/>
-      <c r="BO2" s="503"/>
-      <c r="BP2" s="503"/>
-      <c r="BQ2" s="503"/>
-      <c r="BR2" s="503"/>
-      <c r="BS2" s="503"/>
-      <c r="BT2" s="503"/>
-      <c r="BU2" s="503"/>
-      <c r="BV2" s="504" t="s">
+      <c r="AR2" s="504"/>
+      <c r="AS2" s="504"/>
+      <c r="AT2" s="504"/>
+      <c r="AU2" s="504"/>
+      <c r="AV2" s="504"/>
+      <c r="AW2" s="504"/>
+      <c r="AX2" s="504"/>
+      <c r="AY2" s="504"/>
+      <c r="AZ2" s="504"/>
+      <c r="BA2" s="504"/>
+      <c r="BB2" s="504"/>
+      <c r="BC2" s="504"/>
+      <c r="BD2" s="504"/>
+      <c r="BE2" s="504"/>
+      <c r="BF2" s="504"/>
+      <c r="BG2" s="504"/>
+      <c r="BH2" s="504"/>
+      <c r="BI2" s="504"/>
+      <c r="BJ2" s="504"/>
+      <c r="BK2" s="504"/>
+      <c r="BL2" s="504"/>
+      <c r="BM2" s="504"/>
+      <c r="BN2" s="504"/>
+      <c r="BO2" s="504"/>
+      <c r="BP2" s="504"/>
+      <c r="BQ2" s="504"/>
+      <c r="BR2" s="504"/>
+      <c r="BS2" s="504"/>
+      <c r="BT2" s="504"/>
+      <c r="BU2" s="504"/>
+      <c r="BV2" s="505" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="503"/>
-      <c r="BX2" s="503"/>
-      <c r="BY2" s="503"/>
-      <c r="BZ2" s="503"/>
-      <c r="CA2" s="503"/>
-      <c r="CB2" s="503"/>
-      <c r="CC2" s="503"/>
-      <c r="CD2" s="503"/>
-      <c r="CE2" s="503"/>
-      <c r="CF2" s="503"/>
-      <c r="CG2" s="503"/>
-      <c r="CH2" s="503"/>
-      <c r="CI2" s="503"/>
-      <c r="CJ2" s="503"/>
-      <c r="CK2" s="503"/>
-      <c r="CL2" s="503"/>
-      <c r="CM2" s="503"/>
-      <c r="CN2" s="503"/>
-      <c r="CO2" s="503"/>
-      <c r="CP2" s="503"/>
-      <c r="CQ2" s="503"/>
-      <c r="CR2" s="503"/>
-      <c r="CS2" s="503"/>
-      <c r="CT2" s="503"/>
-      <c r="CU2" s="503"/>
-      <c r="CV2" s="503"/>
-      <c r="CW2" s="503"/>
-      <c r="CX2" s="503"/>
-      <c r="CY2" s="503"/>
-      <c r="CZ2" s="503" t="s">
+      <c r="BW2" s="504"/>
+      <c r="BX2" s="504"/>
+      <c r="BY2" s="504"/>
+      <c r="BZ2" s="504"/>
+      <c r="CA2" s="504"/>
+      <c r="CB2" s="504"/>
+      <c r="CC2" s="504"/>
+      <c r="CD2" s="504"/>
+      <c r="CE2" s="504"/>
+      <c r="CF2" s="504"/>
+      <c r="CG2" s="504"/>
+      <c r="CH2" s="504"/>
+      <c r="CI2" s="504"/>
+      <c r="CJ2" s="504"/>
+      <c r="CK2" s="504"/>
+      <c r="CL2" s="504"/>
+      <c r="CM2" s="504"/>
+      <c r="CN2" s="504"/>
+      <c r="CO2" s="504"/>
+      <c r="CP2" s="504"/>
+      <c r="CQ2" s="504"/>
+      <c r="CR2" s="504"/>
+      <c r="CS2" s="504"/>
+      <c r="CT2" s="504"/>
+      <c r="CU2" s="504"/>
+      <c r="CV2" s="504"/>
+      <c r="CW2" s="504"/>
+      <c r="CX2" s="504"/>
+      <c r="CY2" s="504"/>
+      <c r="CZ2" s="504" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="503"/>
-      <c r="DB2" s="503"/>
-      <c r="DC2" s="503"/>
-      <c r="DD2" s="503"/>
-      <c r="DE2" s="503"/>
-      <c r="DF2" s="503"/>
-      <c r="DG2" s="503"/>
-      <c r="DH2" s="503"/>
-      <c r="DI2" s="503"/>
-      <c r="DJ2" s="503"/>
-      <c r="DK2" s="503"/>
-      <c r="DL2" s="503"/>
-      <c r="DM2" s="503"/>
-      <c r="DN2" s="503"/>
-      <c r="DO2" s="503"/>
-      <c r="DP2" s="503"/>
-      <c r="DQ2" s="503"/>
-      <c r="DR2" s="503"/>
-      <c r="DS2" s="503"/>
-      <c r="DT2" s="503"/>
-      <c r="DU2" s="503"/>
-      <c r="DV2" s="503"/>
-      <c r="DW2" s="503"/>
-      <c r="DX2" s="503"/>
-      <c r="DY2" s="503"/>
-      <c r="DZ2" s="503"/>
-      <c r="EA2" s="503"/>
-      <c r="EB2" s="503"/>
-      <c r="EC2" s="503"/>
-      <c r="ED2" s="503"/>
-      <c r="EE2" s="504" t="s">
+      <c r="DA2" s="504"/>
+      <c r="DB2" s="504"/>
+      <c r="DC2" s="504"/>
+      <c r="DD2" s="504"/>
+      <c r="DE2" s="504"/>
+      <c r="DF2" s="504"/>
+      <c r="DG2" s="504"/>
+      <c r="DH2" s="504"/>
+      <c r="DI2" s="504"/>
+      <c r="DJ2" s="504"/>
+      <c r="DK2" s="504"/>
+      <c r="DL2" s="504"/>
+      <c r="DM2" s="504"/>
+      <c r="DN2" s="504"/>
+      <c r="DO2" s="504"/>
+      <c r="DP2" s="504"/>
+      <c r="DQ2" s="504"/>
+      <c r="DR2" s="504"/>
+      <c r="DS2" s="504"/>
+      <c r="DT2" s="504"/>
+      <c r="DU2" s="504"/>
+      <c r="DV2" s="504"/>
+      <c r="DW2" s="504"/>
+      <c r="DX2" s="504"/>
+      <c r="DY2" s="504"/>
+      <c r="DZ2" s="504"/>
+      <c r="EA2" s="504"/>
+      <c r="EB2" s="504"/>
+      <c r="EC2" s="504"/>
+      <c r="ED2" s="504"/>
+      <c r="EE2" s="505" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="503"/>
-      <c r="EG2" s="503"/>
-      <c r="EH2" s="503"/>
-      <c r="EI2" s="503"/>
-      <c r="EJ2" s="503"/>
-      <c r="EK2" s="503"/>
-      <c r="EL2" s="503"/>
-      <c r="EM2" s="503"/>
-      <c r="EN2" s="503"/>
-      <c r="EO2" s="503"/>
-      <c r="EP2" s="503"/>
-      <c r="EQ2" s="503"/>
-      <c r="ER2" s="503"/>
-      <c r="ES2" s="503"/>
-      <c r="ET2" s="503"/>
-      <c r="EU2" s="503"/>
-      <c r="EV2" s="503"/>
-      <c r="EW2" s="503"/>
-      <c r="EX2" s="503"/>
-      <c r="EY2" s="503"/>
-      <c r="EZ2" s="503"/>
-      <c r="FA2" s="503"/>
-      <c r="FB2" s="503"/>
-      <c r="FC2" s="503"/>
-      <c r="FD2" s="503"/>
-      <c r="FE2" s="503"/>
-      <c r="FF2" s="503"/>
-      <c r="FG2" s="503"/>
-      <c r="FH2" s="503"/>
-      <c r="FI2" s="504" t="s">
+      <c r="EF2" s="504"/>
+      <c r="EG2" s="504"/>
+      <c r="EH2" s="504"/>
+      <c r="EI2" s="504"/>
+      <c r="EJ2" s="504"/>
+      <c r="EK2" s="504"/>
+      <c r="EL2" s="504"/>
+      <c r="EM2" s="504"/>
+      <c r="EN2" s="504"/>
+      <c r="EO2" s="504"/>
+      <c r="EP2" s="504"/>
+      <c r="EQ2" s="504"/>
+      <c r="ER2" s="504"/>
+      <c r="ES2" s="504"/>
+      <c r="ET2" s="504"/>
+      <c r="EU2" s="504"/>
+      <c r="EV2" s="504"/>
+      <c r="EW2" s="504"/>
+      <c r="EX2" s="504"/>
+      <c r="EY2" s="504"/>
+      <c r="EZ2" s="504"/>
+      <c r="FA2" s="504"/>
+      <c r="FB2" s="504"/>
+      <c r="FC2" s="504"/>
+      <c r="FD2" s="504"/>
+      <c r="FE2" s="504"/>
+      <c r="FF2" s="504"/>
+      <c r="FG2" s="504"/>
+      <c r="FH2" s="504"/>
+      <c r="FI2" s="505" t="s">
         <v>23</v>
       </c>
-      <c r="FJ2" s="504"/>
-      <c r="FK2" s="504"/>
-      <c r="FL2" s="504"/>
-      <c r="FM2" s="504"/>
-      <c r="FN2" s="504"/>
-      <c r="FO2" s="504"/>
-      <c r="FP2" s="504"/>
-      <c r="FQ2" s="504"/>
-      <c r="FR2" s="504"/>
-      <c r="FS2" s="504"/>
-      <c r="FT2" s="504"/>
-      <c r="FU2" s="504"/>
-      <c r="FV2" s="504"/>
-      <c r="FW2" s="504"/>
-      <c r="FX2" s="504"/>
-      <c r="FY2" s="504"/>
-      <c r="FZ2" s="504"/>
-      <c r="GA2" s="504"/>
-      <c r="GB2" s="504"/>
-      <c r="GC2" s="504"/>
-      <c r="GD2" s="504"/>
-      <c r="GE2" s="504"/>
-      <c r="GF2" s="504"/>
-      <c r="GG2" s="504"/>
-      <c r="GH2" s="504"/>
-      <c r="GI2" s="504"/>
-      <c r="GJ2" s="504"/>
-      <c r="GK2" s="504"/>
-      <c r="GL2" s="504"/>
-      <c r="GM2" s="504"/>
-      <c r="GN2" s="504" t="s">
+      <c r="FJ2" s="505"/>
+      <c r="FK2" s="505"/>
+      <c r="FL2" s="505"/>
+      <c r="FM2" s="505"/>
+      <c r="FN2" s="505"/>
+      <c r="FO2" s="505"/>
+      <c r="FP2" s="505"/>
+      <c r="FQ2" s="505"/>
+      <c r="FR2" s="505"/>
+      <c r="FS2" s="505"/>
+      <c r="FT2" s="505"/>
+      <c r="FU2" s="505"/>
+      <c r="FV2" s="505"/>
+      <c r="FW2" s="505"/>
+      <c r="FX2" s="505"/>
+      <c r="FY2" s="505"/>
+      <c r="FZ2" s="505"/>
+      <c r="GA2" s="505"/>
+      <c r="GB2" s="505"/>
+      <c r="GC2" s="505"/>
+      <c r="GD2" s="505"/>
+      <c r="GE2" s="505"/>
+      <c r="GF2" s="505"/>
+      <c r="GG2" s="505"/>
+      <c r="GH2" s="505"/>
+      <c r="GI2" s="505"/>
+      <c r="GJ2" s="505"/>
+      <c r="GK2" s="505"/>
+      <c r="GL2" s="505"/>
+      <c r="GM2" s="505"/>
+      <c r="GN2" s="505" t="s">
         <v>24</v>
       </c>
-      <c r="GO2" s="504"/>
-      <c r="GP2" s="504"/>
-      <c r="GQ2" s="504"/>
-      <c r="GR2" s="504"/>
-      <c r="GS2" s="504"/>
-      <c r="GT2" s="504"/>
-      <c r="GU2" s="504"/>
-      <c r="GV2" s="504"/>
-      <c r="GW2" s="504"/>
-      <c r="GX2" s="504"/>
-      <c r="GY2" s="504"/>
-      <c r="GZ2" s="504"/>
-      <c r="HA2" s="504"/>
-      <c r="HB2" s="504"/>
-      <c r="HC2" s="504"/>
-      <c r="HD2" s="504"/>
-      <c r="HE2" s="504"/>
-      <c r="HF2" s="504"/>
-      <c r="HG2" s="504"/>
-      <c r="HH2" s="504"/>
-      <c r="HI2" s="504"/>
-      <c r="HJ2" s="504"/>
-      <c r="HK2" s="504"/>
-      <c r="HL2" s="504"/>
-      <c r="HM2" s="504"/>
-      <c r="HN2" s="504"/>
-      <c r="HO2" s="504"/>
-      <c r="HP2" s="504"/>
-      <c r="HQ2" s="504"/>
-      <c r="HR2" s="504"/>
-      <c r="HS2" s="503" t="s">
+      <c r="GO2" s="505"/>
+      <c r="GP2" s="505"/>
+      <c r="GQ2" s="505"/>
+      <c r="GR2" s="505"/>
+      <c r="GS2" s="505"/>
+      <c r="GT2" s="505"/>
+      <c r="GU2" s="505"/>
+      <c r="GV2" s="505"/>
+      <c r="GW2" s="505"/>
+      <c r="GX2" s="505"/>
+      <c r="GY2" s="505"/>
+      <c r="GZ2" s="505"/>
+      <c r="HA2" s="505"/>
+      <c r="HB2" s="505"/>
+      <c r="HC2" s="505"/>
+      <c r="HD2" s="505"/>
+      <c r="HE2" s="505"/>
+      <c r="HF2" s="505"/>
+      <c r="HG2" s="505"/>
+      <c r="HH2" s="505"/>
+      <c r="HI2" s="505"/>
+      <c r="HJ2" s="505"/>
+      <c r="HK2" s="505"/>
+      <c r="HL2" s="505"/>
+      <c r="HM2" s="505"/>
+      <c r="HN2" s="505"/>
+      <c r="HO2" s="505"/>
+      <c r="HP2" s="505"/>
+      <c r="HQ2" s="505"/>
+      <c r="HR2" s="505"/>
+      <c r="HS2" s="504" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="503"/>
-      <c r="HU2" s="503"/>
-      <c r="HV2" s="503"/>
-      <c r="HW2" s="503"/>
-      <c r="HX2" s="503"/>
-      <c r="HY2" s="503"/>
-      <c r="HZ2" s="503"/>
-      <c r="IA2" s="503"/>
-      <c r="IB2" s="503"/>
-      <c r="IC2" s="503"/>
-      <c r="ID2" s="503"/>
+      <c r="HT2" s="504"/>
+      <c r="HU2" s="504"/>
+      <c r="HV2" s="504"/>
+      <c r="HW2" s="504"/>
+      <c r="HX2" s="504"/>
+      <c r="HY2" s="504"/>
+      <c r="HZ2" s="504"/>
+      <c r="IA2" s="504"/>
+      <c r="IB2" s="504"/>
+      <c r="IC2" s="504"/>
+      <c r="ID2" s="504"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="505"/>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="508"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="508"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="507"/>
-      <c r="M3" s="505"/>
-      <c r="N3" s="505"/>
-      <c r="O3" s="509" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="508"/>
+      <c r="M3" s="506"/>
+      <c r="N3" s="506"/>
+      <c r="O3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="509"/>
-      <c r="Q3" s="509"/>
-      <c r="R3" s="509"/>
-      <c r="S3" s="509"/>
-      <c r="T3" s="509"/>
-      <c r="U3" s="509"/>
-      <c r="V3" s="509" t="s">
+      <c r="P3" s="510"/>
+      <c r="Q3" s="510"/>
+      <c r="R3" s="510"/>
+      <c r="S3" s="510"/>
+      <c r="T3" s="510"/>
+      <c r="U3" s="510"/>
+      <c r="V3" s="510" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="509"/>
-      <c r="X3" s="509"/>
-      <c r="Y3" s="509"/>
-      <c r="Z3" s="509"/>
-      <c r="AA3" s="509"/>
-      <c r="AB3" s="509"/>
-      <c r="AC3" s="509" t="s">
+      <c r="W3" s="510"/>
+      <c r="X3" s="510"/>
+      <c r="Y3" s="510"/>
+      <c r="Z3" s="510"/>
+      <c r="AA3" s="510"/>
+      <c r="AB3" s="510"/>
+      <c r="AC3" s="510" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="509"/>
-      <c r="AE3" s="509"/>
-      <c r="AF3" s="509"/>
-      <c r="AG3" s="509"/>
-      <c r="AH3" s="509"/>
-      <c r="AI3" s="509"/>
-      <c r="AJ3" s="509" t="s">
+      <c r="AD3" s="510"/>
+      <c r="AE3" s="510"/>
+      <c r="AF3" s="510"/>
+      <c r="AG3" s="510"/>
+      <c r="AH3" s="510"/>
+      <c r="AI3" s="510"/>
+      <c r="AJ3" s="510" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="509"/>
-      <c r="AL3" s="509"/>
-      <c r="AM3" s="509"/>
-      <c r="AN3" s="509"/>
-      <c r="AO3" s="509"/>
-      <c r="AP3" s="509"/>
-      <c r="AQ3" s="509" t="s">
+      <c r="AK3" s="510"/>
+      <c r="AL3" s="510"/>
+      <c r="AM3" s="510"/>
+      <c r="AN3" s="510"/>
+      <c r="AO3" s="510"/>
+      <c r="AP3" s="510"/>
+      <c r="AQ3" s="510" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="509"/>
-      <c r="AS3" s="509"/>
-      <c r="AT3" s="509"/>
-      <c r="AU3" s="509"/>
-      <c r="AV3" s="509"/>
-      <c r="AW3" s="509"/>
-      <c r="AX3" s="509" t="s">
+      <c r="AR3" s="510"/>
+      <c r="AS3" s="510"/>
+      <c r="AT3" s="510"/>
+      <c r="AU3" s="510"/>
+      <c r="AV3" s="510"/>
+      <c r="AW3" s="510"/>
+      <c r="AX3" s="510" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="509"/>
-      <c r="AZ3" s="509"/>
-      <c r="BA3" s="509"/>
-      <c r="BB3" s="509"/>
-      <c r="BC3" s="509"/>
-      <c r="BD3" s="509"/>
-      <c r="BE3" s="509" t="s">
+      <c r="AY3" s="510"/>
+      <c r="AZ3" s="510"/>
+      <c r="BA3" s="510"/>
+      <c r="BB3" s="510"/>
+      <c r="BC3" s="510"/>
+      <c r="BD3" s="510"/>
+      <c r="BE3" s="510" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="509"/>
-      <c r="BG3" s="509"/>
-      <c r="BH3" s="509"/>
-      <c r="BI3" s="509"/>
-      <c r="BJ3" s="509"/>
-      <c r="BK3" s="509"/>
-      <c r="BL3" s="509" t="s">
+      <c r="BF3" s="510"/>
+      <c r="BG3" s="510"/>
+      <c r="BH3" s="510"/>
+      <c r="BI3" s="510"/>
+      <c r="BJ3" s="510"/>
+      <c r="BK3" s="510"/>
+      <c r="BL3" s="510" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="509"/>
-      <c r="BN3" s="509"/>
-      <c r="BO3" s="509"/>
-      <c r="BP3" s="509"/>
-      <c r="BQ3" s="509"/>
-      <c r="BR3" s="509"/>
-      <c r="BS3" s="509" t="s">
+      <c r="BM3" s="510"/>
+      <c r="BN3" s="510"/>
+      <c r="BO3" s="510"/>
+      <c r="BP3" s="510"/>
+      <c r="BQ3" s="510"/>
+      <c r="BR3" s="510"/>
+      <c r="BS3" s="510" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="509"/>
-      <c r="BU3" s="509"/>
-      <c r="BV3" s="509"/>
-      <c r="BW3" s="509"/>
-      <c r="BX3" s="509"/>
-      <c r="BY3" s="509"/>
-      <c r="BZ3" s="509" t="s">
+      <c r="BT3" s="510"/>
+      <c r="BU3" s="510"/>
+      <c r="BV3" s="510"/>
+      <c r="BW3" s="510"/>
+      <c r="BX3" s="510"/>
+      <c r="BY3" s="510"/>
+      <c r="BZ3" s="510" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="509"/>
-      <c r="CB3" s="509"/>
-      <c r="CC3" s="509"/>
-      <c r="CD3" s="509"/>
-      <c r="CE3" s="509"/>
-      <c r="CF3" s="509"/>
-      <c r="CG3" s="509" t="s">
+      <c r="CA3" s="510"/>
+      <c r="CB3" s="510"/>
+      <c r="CC3" s="510"/>
+      <c r="CD3" s="510"/>
+      <c r="CE3" s="510"/>
+      <c r="CF3" s="510"/>
+      <c r="CG3" s="510" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="509"/>
-      <c r="CI3" s="509"/>
-      <c r="CJ3" s="509"/>
-      <c r="CK3" s="509"/>
-      <c r="CL3" s="509"/>
-      <c r="CM3" s="509"/>
-      <c r="CN3" s="509" t="s">
+      <c r="CH3" s="510"/>
+      <c r="CI3" s="510"/>
+      <c r="CJ3" s="510"/>
+      <c r="CK3" s="510"/>
+      <c r="CL3" s="510"/>
+      <c r="CM3" s="510"/>
+      <c r="CN3" s="510" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="509"/>
-      <c r="CP3" s="509"/>
-      <c r="CQ3" s="509"/>
-      <c r="CR3" s="509"/>
-      <c r="CS3" s="509"/>
-      <c r="CT3" s="509"/>
-      <c r="CU3" s="509" t="s">
+      <c r="CO3" s="510"/>
+      <c r="CP3" s="510"/>
+      <c r="CQ3" s="510"/>
+      <c r="CR3" s="510"/>
+      <c r="CS3" s="510"/>
+      <c r="CT3" s="510"/>
+      <c r="CU3" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="509"/>
-      <c r="CW3" s="509"/>
-      <c r="CX3" s="509"/>
-      <c r="CY3" s="509"/>
-      <c r="CZ3" s="509"/>
-      <c r="DA3" s="509"/>
-      <c r="DB3" s="509" t="s">
+      <c r="CV3" s="510"/>
+      <c r="CW3" s="510"/>
+      <c r="CX3" s="510"/>
+      <c r="CY3" s="510"/>
+      <c r="CZ3" s="510"/>
+      <c r="DA3" s="510"/>
+      <c r="DB3" s="510" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="509"/>
-      <c r="DD3" s="509"/>
-      <c r="DE3" s="509"/>
-      <c r="DF3" s="509"/>
-      <c r="DG3" s="509"/>
-      <c r="DH3" s="509"/>
-      <c r="DI3" s="509" t="s">
+      <c r="DC3" s="510"/>
+      <c r="DD3" s="510"/>
+      <c r="DE3" s="510"/>
+      <c r="DF3" s="510"/>
+      <c r="DG3" s="510"/>
+      <c r="DH3" s="510"/>
+      <c r="DI3" s="510" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="509"/>
-      <c r="DK3" s="509"/>
-      <c r="DL3" s="509"/>
-      <c r="DM3" s="509"/>
-      <c r="DN3" s="509"/>
-      <c r="DO3" s="509"/>
-      <c r="DP3" s="509" t="s">
+      <c r="DJ3" s="510"/>
+      <c r="DK3" s="510"/>
+      <c r="DL3" s="510"/>
+      <c r="DM3" s="510"/>
+      <c r="DN3" s="510"/>
+      <c r="DO3" s="510"/>
+      <c r="DP3" s="510" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="509"/>
-      <c r="DR3" s="509"/>
-      <c r="DS3" s="509"/>
-      <c r="DT3" s="509"/>
-      <c r="DU3" s="509"/>
-      <c r="DV3" s="509"/>
-      <c r="DW3" s="509" t="s">
+      <c r="DQ3" s="510"/>
+      <c r="DR3" s="510"/>
+      <c r="DS3" s="510"/>
+      <c r="DT3" s="510"/>
+      <c r="DU3" s="510"/>
+      <c r="DV3" s="510"/>
+      <c r="DW3" s="510" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="509"/>
-      <c r="DY3" s="509"/>
-      <c r="DZ3" s="509"/>
-      <c r="EA3" s="509"/>
-      <c r="EB3" s="509"/>
-      <c r="EC3" s="509"/>
-      <c r="ED3" s="509" t="s">
+      <c r="DX3" s="510"/>
+      <c r="DY3" s="510"/>
+      <c r="DZ3" s="510"/>
+      <c r="EA3" s="510"/>
+      <c r="EB3" s="510"/>
+      <c r="EC3" s="510"/>
+      <c r="ED3" s="510" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="509"/>
-      <c r="EF3" s="509"/>
-      <c r="EG3" s="509"/>
-      <c r="EH3" s="509"/>
-      <c r="EI3" s="509"/>
-      <c r="EJ3" s="509"/>
-      <c r="EK3" s="509" t="s">
+      <c r="EE3" s="510"/>
+      <c r="EF3" s="510"/>
+      <c r="EG3" s="510"/>
+      <c r="EH3" s="510"/>
+      <c r="EI3" s="510"/>
+      <c r="EJ3" s="510"/>
+      <c r="EK3" s="510" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="509"/>
-      <c r="EM3" s="509"/>
-      <c r="EN3" s="509"/>
-      <c r="EO3" s="509"/>
-      <c r="EP3" s="509"/>
-      <c r="EQ3" s="509"/>
-      <c r="ER3" s="509" t="s">
+      <c r="EL3" s="510"/>
+      <c r="EM3" s="510"/>
+      <c r="EN3" s="510"/>
+      <c r="EO3" s="510"/>
+      <c r="EP3" s="510"/>
+      <c r="EQ3" s="510"/>
+      <c r="ER3" s="510" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="509"/>
-      <c r="ET3" s="509"/>
-      <c r="EU3" s="509"/>
-      <c r="EV3" s="509"/>
-      <c r="EW3" s="509"/>
-      <c r="EX3" s="509"/>
-      <c r="EY3" s="509" t="s">
+      <c r="ES3" s="510"/>
+      <c r="ET3" s="510"/>
+      <c r="EU3" s="510"/>
+      <c r="EV3" s="510"/>
+      <c r="EW3" s="510"/>
+      <c r="EX3" s="510"/>
+      <c r="EY3" s="510" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="509"/>
-      <c r="FA3" s="509"/>
-      <c r="FB3" s="509"/>
-      <c r="FC3" s="509"/>
-      <c r="FD3" s="509"/>
-      <c r="FE3" s="509"/>
-      <c r="FF3" s="509" t="s">
+      <c r="EZ3" s="510"/>
+      <c r="FA3" s="510"/>
+      <c r="FB3" s="510"/>
+      <c r="FC3" s="510"/>
+      <c r="FD3" s="510"/>
+      <c r="FE3" s="510"/>
+      <c r="FF3" s="510" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="509"/>
-      <c r="FH3" s="509"/>
-      <c r="FI3" s="509"/>
-      <c r="FJ3" s="509"/>
-      <c r="FK3" s="509"/>
-      <c r="FL3" s="509"/>
-      <c r="FM3" s="509" t="s">
+      <c r="FG3" s="510"/>
+      <c r="FH3" s="510"/>
+      <c r="FI3" s="510"/>
+      <c r="FJ3" s="510"/>
+      <c r="FK3" s="510"/>
+      <c r="FL3" s="510"/>
+      <c r="FM3" s="510" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="509"/>
-      <c r="FO3" s="509"/>
-      <c r="FP3" s="509"/>
-      <c r="FQ3" s="509"/>
-      <c r="FR3" s="509"/>
-      <c r="FS3" s="509"/>
-      <c r="FT3" s="509" t="s">
+      <c r="FN3" s="510"/>
+      <c r="FO3" s="510"/>
+      <c r="FP3" s="510"/>
+      <c r="FQ3" s="510"/>
+      <c r="FR3" s="510"/>
+      <c r="FS3" s="510"/>
+      <c r="FT3" s="510" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="509"/>
-      <c r="FV3" s="509"/>
-      <c r="FW3" s="509"/>
-      <c r="FX3" s="509"/>
-      <c r="FY3" s="509"/>
-      <c r="FZ3" s="509"/>
-      <c r="GA3" s="509" t="s">
+      <c r="FU3" s="510"/>
+      <c r="FV3" s="510"/>
+      <c r="FW3" s="510"/>
+      <c r="FX3" s="510"/>
+      <c r="FY3" s="510"/>
+      <c r="FZ3" s="510"/>
+      <c r="GA3" s="510" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="509"/>
-      <c r="GC3" s="509"/>
-      <c r="GD3" s="509"/>
-      <c r="GE3" s="509"/>
-      <c r="GF3" s="509"/>
-      <c r="GG3" s="509"/>
-      <c r="GH3" s="509" t="s">
+      <c r="GB3" s="510"/>
+      <c r="GC3" s="510"/>
+      <c r="GD3" s="510"/>
+      <c r="GE3" s="510"/>
+      <c r="GF3" s="510"/>
+      <c r="GG3" s="510"/>
+      <c r="GH3" s="510" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="509"/>
-      <c r="GJ3" s="509"/>
-      <c r="GK3" s="509"/>
-      <c r="GL3" s="509"/>
-      <c r="GM3" s="509"/>
-      <c r="GN3" s="509"/>
-      <c r="GO3" s="509" t="s">
+      <c r="GI3" s="510"/>
+      <c r="GJ3" s="510"/>
+      <c r="GK3" s="510"/>
+      <c r="GL3" s="510"/>
+      <c r="GM3" s="510"/>
+      <c r="GN3" s="510"/>
+      <c r="GO3" s="510" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="509"/>
-      <c r="GQ3" s="509"/>
-      <c r="GR3" s="509"/>
-      <c r="GS3" s="509"/>
-      <c r="GT3" s="509"/>
-      <c r="GU3" s="509"/>
-      <c r="GV3" s="509" t="s">
+      <c r="GP3" s="510"/>
+      <c r="GQ3" s="510"/>
+      <c r="GR3" s="510"/>
+      <c r="GS3" s="510"/>
+      <c r="GT3" s="510"/>
+      <c r="GU3" s="510"/>
+      <c r="GV3" s="510" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="509"/>
-      <c r="GX3" s="509"/>
-      <c r="GY3" s="509"/>
-      <c r="GZ3" s="509"/>
-      <c r="HA3" s="509"/>
-      <c r="HB3" s="509"/>
-      <c r="HC3" s="509" t="s">
+      <c r="GW3" s="510"/>
+      <c r="GX3" s="510"/>
+      <c r="GY3" s="510"/>
+      <c r="GZ3" s="510"/>
+      <c r="HA3" s="510"/>
+      <c r="HB3" s="510"/>
+      <c r="HC3" s="510" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="509"/>
-      <c r="HE3" s="509"/>
-      <c r="HF3" s="509"/>
-      <c r="HG3" s="509"/>
-      <c r="HH3" s="509"/>
-      <c r="HI3" s="509"/>
-      <c r="HJ3" s="509" t="s">
+      <c r="HD3" s="510"/>
+      <c r="HE3" s="510"/>
+      <c r="HF3" s="510"/>
+      <c r="HG3" s="510"/>
+      <c r="HH3" s="510"/>
+      <c r="HI3" s="510"/>
+      <c r="HJ3" s="510" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="509"/>
-      <c r="HL3" s="509"/>
-      <c r="HM3" s="509"/>
-      <c r="HN3" s="509"/>
-      <c r="HO3" s="509"/>
-      <c r="HP3" s="509"/>
-      <c r="HQ3" s="509" t="s">
+      <c r="HK3" s="510"/>
+      <c r="HL3" s="510"/>
+      <c r="HM3" s="510"/>
+      <c r="HN3" s="510"/>
+      <c r="HO3" s="510"/>
+      <c r="HP3" s="510"/>
+      <c r="HQ3" s="510" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="509"/>
-      <c r="HS3" s="509"/>
-      <c r="HT3" s="509"/>
-      <c r="HU3" s="509"/>
-      <c r="HV3" s="509"/>
-      <c r="HW3" s="509"/>
-      <c r="HX3" s="509" t="s">
+      <c r="HR3" s="510"/>
+      <c r="HS3" s="510"/>
+      <c r="HT3" s="510"/>
+      <c r="HU3" s="510"/>
+      <c r="HV3" s="510"/>
+      <c r="HW3" s="510"/>
+      <c r="HX3" s="510" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="509"/>
-      <c r="HZ3" s="509"/>
-      <c r="IA3" s="509"/>
-      <c r="IB3" s="509"/>
-      <c r="IC3" s="509"/>
-      <c r="ID3" s="509"/>
+      <c r="HY3" s="510"/>
+      <c r="HZ3" s="510"/>
+      <c r="IA3" s="510"/>
+      <c r="IB3" s="510"/>
+      <c r="IC3" s="510"/>
+      <c r="ID3" s="510"/>
     </row>
     <row r="4" spans="1:238" s="429" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="505"/>
-      <c r="B4" s="505"/>
-      <c r="C4" s="505"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="507"/>
+      <c r="A4" s="506"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
       <c r="G4" s="443" t="s">
         <v>58</v>
       </c>
@@ -16974,10 +16958,10 @@
       <c r="J4" s="442" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="507"/>
-      <c r="L4" s="507"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="505"/>
+      <c r="K4" s="508"/>
+      <c r="L4" s="508"/>
+      <c r="M4" s="506"/>
+      <c r="N4" s="506"/>
       <c r="O4" s="471">
         <v>43497</v>
       </c>
@@ -32533,7 +32517,7 @@
   <dimension ref="B1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -33952,7 +33936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -33988,26 +33972,26 @@
       <c r="F2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="516" t="s">
+      <c r="G2" s="517" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
-      <c r="M2" s="516"/>
-      <c r="N2" s="516"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="517"/>
+      <c r="N2" s="517"/>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="517" t="s">
+      <c r="C3" s="518" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="517"/>
-      <c r="E3" s="517"/>
+      <c r="D3" s="518"/>
+      <c r="E3" s="518"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -34669,8 +34653,8 @@
         <v>324</v>
       </c>
       <c r="G26" s="269"/>
-      <c r="H26" s="66" t="s">
-        <v>325</v>
+      <c r="H26" s="496" t="s">
+        <v>1024</v>
       </c>
       <c r="J26" s="98"/>
       <c r="L26" s="373" t="s">
@@ -35094,53 +35078,53 @@
       <c r="J42" s="93"/>
     </row>
     <row r="43" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B43" s="518" t="s">
+      <c r="B43" s="519" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="519"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="519"/>
-      <c r="G43" s="520"/>
+      <c r="C43" s="520"/>
+      <c r="D43" s="520"/>
+      <c r="E43" s="520"/>
+      <c r="F43" s="520"/>
+      <c r="G43" s="521"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
     </row>
     <row r="44" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B44" s="510" t="s">
+      <c r="B44" s="511" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="511"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="511"/>
-      <c r="F44" s="511"/>
-      <c r="G44" s="512"/>
+      <c r="C44" s="512"/>
+      <c r="D44" s="512"/>
+      <c r="E44" s="512"/>
+      <c r="F44" s="512"/>
+      <c r="G44" s="513"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
     </row>
     <row r="45" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B45" s="518" t="s">
+      <c r="B45" s="519" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="519"/>
-      <c r="D45" s="519"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="519"/>
-      <c r="G45" s="520"/>
+      <c r="C45" s="520"/>
+      <c r="D45" s="520"/>
+      <c r="E45" s="520"/>
+      <c r="F45" s="520"/>
+      <c r="G45" s="521"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
     </row>
     <row r="46" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B46" s="510" t="s">
+      <c r="B46" s="511" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="511"/>
-      <c r="D46" s="511"/>
-      <c r="E46" s="511"/>
-      <c r="F46" s="511"/>
-      <c r="G46" s="512"/>
+      <c r="C46" s="512"/>
+      <c r="D46" s="512"/>
+      <c r="E46" s="512"/>
+      <c r="F46" s="512"/>
+      <c r="G46" s="513"/>
       <c r="H46" s="31"/>
       <c r="I46" s="93"/>
       <c r="J46" s="93"/>
@@ -35174,13 +35158,13 @@
       <c r="B49" s="391" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="513" t="s">
+      <c r="C49" s="514" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="514"/>
-      <c r="E49" s="514"/>
-      <c r="F49" s="514"/>
-      <c r="G49" s="515"/>
+      <c r="D49" s="515"/>
+      <c r="E49" s="515"/>
+      <c r="F49" s="515"/>
+      <c r="G49" s="516"/>
       <c r="H49" s="31"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93"/>
@@ -35189,13 +35173,13 @@
       <c r="B50" s="391" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="513" t="s">
+      <c r="C50" s="514" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="514"/>
-      <c r="E50" s="514"/>
-      <c r="F50" s="514"/>
-      <c r="G50" s="515"/>
+      <c r="D50" s="515"/>
+      <c r="E50" s="515"/>
+      <c r="F50" s="515"/>
+      <c r="G50" s="516"/>
       <c r="H50" s="31"/>
       <c r="I50" s="93"/>
       <c r="J50" s="93"/>
@@ -35204,13 +35188,13 @@
       <c r="B51" s="391" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="513" t="s">
+      <c r="C51" s="514" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="514"/>
-      <c r="E51" s="514"/>
-      <c r="F51" s="514"/>
-      <c r="G51" s="515"/>
+      <c r="D51" s="515"/>
+      <c r="E51" s="515"/>
+      <c r="F51" s="515"/>
+      <c r="G51" s="516"/>
       <c r="H51" s="31"/>
       <c r="I51" s="93"/>
       <c r="J51" s="93"/>
@@ -35249,7 +35233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C63" sqref="C63:C64"/>
     </sheetView>
   </sheetViews>
@@ -35276,16 +35260,16 @@
       <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="516" t="s">
+      <c r="E2" s="517" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="J3" s="6" t="s">
@@ -35294,17 +35278,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="339" customFormat="1" ht="15.75">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="522" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="521"/>
-      <c r="E4" s="521"/>
-      <c r="F4" s="521"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="521"/>
-      <c r="I4" s="521"/>
+      <c r="B4" s="522"/>
+      <c r="C4" s="522"/>
+      <c r="D4" s="522"/>
+      <c r="E4" s="522"/>
+      <c r="F4" s="522"/>
+      <c r="G4" s="522"/>
+      <c r="H4" s="522"/>
+      <c r="I4" s="522"/>
     </row>
     <row r="5" spans="1:14" s="340" customFormat="1" ht="16.5">
       <c r="A5" s="344" t="s">
@@ -35322,12 +35306,12 @@
       <c r="E5" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="522" t="s">
+      <c r="F5" s="523" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="522"/>
-      <c r="H5" s="522"/>
-      <c r="I5" s="522"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="523"/>
+      <c r="I5" s="523"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35360,12 +35344,12 @@
       <c r="E6" s="345">
         <v>0</v>
       </c>
-      <c r="F6" s="523" t="s">
+      <c r="F6" s="524" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="524"/>
-      <c r="H6" s="524"/>
-      <c r="I6" s="525"/>
+      <c r="G6" s="525"/>
+      <c r="H6" s="525"/>
+      <c r="I6" s="526"/>
       <c r="J6" s="345" t="s">
         <v>374</v>
       </c>
@@ -35396,12 +35380,12 @@
       <c r="E7" s="346">
         <v>0</v>
       </c>
-      <c r="F7" s="526" t="s">
+      <c r="F7" s="527" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="527"/>
-      <c r="H7" s="527"/>
-      <c r="I7" s="528"/>
+      <c r="G7" s="528"/>
+      <c r="H7" s="528"/>
+      <c r="I7" s="529"/>
       <c r="J7" s="346" t="s">
         <v>376</v>
       </c>
@@ -35432,12 +35416,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="346"/>
-      <c r="F8" s="529" t="s">
+      <c r="F8" s="530" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="530"/>
-      <c r="H8" s="530"/>
-      <c r="I8" s="531"/>
+      <c r="G8" s="531"/>
+      <c r="H8" s="531"/>
+      <c r="I8" s="532"/>
       <c r="J8" s="346" t="s">
         <v>379</v>
       </c>
@@ -35470,12 +35454,12 @@
       <c r="E9" s="345">
         <v>0</v>
       </c>
-      <c r="F9" s="523" t="s">
+      <c r="F9" s="524" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="524"/>
-      <c r="H9" s="524"/>
-      <c r="I9" s="525"/>
+      <c r="G9" s="525"/>
+      <c r="H9" s="525"/>
+      <c r="I9" s="526"/>
       <c r="J9" s="345" t="s">
         <v>383</v>
       </c>
@@ -35508,12 +35492,12 @@
       <c r="E10" s="346">
         <v>0</v>
       </c>
-      <c r="F10" s="529" t="s">
+      <c r="F10" s="530" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="530"/>
-      <c r="H10" s="530"/>
-      <c r="I10" s="531"/>
+      <c r="G10" s="531"/>
+      <c r="H10" s="531"/>
+      <c r="I10" s="532"/>
       <c r="J10" s="346" t="s">
         <v>386</v>
       </c>
@@ -35544,12 +35528,12 @@
       <c r="E11" s="346">
         <v>0</v>
       </c>
-      <c r="F11" s="529" t="s">
+      <c r="F11" s="530" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="530"/>
-      <c r="H11" s="530"/>
-      <c r="I11" s="531"/>
+      <c r="G11" s="531"/>
+      <c r="H11" s="531"/>
+      <c r="I11" s="532"/>
       <c r="J11" s="346" t="s">
         <v>318</v>
       </c>
@@ -35580,12 +35564,12 @@
       <c r="E12" s="346">
         <v>3</v>
       </c>
-      <c r="F12" s="529" t="s">
+      <c r="F12" s="530" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="530"/>
-      <c r="H12" s="530"/>
-      <c r="I12" s="531"/>
+      <c r="G12" s="531"/>
+      <c r="H12" s="531"/>
+      <c r="I12" s="532"/>
       <c r="J12" s="346" t="s">
         <v>389</v>
       </c>
@@ -35616,12 +35600,12 @@
       <c r="E13" s="346">
         <v>3</v>
       </c>
-      <c r="F13" s="529" t="s">
+      <c r="F13" s="530" t="s">
         <v>394</v>
       </c>
-      <c r="G13" s="530"/>
-      <c r="H13" s="530"/>
-      <c r="I13" s="531"/>
+      <c r="G13" s="531"/>
+      <c r="H13" s="531"/>
+      <c r="I13" s="532"/>
       <c r="J13" s="346" t="s">
         <v>392</v>
       </c>
@@ -35652,12 +35636,12 @@
       <c r="E14" s="346">
         <v>0</v>
       </c>
-      <c r="F14" s="529" t="s">
+      <c r="F14" s="530" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="530"/>
-      <c r="H14" s="530"/>
-      <c r="I14" s="531"/>
+      <c r="G14" s="531"/>
+      <c r="H14" s="531"/>
+      <c r="I14" s="532"/>
       <c r="J14" s="346" t="s">
         <v>395</v>
       </c>
@@ -35690,12 +35674,12 @@
       <c r="E15" s="346">
         <v>3</v>
       </c>
-      <c r="F15" s="529" t="s">
+      <c r="F15" s="530" t="s">
         <v>401</v>
       </c>
-      <c r="G15" s="530"/>
-      <c r="H15" s="530"/>
-      <c r="I15" s="531"/>
+      <c r="G15" s="531"/>
+      <c r="H15" s="531"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="346" t="s">
         <v>399</v>
       </c>
@@ -35726,12 +35710,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="346"/>
-      <c r="F16" s="529" t="s">
+      <c r="F16" s="530" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="530"/>
-      <c r="H16" s="530"/>
-      <c r="I16" s="531"/>
+      <c r="G16" s="531"/>
+      <c r="H16" s="531"/>
+      <c r="I16" s="532"/>
       <c r="J16" s="346" t="s">
         <v>403</v>
       </c>
@@ -35758,12 +35742,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="346"/>
-      <c r="F17" s="529" t="s">
+      <c r="F17" s="530" t="s">
         <v>411</v>
       </c>
-      <c r="G17" s="530"/>
-      <c r="H17" s="530"/>
-      <c r="I17" s="531"/>
+      <c r="G17" s="531"/>
+      <c r="H17" s="531"/>
+      <c r="I17" s="532"/>
       <c r="J17" s="346" t="s">
         <v>408</v>
       </c>
@@ -35790,12 +35774,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="346"/>
-      <c r="F18" s="529" t="s">
+      <c r="F18" s="530" t="s">
         <v>414</v>
       </c>
-      <c r="G18" s="530"/>
-      <c r="H18" s="530"/>
-      <c r="I18" s="531"/>
+      <c r="G18" s="531"/>
+      <c r="H18" s="531"/>
+      <c r="I18" s="532"/>
       <c r="J18" s="346" t="s">
         <v>412</v>
       </c>
@@ -35822,12 +35806,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="346"/>
-      <c r="F19" s="529" t="s">
+      <c r="F19" s="530" t="s">
         <v>417</v>
       </c>
-      <c r="G19" s="530"/>
-      <c r="H19" s="530"/>
-      <c r="I19" s="531"/>
+      <c r="G19" s="531"/>
+      <c r="H19" s="531"/>
+      <c r="I19" s="532"/>
       <c r="J19" s="346" t="s">
         <v>415</v>
       </c>
@@ -35854,12 +35838,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="346"/>
-      <c r="F20" s="532" t="s">
+      <c r="F20" s="533" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="530"/>
-      <c r="H20" s="530"/>
-      <c r="I20" s="531"/>
+      <c r="G20" s="531"/>
+      <c r="H20" s="531"/>
+      <c r="I20" s="532"/>
       <c r="J20" s="346" t="s">
         <v>418</v>
       </c>
@@ -35886,12 +35870,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="346"/>
-      <c r="F21" s="532" t="s">
+      <c r="F21" s="533" t="s">
         <v>423</v>
       </c>
-      <c r="G21" s="530"/>
-      <c r="H21" s="530"/>
-      <c r="I21" s="531"/>
+      <c r="G21" s="531"/>
+      <c r="H21" s="531"/>
+      <c r="I21" s="532"/>
       <c r="J21" s="346" t="s">
         <v>421</v>
       </c>
@@ -35918,12 +35902,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="346"/>
-      <c r="F22" s="533" t="s">
+      <c r="F22" s="534" t="s">
         <v>425</v>
       </c>
-      <c r="G22" s="533"/>
-      <c r="H22" s="533"/>
-      <c r="I22" s="533"/>
+      <c r="G22" s="534"/>
+      <c r="H22" s="534"/>
+      <c r="I22" s="534"/>
       <c r="J22" s="346" t="s">
         <v>323</v>
       </c>
@@ -35954,12 +35938,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="345"/>
-      <c r="F23" s="534" t="s">
+      <c r="F23" s="535" t="s">
         <v>427</v>
       </c>
-      <c r="G23" s="535"/>
-      <c r="H23" s="535"/>
-      <c r="I23" s="536"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="536"/>
+      <c r="I23" s="537"/>
       <c r="J23" s="345" t="s">
         <v>426</v>
       </c>
@@ -35986,12 +35970,12 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="346"/>
-      <c r="F24" s="526" t="s">
+      <c r="F24" s="527" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="530"/>
-      <c r="H24" s="530"/>
-      <c r="I24" s="530"/>
+      <c r="G24" s="531"/>
+      <c r="H24" s="531"/>
+      <c r="I24" s="531"/>
       <c r="J24" s="367"/>
       <c r="K24" s="367"/>
       <c r="L24" s="367"/>
@@ -36002,17 +35986,17 @@
       <c r="Q24" s="368"/>
     </row>
     <row r="25" spans="1:18" s="341" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="522" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="521"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="521"/>
-      <c r="G25" s="521"/>
-      <c r="H25" s="521"/>
-      <c r="I25" s="521"/>
+      <c r="B25" s="522"/>
+      <c r="C25" s="522"/>
+      <c r="D25" s="522"/>
+      <c r="E25" s="522"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="522"/>
+      <c r="I25" s="522"/>
       <c r="J25" s="369" t="s">
         <v>431</v>
       </c>
@@ -36041,12 +36025,12 @@
       <c r="E26" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="522" t="s">
+      <c r="F26" s="523" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="522"/>
-      <c r="H26" s="522"/>
-      <c r="I26" s="522"/>
+      <c r="G26" s="523"/>
+      <c r="H26" s="523"/>
+      <c r="I26" s="523"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36083,12 +36067,12 @@
       <c r="E27" s="345">
         <v>0</v>
       </c>
-      <c r="F27" s="523" t="s">
+      <c r="F27" s="524" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="524"/>
-      <c r="H27" s="524"/>
-      <c r="I27" s="525"/>
+      <c r="G27" s="525"/>
+      <c r="H27" s="525"/>
+      <c r="I27" s="526"/>
       <c r="J27" s="362" t="s">
         <v>374</v>
       </c>
@@ -36117,12 +36101,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="345"/>
-      <c r="F28" s="523" t="s">
+      <c r="F28" s="524" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="524"/>
-      <c r="H28" s="524"/>
-      <c r="I28" s="525"/>
+      <c r="G28" s="525"/>
+      <c r="H28" s="525"/>
+      <c r="I28" s="526"/>
       <c r="J28" s="365" t="s">
         <v>433</v>
       </c>
@@ -36151,12 +36135,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="346"/>
-      <c r="F29" s="529" t="s">
+      <c r="F29" s="530" t="s">
         <v>437</v>
       </c>
-      <c r="G29" s="530"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
+      <c r="G29" s="531"/>
+      <c r="H29" s="531"/>
+      <c r="I29" s="532"/>
       <c r="J29" s="346" t="s">
         <v>436</v>
       </c>
@@ -36188,12 +36172,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="346"/>
-      <c r="F30" s="529" t="s">
+      <c r="F30" s="530" t="s">
         <v>439</v>
       </c>
-      <c r="G30" s="530"/>
-      <c r="H30" s="530"/>
-      <c r="I30" s="531"/>
+      <c r="G30" s="531"/>
+      <c r="H30" s="531"/>
+      <c r="I30" s="532"/>
       <c r="J30" s="246" t="s">
         <v>440</v>
       </c>
@@ -36226,12 +36210,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="246"/>
-      <c r="F31" s="533" t="s">
+      <c r="F31" s="534" t="s">
         <v>444</v>
       </c>
-      <c r="G31" s="533"/>
-      <c r="H31" s="533"/>
-      <c r="I31" s="533"/>
+      <c r="G31" s="534"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="246" t="s">
         <v>443</v>
       </c>
@@ -36260,12 +36244,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="246"/>
-      <c r="F32" s="537" t="s">
+      <c r="F32" s="538" t="s">
         <v>448</v>
       </c>
-      <c r="G32" s="538"/>
-      <c r="H32" s="538"/>
-      <c r="I32" s="539"/>
+      <c r="G32" s="539"/>
+      <c r="H32" s="539"/>
+      <c r="I32" s="540"/>
       <c r="J32" s="246" t="s">
         <v>447</v>
       </c>
@@ -36294,12 +36278,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="353"/>
-      <c r="F33" s="540" t="s">
+      <c r="F33" s="541" t="s">
         <v>451</v>
       </c>
-      <c r="G33" s="541"/>
-      <c r="H33" s="541"/>
-      <c r="I33" s="542"/>
+      <c r="G33" s="542"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="543"/>
       <c r="J33" s="351" t="s">
         <v>450</v>
       </c>
@@ -36336,12 +36320,12 @@
       <c r="E34" s="354">
         <v>0</v>
       </c>
-      <c r="F34" s="533" t="s">
+      <c r="F34" s="534" t="s">
         <v>425</v>
       </c>
-      <c r="G34" s="533"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="533"/>
+      <c r="G34" s="534"/>
+      <c r="H34" s="534"/>
+      <c r="I34" s="534"/>
       <c r="J34" s="346" t="s">
         <v>323</v>
       </c>
@@ -36371,12 +36355,12 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="346"/>
-      <c r="F35" s="526" t="s">
+      <c r="F35" s="527" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="530"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="530"/>
+      <c r="G35" s="531"/>
+      <c r="H35" s="531"/>
+      <c r="I35" s="531"/>
       <c r="J35" s="369" t="s">
         <v>453</v>
       </c>
@@ -36400,24 +36384,24 @@
       <c r="Q36" s="340"/>
     </row>
     <row r="37" spans="1:18" s="342" customFormat="1" ht="16.5">
-      <c r="A37" s="543" t="s">
+      <c r="A37" s="544" t="s">
         <v>454</v>
       </c>
-      <c r="B37" s="544"/>
-      <c r="C37" s="544"/>
-      <c r="D37" s="544"/>
-      <c r="E37" s="544"/>
-      <c r="F37" s="544"/>
-      <c r="G37" s="544"/>
-      <c r="H37" s="544"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="545" t="s">
+      <c r="B37" s="545"/>
+      <c r="C37" s="545"/>
+      <c r="D37" s="545"/>
+      <c r="E37" s="545"/>
+      <c r="F37" s="545"/>
+      <c r="G37" s="545"/>
+      <c r="H37" s="545"/>
+      <c r="I37" s="545"/>
+      <c r="J37" s="546" t="s">
         <v>455</v>
       </c>
-      <c r="K37" s="546"/>
-      <c r="L37" s="546"/>
-      <c r="M37" s="546"/>
-      <c r="N37" s="547"/>
+      <c r="K37" s="547"/>
+      <c r="L37" s="547"/>
+      <c r="M37" s="547"/>
+      <c r="N37" s="548"/>
     </row>
     <row r="38" spans="1:18" s="342" customFormat="1" ht="16.5">
       <c r="A38" s="344" t="s">
@@ -36435,12 +36419,12 @@
       <c r="E38" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="548" t="s">
+      <c r="F38" s="549" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="549"/>
-      <c r="H38" s="549"/>
-      <c r="I38" s="549"/>
+      <c r="G38" s="550"/>
+      <c r="H38" s="550"/>
+      <c r="I38" s="550"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -36473,12 +36457,12 @@
       <c r="E39" s="346">
         <v>0</v>
       </c>
-      <c r="F39" s="529" t="s">
+      <c r="F39" s="530" t="s">
         <v>375</v>
       </c>
-      <c r="G39" s="530"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="530"/>
+      <c r="G39" s="531"/>
+      <c r="H39" s="531"/>
+      <c r="I39" s="531"/>
       <c r="J39" s="100" t="s">
         <v>374</v>
       </c>
@@ -36509,12 +36493,12 @@
       <c r="E40" s="346">
         <v>0</v>
       </c>
-      <c r="F40" s="529" t="s">
+      <c r="F40" s="530" t="s">
         <v>458</v>
       </c>
-      <c r="G40" s="530"/>
-      <c r="H40" s="530"/>
-      <c r="I40" s="530"/>
+      <c r="G40" s="531"/>
+      <c r="H40" s="531"/>
+      <c r="I40" s="531"/>
       <c r="J40" s="346" t="s">
         <v>456</v>
       </c>
@@ -36524,12 +36508,12 @@
       <c r="L40" s="346">
         <v>10</v>
       </c>
-      <c r="M40" s="529" t="s">
+      <c r="M40" s="530" t="s">
         <v>458</v>
       </c>
-      <c r="N40" s="530"/>
-      <c r="O40" s="530"/>
-      <c r="P40" s="530"/>
+      <c r="N40" s="531"/>
+      <c r="O40" s="531"/>
+      <c r="P40" s="531"/>
     </row>
     <row r="41" spans="1:18" s="342" customFormat="1" ht="15.75">
       <c r="A41" s="346" t="s">
@@ -36547,12 +36531,12 @@
       <c r="E41" s="346">
         <v>0</v>
       </c>
-      <c r="F41" s="529" t="s">
+      <c r="F41" s="530" t="s">
         <v>460</v>
       </c>
-      <c r="G41" s="530"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="530"/>
+      <c r="G41" s="531"/>
+      <c r="H41" s="531"/>
+      <c r="I41" s="531"/>
       <c r="J41" s="346" t="s">
         <v>459</v>
       </c>
@@ -36562,12 +36546,12 @@
       <c r="L41" s="346">
         <v>4</v>
       </c>
-      <c r="M41" s="529" t="s">
+      <c r="M41" s="530" t="s">
         <v>460</v>
       </c>
-      <c r="N41" s="530"/>
-      <c r="O41" s="530"/>
-      <c r="P41" s="530"/>
+      <c r="N41" s="531"/>
+      <c r="O41" s="531"/>
+      <c r="P41" s="531"/>
     </row>
     <row r="42" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A42" s="346" t="s">
@@ -36585,12 +36569,12 @@
       <c r="E42" s="346">
         <v>0</v>
       </c>
-      <c r="F42" s="529" t="s">
+      <c r="F42" s="530" t="s">
         <v>463</v>
       </c>
-      <c r="G42" s="530"/>
-      <c r="H42" s="530"/>
-      <c r="I42" s="530"/>
+      <c r="G42" s="531"/>
+      <c r="H42" s="531"/>
+      <c r="I42" s="531"/>
       <c r="J42" s="346" t="s">
         <v>461</v>
       </c>
@@ -36600,12 +36584,12 @@
       <c r="L42" s="346">
         <v>4</v>
       </c>
-      <c r="M42" s="529" t="s">
+      <c r="M42" s="530" t="s">
         <v>463</v>
       </c>
-      <c r="N42" s="530"/>
-      <c r="O42" s="530"/>
-      <c r="P42" s="530"/>
+      <c r="N42" s="531"/>
+      <c r="O42" s="531"/>
+      <c r="P42" s="531"/>
     </row>
     <row r="43" spans="1:18" s="341" customFormat="1" ht="15.75">
       <c r="A43" s="346" t="s">
@@ -36623,12 +36607,12 @@
       <c r="E43" s="346">
         <v>0</v>
       </c>
-      <c r="F43" s="529" t="s">
+      <c r="F43" s="530" t="s">
         <v>382</v>
       </c>
-      <c r="G43" s="530"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="530"/>
+      <c r="G43" s="531"/>
+      <c r="H43" s="531"/>
+      <c r="I43" s="531"/>
       <c r="J43" s="346" t="s">
         <v>379</v>
       </c>
@@ -36638,12 +36622,12 @@
       <c r="L43" s="346">
         <v>4</v>
       </c>
-      <c r="M43" s="529" t="s">
+      <c r="M43" s="530" t="s">
         <v>382</v>
       </c>
-      <c r="N43" s="530"/>
-      <c r="O43" s="530"/>
-      <c r="P43" s="530"/>
+      <c r="N43" s="531"/>
+      <c r="O43" s="531"/>
+      <c r="P43" s="531"/>
     </row>
     <row r="44" spans="1:18" s="340" customFormat="1" ht="15.75">
       <c r="A44" s="346" t="s">
@@ -36661,12 +36645,12 @@
       <c r="E44" s="346">
         <v>0</v>
       </c>
-      <c r="F44" s="529" t="s">
+      <c r="F44" s="530" t="s">
         <v>466</v>
       </c>
-      <c r="G44" s="530"/>
-      <c r="H44" s="530"/>
-      <c r="I44" s="530"/>
+      <c r="G44" s="531"/>
+      <c r="H44" s="531"/>
+      <c r="I44" s="531"/>
       <c r="J44" s="346" t="s">
         <v>464</v>
       </c>
@@ -36676,12 +36660,12 @@
       <c r="L44" s="346">
         <v>4</v>
       </c>
-      <c r="M44" s="529" t="s">
+      <c r="M44" s="530" t="s">
         <v>467</v>
       </c>
-      <c r="N44" s="530"/>
-      <c r="O44" s="530"/>
-      <c r="P44" s="530"/>
+      <c r="N44" s="531"/>
+      <c r="O44" s="531"/>
+      <c r="P44" s="531"/>
     </row>
     <row r="45" spans="1:18" s="340" customFormat="1" ht="33">
       <c r="A45" s="346" t="s">
@@ -36699,12 +36683,12 @@
       <c r="E45" s="346">
         <v>0</v>
       </c>
-      <c r="F45" s="529" t="s">
+      <c r="F45" s="530" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="530"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="530"/>
+      <c r="G45" s="531"/>
+      <c r="H45" s="531"/>
+      <c r="I45" s="531"/>
       <c r="J45" s="100" t="s">
         <v>468</v>
       </c>
@@ -36737,12 +36721,12 @@
       <c r="E46" s="346">
         <v>0</v>
       </c>
-      <c r="F46" s="529" t="s">
+      <c r="F46" s="530" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="530"/>
-      <c r="H46" s="530"/>
-      <c r="I46" s="530"/>
+      <c r="G46" s="531"/>
+      <c r="H46" s="531"/>
+      <c r="I46" s="531"/>
       <c r="J46" s="359" t="s">
         <v>326</v>
       </c>
@@ -36773,12 +36757,12 @@
       <c r="E47" s="346">
         <v>0</v>
       </c>
-      <c r="F47" s="529" t="s">
+      <c r="F47" s="530" t="s">
         <v>471</v>
       </c>
-      <c r="G47" s="530"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
+      <c r="G47" s="531"/>
+      <c r="H47" s="531"/>
+      <c r="I47" s="532"/>
       <c r="J47" s="100" t="s">
         <v>472</v>
       </c>
@@ -36809,12 +36793,12 @@
       <c r="E48" s="346">
         <v>3</v>
       </c>
-      <c r="F48" s="529" t="s">
+      <c r="F48" s="530" t="s">
         <v>475</v>
       </c>
-      <c r="G48" s="530"/>
-      <c r="H48" s="530"/>
-      <c r="I48" s="531"/>
+      <c r="G48" s="531"/>
+      <c r="H48" s="531"/>
+      <c r="I48" s="532"/>
       <c r="J48" s="100" t="s">
         <v>476</v>
       </c>
@@ -36843,12 +36827,12 @@
       <c r="E49" s="346">
         <v>0</v>
       </c>
-      <c r="F49" s="529" t="s">
+      <c r="F49" s="530" t="s">
         <v>397</v>
       </c>
-      <c r="G49" s="530"/>
-      <c r="H49" s="530"/>
-      <c r="I49" s="531"/>
+      <c r="G49" s="531"/>
+      <c r="H49" s="531"/>
+      <c r="I49" s="532"/>
       <c r="J49" s="346" t="s">
         <v>395</v>
       </c>
@@ -36968,12 +36952,12 @@
       <c r="E53" s="354">
         <v>0</v>
       </c>
-      <c r="F53" s="529" t="s">
+      <c r="F53" s="530" t="s">
         <v>425</v>
       </c>
-      <c r="G53" s="530"/>
-      <c r="H53" s="530"/>
-      <c r="I53" s="531"/>
+      <c r="G53" s="531"/>
+      <c r="H53" s="531"/>
+      <c r="I53" s="532"/>
       <c r="J53" s="346" t="s">
         <v>323</v>
       </c>
@@ -37984,7 +37968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -38013,16 +37997,16 @@
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="516" t="s">
+      <c r="D2" s="517" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
       <c r="N2" s="331" t="s">
         <v>498</v>
       </c>
@@ -38815,8 +38799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -38840,45 +38824,45 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="516" t="s">
+      <c r="D1" s="517" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="552"/>
+      <c r="B2" s="552"/>
+      <c r="C2" s="552"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="553"/>
       <c r="J2" s="227" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="553" t="s">
+      <c r="A3" s="554" t="s">
         <v>545</v>
       </c>
-      <c r="B3" s="554"/>
-      <c r="C3" s="554"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="555"/>
+      <c r="B3" s="555"/>
+      <c r="C3" s="555"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="556"/>
       <c r="J3" s="6" t="s">
         <v>546</v>
       </c>
@@ -38900,12 +38884,12 @@
       <c r="E4" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="556" t="s">
+      <c r="F4" s="557" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="557"/>
-      <c r="H4" s="557"/>
-      <c r="I4" s="558"/>
+      <c r="G4" s="558"/>
+      <c r="H4" s="558"/>
+      <c r="I4" s="559"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="280" t="s">
@@ -39847,30 +39831,30 @@
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="516" t="s">
+      <c r="D1" s="517" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
       <c r="N1" s="284"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="271" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="560"/>
-      <c r="F2" s="560"/>
-      <c r="G2" s="560"/>
-      <c r="H2" s="560"/>
-      <c r="I2" s="561"/>
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="562"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
@@ -39924,12 +39908,12 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="562" t="s">
+      <c r="F4" s="563" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="563"/>
-      <c r="H4" s="563"/>
-      <c r="I4" s="564"/>
+      <c r="G4" s="564"/>
+      <c r="H4" s="564"/>
+      <c r="I4" s="565"/>
       <c r="J4" s="107"/>
       <c r="K4" s="100"/>
       <c r="L4" s="101"/>
@@ -39952,12 +39936,12 @@
       <c r="E5" s="280">
         <v>0</v>
       </c>
-      <c r="F5" s="565" t="s">
+      <c r="F5" s="566" t="s">
         <v>630</v>
       </c>
-      <c r="G5" s="566"/>
-      <c r="H5" s="566"/>
-      <c r="I5" s="567"/>
+      <c r="G5" s="567"/>
+      <c r="H5" s="567"/>
+      <c r="I5" s="568"/>
       <c r="J5" s="107" t="s">
         <v>621</v>
       </c>
@@ -39990,12 +39974,12 @@
       <c r="E6" s="280">
         <v>0</v>
       </c>
-      <c r="F6" s="565" t="s">
+      <c r="F6" s="566" t="s">
         <v>632</v>
       </c>
-      <c r="G6" s="566"/>
-      <c r="H6" s="566"/>
-      <c r="I6" s="568"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="567"/>
+      <c r="I6" s="569"/>
       <c r="J6" s="107" t="s">
         <v>623</v>
       </c>
@@ -40028,12 +40012,12 @@
       <c r="E7" s="281">
         <v>0</v>
       </c>
-      <c r="F7" s="569" t="s">
+      <c r="F7" s="570" t="s">
         <v>633</v>
       </c>
-      <c r="G7" s="570"/>
-      <c r="H7" s="570"/>
-      <c r="I7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="571"/>
+      <c r="I7" s="572"/>
       <c r="J7" s="280" t="s">
         <v>338</v>
       </c>
@@ -40084,12 +40068,12 @@
       <c r="E9" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="556" t="s">
+      <c r="F9" s="557" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="557"/>
-      <c r="H9" s="557"/>
-      <c r="I9" s="558"/>
+      <c r="G9" s="558"/>
+      <c r="H9" s="558"/>
+      <c r="I9" s="559"/>
       <c r="J9" s="290" t="s">
         <v>635</v>
       </c>
@@ -40114,12 +40098,12 @@
       <c r="E10" s="280">
         <v>0</v>
       </c>
-      <c r="F10" s="572" t="s">
+      <c r="F10" s="573" t="s">
         <v>638</v>
       </c>
-      <c r="G10" s="573"/>
-      <c r="H10" s="573"/>
-      <c r="I10" s="574"/>
+      <c r="G10" s="574"/>
+      <c r="H10" s="574"/>
+      <c r="I10" s="575"/>
       <c r="J10" s="280" t="s">
         <v>637</v>
       </c>
@@ -40148,12 +40132,12 @@
       <c r="E11" s="280">
         <v>0</v>
       </c>
-      <c r="F11" s="575" t="s">
+      <c r="F11" s="576" t="s">
         <v>641</v>
       </c>
-      <c r="G11" s="576"/>
-      <c r="H11" s="576"/>
-      <c r="I11" s="577"/>
+      <c r="G11" s="577"/>
+      <c r="H11" s="577"/>
+      <c r="I11" s="578"/>
       <c r="J11" s="280" t="s">
         <v>640</v>
       </c>
@@ -40172,10 +40156,10 @@
       <c r="C12" s="278"/>
       <c r="D12" s="278"/>
       <c r="E12" s="278"/>
-      <c r="F12" s="575"/>
-      <c r="G12" s="576"/>
-      <c r="H12" s="576"/>
-      <c r="I12" s="578"/>
+      <c r="F12" s="576"/>
+      <c r="G12" s="577"/>
+      <c r="H12" s="577"/>
+      <c r="I12" s="579"/>
       <c r="J12" s="107"/>
       <c r="K12" s="100"/>
       <c r="L12" s="101"/>

--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DEAF93-7FD8-41FA-9E1A-ECBB5E7E9D61}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C8DDA5-A04E-4485-9996-85554EF74090}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="735" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1031">
   <si>
     <t>BTR SAP与MES系统对接</t>
   </si>
@@ -2202,18 +2202,10 @@
     <t>生产发料退料接口</t>
   </si>
   <si>
-    <t>1.MES系统按备料单汇总领料时，仓管员在WMS释放调度权给生产部，同步调用此接口，MES系统按物料号、大批次汇总数量后通过接口在ERP系统311调拨到线边仓，SAP过账后返回结果。
-2.MES系统根据生产工单每发料或退料一次，按生产订单、物料号、大批次汇总，调用ERP接口实时传输过账，SAP过账后返回结果。
-3.   生产领料311调拨，发货库存地点为1001，收货6001；261线边仓发料，发货库存地点默认为6001，收货地点为空。</t>
-  </si>
-  <si>
     <t>Batch_PutTask</t>
   </si>
   <si>
     <t>输入说明（MES传输）</t>
-  </si>
-  <si>
-    <t>MES中间表：Batch_PutTask</t>
   </si>
   <si>
     <t>名称</t>
@@ -2558,45 +2550,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">261：生产投料
-262：生产退料
-311：调拨
-312:调拨冲销
-323：物料未做判定，还在质检库存发生调拨；
-324：物料未做判定，还在质检库存发生调拨的冲销；
-201：部门领料
-202：部门领料冲销；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>411：寄售库存转为自有库存；
-412：寄售库存转为自有库存的冲销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>311/312/261/262/Z61/Z62</t>
   </si>
   <si>
@@ -2735,9 +2688,6 @@
   </si>
   <si>
     <t>WRTNR_DESC</t>
-  </si>
-  <si>
-    <t>加工组说明</t>
   </si>
   <si>
     <r>
@@ -2793,18 +2743,12 @@
     <t>RU_XMNGA</t>
   </si>
   <si>
-    <t>产出的废品数</t>
-  </si>
-  <si>
     <t>MEINH</t>
   </si>
   <si>
     <t>RU_VORME</t>
   </si>
   <si>
-    <t>订单单位</t>
-  </si>
-  <si>
     <t>GRUND</t>
   </si>
   <si>
@@ -2823,9 +2767,6 @@
     <t>RU_ISMNG</t>
   </si>
   <si>
-    <t>机器工时值</t>
-  </si>
-  <si>
     <t>MACHUNIT</t>
   </si>
   <si>
@@ -2839,9 +2780,6 @@
   </si>
   <si>
     <t>LABORTIME</t>
-  </si>
-  <si>
-    <t>人工工时值</t>
   </si>
   <si>
     <t>LABORUNIT</t>
@@ -3088,14 +3026,6 @@
   </si>
   <si>
     <t>生产入库退库接口</t>
-  </si>
-  <si>
-    <t>1.MES系统先调用MM模块的物料标签的接口，生成标签并打印小批次标签。
-2.MES系统按生产订单、产品物料、大批次汇总数量，调用此接口在ERP过账并接受返回结果。
-3.生产入库默认库位7001</t>
-  </si>
-  <si>
-    <t>生产订单最后一道工序完成报入库，中间工序不需要报入库</t>
   </si>
   <si>
     <t>MES中间表：Production_storage_withdrawal</t>
@@ -3151,97 +3081,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编码的大批次</t>
-    </r>
-  </si>
-  <si>
     <t>HSDAT</t>
   </si>
   <si>
     <t>生产日期</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入库，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冲销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副产品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>531/532</t>
-    </r>
-  </si>
-  <si>
     <t>输入说明（SAP传输）</t>
   </si>
   <si>
@@ -3363,9 +3208,6 @@
   </si>
   <si>
     <t>MES输入：</t>
-  </si>
-  <si>
-    <t>MES中间表：batch_relationship</t>
   </si>
   <si>
     <t>Y</t>
@@ -5096,9 +4938,6 @@
 &lt;/soap:Envelope&gt;</t>
   </si>
   <si>
-    <t>SD：上下架信息回传</t>
-  </si>
-  <si>
     <t xml:space="preserve">MES中间表：Information_return </t>
   </si>
   <si>
@@ -5235,6 +5074,187 @@
     <t>C：创建，U：修改：D：删除</t>
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">261：生产投料
+262：生产退料
+311：调拨
+312:调拨冲销
+323：物料未做判定，还在质检库存发生调拨；
+324：物料未做判定，还在质检库存发生调拨的冲销；
+201：部门领料
+202：部门领料冲销；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>411：寄售库存转为自有库存；
+412：寄售库存转为自有库存的冲销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030：三元；2031：磷铁</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货库存地点</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MES系统按备料单汇总领料时，仓管员在WMS释放调度权给生产部，同步调用此接口，MES系统按物料号、大批次汇总数量后通过接口在ERP系统311调拨到线边仓，SAP过账后返回结果。
+2.MES系统根据生产工单每发料或退料一次，按生产订单、物料号、大批次汇总，调用ERP接口实时传输过账，SAP过账后返回结果。
+3.   生产领料311调拨，发货库存地点为1001，收货6001；261线边仓发料，发货库存地点默认为6001，收货地点为空。</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工组说明</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出的废品数</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单单位</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器工时值</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工工时值</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产订单最后一道工序完成报入库，中间工序不需要报入库</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MES系统先调用MM模块的物料标签的接口，生成标签并打印小批次标签。
+2.MES系统按生产订单、产品物料、大批次汇总数量，调用此接口在ERP过账并接受返回结果。
+3.生产入库默认库位7001</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码的大批次</t>
+    </r>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号码</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入库，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>531/532</t>
+    </r>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊库存标识</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单号</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD：上下架信息回传（销售发货）</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：batch_relationship</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：Batch_PutTask</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5246,7 +5266,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="89">
+  <fonts count="96">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5811,6 +5831,59 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -6560,7 +6633,7 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="591">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7976,15 +8049,43 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7994,12 +8095,6 @@
     <xf numFmtId="176" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8033,23 +8128,86 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8057,68 +8215,8 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8147,6 +8245,36 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8177,38 +8305,11 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -9231,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9251,39 +9352,39 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="517" t="s">
-        <v>643</v>
-      </c>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
+      <c r="D1" s="559" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
+      <c r="J1" s="525"/>
+      <c r="K1" s="525"/>
       <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="170" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2" t="s">
-        <v>644</v>
+        <v>498</v>
+      </c>
+      <c r="B2" s="508" t="s">
+        <v>1021</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
@@ -9291,25 +9392,25 @@
         <v>370</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>272</v>
@@ -9329,13 +9430,13 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="256" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -9343,43 +9444,43 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="256" t="s">
+        <v>504</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="27">
       <c r="A5" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>512</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M5" s="22"/>
     </row>
@@ -9388,10 +9489,10 @@
         <v>374</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -9402,11 +9503,11 @@
         <v>374</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M6" s="22"/>
     </row>
@@ -9415,10 +9516,10 @@
         <v>383</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -9429,11 +9530,11 @@
         <v>383</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K7" s="101"/>
       <c r="L7" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M7" s="22"/>
     </row>
@@ -9442,13 +9543,13 @@
         <v>476</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>520</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -9458,11 +9559,11 @@
         <v>476</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M8" s="22"/>
     </row>
@@ -9498,12 +9599,14 @@
         <v>464</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>5604</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -9516,7 +9619,7 @@
       </c>
       <c r="K10" s="101"/>
       <c r="L10" s="14" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="M10" s="23"/>
     </row>
@@ -9524,8 +9627,8 @@
       <c r="A11" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>491</v>
+      <c r="B11" s="505" t="s">
+        <v>1024</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>483</v>
@@ -9549,42 +9652,42 @@
     </row>
     <row r="12" spans="1:14" s="255" customFormat="1" ht="15">
       <c r="A12" s="257" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B12" s="258" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C12" s="259" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D12" s="260" t="s">
-        <v>651</v>
+        <v>1023</v>
       </c>
       <c r="E12" s="261"/>
       <c r="F12" s="261"/>
       <c r="G12" s="261"/>
       <c r="H12" s="261"/>
       <c r="I12" s="257" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="J12" s="259" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K12" s="269"/>
       <c r="L12" s="258" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="M12" s="270"/>
     </row>
     <row r="13" spans="1:14" s="255" customFormat="1" ht="15">
       <c r="A13" s="257" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B13" s="258" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C13" s="259" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D13" s="260"/>
       <c r="E13" s="261"/>
@@ -9592,43 +9695,43 @@
       <c r="G13" s="261"/>
       <c r="H13" s="261"/>
       <c r="I13" s="257" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="J13" s="259" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K13" s="269"/>
       <c r="L13" s="258" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="M13" s="270"/>
     </row>
     <row r="14" spans="1:14" s="255" customFormat="1" ht="30">
       <c r="A14" s="262" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="258" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="259" t="s">
         <v>524</v>
       </c>
-      <c r="B14" s="258" t="s">
-        <v>525</v>
-      </c>
-      <c r="C14" s="259" t="s">
-        <v>526</v>
-      </c>
       <c r="D14" s="259" t="s">
-        <v>654</v>
+        <v>1025</v>
       </c>
       <c r="E14" s="261"/>
       <c r="F14" s="261"/>
       <c r="G14" s="261"/>
       <c r="H14" s="261"/>
       <c r="I14" s="262" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" s="259" t="s">
         <v>524</v>
-      </c>
-      <c r="J14" s="259" t="s">
-        <v>526</v>
       </c>
       <c r="K14" s="269"/>
       <c r="L14" s="258" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M14" s="270"/>
     </row>
@@ -9636,8 +9739,8 @@
       <c r="A15" s="148" t="s">
         <v>478</v>
       </c>
-      <c r="B15" s="149" t="s">
-        <v>479</v>
+      <c r="B15" s="509" t="s">
+        <v>1026</v>
       </c>
       <c r="C15" s="148" t="s">
         <v>480</v>
@@ -9664,8 +9767,8 @@
       <c r="A16" s="148" t="s">
         <v>481</v>
       </c>
-      <c r="B16" s="149" t="s">
-        <v>482</v>
+      <c r="B16" s="509" t="s">
+        <v>1027</v>
       </c>
       <c r="C16" s="148" t="s">
         <v>483</v>
@@ -9714,18 +9817,18 @@
         <v>483</v>
       </c>
       <c r="K17" s="269"/>
-      <c r="L17" s="149" t="s">
-        <v>491</v>
+      <c r="L17" s="509" t="s">
+        <v>1024</v>
       </c>
       <c r="M17" s="264"/>
       <c r="N17" s="150"/>
     </row>
     <row r="18" spans="1:14" s="255" customFormat="1" ht="15">
       <c r="A18" s="148" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B18" s="265" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C18" s="148" t="s">
         <v>483</v>
@@ -9738,14 +9841,14 @@
       <c r="G18" s="267"/>
       <c r="H18" s="151"/>
       <c r="I18" s="265" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J18" s="265" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K18" s="148"/>
       <c r="L18" s="266" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M18" s="266"/>
       <c r="N18" s="150" t="s">
@@ -9760,7 +9863,7 @@
         <v>397</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -9771,7 +9874,7 @@
         <v>395</v>
       </c>
       <c r="J19" s="132" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="132" t="s">
@@ -9800,7 +9903,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5">
       <c r="A21" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -9856,7 +9959,7 @@
         <v>347</v>
       </c>
       <c r="G23" s="502" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -9884,7 +9987,7 @@
         <v>351</v>
       </c>
       <c r="G24" s="500" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -9969,13 +10072,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25">
       <c r="A1" s="142" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -9984,25 +10087,25 @@
         <v>370</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="144" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="144" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="144" t="s">
         <v>503</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>646</v>
-      </c>
-      <c r="G2" s="144" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="144" t="s">
-        <v>505</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>272</v>
@@ -10022,13 +10125,13 @@
     </row>
     <row r="3" spans="1:15" ht="33">
       <c r="A3" s="145" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B3" s="146" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C3" s="145" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D3" s="146"/>
       <c r="E3" s="144"/>
@@ -10036,28 +10139,28 @@
       <c r="G3" s="144"/>
       <c r="H3" s="144"/>
       <c r="I3" s="242" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="J3" s="100"/>
       <c r="K3" s="101"/>
       <c r="L3" s="146"/>
       <c r="M3" s="244"/>
       <c r="O3" s="245" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33">
       <c r="A4" s="146" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="146" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" s="146" t="s">
         <v>510</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>661</v>
-      </c>
-      <c r="D4" s="146" t="s">
-        <v>512</v>
       </c>
       <c r="E4" s="144"/>
       <c r="F4" s="144"/>
@@ -10074,10 +10177,10 @@
         <v>374</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C5" s="146" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D5" s="146"/>
       <c r="E5" s="144"/>
@@ -10095,10 +10198,10 @@
         <v>383</v>
       </c>
       <c r="B6" s="494" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D6" s="146"/>
       <c r="E6" s="144"/>
@@ -10116,13 +10219,13 @@
         <v>476</v>
       </c>
       <c r="B7" s="146" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>652</v>
+      </c>
+      <c r="D7" s="146" t="s">
         <v>518</v>
-      </c>
-      <c r="C7" s="146" t="s">
-        <v>664</v>
-      </c>
-      <c r="D7" s="146" t="s">
-        <v>520</v>
       </c>
       <c r="E7" s="144"/>
       <c r="F7" s="144"/>
@@ -10142,7 +10245,7 @@
         <v>397</v>
       </c>
       <c r="C8" s="146" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D8" s="146"/>
       <c r="E8" s="144"/>
@@ -10181,7 +10284,7 @@
         <v>464</v>
       </c>
       <c r="B10" s="146" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C10" s="146" t="s">
         <v>429</v>
@@ -10220,13 +10323,13 @@
     </row>
     <row r="12" spans="1:15" ht="33">
       <c r="A12" s="494" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="B12" s="146" t="s">
         <v>491</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D12" s="145"/>
       <c r="E12" s="144"/>
@@ -10241,13 +10344,13 @@
     </row>
     <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="146" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D13" s="145"/>
       <c r="E13" s="144"/>
@@ -10262,19 +10365,19 @@
     </row>
     <row r="14" spans="1:15" ht="34.5">
       <c r="A14" s="145" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B14" s="146" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D14" s="146" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E14" s="493" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -10354,13 +10457,13 @@
     </row>
     <row r="18" spans="1:13" ht="17.25">
       <c r="A18" s="132" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D18" s="146"/>
       <c r="E18" s="144"/>
@@ -10375,13 +10478,13 @@
     </row>
     <row r="19" spans="1:13" ht="17.25">
       <c r="A19" s="132" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D19" s="146"/>
       <c r="E19" s="144"/>
@@ -10396,13 +10499,13 @@
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="146" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D20" s="146"/>
       <c r="E20" s="144"/>
@@ -10417,16 +10520,16 @@
     </row>
     <row r="21" spans="1:13" ht="17.25">
       <c r="A21" s="146" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D21" s="146" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E21" s="144"/>
       <c r="F21" s="144"/>
@@ -10440,13 +10543,13 @@
     </row>
     <row r="22" spans="1:13" ht="17.25">
       <c r="A22" s="146" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D22" s="146"/>
       <c r="E22" s="144"/>
@@ -10461,13 +10564,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.25">
       <c r="A23" s="146" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B23" s="145" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D23" s="146"/>
       <c r="E23" s="144"/>
@@ -10482,13 +10585,13 @@
     </row>
     <row r="24" spans="1:13" ht="33">
       <c r="A24" s="146" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B24" s="145" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C24" s="145" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D24" s="146"/>
       <c r="E24" s="144"/>
@@ -10503,16 +10606,16 @@
     </row>
     <row r="25" spans="1:13" ht="51.75">
       <c r="A25" s="146" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C25" s="145" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E25" s="144"/>
       <c r="F25" s="144"/>
@@ -10528,13 +10631,13 @@
     </row>
     <row r="26" spans="1:13" s="143" customFormat="1" ht="17.25">
       <c r="A26" s="199" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B26" s="242" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C26" s="242" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D26" s="243"/>
       <c r="E26" s="187"/>
@@ -10549,13 +10652,13 @@
     </row>
     <row r="27" spans="1:13" s="143" customFormat="1" ht="17.25">
       <c r="A27" s="199" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B27" s="242" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C27" s="242" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D27" s="243"/>
       <c r="E27" s="187"/>
@@ -10570,13 +10673,13 @@
     </row>
     <row r="28" spans="1:13" s="143" customFormat="1" ht="17.25">
       <c r="A28" s="242" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B28" s="242" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C28" s="242" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D28" s="243"/>
       <c r="E28" s="187"/>
@@ -10610,7 +10713,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="170" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -10772,7 +10875,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10785,7 +10888,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="227" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33">
@@ -10810,8 +10913,8 @@
       <c r="G2" s="201" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>696</v>
+      <c r="I2" s="590" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5">
@@ -10828,10 +10931,10 @@
         <v>40</v>
       </c>
       <c r="E3" s="204" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3" s="211" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G3" s="207"/>
     </row>
@@ -10852,7 +10955,7 @@
     </row>
     <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -10958,7 +11061,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="232" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F9" s="234"/>
       <c r="G9" s="234"/>
@@ -10985,7 +11088,7 @@
   </sheetData>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11029,7 +11132,7 @@
         <v>277</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5">
@@ -11037,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="203" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" s="204" t="s">
         <v>405</v>
@@ -11046,11 +11149,11 @@
         <v>8</v>
       </c>
       <c r="E2" s="204" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F2" s="206"/>
       <c r="G2" s="207" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -11058,7 +11161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="208" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C3" s="204" t="s">
         <v>280</v>
@@ -11067,11 +11170,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="210" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="F3" s="211"/>
       <c r="G3" s="207" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33">
@@ -11079,7 +11182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C4" s="204" t="s">
         <v>280</v>
@@ -11088,11 +11191,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="204" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F4" s="211"/>
       <c r="G4" s="212" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -11109,10 +11212,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="204" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F5" s="210" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G5" s="215"/>
     </row>
@@ -11133,7 +11236,7 @@
         <v>382</v>
       </c>
       <c r="F6" s="211" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G6" s="215"/>
       <c r="L6">
@@ -11157,7 +11260,7 @@
         <v>471</v>
       </c>
       <c r="F7" s="211" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G7" s="212"/>
       <c r="L7">
@@ -11169,7 +11272,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="203" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C8" s="204" t="s">
         <v>280</v>
@@ -11178,11 +11281,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="204" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F8" s="211"/>
       <c r="G8" s="212" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="L8">
         <v>485</v>
@@ -11193,7 +11296,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="203" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C9" s="204" t="s">
         <v>280</v>
@@ -11202,11 +11305,11 @@
         <v>2</v>
       </c>
       <c r="E9" s="204" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F9" s="211"/>
       <c r="G9" s="207" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="L9">
         <v>511</v>
@@ -11226,10 +11329,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="210" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F10" s="211" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G10" s="212"/>
       <c r="L10">
@@ -11253,7 +11356,7 @@
         <v>397</v>
       </c>
       <c r="F11" s="211" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="G11" s="215"/>
       <c r="L11">
@@ -11265,7 +11368,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="203" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C12" s="204" t="s">
         <v>280</v>
@@ -11274,7 +11377,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="204" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F12" s="211"/>
       <c r="G12" s="215"/>
@@ -11287,7 +11390,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="216" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C13" s="204" t="s">
         <v>280</v>
@@ -11296,11 +11399,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="204" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F13" s="211"/>
       <c r="G13" s="212" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="L13">
         <v>526</v>
@@ -11311,7 +11414,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="217" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C14" s="218" t="s">
         <v>280</v>
@@ -11320,11 +11423,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="219" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F14" s="211"/>
       <c r="G14" s="212" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="L14">
         <v>526</v>
@@ -11335,7 +11438,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="203" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C15" s="218" t="s">
         <v>280</v>
@@ -11344,7 +11447,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="218" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F15" s="220"/>
       <c r="G15" s="215"/>
@@ -11357,7 +11460,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="203" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C16" s="218" t="s">
         <v>457</v>
@@ -11366,7 +11469,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="218" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F16" s="220"/>
       <c r="G16" s="215"/>
@@ -11376,7 +11479,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="203" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C17" s="218" t="s">
         <v>280</v>
@@ -11385,7 +11488,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="218" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F17" s="220"/>
       <c r="G17" s="215"/>
@@ -11393,7 +11496,7 @@
     <row r="18" spans="1:13" ht="33">
       <c r="A18" s="221"/>
       <c r="B18" s="222" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C18" s="197" t="s">
         <v>280</v>
@@ -11402,7 +11505,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="197" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F18" s="224"/>
       <c r="G18" s="225"/>
@@ -11410,7 +11513,7 @@
     <row r="19" spans="1:13" ht="16.5">
       <c r="A19" s="221"/>
       <c r="B19" s="226" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C19" s="197" t="s">
         <v>280</v>
@@ -11419,7 +11522,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="197" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="F19" s="224"/>
       <c r="G19" s="225"/>
@@ -11440,7 +11543,7 @@
     </row>
     <row r="22" spans="1:13" ht="42.75">
       <c r="A22" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -11562,7 +11665,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="176" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
@@ -11570,28 +11673,28 @@
         <v>370</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="144" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="144" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="144" t="s">
-        <v>646</v>
-      </c>
-      <c r="G2" s="144" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="144" t="s">
-        <v>505</v>
-      </c>
       <c r="J2" s="143" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -11599,10 +11702,10 @@
         <v>383</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D3" s="146"/>
       <c r="E3" s="144"/>
@@ -11618,7 +11721,7 @@
         <v>471</v>
       </c>
       <c r="C4" s="146" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D4" s="145"/>
       <c r="E4" s="144"/>
@@ -11626,21 +11729,21 @@
       <c r="G4" s="144"/>
       <c r="H4" s="144"/>
       <c r="J4" s="6" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="178" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C5" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D5" s="144" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E5" s="144"/>
       <c r="F5" s="144"/>
@@ -11648,16 +11751,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="178" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D6" s="144" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E6" s="144"/>
       <c r="F6" s="144"/>
@@ -11665,16 +11768,16 @@
     </row>
     <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="178" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C7" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D7" s="144" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="E7" s="144"/>
       <c r="F7" s="144"/>
@@ -11682,16 +11785,16 @@
     </row>
     <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="178" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B8" s="179" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C8" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D8" s="144" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="E8" s="144"/>
       <c r="F8" s="144"/>
@@ -11699,16 +11802,16 @@
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="178" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C9" s="146" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="180" t="s">
         <v>731</v>
-      </c>
-      <c r="D9" s="180" t="s">
-        <v>744</v>
       </c>
       <c r="F9" s="144"/>
       <c r="G9" s="144"/>
@@ -11716,16 +11819,16 @@
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="178" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="B10" s="179" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C10" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D10" s="144" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E10" s="144"/>
       <c r="F10" s="144"/>
@@ -11733,16 +11836,16 @@
     </row>
     <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="178" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="B11" s="181" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D11" s="182" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F11" s="144"/>
       <c r="G11" s="144"/>
@@ -11750,13 +11853,13 @@
     </row>
     <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="178" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B12" s="179" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="144"/>
@@ -11765,16 +11868,16 @@
     </row>
     <row r="13" spans="1:10" ht="34.5">
       <c r="A13" s="178" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="B13" s="179" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D13" s="144" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="E13" s="144"/>
       <c r="F13" s="144"/>
@@ -11782,16 +11885,16 @@
     </row>
     <row r="14" spans="1:10" ht="18">
       <c r="A14" s="178" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="E14" s="183"/>
       <c r="F14" s="144"/>
@@ -11799,16 +11902,16 @@
     </row>
     <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="178" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B15" s="179" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C15" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D15" s="182" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F15" s="144"/>
       <c r="G15" s="144"/>
@@ -11816,13 +11919,13 @@
     </row>
     <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="178" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="B16" s="179" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C16" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="144"/>
@@ -11832,13 +11935,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="178" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B17" s="179" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C17" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="144"/>
@@ -11848,13 +11951,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="178" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B18" s="181" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C18" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="144"/>
@@ -11864,13 +11967,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="178" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B19" s="181" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="144"/>
@@ -11880,13 +11983,13 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="178" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B20" s="181" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C20" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="144"/>
@@ -11896,13 +11999,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="178" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B21" s="179" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C21" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="144"/>
@@ -11912,13 +12015,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="178" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="B22" s="179" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C22" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="144"/>
@@ -11928,13 +12031,13 @@
     </row>
     <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="178" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="B23" s="179" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C23" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="144"/>
@@ -11944,16 +12047,16 @@
     </row>
     <row r="24" spans="1:8" ht="17.25">
       <c r="A24" s="178" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="B24" s="179" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C24" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D24" s="182" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E24" s="144"/>
       <c r="F24" s="144"/>
@@ -11961,13 +12064,13 @@
     </row>
     <row r="25" spans="1:8" ht="17.25">
       <c r="A25" s="178" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B25" s="181" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="C25" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="144"/>
@@ -11977,16 +12080,16 @@
     </row>
     <row r="26" spans="1:8" ht="17.25">
       <c r="A26" s="178" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="B26" s="179" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C26" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D26" s="182" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144"/>
@@ -11994,13 +12097,13 @@
     </row>
     <row r="27" spans="1:8" ht="17.25">
       <c r="A27" s="178" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="B27" s="184" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="C27" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D27" s="145"/>
       <c r="E27" s="144"/>
@@ -12010,13 +12113,13 @@
     </row>
     <row r="28" spans="1:8" ht="17.25">
       <c r="A28" s="178" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B28" s="181" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="C28" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D28" s="145"/>
       <c r="E28" s="144"/>
@@ -12026,16 +12129,16 @@
     </row>
     <row r="29" spans="1:8" ht="17.25">
       <c r="A29" s="178" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="B29" s="179" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="C29" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D29" s="182" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="E29" s="182"/>
       <c r="F29" s="144"/>
@@ -12043,16 +12146,16 @@
     </row>
     <row r="30" spans="1:8" ht="17.25">
       <c r="A30" s="178" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B30" s="179" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="C30" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D30" s="182" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="E30" s="182"/>
       <c r="F30" s="144"/>
@@ -12060,16 +12163,16 @@
     </row>
     <row r="31" spans="1:8" ht="17.25">
       <c r="A31" s="178" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B31" s="179" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C31" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D31" s="182" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F31" s="144"/>
       <c r="G31" s="144"/>
@@ -12077,16 +12180,16 @@
     </row>
     <row r="32" spans="1:8" ht="17.25">
       <c r="A32" s="178" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="B32" s="179" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C32" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="F32" s="144"/>
       <c r="G32" s="144"/>
@@ -12094,16 +12197,16 @@
     </row>
     <row r="33" spans="1:8" ht="17.25">
       <c r="A33" s="178" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="C33" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D33" s="182" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F33" s="144"/>
       <c r="G33" s="144"/>
@@ -12121,16 +12224,16 @@
     </row>
     <row r="35" spans="1:8" ht="17.25">
       <c r="A35" s="24" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C35" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D35" s="144" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="E35" s="189"/>
       <c r="F35" s="188"/>
@@ -12138,16 +12241,16 @@
     </row>
     <row r="36" spans="1:8" ht="17.25">
       <c r="A36" s="24" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D36" s="144" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="E36" s="189"/>
       <c r="F36" s="188"/>
@@ -12155,16 +12258,16 @@
     </row>
     <row r="37" spans="1:8" ht="17.25">
       <c r="A37" s="24" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B37" s="190" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C37" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D37" s="144" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="E37" s="189"/>
       <c r="F37" s="188"/>
@@ -12172,16 +12275,16 @@
     </row>
     <row r="38" spans="1:8" ht="17.25">
       <c r="A38" s="24" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="B38" s="191" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="C38" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="E38" s="189"/>
       <c r="F38" s="188"/>
@@ -12190,13 +12293,13 @@
     </row>
     <row r="39" spans="1:8" ht="17.25">
       <c r="A39" s="188" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B39" s="191" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C39" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D39" s="188"/>
       <c r="E39" s="189"/>
@@ -12205,13 +12308,13 @@
     </row>
     <row r="40" spans="1:8" ht="17.25">
       <c r="A40" s="188" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B40" s="191" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="C40" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D40" s="188"/>
       <c r="E40" s="189"/>
@@ -12221,13 +12324,13 @@
     </row>
     <row r="41" spans="1:8" ht="17.25">
       <c r="A41" s="188" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B41" s="191" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C41" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D41" s="188"/>
       <c r="E41" s="189"/>
@@ -12237,13 +12340,13 @@
     </row>
     <row r="42" spans="1:8" ht="17.25">
       <c r="A42" s="188" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B42" s="191" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="C42" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D42" s="188"/>
       <c r="E42" s="189"/>
@@ -12253,16 +12356,16 @@
     </row>
     <row r="43" spans="1:8" ht="17.25">
       <c r="A43" s="24" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="C43" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E43" s="189"/>
       <c r="F43" s="188"/>
@@ -12271,16 +12374,16 @@
     </row>
     <row r="44" spans="1:8" ht="17.25">
       <c r="A44" s="186" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="B44" s="192" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C44" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D44" s="186" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="E44" s="189"/>
       <c r="F44" s="188"/>
@@ -12289,16 +12392,16 @@
     </row>
     <row r="45" spans="1:8" ht="17.25">
       <c r="A45" s="186" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="B45" s="192" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="C45" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D45" s="186" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="E45" s="189"/>
       <c r="F45" s="188"/>
@@ -12307,16 +12410,16 @@
     </row>
     <row r="46" spans="1:8" ht="17.25">
       <c r="A46" s="186" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="B46" s="192" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C46" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D46" s="186" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F46" s="188"/>
       <c r="G46" s="188"/>
@@ -12324,16 +12427,16 @@
     </row>
     <row r="47" spans="1:8" ht="17.25">
       <c r="A47" s="24" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C47" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="F47" s="188"/>
       <c r="G47" s="188"/>
@@ -12341,16 +12444,16 @@
     </row>
     <row r="48" spans="1:8" ht="17.25">
       <c r="A48" s="24" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C48" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F48" s="188"/>
       <c r="G48" s="188"/>
@@ -12358,16 +12461,16 @@
     </row>
     <row r="49" spans="1:8" ht="17.25">
       <c r="A49" s="24" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="C49" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="F49" s="188"/>
       <c r="G49" s="188"/>
@@ -12375,16 +12478,16 @@
     </row>
     <row r="50" spans="1:8" ht="17.25">
       <c r="A50" s="24" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="B50" s="193" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F50" s="188"/>
       <c r="G50" s="188"/>
@@ -12392,16 +12495,16 @@
     </row>
     <row r="51" spans="1:8" ht="17.25">
       <c r="A51" s="24" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B51" s="193" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="F51" s="188"/>
       <c r="G51" s="188"/>
@@ -12409,16 +12512,16 @@
     </row>
     <row r="52" spans="1:8" ht="17.25">
       <c r="A52" s="24" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B52" s="193" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="F52" s="188"/>
       <c r="G52" s="188"/>
@@ -12426,16 +12529,16 @@
     </row>
     <row r="53" spans="1:8" ht="17.25">
       <c r="A53" s="24" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="B53" s="80" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C53" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F53" s="188"/>
       <c r="G53" s="188"/>
@@ -12443,16 +12546,16 @@
     </row>
     <row r="54" spans="1:8" ht="17.25">
       <c r="A54" s="24" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="B54" s="193" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F54" s="188"/>
       <c r="G54" s="188"/>
@@ -12460,16 +12563,16 @@
     </row>
     <row r="55" spans="1:8" ht="17.25">
       <c r="A55" s="24" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C55" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D55" s="141" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F55" s="188"/>
       <c r="G55" s="188"/>
@@ -12477,16 +12580,16 @@
     </row>
     <row r="56" spans="1:8" ht="17.25">
       <c r="A56" s="24" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="B56" s="80" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="C56" s="146" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F56" s="188"/>
       <c r="G56" s="188"/>
@@ -12504,10 +12607,10 @@
     </row>
     <row r="58" spans="1:8" ht="17.25">
       <c r="A58" s="196" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E58" s="188"/>
       <c r="F58" s="188"/>
@@ -12516,10 +12619,10 @@
     </row>
     <row r="59" spans="1:8" ht="17.25">
       <c r="A59" s="196" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="E59" s="188"/>
       <c r="F59" s="188"/>
@@ -12528,10 +12631,10 @@
     </row>
     <row r="60" spans="1:8" ht="17.25">
       <c r="A60" s="196" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B60" s="141" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E60" s="188"/>
       <c r="F60" s="188"/>
@@ -12540,10 +12643,10 @@
     </row>
     <row r="61" spans="1:8" ht="17.25">
       <c r="A61" s="196" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="B61" s="141" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E61" s="188"/>
       <c r="F61" s="188"/>
@@ -12552,10 +12655,10 @@
     </row>
     <row r="62" spans="1:8" ht="17.25">
       <c r="A62" s="196" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="B62" s="141" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E62" s="188"/>
       <c r="F62" s="188"/>
@@ -12564,10 +12667,10 @@
     </row>
     <row r="63" spans="1:8" ht="17.25">
       <c r="A63" s="196" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="B63" s="141" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E63" s="188"/>
       <c r="F63" s="188"/>
@@ -12576,10 +12679,10 @@
     </row>
     <row r="64" spans="1:8" ht="17.25">
       <c r="A64" s="196" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="B64" s="141" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E64" s="188"/>
       <c r="F64" s="188"/>
@@ -12588,10 +12691,10 @@
     </row>
     <row r="65" spans="1:8" ht="17.25">
       <c r="A65" s="196" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B65" s="141" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E65" s="188"/>
       <c r="F65" s="188"/>
@@ -12600,10 +12703,10 @@
     </row>
     <row r="66" spans="1:8" ht="17.25">
       <c r="A66" s="196" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="B66" s="141" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
@@ -12612,10 +12715,10 @@
     </row>
     <row r="67" spans="1:8" ht="17.25">
       <c r="A67" s="196" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="B67" s="141" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
@@ -12624,10 +12727,10 @@
     </row>
     <row r="68" spans="1:8" ht="17.25">
       <c r="A68" s="196" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="B68" s="141" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
@@ -12636,10 +12739,10 @@
     </row>
     <row r="69" spans="1:8" ht="17.25">
       <c r="A69" s="196" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="B69" s="141" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
@@ -12648,10 +12751,10 @@
     </row>
     <row r="70" spans="1:8" ht="17.25">
       <c r="A70" s="196" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="B70" s="141" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
@@ -12660,10 +12763,10 @@
     </row>
     <row r="71" spans="1:8" ht="17.25">
       <c r="A71" s="196" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B71" s="141" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
@@ -12672,10 +12775,10 @@
     </row>
     <row r="72" spans="1:8" ht="17.25">
       <c r="A72" s="196" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="B72" s="141" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
@@ -12684,10 +12787,10 @@
     </row>
     <row r="73" spans="1:8" ht="17.25">
       <c r="A73" s="196" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="B73" s="141" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
@@ -12696,10 +12799,10 @@
     </row>
     <row r="74" spans="1:8" ht="17.25">
       <c r="A74" s="196" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="B74" s="141" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E74" s="188"/>
       <c r="F74" s="188"/>
@@ -12708,10 +12811,10 @@
     </row>
     <row r="75" spans="1:8" ht="17.25">
       <c r="A75" s="196" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="B75" s="141" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="E75" s="188"/>
       <c r="F75" s="188"/>
@@ -12720,10 +12823,10 @@
     </row>
     <row r="76" spans="1:8" ht="17.25">
       <c r="A76" s="196" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="B76" s="141" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E76" s="188"/>
       <c r="F76" s="188"/>
@@ -12732,10 +12835,10 @@
     </row>
     <row r="77" spans="1:8" ht="17.25">
       <c r="A77" s="196" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="B77" s="141" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="E77" s="188"/>
       <c r="F77" s="188"/>
@@ -12744,13 +12847,13 @@
     </row>
     <row r="78" spans="1:8" ht="17.25">
       <c r="A78" s="197" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="B78" s="198" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C78" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D78" s="186"/>
       <c r="E78" s="188"/>
@@ -12760,13 +12863,13 @@
     </row>
     <row r="79" spans="1:8" ht="17.25">
       <c r="A79" s="197" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="B79" s="198" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C79" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D79" s="186"/>
       <c r="E79" s="188"/>
@@ -12776,13 +12879,13 @@
     </row>
     <row r="80" spans="1:8" ht="17.25">
       <c r="A80" s="197" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="B80" s="198" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C80" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D80" s="186"/>
       <c r="E80" s="188"/>
@@ -12792,13 +12895,13 @@
     </row>
     <row r="81" spans="1:13" ht="17.25">
       <c r="A81" s="197" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="B81" s="198" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C81" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D81" s="186"/>
       <c r="E81" s="188"/>
@@ -12808,13 +12911,13 @@
     </row>
     <row r="82" spans="1:13" ht="17.25">
       <c r="A82" s="197" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="B82" s="198" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C82" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D82" s="186"/>
       <c r="E82" s="188"/>
@@ -12824,13 +12927,13 @@
     </row>
     <row r="83" spans="1:13" ht="17.25">
       <c r="A83" s="197" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B83" s="198" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="C83" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D83" s="186"/>
       <c r="E83" s="188"/>
@@ -12840,13 +12943,13 @@
     </row>
     <row r="84" spans="1:13" ht="17.25">
       <c r="A84" s="197" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="B84" s="198" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="C84" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D84" s="186"/>
       <c r="E84" s="188"/>
@@ -12856,13 +12959,13 @@
     </row>
     <row r="85" spans="1:13" ht="17.25">
       <c r="A85" s="197" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B85" s="198" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C85" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D85" s="186"/>
       <c r="E85" s="188"/>
@@ -12872,13 +12975,13 @@
     </row>
     <row r="86" spans="1:13" ht="17.25">
       <c r="A86" s="197" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="B86" s="198" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="C86" s="199" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D86" s="186"/>
       <c r="E86" s="188"/>
@@ -12910,7 +13013,7 @@
     </row>
     <row r="90" spans="1:13" customFormat="1" ht="33">
       <c r="A90" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B90" s="60" t="s">
         <v>272</v>
@@ -13008,7 +13111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -13028,10 +13131,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
       <c r="A1" s="142" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" s="143" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25">
@@ -13039,36 +13142,36 @@
         <v>370</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="144" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="144" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="144" t="s">
         <v>503</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>646</v>
-      </c>
-      <c r="G2" s="144" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="144" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
       <c r="A3" s="501" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="B3" s="146" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C3" s="145" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D3" s="146"/>
       <c r="E3" s="144"/>
@@ -13076,21 +13179,21 @@
       <c r="G3" s="144"/>
       <c r="H3" s="144"/>
       <c r="I3" s="6" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="146" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="146" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="494" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D4" s="146" t="s">
         <v>510</v>
-      </c>
-      <c r="C4" s="494" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D4" s="146" t="s">
-        <v>512</v>
       </c>
       <c r="E4" s="144"/>
       <c r="F4" s="144"/>
@@ -13108,10 +13211,10 @@
         <v>374</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C5" s="146" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D5" s="146"/>
       <c r="E5" s="144"/>
@@ -13124,10 +13227,10 @@
         <v>383</v>
       </c>
       <c r="B6" s="146" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D6" s="146"/>
       <c r="E6" s="144"/>
@@ -13140,13 +13243,13 @@
         <v>476</v>
       </c>
       <c r="B7" s="494" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="146" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D7" s="494" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="144"/>
       <c r="F7" s="144"/>
@@ -13174,7 +13277,7 @@
         <v>464</v>
       </c>
       <c r="B9" s="146" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C9" s="146" t="s">
         <v>429</v>
@@ -13184,7 +13287,7 @@
       <c r="F9" s="144"/>
       <c r="G9" s="144"/>
       <c r="H9" s="147" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51.75">
@@ -13202,7 +13305,7 @@
       <c r="F10" s="144"/>
       <c r="G10" s="144"/>
       <c r="H10" s="147" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33">
@@ -13213,7 +13316,7 @@
         <v>491</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D11" s="145"/>
       <c r="E11" s="144"/>
@@ -13223,13 +13326,13 @@
     </row>
     <row r="12" spans="1:11" ht="17.25">
       <c r="A12" s="146" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B12" s="146" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D12" s="145"/>
       <c r="E12" s="144"/>
@@ -13239,20 +13342,20 @@
     </row>
     <row r="13" spans="1:11" ht="69">
       <c r="A13" s="145" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D13" s="146"/>
       <c r="E13" s="144"/>
       <c r="F13" s="144"/>
       <c r="G13" s="144"/>
       <c r="H13" s="147" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:11" customFormat="1" ht="15">
@@ -13279,7 +13382,7 @@
         <v>482</v>
       </c>
       <c r="C15" s="146" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D15" s="146"/>
       <c r="E15" s="144"/>
@@ -13295,7 +13398,7 @@
         <v>489</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="D16" s="146"/>
       <c r="E16" s="144"/>
@@ -13305,13 +13408,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="146" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B17" s="145" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D17" s="146"/>
       <c r="E17" s="144"/>
@@ -13321,13 +13424,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="146" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D18" s="146"/>
       <c r="E18" s="144"/>
@@ -13337,13 +13440,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="146" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D19" s="146"/>
       <c r="E19" s="144"/>
@@ -13353,16 +13456,16 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="146" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E20" s="144"/>
       <c r="F20" s="144"/>
@@ -13371,13 +13474,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="146" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D21" s="146"/>
       <c r="E21" s="144"/>
@@ -13387,13 +13490,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="146" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D22" s="146"/>
       <c r="E22" s="144"/>
@@ -13403,13 +13506,13 @@
     </row>
     <row r="23" spans="1:8" ht="33">
       <c r="A23" s="146" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B23" s="145" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D23" s="146"/>
       <c r="E23" s="144"/>
@@ -13419,34 +13522,34 @@
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="152" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="B24" s="498" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D24" s="152"/>
       <c r="E24" s="147"/>
       <c r="F24" s="147"/>
       <c r="G24" s="147"/>
       <c r="H24" s="499" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51.75">
       <c r="A25" s="146" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C25" s="145" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E25" s="144"/>
       <c r="F25" s="144"/>
@@ -13457,16 +13560,16 @@
     </row>
     <row r="26" spans="1:8" s="140" customFormat="1" ht="33">
       <c r="A26" s="154" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="B26" s="155" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D26" s="497" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="156"/>
       <c r="F26" s="156"/>
@@ -13475,38 +13578,38 @@
     </row>
     <row r="27" spans="1:8" s="140" customFormat="1" ht="33">
       <c r="A27" s="157" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="B27" s="158" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="C27" s="159" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D27" s="160"/>
       <c r="E27" s="161"/>
       <c r="F27" s="161"/>
       <c r="G27" s="161"/>
       <c r="H27" s="160" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="140" customFormat="1" ht="33">
       <c r="A28" s="162" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="B28" s="163" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="C28" s="164" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D28" s="163"/>
       <c r="E28" s="163"/>
       <c r="F28" s="163"/>
       <c r="G28" s="163"/>
       <c r="H28" s="163" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="140" customFormat="1" ht="17.25">
@@ -13555,7 +13658,7 @@
     </row>
     <row r="34" spans="1:13" customFormat="1">
       <c r="A34" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -13658,7 +13761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -13686,7 +13789,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
       <c r="B2" s="26" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -13699,11 +13802,11 @@
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="580" t="s">
+      <c r="C3" s="589" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="580"/>
-      <c r="E3" s="580"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="589"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -13782,7 +13885,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -13833,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>280</v>
@@ -13842,13 +13945,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>347</v>
       </c>
       <c r="H11" s="495" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="J11" s="135"/>
       <c r="L11" s="136"/>
@@ -13862,7 +13965,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>280</v>
@@ -13871,7 +13974,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>347</v>
@@ -13889,7 +13992,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>280</v>
@@ -13898,13 +14001,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="G13" s="65" t="s">
         <v>347</v>
       </c>
       <c r="H13" s="496" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="J13" s="98"/>
       <c r="L13" s="99"/>
@@ -13918,7 +14021,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>280</v>
@@ -13927,13 +14030,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>351</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="J14" s="98"/>
       <c r="L14" s="99"/>
@@ -13947,7 +14050,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>280</v>
@@ -13956,7 +14059,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="G15" s="65" t="s">
         <v>351</v>
@@ -13974,7 +14077,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>280</v>
@@ -13983,13 +14086,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="G16" s="65" t="s">
         <v>351</v>
       </c>
       <c r="H16" s="66" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="J16" s="98"/>
       <c r="L16" s="99"/>
@@ -14003,7 +14106,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>280</v>
@@ -14012,7 +14115,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="G17" s="65" t="s">
         <v>351</v>
@@ -14030,7 +14133,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>280</v>
@@ -14039,7 +14142,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="G18" s="65" t="s">
         <v>351</v>
@@ -14057,7 +14160,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>280</v>
@@ -14066,7 +14169,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="G19" s="65" t="s">
         <v>351</v>
@@ -14120,13 +14223,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="G21" s="65" t="s">
         <v>351</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="J21" s="98"/>
       <c r="L21" s="99"/>
@@ -14149,7 +14252,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G22" s="65" t="s">
         <v>347</v>
@@ -14176,7 +14279,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="G23" s="65" t="s">
         <v>351</v>
@@ -14194,7 +14297,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>280</v>
@@ -14203,7 +14306,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>351</v>
@@ -14221,7 +14324,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>280</v>
@@ -14230,7 +14333,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="G25" s="65" t="s">
         <v>351</v>
@@ -14248,16 +14351,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>297</v>
       </c>
       <c r="E26" s="129" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="G26" s="65" t="s">
         <v>351</v>
@@ -14302,16 +14405,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="D28" s="129" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="E28" s="129">
         <v>8</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="G28" s="65" t="s">
         <v>347</v>
@@ -14329,10 +14432,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="D29" s="129" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="E29" s="129">
         <v>8</v>
@@ -14356,7 +14459,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>410</v>
@@ -14365,7 +14468,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="G30" s="65" t="s">
         <v>347</v>
@@ -14383,7 +14486,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>280</v>
@@ -14392,7 +14495,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G31" s="65" t="s">
         <v>351</v>
@@ -14410,7 +14513,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="D32" s="64" t="s">
         <v>280</v>
@@ -14419,7 +14522,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G32" s="65" t="s">
         <v>351</v>
@@ -14437,7 +14540,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>280</v>
@@ -14446,7 +14549,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G33" s="65" t="s">
         <v>351</v>
@@ -14464,7 +14567,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>280</v>
@@ -14473,7 +14576,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G34" s="65" t="s">
         <v>351</v>
@@ -14491,7 +14594,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="D35" s="64" t="s">
         <v>280</v>
@@ -14500,7 +14603,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="65" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G35" s="65" t="s">
         <v>351</v>
@@ -14518,7 +14621,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="D36" s="64" t="s">
         <v>280</v>
@@ -14527,7 +14630,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="65" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G36" s="65" t="s">
         <v>351</v>
@@ -14545,7 +14648,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="D37" s="64" t="s">
         <v>280</v>
@@ -14554,7 +14657,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G37" s="65" t="s">
         <v>351</v>
@@ -14572,7 +14675,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="D38" s="64" t="s">
         <v>280</v>
@@ -14581,7 +14684,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="G38" s="65" t="s">
         <v>351</v>
@@ -14599,7 +14702,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>280</v>
@@ -14608,7 +14711,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="65" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="G39" s="65" t="s">
         <v>351</v>
@@ -14626,7 +14729,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="D40" s="64" t="s">
         <v>280</v>
@@ -14635,7 +14738,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="65" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="G40" s="65" t="s">
         <v>351</v>
@@ -14814,7 +14917,7 @@
         <v>347</v>
       </c>
       <c r="H48" s="85" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="J48" s="115"/>
       <c r="L48" s="116" t="s">
@@ -14830,7 +14933,7 @@
         <v>346</v>
       </c>
       <c r="P48" s="120" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="16.5">
@@ -14906,53 +15009,53 @@
       <c r="J52" s="93"/>
     </row>
     <row r="53" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B53" s="519" t="s">
+      <c r="B53" s="527" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="520"/>
-      <c r="D53" s="520"/>
-      <c r="E53" s="520"/>
-      <c r="F53" s="520"/>
-      <c r="G53" s="521"/>
+      <c r="C53" s="528"/>
+      <c r="D53" s="528"/>
+      <c r="E53" s="528"/>
+      <c r="F53" s="528"/>
+      <c r="G53" s="529"/>
       <c r="H53" s="31"/>
       <c r="I53" s="93"/>
       <c r="J53" s="93"/>
     </row>
     <row r="54" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B54" s="511" t="s">
-        <v>990</v>
-      </c>
-      <c r="C54" s="512"/>
-      <c r="D54" s="512"/>
-      <c r="E54" s="512"/>
-      <c r="F54" s="512"/>
-      <c r="G54" s="513"/>
+      <c r="B54" s="519" t="s">
+        <v>977</v>
+      </c>
+      <c r="C54" s="520"/>
+      <c r="D54" s="520"/>
+      <c r="E54" s="520"/>
+      <c r="F54" s="520"/>
+      <c r="G54" s="521"/>
       <c r="H54" s="31"/>
       <c r="I54" s="93"/>
       <c r="J54" s="93"/>
     </row>
     <row r="55" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B55" s="519" t="s">
+      <c r="B55" s="527" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="520"/>
-      <c r="D55" s="520"/>
-      <c r="E55" s="520"/>
-      <c r="F55" s="520"/>
-      <c r="G55" s="521"/>
+      <c r="C55" s="528"/>
+      <c r="D55" s="528"/>
+      <c r="E55" s="528"/>
+      <c r="F55" s="528"/>
+      <c r="G55" s="529"/>
       <c r="H55" s="31"/>
       <c r="I55" s="93"/>
       <c r="J55" s="93"/>
     </row>
     <row r="56" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B56" s="511" t="s">
-        <v>991</v>
-      </c>
-      <c r="C56" s="512"/>
-      <c r="D56" s="512"/>
-      <c r="E56" s="512"/>
-      <c r="F56" s="512"/>
-      <c r="G56" s="513"/>
+      <c r="B56" s="519" t="s">
+        <v>978</v>
+      </c>
+      <c r="C56" s="520"/>
+      <c r="D56" s="520"/>
+      <c r="E56" s="520"/>
+      <c r="F56" s="520"/>
+      <c r="G56" s="521"/>
       <c r="H56" s="31"/>
       <c r="I56" s="93"/>
       <c r="J56" s="93"/>
@@ -14987,13 +15090,13 @@
       <c r="B59" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="514" t="s">
+      <c r="C59" s="522" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="515"/>
-      <c r="E59" s="515"/>
-      <c r="F59" s="515"/>
-      <c r="G59" s="516"/>
+      <c r="D59" s="523"/>
+      <c r="E59" s="523"/>
+      <c r="F59" s="523"/>
+      <c r="G59" s="524"/>
       <c r="H59" s="31"/>
       <c r="I59" s="93"/>
       <c r="J59" s="93"/>
@@ -15002,13 +15105,13 @@
       <c r="B60" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="514" t="s">
+      <c r="C60" s="522" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="515"/>
-      <c r="E60" s="515"/>
-      <c r="F60" s="515"/>
-      <c r="G60" s="516"/>
+      <c r="D60" s="523"/>
+      <c r="E60" s="523"/>
+      <c r="F60" s="523"/>
+      <c r="G60" s="524"/>
       <c r="H60" s="31"/>
       <c r="I60" s="93"/>
       <c r="J60" s="93"/>
@@ -15017,13 +15120,13 @@
       <c r="B61" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="514" t="s">
+      <c r="C61" s="522" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="515"/>
-      <c r="E61" s="515"/>
-      <c r="F61" s="515"/>
-      <c r="G61" s="516"/>
+      <c r="D61" s="523"/>
+      <c r="E61" s="523"/>
+      <c r="F61" s="523"/>
+      <c r="G61" s="524"/>
       <c r="H61" s="31"/>
       <c r="I61" s="93"/>
       <c r="J61" s="93"/>
@@ -15062,8 +15165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E26:E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -15089,8 +15192,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
-      <c r="B2" s="26" t="s">
-        <v>992</v>
+      <c r="B2" s="510" t="s">
+        <v>1028</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -15099,18 +15202,18 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
       <c r="J2" s="18" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="580" t="s">
+      <c r="C3" s="589" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="580"/>
-      <c r="E3" s="580"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="589"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -15189,7 +15292,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -15240,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>280</v>
@@ -15249,7 +15352,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>347</v>
@@ -15267,7 +15370,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>280</v>
@@ -15276,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>347</v>
@@ -15294,7 +15397,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>280</v>
@@ -15303,7 +15406,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="G13" s="65" t="s">
         <v>347</v>
@@ -15321,7 +15424,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>280</v>
@@ -15330,7 +15433,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>347</v>
@@ -15348,7 +15451,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>280</v>
@@ -15357,7 +15460,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="66"/>
@@ -15373,7 +15476,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>280</v>
@@ -15382,7 +15485,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67"/>
@@ -15398,7 +15501,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>280</v>
@@ -15407,7 +15510,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="67"/>
@@ -15423,7 +15526,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>280</v>
@@ -15432,7 +15535,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="67"/>
@@ -15448,7 +15551,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>280</v>
@@ -15457,7 +15560,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="67"/>
@@ -15473,7 +15576,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>280</v>
@@ -15482,7 +15585,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G20" s="65"/>
       <c r="H20" s="66"/>
@@ -15498,7 +15601,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>280</v>
@@ -15507,7 +15610,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="67"/>
@@ -15523,7 +15626,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>280</v>
@@ -15532,7 +15635,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="67"/>
@@ -15548,7 +15651,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>280</v>
@@ -15557,7 +15660,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="G23" s="65"/>
       <c r="H23" s="67"/>
@@ -15573,7 +15676,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>280</v>
@@ -15582,7 +15685,7 @@
         <v>200</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="67"/>
@@ -15627,7 +15730,7 @@
         <v>282</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F26" s="70"/>
       <c r="G26" s="65"/>
@@ -15648,7 +15751,7 @@
         <v>282</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
@@ -15669,7 +15772,7 @@
         <v>282</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -15680,13 +15783,13 @@
         <v>341</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>282</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="79" t="s">
@@ -15781,7 +15884,7 @@
         <v>347</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="J32" s="115"/>
       <c r="L32" s="116" t="s">
@@ -15797,7 +15900,7 @@
         <v>346</v>
       </c>
       <c r="P32" s="120" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5">
@@ -15873,53 +15976,53 @@
       <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B37" s="519" t="s">
+      <c r="B37" s="527" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="520"/>
-      <c r="D37" s="520"/>
-      <c r="E37" s="520"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="521"/>
+      <c r="C37" s="528"/>
+      <c r="D37" s="528"/>
+      <c r="E37" s="528"/>
+      <c r="F37" s="528"/>
+      <c r="G37" s="529"/>
       <c r="H37" s="31"/>
       <c r="I37" s="93"/>
       <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B38" s="511" t="s">
-        <v>990</v>
-      </c>
-      <c r="C38" s="512"/>
-      <c r="D38" s="512"/>
-      <c r="E38" s="512"/>
-      <c r="F38" s="512"/>
-      <c r="G38" s="513"/>
+      <c r="B38" s="519" t="s">
+        <v>977</v>
+      </c>
+      <c r="C38" s="520"/>
+      <c r="D38" s="520"/>
+      <c r="E38" s="520"/>
+      <c r="F38" s="520"/>
+      <c r="G38" s="521"/>
       <c r="H38" s="31"/>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B39" s="519" t="s">
+      <c r="B39" s="527" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="520"/>
-      <c r="D39" s="520"/>
-      <c r="E39" s="520"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="521"/>
+      <c r="C39" s="528"/>
+      <c r="D39" s="528"/>
+      <c r="E39" s="528"/>
+      <c r="F39" s="528"/>
+      <c r="G39" s="529"/>
       <c r="H39" s="31"/>
       <c r="I39" s="93"/>
       <c r="J39" s="93"/>
     </row>
     <row r="40" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B40" s="511" t="s">
-        <v>991</v>
-      </c>
-      <c r="C40" s="512"/>
-      <c r="D40" s="512"/>
-      <c r="E40" s="512"/>
-      <c r="F40" s="512"/>
-      <c r="G40" s="513"/>
+      <c r="B40" s="519" t="s">
+        <v>978</v>
+      </c>
+      <c r="C40" s="520"/>
+      <c r="D40" s="520"/>
+      <c r="E40" s="520"/>
+      <c r="F40" s="520"/>
+      <c r="G40" s="521"/>
       <c r="H40" s="31"/>
       <c r="I40" s="93"/>
       <c r="J40" s="93"/>
@@ -15954,13 +16057,13 @@
       <c r="B43" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="514" t="s">
+      <c r="C43" s="522" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="515"/>
-      <c r="E43" s="515"/>
-      <c r="F43" s="515"/>
-      <c r="G43" s="516"/>
+      <c r="D43" s="523"/>
+      <c r="E43" s="523"/>
+      <c r="F43" s="523"/>
+      <c r="G43" s="524"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
@@ -15969,13 +16072,13 @@
       <c r="B44" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="514" t="s">
+      <c r="C44" s="522" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="515"/>
-      <c r="E44" s="515"/>
-      <c r="F44" s="515"/>
-      <c r="G44" s="516"/>
+      <c r="D44" s="523"/>
+      <c r="E44" s="523"/>
+      <c r="F44" s="523"/>
+      <c r="G44" s="524"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
@@ -15984,13 +16087,13 @@
       <c r="B45" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="514" t="s">
+      <c r="C45" s="522" t="s">
         <v>366</v>
       </c>
-      <c r="D45" s="515"/>
-      <c r="E45" s="515"/>
-      <c r="F45" s="515"/>
-      <c r="G45" s="516"/>
+      <c r="D45" s="523"/>
+      <c r="E45" s="523"/>
+      <c r="F45" s="523"/>
+      <c r="G45" s="524"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
@@ -16023,6 +16126,7 @@
     <hyperlink ref="J2" location="正极接口清单!A1" display="返回" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16047,33 +16151,33 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="2" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="517" t="s">
+      <c r="D1" s="525" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
       <c r="J1" s="18" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5">
       <c r="A2" s="5" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
@@ -16081,22 +16185,22 @@
         <v>370</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>272</v>
@@ -16141,10 +16245,10 @@
         <v>383</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -16154,19 +16258,19 @@
         <v>383</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="10" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>486</v>
@@ -16182,7 +16286,7 @@
         <v>486</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -16213,13 +16317,13 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="10" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -16229,35 +16333,35 @@
         <v>395</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="10" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -16338,614 +16442,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="428" customFormat="1" ht="29.25">
-      <c r="A1" s="503" t="s">
+      <c r="A1" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="503"/>
-      <c r="C1" s="503"/>
-      <c r="D1" s="503"/>
-      <c r="E1" s="503"/>
-      <c r="F1" s="503"/>
-      <c r="G1" s="503"/>
-      <c r="H1" s="503"/>
-      <c r="I1" s="503"/>
-      <c r="J1" s="503"/>
-      <c r="K1" s="503"/>
-      <c r="L1" s="503"/>
-      <c r="M1" s="503"/>
-      <c r="N1" s="503"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
+      <c r="N1" s="515"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="516" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="506" t="s">
+      <c r="B2" s="516" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="506" t="s">
+      <c r="C2" s="516" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="507" t="s">
+      <c r="D2" s="517" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="508" t="s">
+      <c r="E2" s="518" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="508" t="s">
+      <c r="F2" s="518" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="509" t="s">
+      <c r="G2" s="511" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509" t="s">
+      <c r="H2" s="511"/>
+      <c r="I2" s="511" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="509"/>
-      <c r="K2" s="508" t="s">
+      <c r="J2" s="511"/>
+      <c r="K2" s="518" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="508" t="s">
+      <c r="L2" s="518" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="506" t="s">
+      <c r="M2" s="516" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="506" t="s">
+      <c r="N2" s="516" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="504" t="s">
+      <c r="O2" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="504"/>
-      <c r="S2" s="504"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="504"/>
-      <c r="AA2" s="504"/>
-      <c r="AB2" s="504"/>
-      <c r="AC2" s="504"/>
-      <c r="AD2" s="504"/>
-      <c r="AE2" s="504"/>
-      <c r="AF2" s="504"/>
-      <c r="AG2" s="504"/>
-      <c r="AH2" s="504"/>
-      <c r="AI2" s="504"/>
-      <c r="AJ2" s="504"/>
-      <c r="AK2" s="504"/>
-      <c r="AL2" s="504"/>
-      <c r="AM2" s="504"/>
-      <c r="AN2" s="504"/>
-      <c r="AO2" s="504"/>
-      <c r="AP2" s="504"/>
-      <c r="AQ2" s="505" t="s">
+      <c r="P2" s="514"/>
+      <c r="Q2" s="514"/>
+      <c r="R2" s="514"/>
+      <c r="S2" s="514"/>
+      <c r="T2" s="514"/>
+      <c r="U2" s="514"/>
+      <c r="V2" s="514"/>
+      <c r="W2" s="514"/>
+      <c r="X2" s="514"/>
+      <c r="Y2" s="514"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="514"/>
+      <c r="AB2" s="514"/>
+      <c r="AC2" s="514"/>
+      <c r="AD2" s="514"/>
+      <c r="AE2" s="514"/>
+      <c r="AF2" s="514"/>
+      <c r="AG2" s="514"/>
+      <c r="AH2" s="514"/>
+      <c r="AI2" s="514"/>
+      <c r="AJ2" s="514"/>
+      <c r="AK2" s="514"/>
+      <c r="AL2" s="514"/>
+      <c r="AM2" s="514"/>
+      <c r="AN2" s="514"/>
+      <c r="AO2" s="514"/>
+      <c r="AP2" s="514"/>
+      <c r="AQ2" s="513" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="504"/>
-      <c r="AS2" s="504"/>
-      <c r="AT2" s="504"/>
-      <c r="AU2" s="504"/>
-      <c r="AV2" s="504"/>
-      <c r="AW2" s="504"/>
-      <c r="AX2" s="504"/>
-      <c r="AY2" s="504"/>
-      <c r="AZ2" s="504"/>
-      <c r="BA2" s="504"/>
-      <c r="BB2" s="504"/>
-      <c r="BC2" s="504"/>
-      <c r="BD2" s="504"/>
-      <c r="BE2" s="504"/>
-      <c r="BF2" s="504"/>
-      <c r="BG2" s="504"/>
-      <c r="BH2" s="504"/>
-      <c r="BI2" s="504"/>
-      <c r="BJ2" s="504"/>
-      <c r="BK2" s="504"/>
-      <c r="BL2" s="504"/>
-      <c r="BM2" s="504"/>
-      <c r="BN2" s="504"/>
-      <c r="BO2" s="504"/>
-      <c r="BP2" s="504"/>
-      <c r="BQ2" s="504"/>
-      <c r="BR2" s="504"/>
-      <c r="BS2" s="504"/>
-      <c r="BT2" s="504"/>
-      <c r="BU2" s="504"/>
-      <c r="BV2" s="505" t="s">
+      <c r="AR2" s="514"/>
+      <c r="AS2" s="514"/>
+      <c r="AT2" s="514"/>
+      <c r="AU2" s="514"/>
+      <c r="AV2" s="514"/>
+      <c r="AW2" s="514"/>
+      <c r="AX2" s="514"/>
+      <c r="AY2" s="514"/>
+      <c r="AZ2" s="514"/>
+      <c r="BA2" s="514"/>
+      <c r="BB2" s="514"/>
+      <c r="BC2" s="514"/>
+      <c r="BD2" s="514"/>
+      <c r="BE2" s="514"/>
+      <c r="BF2" s="514"/>
+      <c r="BG2" s="514"/>
+      <c r="BH2" s="514"/>
+      <c r="BI2" s="514"/>
+      <c r="BJ2" s="514"/>
+      <c r="BK2" s="514"/>
+      <c r="BL2" s="514"/>
+      <c r="BM2" s="514"/>
+      <c r="BN2" s="514"/>
+      <c r="BO2" s="514"/>
+      <c r="BP2" s="514"/>
+      <c r="BQ2" s="514"/>
+      <c r="BR2" s="514"/>
+      <c r="BS2" s="514"/>
+      <c r="BT2" s="514"/>
+      <c r="BU2" s="514"/>
+      <c r="BV2" s="513" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="504"/>
-      <c r="BX2" s="504"/>
-      <c r="BY2" s="504"/>
-      <c r="BZ2" s="504"/>
-      <c r="CA2" s="504"/>
-      <c r="CB2" s="504"/>
-      <c r="CC2" s="504"/>
-      <c r="CD2" s="504"/>
-      <c r="CE2" s="504"/>
-      <c r="CF2" s="504"/>
-      <c r="CG2" s="504"/>
-      <c r="CH2" s="504"/>
-      <c r="CI2" s="504"/>
-      <c r="CJ2" s="504"/>
-      <c r="CK2" s="504"/>
-      <c r="CL2" s="504"/>
-      <c r="CM2" s="504"/>
-      <c r="CN2" s="504"/>
-      <c r="CO2" s="504"/>
-      <c r="CP2" s="504"/>
-      <c r="CQ2" s="504"/>
-      <c r="CR2" s="504"/>
-      <c r="CS2" s="504"/>
-      <c r="CT2" s="504"/>
-      <c r="CU2" s="504"/>
-      <c r="CV2" s="504"/>
-      <c r="CW2" s="504"/>
-      <c r="CX2" s="504"/>
-      <c r="CY2" s="504"/>
-      <c r="CZ2" s="504" t="s">
+      <c r="BW2" s="514"/>
+      <c r="BX2" s="514"/>
+      <c r="BY2" s="514"/>
+      <c r="BZ2" s="514"/>
+      <c r="CA2" s="514"/>
+      <c r="CB2" s="514"/>
+      <c r="CC2" s="514"/>
+      <c r="CD2" s="514"/>
+      <c r="CE2" s="514"/>
+      <c r="CF2" s="514"/>
+      <c r="CG2" s="514"/>
+      <c r="CH2" s="514"/>
+      <c r="CI2" s="514"/>
+      <c r="CJ2" s="514"/>
+      <c r="CK2" s="514"/>
+      <c r="CL2" s="514"/>
+      <c r="CM2" s="514"/>
+      <c r="CN2" s="514"/>
+      <c r="CO2" s="514"/>
+      <c r="CP2" s="514"/>
+      <c r="CQ2" s="514"/>
+      <c r="CR2" s="514"/>
+      <c r="CS2" s="514"/>
+      <c r="CT2" s="514"/>
+      <c r="CU2" s="514"/>
+      <c r="CV2" s="514"/>
+      <c r="CW2" s="514"/>
+      <c r="CX2" s="514"/>
+      <c r="CY2" s="514"/>
+      <c r="CZ2" s="514" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="504"/>
-      <c r="DB2" s="504"/>
-      <c r="DC2" s="504"/>
-      <c r="DD2" s="504"/>
-      <c r="DE2" s="504"/>
-      <c r="DF2" s="504"/>
-      <c r="DG2" s="504"/>
-      <c r="DH2" s="504"/>
-      <c r="DI2" s="504"/>
-      <c r="DJ2" s="504"/>
-      <c r="DK2" s="504"/>
-      <c r="DL2" s="504"/>
-      <c r="DM2" s="504"/>
-      <c r="DN2" s="504"/>
-      <c r="DO2" s="504"/>
-      <c r="DP2" s="504"/>
-      <c r="DQ2" s="504"/>
-      <c r="DR2" s="504"/>
-      <c r="DS2" s="504"/>
-      <c r="DT2" s="504"/>
-      <c r="DU2" s="504"/>
-      <c r="DV2" s="504"/>
-      <c r="DW2" s="504"/>
-      <c r="DX2" s="504"/>
-      <c r="DY2" s="504"/>
-      <c r="DZ2" s="504"/>
-      <c r="EA2" s="504"/>
-      <c r="EB2" s="504"/>
-      <c r="EC2" s="504"/>
-      <c r="ED2" s="504"/>
-      <c r="EE2" s="505" t="s">
+      <c r="DA2" s="514"/>
+      <c r="DB2" s="514"/>
+      <c r="DC2" s="514"/>
+      <c r="DD2" s="514"/>
+      <c r="DE2" s="514"/>
+      <c r="DF2" s="514"/>
+      <c r="DG2" s="514"/>
+      <c r="DH2" s="514"/>
+      <c r="DI2" s="514"/>
+      <c r="DJ2" s="514"/>
+      <c r="DK2" s="514"/>
+      <c r="DL2" s="514"/>
+      <c r="DM2" s="514"/>
+      <c r="DN2" s="514"/>
+      <c r="DO2" s="514"/>
+      <c r="DP2" s="514"/>
+      <c r="DQ2" s="514"/>
+      <c r="DR2" s="514"/>
+      <c r="DS2" s="514"/>
+      <c r="DT2" s="514"/>
+      <c r="DU2" s="514"/>
+      <c r="DV2" s="514"/>
+      <c r="DW2" s="514"/>
+      <c r="DX2" s="514"/>
+      <c r="DY2" s="514"/>
+      <c r="DZ2" s="514"/>
+      <c r="EA2" s="514"/>
+      <c r="EB2" s="514"/>
+      <c r="EC2" s="514"/>
+      <c r="ED2" s="514"/>
+      <c r="EE2" s="513" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="504"/>
-      <c r="EG2" s="504"/>
-      <c r="EH2" s="504"/>
-      <c r="EI2" s="504"/>
-      <c r="EJ2" s="504"/>
-      <c r="EK2" s="504"/>
-      <c r="EL2" s="504"/>
-      <c r="EM2" s="504"/>
-      <c r="EN2" s="504"/>
-      <c r="EO2" s="504"/>
-      <c r="EP2" s="504"/>
-      <c r="EQ2" s="504"/>
-      <c r="ER2" s="504"/>
-      <c r="ES2" s="504"/>
-      <c r="ET2" s="504"/>
-      <c r="EU2" s="504"/>
-      <c r="EV2" s="504"/>
-      <c r="EW2" s="504"/>
-      <c r="EX2" s="504"/>
-      <c r="EY2" s="504"/>
-      <c r="EZ2" s="504"/>
-      <c r="FA2" s="504"/>
-      <c r="FB2" s="504"/>
-      <c r="FC2" s="504"/>
-      <c r="FD2" s="504"/>
-      <c r="FE2" s="504"/>
-      <c r="FF2" s="504"/>
-      <c r="FG2" s="504"/>
-      <c r="FH2" s="504"/>
-      <c r="FI2" s="505" t="s">
+      <c r="EF2" s="514"/>
+      <c r="EG2" s="514"/>
+      <c r="EH2" s="514"/>
+      <c r="EI2" s="514"/>
+      <c r="EJ2" s="514"/>
+      <c r="EK2" s="514"/>
+      <c r="EL2" s="514"/>
+      <c r="EM2" s="514"/>
+      <c r="EN2" s="514"/>
+      <c r="EO2" s="514"/>
+      <c r="EP2" s="514"/>
+      <c r="EQ2" s="514"/>
+      <c r="ER2" s="514"/>
+      <c r="ES2" s="514"/>
+      <c r="ET2" s="514"/>
+      <c r="EU2" s="514"/>
+      <c r="EV2" s="514"/>
+      <c r="EW2" s="514"/>
+      <c r="EX2" s="514"/>
+      <c r="EY2" s="514"/>
+      <c r="EZ2" s="514"/>
+      <c r="FA2" s="514"/>
+      <c r="FB2" s="514"/>
+      <c r="FC2" s="514"/>
+      <c r="FD2" s="514"/>
+      <c r="FE2" s="514"/>
+      <c r="FF2" s="514"/>
+      <c r="FG2" s="514"/>
+      <c r="FH2" s="514"/>
+      <c r="FI2" s="513" t="s">
         <v>23</v>
       </c>
-      <c r="FJ2" s="505"/>
-      <c r="FK2" s="505"/>
-      <c r="FL2" s="505"/>
-      <c r="FM2" s="505"/>
-      <c r="FN2" s="505"/>
-      <c r="FO2" s="505"/>
-      <c r="FP2" s="505"/>
-      <c r="FQ2" s="505"/>
-      <c r="FR2" s="505"/>
-      <c r="FS2" s="505"/>
-      <c r="FT2" s="505"/>
-      <c r="FU2" s="505"/>
-      <c r="FV2" s="505"/>
-      <c r="FW2" s="505"/>
-      <c r="FX2" s="505"/>
-      <c r="FY2" s="505"/>
-      <c r="FZ2" s="505"/>
-      <c r="GA2" s="505"/>
-      <c r="GB2" s="505"/>
-      <c r="GC2" s="505"/>
-      <c r="GD2" s="505"/>
-      <c r="GE2" s="505"/>
-      <c r="GF2" s="505"/>
-      <c r="GG2" s="505"/>
-      <c r="GH2" s="505"/>
-      <c r="GI2" s="505"/>
-      <c r="GJ2" s="505"/>
-      <c r="GK2" s="505"/>
-      <c r="GL2" s="505"/>
-      <c r="GM2" s="505"/>
-      <c r="GN2" s="505" t="s">
+      <c r="FJ2" s="513"/>
+      <c r="FK2" s="513"/>
+      <c r="FL2" s="513"/>
+      <c r="FM2" s="513"/>
+      <c r="FN2" s="513"/>
+      <c r="FO2" s="513"/>
+      <c r="FP2" s="513"/>
+      <c r="FQ2" s="513"/>
+      <c r="FR2" s="513"/>
+      <c r="FS2" s="513"/>
+      <c r="FT2" s="513"/>
+      <c r="FU2" s="513"/>
+      <c r="FV2" s="513"/>
+      <c r="FW2" s="513"/>
+      <c r="FX2" s="513"/>
+      <c r="FY2" s="513"/>
+      <c r="FZ2" s="513"/>
+      <c r="GA2" s="513"/>
+      <c r="GB2" s="513"/>
+      <c r="GC2" s="513"/>
+      <c r="GD2" s="513"/>
+      <c r="GE2" s="513"/>
+      <c r="GF2" s="513"/>
+      <c r="GG2" s="513"/>
+      <c r="GH2" s="513"/>
+      <c r="GI2" s="513"/>
+      <c r="GJ2" s="513"/>
+      <c r="GK2" s="513"/>
+      <c r="GL2" s="513"/>
+      <c r="GM2" s="513"/>
+      <c r="GN2" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="GO2" s="505"/>
-      <c r="GP2" s="505"/>
-      <c r="GQ2" s="505"/>
-      <c r="GR2" s="505"/>
-      <c r="GS2" s="505"/>
-      <c r="GT2" s="505"/>
-      <c r="GU2" s="505"/>
-      <c r="GV2" s="505"/>
-      <c r="GW2" s="505"/>
-      <c r="GX2" s="505"/>
-      <c r="GY2" s="505"/>
-      <c r="GZ2" s="505"/>
-      <c r="HA2" s="505"/>
-      <c r="HB2" s="505"/>
-      <c r="HC2" s="505"/>
-      <c r="HD2" s="505"/>
-      <c r="HE2" s="505"/>
-      <c r="HF2" s="505"/>
-      <c r="HG2" s="505"/>
-      <c r="HH2" s="505"/>
-      <c r="HI2" s="505"/>
-      <c r="HJ2" s="505"/>
-      <c r="HK2" s="505"/>
-      <c r="HL2" s="505"/>
-      <c r="HM2" s="505"/>
-      <c r="HN2" s="505"/>
-      <c r="HO2" s="505"/>
-      <c r="HP2" s="505"/>
-      <c r="HQ2" s="505"/>
-      <c r="HR2" s="505"/>
-      <c r="HS2" s="504" t="s">
+      <c r="GO2" s="513"/>
+      <c r="GP2" s="513"/>
+      <c r="GQ2" s="513"/>
+      <c r="GR2" s="513"/>
+      <c r="GS2" s="513"/>
+      <c r="GT2" s="513"/>
+      <c r="GU2" s="513"/>
+      <c r="GV2" s="513"/>
+      <c r="GW2" s="513"/>
+      <c r="GX2" s="513"/>
+      <c r="GY2" s="513"/>
+      <c r="GZ2" s="513"/>
+      <c r="HA2" s="513"/>
+      <c r="HB2" s="513"/>
+      <c r="HC2" s="513"/>
+      <c r="HD2" s="513"/>
+      <c r="HE2" s="513"/>
+      <c r="HF2" s="513"/>
+      <c r="HG2" s="513"/>
+      <c r="HH2" s="513"/>
+      <c r="HI2" s="513"/>
+      <c r="HJ2" s="513"/>
+      <c r="HK2" s="513"/>
+      <c r="HL2" s="513"/>
+      <c r="HM2" s="513"/>
+      <c r="HN2" s="513"/>
+      <c r="HO2" s="513"/>
+      <c r="HP2" s="513"/>
+      <c r="HQ2" s="513"/>
+      <c r="HR2" s="513"/>
+      <c r="HS2" s="514" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="504"/>
-      <c r="HU2" s="504"/>
-      <c r="HV2" s="504"/>
-      <c r="HW2" s="504"/>
-      <c r="HX2" s="504"/>
-      <c r="HY2" s="504"/>
-      <c r="HZ2" s="504"/>
-      <c r="IA2" s="504"/>
-      <c r="IB2" s="504"/>
-      <c r="IC2" s="504"/>
-      <c r="ID2" s="504"/>
+      <c r="HT2" s="514"/>
+      <c r="HU2" s="514"/>
+      <c r="HV2" s="514"/>
+      <c r="HW2" s="514"/>
+      <c r="HX2" s="514"/>
+      <c r="HY2" s="514"/>
+      <c r="HZ2" s="514"/>
+      <c r="IA2" s="514"/>
+      <c r="IB2" s="514"/>
+      <c r="IC2" s="514"/>
+      <c r="ID2" s="514"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="508"/>
-      <c r="G3" s="509"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="509"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="506"/>
-      <c r="N3" s="506"/>
-      <c r="O3" s="510" t="s">
+      <c r="A3" s="516"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="518"/>
+      <c r="F3" s="518"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="518"/>
+      <c r="L3" s="518"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="510"/>
-      <c r="Q3" s="510"/>
-      <c r="R3" s="510"/>
-      <c r="S3" s="510"/>
-      <c r="T3" s="510"/>
-      <c r="U3" s="510"/>
-      <c r="V3" s="510" t="s">
+      <c r="P3" s="512"/>
+      <c r="Q3" s="512"/>
+      <c r="R3" s="512"/>
+      <c r="S3" s="512"/>
+      <c r="T3" s="512"/>
+      <c r="U3" s="512"/>
+      <c r="V3" s="512" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="510"/>
-      <c r="X3" s="510"/>
-      <c r="Y3" s="510"/>
-      <c r="Z3" s="510"/>
-      <c r="AA3" s="510"/>
-      <c r="AB3" s="510"/>
-      <c r="AC3" s="510" t="s">
+      <c r="W3" s="512"/>
+      <c r="X3" s="512"/>
+      <c r="Y3" s="512"/>
+      <c r="Z3" s="512"/>
+      <c r="AA3" s="512"/>
+      <c r="AB3" s="512"/>
+      <c r="AC3" s="512" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="510"/>
-      <c r="AE3" s="510"/>
-      <c r="AF3" s="510"/>
-      <c r="AG3" s="510"/>
-      <c r="AH3" s="510"/>
-      <c r="AI3" s="510"/>
-      <c r="AJ3" s="510" t="s">
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
+      <c r="AF3" s="512"/>
+      <c r="AG3" s="512"/>
+      <c r="AH3" s="512"/>
+      <c r="AI3" s="512"/>
+      <c r="AJ3" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="510"/>
-      <c r="AL3" s="510"/>
-      <c r="AM3" s="510"/>
-      <c r="AN3" s="510"/>
-      <c r="AO3" s="510"/>
-      <c r="AP3" s="510"/>
-      <c r="AQ3" s="510" t="s">
+      <c r="AK3" s="512"/>
+      <c r="AL3" s="512"/>
+      <c r="AM3" s="512"/>
+      <c r="AN3" s="512"/>
+      <c r="AO3" s="512"/>
+      <c r="AP3" s="512"/>
+      <c r="AQ3" s="512" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="510"/>
-      <c r="AS3" s="510"/>
-      <c r="AT3" s="510"/>
-      <c r="AU3" s="510"/>
-      <c r="AV3" s="510"/>
-      <c r="AW3" s="510"/>
-      <c r="AX3" s="510" t="s">
+      <c r="AR3" s="512"/>
+      <c r="AS3" s="512"/>
+      <c r="AT3" s="512"/>
+      <c r="AU3" s="512"/>
+      <c r="AV3" s="512"/>
+      <c r="AW3" s="512"/>
+      <c r="AX3" s="512" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="510"/>
-      <c r="AZ3" s="510"/>
-      <c r="BA3" s="510"/>
-      <c r="BB3" s="510"/>
-      <c r="BC3" s="510"/>
-      <c r="BD3" s="510"/>
-      <c r="BE3" s="510" t="s">
+      <c r="AY3" s="512"/>
+      <c r="AZ3" s="512"/>
+      <c r="BA3" s="512"/>
+      <c r="BB3" s="512"/>
+      <c r="BC3" s="512"/>
+      <c r="BD3" s="512"/>
+      <c r="BE3" s="512" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="510"/>
-      <c r="BG3" s="510"/>
-      <c r="BH3" s="510"/>
-      <c r="BI3" s="510"/>
-      <c r="BJ3" s="510"/>
-      <c r="BK3" s="510"/>
-      <c r="BL3" s="510" t="s">
+      <c r="BF3" s="512"/>
+      <c r="BG3" s="512"/>
+      <c r="BH3" s="512"/>
+      <c r="BI3" s="512"/>
+      <c r="BJ3" s="512"/>
+      <c r="BK3" s="512"/>
+      <c r="BL3" s="512" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="510"/>
-      <c r="BN3" s="510"/>
-      <c r="BO3" s="510"/>
-      <c r="BP3" s="510"/>
-      <c r="BQ3" s="510"/>
-      <c r="BR3" s="510"/>
-      <c r="BS3" s="510" t="s">
+      <c r="BM3" s="512"/>
+      <c r="BN3" s="512"/>
+      <c r="BO3" s="512"/>
+      <c r="BP3" s="512"/>
+      <c r="BQ3" s="512"/>
+      <c r="BR3" s="512"/>
+      <c r="BS3" s="512" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="510"/>
-      <c r="BU3" s="510"/>
-      <c r="BV3" s="510"/>
-      <c r="BW3" s="510"/>
-      <c r="BX3" s="510"/>
-      <c r="BY3" s="510"/>
-      <c r="BZ3" s="510" t="s">
+      <c r="BT3" s="512"/>
+      <c r="BU3" s="512"/>
+      <c r="BV3" s="512"/>
+      <c r="BW3" s="512"/>
+      <c r="BX3" s="512"/>
+      <c r="BY3" s="512"/>
+      <c r="BZ3" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="510"/>
-      <c r="CB3" s="510"/>
-      <c r="CC3" s="510"/>
-      <c r="CD3" s="510"/>
-      <c r="CE3" s="510"/>
-      <c r="CF3" s="510"/>
-      <c r="CG3" s="510" t="s">
+      <c r="CA3" s="512"/>
+      <c r="CB3" s="512"/>
+      <c r="CC3" s="512"/>
+      <c r="CD3" s="512"/>
+      <c r="CE3" s="512"/>
+      <c r="CF3" s="512"/>
+      <c r="CG3" s="512" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="510"/>
-      <c r="CI3" s="510"/>
-      <c r="CJ3" s="510"/>
-      <c r="CK3" s="510"/>
-      <c r="CL3" s="510"/>
-      <c r="CM3" s="510"/>
-      <c r="CN3" s="510" t="s">
+      <c r="CH3" s="512"/>
+      <c r="CI3" s="512"/>
+      <c r="CJ3" s="512"/>
+      <c r="CK3" s="512"/>
+      <c r="CL3" s="512"/>
+      <c r="CM3" s="512"/>
+      <c r="CN3" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="510"/>
-      <c r="CP3" s="510"/>
-      <c r="CQ3" s="510"/>
-      <c r="CR3" s="510"/>
-      <c r="CS3" s="510"/>
-      <c r="CT3" s="510"/>
-      <c r="CU3" s="510" t="s">
+      <c r="CO3" s="512"/>
+      <c r="CP3" s="512"/>
+      <c r="CQ3" s="512"/>
+      <c r="CR3" s="512"/>
+      <c r="CS3" s="512"/>
+      <c r="CT3" s="512"/>
+      <c r="CU3" s="512" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="510"/>
-      <c r="CW3" s="510"/>
-      <c r="CX3" s="510"/>
-      <c r="CY3" s="510"/>
-      <c r="CZ3" s="510"/>
-      <c r="DA3" s="510"/>
-      <c r="DB3" s="510" t="s">
+      <c r="CV3" s="512"/>
+      <c r="CW3" s="512"/>
+      <c r="CX3" s="512"/>
+      <c r="CY3" s="512"/>
+      <c r="CZ3" s="512"/>
+      <c r="DA3" s="512"/>
+      <c r="DB3" s="512" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="510"/>
-      <c r="DD3" s="510"/>
-      <c r="DE3" s="510"/>
-      <c r="DF3" s="510"/>
-      <c r="DG3" s="510"/>
-      <c r="DH3" s="510"/>
-      <c r="DI3" s="510" t="s">
+      <c r="DC3" s="512"/>
+      <c r="DD3" s="512"/>
+      <c r="DE3" s="512"/>
+      <c r="DF3" s="512"/>
+      <c r="DG3" s="512"/>
+      <c r="DH3" s="512"/>
+      <c r="DI3" s="512" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="510"/>
-      <c r="DK3" s="510"/>
-      <c r="DL3" s="510"/>
-      <c r="DM3" s="510"/>
-      <c r="DN3" s="510"/>
-      <c r="DO3" s="510"/>
-      <c r="DP3" s="510" t="s">
+      <c r="DJ3" s="512"/>
+      <c r="DK3" s="512"/>
+      <c r="DL3" s="512"/>
+      <c r="DM3" s="512"/>
+      <c r="DN3" s="512"/>
+      <c r="DO3" s="512"/>
+      <c r="DP3" s="512" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="510"/>
-      <c r="DR3" s="510"/>
-      <c r="DS3" s="510"/>
-      <c r="DT3" s="510"/>
-      <c r="DU3" s="510"/>
-      <c r="DV3" s="510"/>
-      <c r="DW3" s="510" t="s">
+      <c r="DQ3" s="512"/>
+      <c r="DR3" s="512"/>
+      <c r="DS3" s="512"/>
+      <c r="DT3" s="512"/>
+      <c r="DU3" s="512"/>
+      <c r="DV3" s="512"/>
+      <c r="DW3" s="512" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="510"/>
-      <c r="DY3" s="510"/>
-      <c r="DZ3" s="510"/>
-      <c r="EA3" s="510"/>
-      <c r="EB3" s="510"/>
-      <c r="EC3" s="510"/>
-      <c r="ED3" s="510" t="s">
+      <c r="DX3" s="512"/>
+      <c r="DY3" s="512"/>
+      <c r="DZ3" s="512"/>
+      <c r="EA3" s="512"/>
+      <c r="EB3" s="512"/>
+      <c r="EC3" s="512"/>
+      <c r="ED3" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="510"/>
-      <c r="EF3" s="510"/>
-      <c r="EG3" s="510"/>
-      <c r="EH3" s="510"/>
-      <c r="EI3" s="510"/>
-      <c r="EJ3" s="510"/>
-      <c r="EK3" s="510" t="s">
+      <c r="EE3" s="512"/>
+      <c r="EF3" s="512"/>
+      <c r="EG3" s="512"/>
+      <c r="EH3" s="512"/>
+      <c r="EI3" s="512"/>
+      <c r="EJ3" s="512"/>
+      <c r="EK3" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="510"/>
-      <c r="EM3" s="510"/>
-      <c r="EN3" s="510"/>
-      <c r="EO3" s="510"/>
-      <c r="EP3" s="510"/>
-      <c r="EQ3" s="510"/>
-      <c r="ER3" s="510" t="s">
+      <c r="EL3" s="512"/>
+      <c r="EM3" s="512"/>
+      <c r="EN3" s="512"/>
+      <c r="EO3" s="512"/>
+      <c r="EP3" s="512"/>
+      <c r="EQ3" s="512"/>
+      <c r="ER3" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="510"/>
-      <c r="ET3" s="510"/>
-      <c r="EU3" s="510"/>
-      <c r="EV3" s="510"/>
-      <c r="EW3" s="510"/>
-      <c r="EX3" s="510"/>
-      <c r="EY3" s="510" t="s">
+      <c r="ES3" s="512"/>
+      <c r="ET3" s="512"/>
+      <c r="EU3" s="512"/>
+      <c r="EV3" s="512"/>
+      <c r="EW3" s="512"/>
+      <c r="EX3" s="512"/>
+      <c r="EY3" s="512" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="510"/>
-      <c r="FA3" s="510"/>
-      <c r="FB3" s="510"/>
-      <c r="FC3" s="510"/>
-      <c r="FD3" s="510"/>
-      <c r="FE3" s="510"/>
-      <c r="FF3" s="510" t="s">
+      <c r="EZ3" s="512"/>
+      <c r="FA3" s="512"/>
+      <c r="FB3" s="512"/>
+      <c r="FC3" s="512"/>
+      <c r="FD3" s="512"/>
+      <c r="FE3" s="512"/>
+      <c r="FF3" s="512" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="510"/>
-      <c r="FH3" s="510"/>
-      <c r="FI3" s="510"/>
-      <c r="FJ3" s="510"/>
-      <c r="FK3" s="510"/>
-      <c r="FL3" s="510"/>
-      <c r="FM3" s="510" t="s">
+      <c r="FG3" s="512"/>
+      <c r="FH3" s="512"/>
+      <c r="FI3" s="512"/>
+      <c r="FJ3" s="512"/>
+      <c r="FK3" s="512"/>
+      <c r="FL3" s="512"/>
+      <c r="FM3" s="512" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="510"/>
-      <c r="FO3" s="510"/>
-      <c r="FP3" s="510"/>
-      <c r="FQ3" s="510"/>
-      <c r="FR3" s="510"/>
-      <c r="FS3" s="510"/>
-      <c r="FT3" s="510" t="s">
+      <c r="FN3" s="512"/>
+      <c r="FO3" s="512"/>
+      <c r="FP3" s="512"/>
+      <c r="FQ3" s="512"/>
+      <c r="FR3" s="512"/>
+      <c r="FS3" s="512"/>
+      <c r="FT3" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="510"/>
-      <c r="FV3" s="510"/>
-      <c r="FW3" s="510"/>
-      <c r="FX3" s="510"/>
-      <c r="FY3" s="510"/>
-      <c r="FZ3" s="510"/>
-      <c r="GA3" s="510" t="s">
+      <c r="FU3" s="512"/>
+      <c r="FV3" s="512"/>
+      <c r="FW3" s="512"/>
+      <c r="FX3" s="512"/>
+      <c r="FY3" s="512"/>
+      <c r="FZ3" s="512"/>
+      <c r="GA3" s="512" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="510"/>
-      <c r="GC3" s="510"/>
-      <c r="GD3" s="510"/>
-      <c r="GE3" s="510"/>
-      <c r="GF3" s="510"/>
-      <c r="GG3" s="510"/>
-      <c r="GH3" s="510" t="s">
+      <c r="GB3" s="512"/>
+      <c r="GC3" s="512"/>
+      <c r="GD3" s="512"/>
+      <c r="GE3" s="512"/>
+      <c r="GF3" s="512"/>
+      <c r="GG3" s="512"/>
+      <c r="GH3" s="512" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="510"/>
-      <c r="GJ3" s="510"/>
-      <c r="GK3" s="510"/>
-      <c r="GL3" s="510"/>
-      <c r="GM3" s="510"/>
-      <c r="GN3" s="510"/>
-      <c r="GO3" s="510" t="s">
+      <c r="GI3" s="512"/>
+      <c r="GJ3" s="512"/>
+      <c r="GK3" s="512"/>
+      <c r="GL3" s="512"/>
+      <c r="GM3" s="512"/>
+      <c r="GN3" s="512"/>
+      <c r="GO3" s="512" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="510"/>
-      <c r="GQ3" s="510"/>
-      <c r="GR3" s="510"/>
-      <c r="GS3" s="510"/>
-      <c r="GT3" s="510"/>
-      <c r="GU3" s="510"/>
-      <c r="GV3" s="510" t="s">
+      <c r="GP3" s="512"/>
+      <c r="GQ3" s="512"/>
+      <c r="GR3" s="512"/>
+      <c r="GS3" s="512"/>
+      <c r="GT3" s="512"/>
+      <c r="GU3" s="512"/>
+      <c r="GV3" s="512" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="510"/>
-      <c r="GX3" s="510"/>
-      <c r="GY3" s="510"/>
-      <c r="GZ3" s="510"/>
-      <c r="HA3" s="510"/>
-      <c r="HB3" s="510"/>
-      <c r="HC3" s="510" t="s">
+      <c r="GW3" s="512"/>
+      <c r="GX3" s="512"/>
+      <c r="GY3" s="512"/>
+      <c r="GZ3" s="512"/>
+      <c r="HA3" s="512"/>
+      <c r="HB3" s="512"/>
+      <c r="HC3" s="512" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="510"/>
-      <c r="HE3" s="510"/>
-      <c r="HF3" s="510"/>
-      <c r="HG3" s="510"/>
-      <c r="HH3" s="510"/>
-      <c r="HI3" s="510"/>
-      <c r="HJ3" s="510" t="s">
+      <c r="HD3" s="512"/>
+      <c r="HE3" s="512"/>
+      <c r="HF3" s="512"/>
+      <c r="HG3" s="512"/>
+      <c r="HH3" s="512"/>
+      <c r="HI3" s="512"/>
+      <c r="HJ3" s="512" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="510"/>
-      <c r="HL3" s="510"/>
-      <c r="HM3" s="510"/>
-      <c r="HN3" s="510"/>
-      <c r="HO3" s="510"/>
-      <c r="HP3" s="510"/>
-      <c r="HQ3" s="510" t="s">
+      <c r="HK3" s="512"/>
+      <c r="HL3" s="512"/>
+      <c r="HM3" s="512"/>
+      <c r="HN3" s="512"/>
+      <c r="HO3" s="512"/>
+      <c r="HP3" s="512"/>
+      <c r="HQ3" s="512" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="510"/>
-      <c r="HS3" s="510"/>
-      <c r="HT3" s="510"/>
-      <c r="HU3" s="510"/>
-      <c r="HV3" s="510"/>
-      <c r="HW3" s="510"/>
-      <c r="HX3" s="510" t="s">
+      <c r="HR3" s="512"/>
+      <c r="HS3" s="512"/>
+      <c r="HT3" s="512"/>
+      <c r="HU3" s="512"/>
+      <c r="HV3" s="512"/>
+      <c r="HW3" s="512"/>
+      <c r="HX3" s="512" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="510"/>
-      <c r="HZ3" s="510"/>
-      <c r="IA3" s="510"/>
-      <c r="IB3" s="510"/>
-      <c r="IC3" s="510"/>
-      <c r="ID3" s="510"/>
+      <c r="HY3" s="512"/>
+      <c r="HZ3" s="512"/>
+      <c r="IA3" s="512"/>
+      <c r="IB3" s="512"/>
+      <c r="IC3" s="512"/>
+      <c r="ID3" s="512"/>
     </row>
     <row r="4" spans="1:238" s="429" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="506"/>
-      <c r="B4" s="506"/>
-      <c r="C4" s="506"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
+      <c r="A4" s="516"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="518"/>
+      <c r="F4" s="518"/>
       <c r="G4" s="443" t="s">
         <v>58</v>
       </c>
@@ -16958,10 +17062,10 @@
       <c r="J4" s="442" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="508"/>
-      <c r="L4" s="508"/>
-      <c r="M4" s="506"/>
-      <c r="N4" s="506"/>
+      <c r="K4" s="518"/>
+      <c r="L4" s="518"/>
+      <c r="M4" s="516"/>
+      <c r="N4" s="516"/>
       <c r="O4" s="471">
         <v>43497</v>
       </c>
@@ -29765,6 +29869,43 @@
   </sheetData>
   <autoFilter ref="A4:XEI375" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O2:AP2"/>
+    <mergeCell ref="AQ2:BU2"/>
+    <mergeCell ref="BV2:CY2"/>
+    <mergeCell ref="CZ2:ED2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="FI2:GM2"/>
+    <mergeCell ref="GN2:HR2"/>
+    <mergeCell ref="HS2:ID2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="FM3:FS3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="GH3:GN3"/>
+    <mergeCell ref="GO3:GU3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="GV3:HB3"/>
     <mergeCell ref="HC3:HI3"/>
@@ -29781,43 +29922,6 @@
     <mergeCell ref="DP3:DV3"/>
     <mergeCell ref="DW3:EC3"/>
     <mergeCell ref="EE2:FH2"/>
-    <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
-    <mergeCell ref="GH3:GN3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="FI2:GM2"/>
-    <mergeCell ref="GN2:HR2"/>
-    <mergeCell ref="HS2:ID2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O2:AP2"/>
-    <mergeCell ref="AQ2:BU2"/>
-    <mergeCell ref="BV2:CY2"/>
-    <mergeCell ref="CZ2:ED2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.118055555555556" bottom="0.118055555555556" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -33936,7 +34040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -33972,26 +34076,26 @@
       <c r="F2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="517" t="s">
+      <c r="G2" s="525" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="L2" s="517"/>
-      <c r="M2" s="517"/>
-      <c r="N2" s="517"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
+      <c r="K2" s="525"/>
+      <c r="L2" s="525"/>
+      <c r="M2" s="525"/>
+      <c r="N2" s="525"/>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="518" t="s">
+      <c r="C3" s="526" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="518"/>
-      <c r="E3" s="518"/>
+      <c r="D3" s="526"/>
+      <c r="E3" s="526"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
@@ -34654,7 +34758,7 @@
       </c>
       <c r="G26" s="269"/>
       <c r="H26" s="496" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="J26" s="98"/>
       <c r="L26" s="373" t="s">
@@ -34691,7 +34795,7 @@
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="386" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="98"/>
       <c r="L27" s="359" t="s">
@@ -35078,53 +35182,53 @@
       <c r="J42" s="93"/>
     </row>
     <row r="43" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B43" s="519" t="s">
+      <c r="B43" s="527" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="520"/>
-      <c r="D43" s="520"/>
-      <c r="E43" s="520"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="521"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="528"/>
+      <c r="E43" s="528"/>
+      <c r="F43" s="528"/>
+      <c r="G43" s="529"/>
       <c r="H43" s="31"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
     </row>
     <row r="44" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B44" s="511" t="s">
+      <c r="B44" s="519" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="512"/>
-      <c r="D44" s="512"/>
-      <c r="E44" s="512"/>
-      <c r="F44" s="512"/>
-      <c r="G44" s="513"/>
+      <c r="C44" s="520"/>
+      <c r="D44" s="520"/>
+      <c r="E44" s="520"/>
+      <c r="F44" s="520"/>
+      <c r="G44" s="521"/>
       <c r="H44" s="31"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
     </row>
     <row r="45" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B45" s="519" t="s">
+      <c r="B45" s="527" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="520"/>
-      <c r="D45" s="520"/>
-      <c r="E45" s="520"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="521"/>
+      <c r="C45" s="528"/>
+      <c r="D45" s="528"/>
+      <c r="E45" s="528"/>
+      <c r="F45" s="528"/>
+      <c r="G45" s="529"/>
       <c r="H45" s="31"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93"/>
     </row>
     <row r="46" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B46" s="511" t="s">
+      <c r="B46" s="519" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="512"/>
-      <c r="D46" s="512"/>
-      <c r="E46" s="512"/>
-      <c r="F46" s="512"/>
-      <c r="G46" s="513"/>
+      <c r="C46" s="520"/>
+      <c r="D46" s="520"/>
+      <c r="E46" s="520"/>
+      <c r="F46" s="520"/>
+      <c r="G46" s="521"/>
       <c r="H46" s="31"/>
       <c r="I46" s="93"/>
       <c r="J46" s="93"/>
@@ -35158,13 +35262,13 @@
       <c r="B49" s="391" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="514" t="s">
+      <c r="C49" s="522" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="515"/>
-      <c r="E49" s="515"/>
-      <c r="F49" s="515"/>
-      <c r="G49" s="516"/>
+      <c r="D49" s="523"/>
+      <c r="E49" s="523"/>
+      <c r="F49" s="523"/>
+      <c r="G49" s="524"/>
       <c r="H49" s="31"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93"/>
@@ -35173,13 +35277,13 @@
       <c r="B50" s="391" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="514" t="s">
+      <c r="C50" s="522" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="515"/>
-      <c r="E50" s="515"/>
-      <c r="F50" s="515"/>
-      <c r="G50" s="516"/>
+      <c r="D50" s="523"/>
+      <c r="E50" s="523"/>
+      <c r="F50" s="523"/>
+      <c r="G50" s="524"/>
       <c r="H50" s="31"/>
       <c r="I50" s="93"/>
       <c r="J50" s="93"/>
@@ -35188,13 +35292,13 @@
       <c r="B51" s="391" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="514" t="s">
+      <c r="C51" s="522" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="515"/>
-      <c r="E51" s="515"/>
-      <c r="F51" s="515"/>
-      <c r="G51" s="516"/>
+      <c r="D51" s="523"/>
+      <c r="E51" s="523"/>
+      <c r="F51" s="523"/>
+      <c r="G51" s="524"/>
       <c r="H51" s="31"/>
       <c r="I51" s="93"/>
       <c r="J51" s="93"/>
@@ -35233,7 +35337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C63" sqref="C63:C64"/>
     </sheetView>
   </sheetViews>
@@ -35260,16 +35364,16 @@
       <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="517" t="s">
+      <c r="E2" s="525" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="517"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="L2" s="517"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
+      <c r="K2" s="525"/>
+      <c r="L2" s="525"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="J3" s="6" t="s">
@@ -35278,17 +35382,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="339" customFormat="1" ht="15.75">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="554" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="522"/>
-      <c r="C4" s="522"/>
-      <c r="D4" s="522"/>
-      <c r="E4" s="522"/>
-      <c r="F4" s="522"/>
-      <c r="G4" s="522"/>
-      <c r="H4" s="522"/>
-      <c r="I4" s="522"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="554"/>
+      <c r="E4" s="554"/>
+      <c r="F4" s="554"/>
+      <c r="G4" s="554"/>
+      <c r="H4" s="554"/>
+      <c r="I4" s="554"/>
     </row>
     <row r="5" spans="1:14" s="340" customFormat="1" ht="16.5">
       <c r="A5" s="344" t="s">
@@ -35306,12 +35410,12 @@
       <c r="E5" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="523" t="s">
+      <c r="F5" s="555" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="523"/>
-      <c r="H5" s="523"/>
-      <c r="I5" s="523"/>
+      <c r="G5" s="555"/>
+      <c r="H5" s="555"/>
+      <c r="I5" s="555"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35344,12 +35448,12 @@
       <c r="E6" s="345">
         <v>0</v>
       </c>
-      <c r="F6" s="524" t="s">
+      <c r="F6" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="525"/>
-      <c r="H6" s="525"/>
-      <c r="I6" s="526"/>
+      <c r="G6" s="546"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="547"/>
       <c r="J6" s="345" t="s">
         <v>374</v>
       </c>
@@ -35380,12 +35484,12 @@
       <c r="E7" s="346">
         <v>0</v>
       </c>
-      <c r="F7" s="527" t="s">
+      <c r="F7" s="539" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="528"/>
-      <c r="H7" s="528"/>
-      <c r="I7" s="529"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="558"/>
       <c r="J7" s="346" t="s">
         <v>376</v>
       </c>
@@ -35454,12 +35558,12 @@
       <c r="E9" s="345">
         <v>0</v>
       </c>
-      <c r="F9" s="524" t="s">
+      <c r="F9" s="545" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="525"/>
-      <c r="H9" s="525"/>
-      <c r="I9" s="526"/>
+      <c r="G9" s="546"/>
+      <c r="H9" s="546"/>
+      <c r="I9" s="547"/>
       <c r="J9" s="345" t="s">
         <v>383</v>
       </c>
@@ -35838,7 +35942,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="346"/>
-      <c r="F20" s="533" t="s">
+      <c r="F20" s="556" t="s">
         <v>420</v>
       </c>
       <c r="G20" s="531"/>
@@ -35870,7 +35974,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="346"/>
-      <c r="F21" s="533" t="s">
+      <c r="F21" s="556" t="s">
         <v>423</v>
       </c>
       <c r="G21" s="531"/>
@@ -35902,12 +36006,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="346"/>
-      <c r="F22" s="534" t="s">
+      <c r="F22" s="538" t="s">
         <v>425</v>
       </c>
-      <c r="G22" s="534"/>
-      <c r="H22" s="534"/>
-      <c r="I22" s="534"/>
+      <c r="G22" s="538"/>
+      <c r="H22" s="538"/>
+      <c r="I22" s="538"/>
       <c r="J22" s="346" t="s">
         <v>323</v>
       </c>
@@ -35938,12 +36042,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="345"/>
-      <c r="F23" s="535" t="s">
+      <c r="F23" s="551" t="s">
         <v>427</v>
       </c>
-      <c r="G23" s="536"/>
-      <c r="H23" s="536"/>
-      <c r="I23" s="537"/>
+      <c r="G23" s="552"/>
+      <c r="H23" s="552"/>
+      <c r="I23" s="553"/>
       <c r="J23" s="345" t="s">
         <v>426</v>
       </c>
@@ -35970,7 +36074,7 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="346"/>
-      <c r="F24" s="527" t="s">
+      <c r="F24" s="539" t="s">
         <v>340</v>
       </c>
       <c r="G24" s="531"/>
@@ -35986,17 +36090,17 @@
       <c r="Q24" s="368"/>
     </row>
     <row r="25" spans="1:18" s="341" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="522" t="s">
+      <c r="A25" s="554" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="522"/>
-      <c r="C25" s="522"/>
-      <c r="D25" s="522"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="522"/>
-      <c r="I25" s="522"/>
+      <c r="B25" s="554"/>
+      <c r="C25" s="554"/>
+      <c r="D25" s="554"/>
+      <c r="E25" s="554"/>
+      <c r="F25" s="554"/>
+      <c r="G25" s="554"/>
+      <c r="H25" s="554"/>
+      <c r="I25" s="554"/>
       <c r="J25" s="369" t="s">
         <v>431</v>
       </c>
@@ -36025,12 +36129,12 @@
       <c r="E26" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="523" t="s">
+      <c r="F26" s="555" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="523"/>
-      <c r="H26" s="523"/>
-      <c r="I26" s="523"/>
+      <c r="G26" s="555"/>
+      <c r="H26" s="555"/>
+      <c r="I26" s="555"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36067,12 +36171,12 @@
       <c r="E27" s="345">
         <v>0</v>
       </c>
-      <c r="F27" s="524" t="s">
+      <c r="F27" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="525"/>
-      <c r="H27" s="525"/>
-      <c r="I27" s="526"/>
+      <c r="G27" s="546"/>
+      <c r="H27" s="546"/>
+      <c r="I27" s="547"/>
       <c r="J27" s="362" t="s">
         <v>374</v>
       </c>
@@ -36101,12 +36205,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="345"/>
-      <c r="F28" s="524" t="s">
+      <c r="F28" s="545" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="525"/>
-      <c r="H28" s="525"/>
-      <c r="I28" s="526"/>
+      <c r="G28" s="546"/>
+      <c r="H28" s="546"/>
+      <c r="I28" s="547"/>
       <c r="J28" s="365" t="s">
         <v>433</v>
       </c>
@@ -36210,12 +36314,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="246"/>
-      <c r="F31" s="534" t="s">
+      <c r="F31" s="538" t="s">
         <v>444</v>
       </c>
-      <c r="G31" s="534"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="534"/>
+      <c r="G31" s="538"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="538"/>
       <c r="J31" s="246" t="s">
         <v>443</v>
       </c>
@@ -36244,12 +36348,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="246"/>
-      <c r="F32" s="538" t="s">
+      <c r="F32" s="548" t="s">
         <v>448</v>
       </c>
-      <c r="G32" s="539"/>
-      <c r="H32" s="539"/>
-      <c r="I32" s="540"/>
+      <c r="G32" s="549"/>
+      <c r="H32" s="549"/>
+      <c r="I32" s="550"/>
       <c r="J32" s="246" t="s">
         <v>447</v>
       </c>
@@ -36278,12 +36382,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="353"/>
-      <c r="F33" s="541" t="s">
+      <c r="F33" s="535" t="s">
         <v>451</v>
       </c>
-      <c r="G33" s="542"/>
-      <c r="H33" s="542"/>
-      <c r="I33" s="543"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="537"/>
       <c r="J33" s="351" t="s">
         <v>450</v>
       </c>
@@ -36320,12 +36424,12 @@
       <c r="E34" s="354">
         <v>0</v>
       </c>
-      <c r="F34" s="534" t="s">
+      <c r="F34" s="538" t="s">
         <v>425</v>
       </c>
-      <c r="G34" s="534"/>
-      <c r="H34" s="534"/>
-      <c r="I34" s="534"/>
+      <c r="G34" s="538"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="538"/>
       <c r="J34" s="346" t="s">
         <v>323</v>
       </c>
@@ -36355,7 +36459,7 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="346"/>
-      <c r="F35" s="527" t="s">
+      <c r="F35" s="539" t="s">
         <v>340</v>
       </c>
       <c r="G35" s="531"/>
@@ -36384,24 +36488,24 @@
       <c r="Q36" s="340"/>
     </row>
     <row r="37" spans="1:18" s="342" customFormat="1" ht="16.5">
-      <c r="A37" s="544" t="s">
+      <c r="A37" s="540" t="s">
         <v>454</v>
       </c>
-      <c r="B37" s="545"/>
-      <c r="C37" s="545"/>
-      <c r="D37" s="545"/>
-      <c r="E37" s="545"/>
-      <c r="F37" s="545"/>
-      <c r="G37" s="545"/>
-      <c r="H37" s="545"/>
-      <c r="I37" s="545"/>
-      <c r="J37" s="546" t="s">
+      <c r="B37" s="541"/>
+      <c r="C37" s="541"/>
+      <c r="D37" s="541"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="541"/>
+      <c r="G37" s="541"/>
+      <c r="H37" s="541"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542" t="s">
         <v>455</v>
       </c>
-      <c r="K37" s="547"/>
-      <c r="L37" s="547"/>
-      <c r="M37" s="547"/>
-      <c r="N37" s="548"/>
+      <c r="K37" s="543"/>
+      <c r="L37" s="543"/>
+      <c r="M37" s="543"/>
+      <c r="N37" s="544"/>
     </row>
     <row r="38" spans="1:18" s="342" customFormat="1" ht="16.5">
       <c r="A38" s="344" t="s">
@@ -36419,12 +36523,12 @@
       <c r="E38" s="344" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="549" t="s">
+      <c r="F38" s="533" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="550"/>
-      <c r="H38" s="550"/>
-      <c r="I38" s="550"/>
+      <c r="G38" s="534"/>
+      <c r="H38" s="534"/>
+      <c r="I38" s="534"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -37904,63 +38008,63 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37968,8 +38072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37997,30 +38101,30 @@
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="517" t="s">
+      <c r="D2" s="559" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
+      <c r="K2" s="525"/>
+      <c r="N2" s="331" t="s">
         <v>497</v>
-      </c>
-      <c r="E2" s="517"/>
-      <c r="F2" s="517"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="N2" s="331" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.5">
       <c r="A3" s="170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C3" s="226"/>
       <c r="I3" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>500</v>
+      <c r="J3" s="590" t="s">
+        <v>1030</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -38029,22 +38133,22 @@
         <v>370</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>272</v>
@@ -38065,59 +38169,59 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="256" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="I5" s="256" t="s">
+        <v>504</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="K5" s="100"/>
       <c r="L5" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M5" s="244"/>
       <c r="N5" s="234"/>
     </row>
     <row r="6" spans="1:14" ht="27">
       <c r="A6" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>512</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="I6" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="M6" s="332" t="s">
         <v>510</v>
-      </c>
-      <c r="M6" s="332" t="s">
-        <v>512</v>
       </c>
       <c r="N6" s="324"/>
     </row>
@@ -38126,10 +38230,10 @@
         <v>374</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -38139,11 +38243,11 @@
         <v>374</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K7" s="246"/>
       <c r="L7" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
@@ -38153,14 +38257,14 @@
         <v>383</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -38168,15 +38272,15 @@
         <v>383</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K8" s="100"/>
       <c r="L8" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5">
@@ -38184,13 +38288,13 @@
         <v>476</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>520</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -38199,14 +38303,14 @@
         <v>476</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>520</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -38221,8 +38325,8 @@
         <v>486</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>521</v>
+      <c r="E10" s="504" t="s">
+        <v>1012</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -38238,15 +38342,15 @@
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5">
       <c r="A11" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>522</v>
+      <c r="B11" s="505" t="s">
+        <v>1013</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>486</v>
@@ -38263,7 +38367,7 @@
       </c>
       <c r="K11" s="246"/>
       <c r="L11" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
@@ -38307,7 +38411,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -38323,42 +38427,42 @@
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="191.1" customHeight="1">
       <c r="A14" s="315" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="316" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="317" t="s">
         <v>524</v>
       </c>
-      <c r="B14" s="316" t="s">
+      <c r="D14" s="317" t="s">
         <v>525</v>
       </c>
-      <c r="C14" s="317" t="s">
-        <v>526</v>
-      </c>
-      <c r="D14" s="317" t="s">
-        <v>527</v>
-      </c>
-      <c r="E14" s="318" t="s">
-        <v>528</v>
+      <c r="E14" s="503" t="s">
+        <v>1011</v>
       </c>
       <c r="F14" s="318"/>
       <c r="G14" s="318"/>
       <c r="I14" s="315" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" s="317" t="s">
         <v>524</v>
-      </c>
-      <c r="J14" s="317" t="s">
-        <v>526</v>
       </c>
       <c r="K14" s="333"/>
       <c r="L14" s="316" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M14" s="317" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="N14" s="318" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="235" customFormat="1" ht="28.5">
@@ -38373,7 +38477,7 @@
       </c>
       <c r="D15" s="236"/>
       <c r="E15" s="319" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F15" s="238"/>
       <c r="G15" s="238"/>
@@ -38453,10 +38557,10 @@
     </row>
     <row r="18" spans="1:15" s="235" customFormat="1" ht="15">
       <c r="A18" s="236" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B18" s="320" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C18" s="236" t="s">
         <v>483</v>
@@ -38469,14 +38573,14 @@
       <c r="G18" s="322"/>
       <c r="H18" s="323"/>
       <c r="I18" s="320" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J18" s="320" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K18" s="236"/>
       <c r="L18" s="321" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M18" s="321"/>
       <c r="N18" s="238" t="s">
@@ -38491,7 +38595,7 @@
         <v>397</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D19" s="324"/>
       <c r="E19" s="324"/>
@@ -38507,17 +38611,17 @@
     </row>
     <row r="20" spans="1:15" ht="28.5">
       <c r="A20" s="325" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="326" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C20" s="326" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D20" s="327"/>
       <c r="E20" s="328" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F20" s="327"/>
       <c r="G20" s="329"/>
@@ -38550,7 +38654,7 @@
     </row>
     <row r="22" spans="1:15" ht="28.5">
       <c r="A22" s="170" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I22" s="338" t="s">
         <v>341</v>
@@ -38791,7 +38895,7 @@
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38799,8 +38903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -38818,53 +38922,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="517" t="s">
+      <c r="D1" s="525" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
+      <c r="J1" s="525"/>
+      <c r="K1" s="525"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="560" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="562"/>
+      <c r="J2" s="227" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A3" s="563" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="551" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="564"/>
+      <c r="F3" s="564"/>
+      <c r="G3" s="564"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="B2" s="552"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="553"/>
-      <c r="J2" s="227" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="554" t="s">
-        <v>545</v>
-      </c>
-      <c r="B3" s="555"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="555"/>
-      <c r="F3" s="555"/>
-      <c r="G3" s="555"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="556"/>
-      <c r="J3" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="M3" s="313"/>
     </row>
@@ -38884,19 +38988,19 @@
       <c r="E4" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="557" t="s">
+      <c r="F4" s="566" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="558"/>
-      <c r="H4" s="558"/>
-      <c r="I4" s="559"/>
+      <c r="G4" s="567"/>
+      <c r="H4" s="567"/>
+      <c r="I4" s="568"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="280" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B5" s="278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" s="278" t="s">
         <v>280</v>
@@ -38908,20 +39012,20 @@
         <v>0</v>
       </c>
       <c r="F5" s="293" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G5" s="278" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H5" s="278"/>
       <c r="I5" s="278"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="280" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B6" s="278" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C6" s="278" t="s">
         <v>457</v>
@@ -38933,10 +39037,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="293" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G6" s="294" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H6" s="278"/>
       <c r="I6" s="278"/>
@@ -38946,7 +39050,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="278" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C7" s="278" t="s">
         <v>280</v>
@@ -38983,10 +39087,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="293" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G8" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H8" s="278"/>
       <c r="I8" s="278"/>
@@ -39008,20 +39112,20 @@
         <v>0</v>
       </c>
       <c r="F9" s="293" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G9" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H9" s="278"/>
       <c r="I9" s="278"/>
     </row>
     <row r="10" spans="1:13" s="291" customFormat="1" ht="15">
       <c r="A10" s="300" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B10" s="301" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C10" s="301" t="s">
         <v>280</v>
@@ -39033,19 +39137,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="301" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G10" s="301" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H10" s="301"/>
       <c r="I10" s="301" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="235" customFormat="1">
       <c r="A11" s="303" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B11" s="304" t="s">
         <v>380</v>
@@ -39063,19 +39167,19 @@
         <v>382</v>
       </c>
       <c r="G11" s="304" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H11" s="304"/>
       <c r="I11" s="304" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="235" customFormat="1">
       <c r="A12" s="303" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B12" s="304" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C12" s="304" t="s">
         <v>280</v>
@@ -39087,20 +39191,20 @@
         <v>0</v>
       </c>
       <c r="F12" s="304" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G12" s="304" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H12" s="304"/>
       <c r="I12" s="304"/>
     </row>
     <row r="13" spans="1:13" s="235" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="303" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B13" s="303" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C13" s="303" t="s">
         <v>280</v>
@@ -39111,23 +39215,23 @@
       <c r="E13" s="304">
         <v>0</v>
       </c>
-      <c r="F13" s="304" t="s">
-        <v>566</v>
+      <c r="F13" s="506" t="s">
+        <v>1016</v>
       </c>
       <c r="G13" s="304" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H13" s="304"/>
       <c r="I13" s="304" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="280" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B14" s="280" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C14" s="280" t="s">
         <v>297</v>
@@ -39139,20 +39243,20 @@
         <v>3</v>
       </c>
       <c r="F14" s="278" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G14" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H14" s="278"/>
       <c r="I14" s="278"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="280" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B15" s="280" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C15" s="280" t="s">
         <v>297</v>
@@ -39163,21 +39267,21 @@
       <c r="E15" s="278">
         <v>3</v>
       </c>
-      <c r="F15" s="278" t="s">
-        <v>573</v>
+      <c r="F15" s="507" t="s">
+        <v>1017</v>
       </c>
       <c r="G15" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H15" s="278"/>
       <c r="I15" s="278"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="280" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B16" s="280" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C16" s="280" t="s">
         <v>303</v>
@@ -39188,21 +39292,21 @@
       <c r="E16" s="278">
         <v>0</v>
       </c>
-      <c r="F16" s="278" t="s">
-        <v>576</v>
+      <c r="F16" s="507" t="s">
+        <v>1018</v>
       </c>
       <c r="G16" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H16" s="278"/>
       <c r="I16" s="278"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="280" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B17" s="280" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C17" s="280" t="s">
         <v>280</v>
@@ -39214,22 +39318,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="278" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G17" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H17" s="278"/>
       <c r="I17" s="278" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="280" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B18" s="280" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C18" s="280" t="s">
         <v>297</v>
@@ -39240,21 +39344,21 @@
       <c r="E18" s="278">
         <v>3</v>
       </c>
-      <c r="F18" s="278" t="s">
-        <v>583</v>
+      <c r="F18" s="507" t="s">
+        <v>1019</v>
       </c>
       <c r="G18" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H18" s="278"/>
       <c r="I18" s="278"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="280" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B19" s="280" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C19" s="280" t="s">
         <v>303</v>
@@ -39266,22 +39370,22 @@
         <v>0</v>
       </c>
       <c r="F19" s="278" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G19" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H19" s="278"/>
       <c r="I19" s="278" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="280" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B20" s="280" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C20" s="280" t="s">
         <v>297</v>
@@ -39292,21 +39396,21 @@
       <c r="E20" s="278">
         <v>3</v>
       </c>
-      <c r="F20" s="278" t="s">
-        <v>589</v>
+      <c r="F20" s="507" t="s">
+        <v>1020</v>
       </c>
       <c r="G20" s="306" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H20" s="278"/>
       <c r="I20" s="278"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="280" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B21" s="280" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C21" s="280" t="s">
         <v>303</v>
@@ -39318,20 +39422,20 @@
         <v>0</v>
       </c>
       <c r="F21" s="278" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G21" s="306" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H21" s="278"/>
       <c r="I21" s="278"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="280" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B22" s="280" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C22" s="280" t="s">
         <v>297</v>
@@ -39343,20 +39447,20 @@
         <v>3</v>
       </c>
       <c r="F22" s="278" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G22" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H22" s="278"/>
       <c r="I22" s="278"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="280" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B23" s="280" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C23" s="280" t="s">
         <v>303</v>
@@ -39371,19 +39475,19 @@
         <v>397</v>
       </c>
       <c r="G23" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H23" s="278"/>
       <c r="I23" s="278" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="280" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B24" s="280" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C24" s="280" t="s">
         <v>297</v>
@@ -39395,20 +39499,20 @@
         <v>3</v>
       </c>
       <c r="F24" s="278" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G24" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H24" s="278"/>
       <c r="I24" s="278"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="280" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B25" s="280" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C25" s="280" t="s">
         <v>303</v>
@@ -39423,19 +39527,19 @@
         <v>397</v>
       </c>
       <c r="G25" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H25" s="278"/>
       <c r="I25" s="278" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="280" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B26" s="280" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C26" s="280" t="s">
         <v>297</v>
@@ -39447,20 +39551,20 @@
         <v>3</v>
       </c>
       <c r="F26" s="278" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G26" s="278" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H26" s="278"/>
       <c r="I26" s="278"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="280" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B27" s="280" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C27" s="280" t="s">
         <v>303</v>
@@ -39472,20 +39576,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="278" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G27" s="278" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H27" s="278"/>
       <c r="I27" s="278"/>
     </row>
     <row r="28" spans="1:9" s="235" customFormat="1">
       <c r="A28" s="303" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B28" s="303" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C28" s="303" t="s">
         <v>297</v>
@@ -39497,20 +39601,20 @@
         <v>3</v>
       </c>
       <c r="F28" s="304" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G28" s="304" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H28" s="304"/>
       <c r="I28" s="304"/>
     </row>
     <row r="29" spans="1:9" s="235" customFormat="1">
       <c r="A29" s="303" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B29" s="303" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C29" s="303" t="s">
         <v>303</v>
@@ -39525,19 +39629,19 @@
         <v>397</v>
       </c>
       <c r="G29" s="304" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H29" s="304"/>
       <c r="I29" s="304" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="280" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B30" s="280" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C30" s="280" t="s">
         <v>405</v>
@@ -39549,10 +39653,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="278" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G30" s="278" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H30" s="278"/>
       <c r="I30" s="278">
@@ -39561,10 +39665,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="280" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B31" s="280" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C31" s="280" t="s">
         <v>280</v>
@@ -39576,22 +39680,22 @@
         <v>0</v>
       </c>
       <c r="F31" s="280" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G31" s="307" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H31" s="280"/>
       <c r="I31" s="280" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="280" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B32" s="280" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C32" s="280" t="s">
         <v>280</v>
@@ -39603,20 +39707,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="280" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G32" s="307" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H32" s="280"/>
       <c r="I32" s="280"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="308" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B33" s="308" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C33" s="308" t="s">
         <v>280</v>
@@ -39628,20 +39732,20 @@
         <v>0</v>
       </c>
       <c r="F33" s="308" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G33" s="309" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H33" s="308"/>
       <c r="I33" s="308"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="310" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B34" s="310" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C34" s="310" t="s">
         <v>280</v>
@@ -39653,10 +39757,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="310" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G34" s="311" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H34" s="310"/>
       <c r="I34" s="310"/>
@@ -39674,7 +39778,7 @@
     </row>
     <row r="37" spans="1:9" ht="28.5">
       <c r="A37" s="170" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -39719,8 +39823,8 @@
       <c r="F39" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G39" s="85" t="s">
-        <v>348</v>
+      <c r="G39" s="502" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -39742,8 +39846,8 @@
       <c r="F40" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="G40" s="74" t="s">
-        <v>352</v>
+      <c r="G40" s="500" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -39751,7 +39855,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="107" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C41" s="100" t="s">
         <v>457</v>
@@ -39764,7 +39868,7 @@
         <v>351</v>
       </c>
       <c r="G41" s="286" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -39772,7 +39876,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="107" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C42" s="100" t="s">
         <v>457</v>
@@ -39785,7 +39889,7 @@
         <v>351</v>
       </c>
       <c r="G42" s="286" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -39797,7 +39901,7 @@
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39806,7 +39910,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -39825,49 +39929,49 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="517" t="s">
+      <c r="D1" s="525" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
+      <c r="J1" s="525"/>
+      <c r="K1" s="525"/>
       <c r="N1" s="284"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="271" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="561"/>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="561"/>
-      <c r="I2" s="562"/>
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="580"/>
+      <c r="F2" s="580"/>
+      <c r="G2" s="580"/>
+      <c r="H2" s="580"/>
+      <c r="I2" s="581"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="272" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B3" s="273" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C3" s="274"/>
       <c r="D3" s="274"/>
@@ -39908,12 +40012,12 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="563" t="s">
+      <c r="F4" s="582" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="564"/>
-      <c r="H4" s="564"/>
-      <c r="I4" s="565"/>
+      <c r="G4" s="583"/>
+      <c r="H4" s="583"/>
+      <c r="I4" s="584"/>
       <c r="J4" s="107"/>
       <c r="K4" s="100"/>
       <c r="L4" s="101"/>
@@ -39922,10 +40026,10 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="277" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B5" s="278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" s="278" t="s">
         <v>280</v>
@@ -39936,14 +40040,14 @@
       <c r="E5" s="280">
         <v>0</v>
       </c>
-      <c r="F5" s="566" t="s">
-        <v>630</v>
-      </c>
-      <c r="G5" s="567"/>
-      <c r="H5" s="567"/>
-      <c r="I5" s="568"/>
+      <c r="F5" s="585" t="s">
+        <v>622</v>
+      </c>
+      <c r="G5" s="586"/>
+      <c r="H5" s="586"/>
+      <c r="I5" s="587"/>
       <c r="J5" s="107" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="K5" s="100" t="s">
         <v>457</v>
@@ -39955,15 +40059,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="286" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
       <c r="A6" s="277" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B6" s="278" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C6" s="278" t="s">
         <v>457</v>
@@ -39974,14 +40078,14 @@
       <c r="E6" s="280">
         <v>0</v>
       </c>
-      <c r="F6" s="566" t="s">
-        <v>632</v>
-      </c>
-      <c r="G6" s="567"/>
-      <c r="H6" s="567"/>
-      <c r="I6" s="569"/>
+      <c r="F6" s="585" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" s="586"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="588"/>
       <c r="J6" s="107" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K6" s="100" t="s">
         <v>457</v>
@@ -39993,7 +40097,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="286" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="62.1" customHeight="1">
@@ -40001,7 +40105,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="278" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C7" s="278" t="s">
         <v>280</v>
@@ -40012,12 +40116,12 @@
       <c r="E7" s="281">
         <v>0</v>
       </c>
-      <c r="F7" s="570" t="s">
-        <v>633</v>
-      </c>
-      <c r="G7" s="571"/>
-      <c r="H7" s="571"/>
-      <c r="I7" s="572"/>
+      <c r="F7" s="569" t="s">
+        <v>625</v>
+      </c>
+      <c r="G7" s="570"/>
+      <c r="H7" s="570"/>
+      <c r="I7" s="571"/>
       <c r="J7" s="280" t="s">
         <v>338</v>
       </c>
@@ -40036,7 +40140,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="282" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B8" s="283"/>
       <c r="C8" s="283"/>
@@ -40068,14 +40172,14 @@
       <c r="E9" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="557" t="s">
+      <c r="F9" s="566" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="558"/>
-      <c r="H9" s="558"/>
-      <c r="I9" s="559"/>
+      <c r="G9" s="567"/>
+      <c r="H9" s="567"/>
+      <c r="I9" s="568"/>
       <c r="J9" s="290" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="101"/>
@@ -40084,10 +40188,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="277" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B10" s="280" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C10" s="280" t="s">
         <v>280</v>
@@ -40098,14 +40202,14 @@
       <c r="E10" s="280">
         <v>0</v>
       </c>
-      <c r="F10" s="573" t="s">
-        <v>638</v>
-      </c>
-      <c r="G10" s="574"/>
-      <c r="H10" s="574"/>
-      <c r="I10" s="575"/>
+      <c r="F10" s="572" t="s">
+        <v>630</v>
+      </c>
+      <c r="G10" s="573"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="574"/>
       <c r="J10" s="280" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="K10" s="280" t="s">
         <v>280</v>
@@ -40118,10 +40222,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="277" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B11" s="280" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C11" s="280" t="s">
         <v>280</v>
@@ -40132,14 +40236,14 @@
       <c r="E11" s="280">
         <v>0</v>
       </c>
-      <c r="F11" s="576" t="s">
-        <v>641</v>
-      </c>
-      <c r="G11" s="577"/>
-      <c r="H11" s="577"/>
-      <c r="I11" s="578"/>
+      <c r="F11" s="575" t="s">
+        <v>633</v>
+      </c>
+      <c r="G11" s="576"/>
+      <c r="H11" s="576"/>
+      <c r="I11" s="577"/>
       <c r="J11" s="280" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="K11" s="280" t="s">
         <v>280</v>
@@ -40156,10 +40260,10 @@
       <c r="C12" s="278"/>
       <c r="D12" s="278"/>
       <c r="E12" s="278"/>
-      <c r="F12" s="576"/>
-      <c r="G12" s="577"/>
-      <c r="H12" s="577"/>
-      <c r="I12" s="579"/>
+      <c r="F12" s="575"/>
+      <c r="G12" s="576"/>
+      <c r="H12" s="576"/>
+      <c r="I12" s="578"/>
       <c r="J12" s="107"/>
       <c r="K12" s="100"/>
       <c r="L12" s="101"/>
@@ -40231,16 +40335,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374D642B-3331-47E1-B23F-363855B7C1A6}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25335620-C1EB-4C97-AB13-74ACF162CB9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -2196,9 +2196,6 @@
     <t>生产发料退料接口</t>
   </si>
   <si>
-    <t>Batch_PutTask</t>
-  </si>
-  <si>
     <t>输入说明（MES传输）</t>
   </si>
   <si>
@@ -4644,9 +4641,6 @@
     <t>当质检判定结果为不合格时，不合格的仓库地点</t>
   </si>
   <si>
-    <t>当ACTIONTYPE 是C时，为321,当ACTIONTYPE 是M时,为311</t>
-  </si>
-  <si>
     <t>NUMC（6）</t>
   </si>
   <si>
@@ -5329,6 +5323,14 @@
   </si>
   <si>
     <t>KOSTL</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>当ACTIONTYPE 是C时，为321,当ACTIONTYPE 是M时,为311</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch_PutTask</t>
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
 </sst>
@@ -8197,15 +8199,24 @@
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8215,12 +8226,6 @@
     <xf numFmtId="176" fontId="65" fillId="17" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8254,99 +8259,99 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8374,6 +8379,36 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8404,41 +8439,8 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -9461,7 +9463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -9481,39 +9483,39 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="540" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="569" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="M1" s="266"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="168" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="505" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="J2" s="508" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
@@ -9521,25 +9523,25 @@
         <v>370</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>272</v>
@@ -9559,13 +9561,13 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="254" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -9573,43 +9575,43 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="254" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K4" s="100"/>
       <c r="L4" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="27">
       <c r="A5" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K5" s="100"/>
       <c r="L5" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="22"/>
     </row>
@@ -9618,10 +9620,10 @@
         <v>374</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -9632,11 +9634,11 @@
         <v>374</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M6" s="22"/>
     </row>
@@ -9645,10 +9647,10 @@
         <v>382</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -9659,11 +9661,11 @@
         <v>382</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K7" s="100"/>
       <c r="L7" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M7" s="22"/>
     </row>
@@ -9672,13 +9674,13 @@
         <v>474</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>516</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -9688,11 +9690,11 @@
         <v>474</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K8" s="100"/>
       <c r="L8" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M8" s="22"/>
     </row>
@@ -9728,7 +9730,7 @@
         <v>462</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>484</v>
@@ -9748,7 +9750,7 @@
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M10" s="23"/>
     </row>
@@ -9757,7 +9759,7 @@
         <v>468</v>
       </c>
       <c r="B11" s="502" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>481</v>
@@ -9775,48 +9777,48 @@
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="502" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A12" s="255" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="256" t="s">
         <v>633</v>
       </c>
-      <c r="B12" s="256" t="s">
+      <c r="C12" s="257" t="s">
         <v>634</v>
       </c>
-      <c r="C12" s="257" t="s">
-        <v>635</v>
-      </c>
       <c r="D12" s="258" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E12" s="259"/>
       <c r="F12" s="259"/>
       <c r="G12" s="259"/>
       <c r="H12" s="259"/>
       <c r="I12" s="255" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J12" s="257" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K12" s="267"/>
       <c r="L12" s="256" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M12" s="268"/>
     </row>
     <row r="13" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A13" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="256" t="s">
         <v>636</v>
       </c>
-      <c r="B13" s="256" t="s">
-        <v>637</v>
-      </c>
       <c r="C13" s="257" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D13" s="258"/>
       <c r="E13" s="259"/>
@@ -9824,43 +9826,43 @@
       <c r="G13" s="259"/>
       <c r="H13" s="259"/>
       <c r="I13" s="255" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J13" s="257" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K13" s="267"/>
       <c r="L13" s="256" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M13" s="268"/>
     </row>
     <row r="14" spans="1:14" s="253" customFormat="1" ht="30">
       <c r="A14" s="260" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" s="256" t="s">
         <v>520</v>
       </c>
-      <c r="B14" s="256" t="s">
+      <c r="C14" s="257" t="s">
         <v>521</v>
       </c>
-      <c r="C14" s="257" t="s">
-        <v>522</v>
-      </c>
       <c r="D14" s="257" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
       <c r="G14" s="259"/>
       <c r="H14" s="259"/>
       <c r="I14" s="260" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J14" s="257" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K14" s="267"/>
       <c r="L14" s="256" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M14" s="268"/>
     </row>
@@ -9869,7 +9871,7 @@
         <v>476</v>
       </c>
       <c r="B15" s="506" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="147" t="s">
         <v>478</v>
@@ -9897,7 +9899,7 @@
         <v>479</v>
       </c>
       <c r="B16" s="506" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="147" t="s">
         <v>481</v>
@@ -9947,17 +9949,17 @@
       </c>
       <c r="K17" s="267"/>
       <c r="L17" s="506" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M17" s="262"/>
       <c r="N17" s="149"/>
     </row>
     <row r="18" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A18" s="147" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B18" s="263" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="147" t="s">
         <v>481</v>
@@ -9970,14 +9972,14 @@
       <c r="G18" s="265"/>
       <c r="H18" s="150"/>
       <c r="I18" s="263" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J18" s="263" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K18" s="147"/>
       <c r="L18" s="264" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="264"/>
       <c r="N18" s="149" t="s">
@@ -9992,7 +9994,7 @@
         <v>396</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -10003,7 +10005,7 @@
         <v>394</v>
       </c>
       <c r="J19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K19" s="100"/>
       <c r="L19" s="131" t="s">
@@ -10032,7 +10034,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5">
       <c r="A21" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -10088,7 +10090,7 @@
         <v>347</v>
       </c>
       <c r="G23" s="499" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -10116,7 +10118,7 @@
         <v>351</v>
       </c>
       <c r="G24" s="497" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -10201,13 +10203,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25">
       <c r="A1" s="141" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -10216,25 +10218,25 @@
         <v>370</v>
       </c>
       <c r="B2" s="143" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="143" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>498</v>
       </c>
       <c r="D2" s="143" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="143" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" s="143" t="s">
         <v>499</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>631</v>
-      </c>
-      <c r="G2" s="143" t="s">
+      <c r="H2" s="143" t="s">
         <v>500</v>
-      </c>
-      <c r="H2" s="143" t="s">
-        <v>501</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>272</v>
@@ -10254,13 +10256,13 @@
     </row>
     <row r="3" spans="1:15" ht="33">
       <c r="A3" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="145" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="144" t="s">
         <v>640</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>641</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -10268,28 +10270,28 @@
       <c r="G3" s="143"/>
       <c r="H3" s="143"/>
       <c r="I3" s="240" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J3" s="99"/>
       <c r="K3" s="100"/>
       <c r="L3" s="145"/>
       <c r="M3" s="242"/>
       <c r="O3" s="243" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33">
       <c r="A4" s="145" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="145" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>506</v>
-      </c>
       <c r="C4" s="145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D4" s="145" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E4" s="143"/>
       <c r="F4" s="143"/>
@@ -10306,10 +10308,10 @@
         <v>374</v>
       </c>
       <c r="B5" s="145" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D5" s="145"/>
       <c r="E5" s="143"/>
@@ -10327,10 +10329,10 @@
         <v>382</v>
       </c>
       <c r="B6" s="491" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="143"/>
@@ -10348,13 +10350,13 @@
         <v>474</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D7" s="145" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
@@ -10374,7 +10376,7 @@
         <v>396</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D8" s="145"/>
       <c r="E8" s="143"/>
@@ -10413,7 +10415,7 @@
         <v>462</v>
       </c>
       <c r="B10" s="145" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C10" s="145" t="s">
         <v>428</v>
@@ -10452,13 +10454,13 @@
     </row>
     <row r="12" spans="1:15" ht="33">
       <c r="A12" s="491" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B12" s="145" t="s">
         <v>489</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="143"/>
@@ -10473,13 +10475,13 @@
     </row>
     <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="145" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="145" t="s">
         <v>636</v>
       </c>
-      <c r="B13" s="145" t="s">
-        <v>637</v>
-      </c>
       <c r="C13" s="145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D13" s="144"/>
       <c r="E13" s="143"/>
@@ -10494,19 +10496,19 @@
     </row>
     <row r="14" spans="1:15" ht="34.5">
       <c r="A14" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" s="145" t="s">
         <v>520</v>
       </c>
-      <c r="B14" s="145" t="s">
-        <v>521</v>
-      </c>
       <c r="C14" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D14" s="145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E14" s="490" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
@@ -10586,13 +10588,13 @@
     </row>
     <row r="18" spans="1:13" ht="17.25">
       <c r="A18" s="131" t="s">
+        <v>648</v>
+      </c>
+      <c r="B18" s="130" t="s">
         <v>649</v>
       </c>
-      <c r="B18" s="130" t="s">
-        <v>650</v>
-      </c>
       <c r="C18" s="130" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="143"/>
@@ -10607,13 +10609,13 @@
     </row>
     <row r="19" spans="1:13" ht="17.25">
       <c r="A19" s="131" t="s">
+        <v>650</v>
+      </c>
+      <c r="B19" s="130" t="s">
         <v>651</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="C19" s="130" t="s">
         <v>652</v>
-      </c>
-      <c r="C19" s="130" t="s">
-        <v>653</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="143"/>
@@ -10628,13 +10630,13 @@
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="143"/>
@@ -10649,16 +10651,16 @@
     </row>
     <row r="21" spans="1:13" ht="17.25">
       <c r="A21" s="145" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="144" t="s">
         <v>655</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="C21" s="144" t="s">
         <v>656</v>
       </c>
-      <c r="C21" s="144" t="s">
-        <v>657</v>
-      </c>
       <c r="D21" s="145" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E21" s="143"/>
       <c r="F21" s="143"/>
@@ -10672,13 +10674,13 @@
     </row>
     <row r="22" spans="1:13" ht="17.25">
       <c r="A22" s="145" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="144" t="s">
         <v>658</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="C22" s="144" t="s">
         <v>659</v>
-      </c>
-      <c r="C22" s="144" t="s">
-        <v>660</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="143"/>
@@ -10693,13 +10695,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.25">
       <c r="A23" s="145" t="s">
+        <v>660</v>
+      </c>
+      <c r="B23" s="144" t="s">
         <v>661</v>
       </c>
-      <c r="B23" s="144" t="s">
-        <v>662</v>
-      </c>
       <c r="C23" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="143"/>
@@ -10714,13 +10716,13 @@
     </row>
     <row r="24" spans="1:13" ht="33">
       <c r="A24" s="145" t="s">
+        <v>662</v>
+      </c>
+      <c r="B24" s="144" t="s">
         <v>663</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="C24" s="144" t="s">
         <v>664</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>665</v>
       </c>
       <c r="D24" s="145"/>
       <c r="E24" s="143"/>
@@ -10735,16 +10737,16 @@
     </row>
     <row r="25" spans="1:13" ht="51.75">
       <c r="A25" s="145" t="s">
+        <v>665</v>
+      </c>
+      <c r="B25" s="144" t="s">
         <v>666</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="C25" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="D25" s="145" t="s">
         <v>668</v>
-      </c>
-      <c r="D25" s="145" t="s">
-        <v>669</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="143"/>
@@ -10760,13 +10762,13 @@
     </row>
     <row r="26" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A26" s="197" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="240" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C26" s="240" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D26" s="241"/>
       <c r="E26" s="185"/>
@@ -10781,13 +10783,13 @@
     </row>
     <row r="27" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A27" s="197" t="s">
+        <v>670</v>
+      </c>
+      <c r="B27" s="240" t="s">
         <v>671</v>
       </c>
-      <c r="B27" s="240" t="s">
+      <c r="C27" s="240" t="s">
         <v>672</v>
-      </c>
-      <c r="C27" s="240" t="s">
-        <v>673</v>
       </c>
       <c r="D27" s="241"/>
       <c r="E27" s="185"/>
@@ -10802,13 +10804,13 @@
     </row>
     <row r="28" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A28" s="240" t="s">
+        <v>673</v>
+      </c>
+      <c r="B28" s="240" t="s">
         <v>674</v>
       </c>
-      <c r="B28" s="240" t="s">
+      <c r="C28" s="240" t="s">
         <v>675</v>
-      </c>
-      <c r="C28" s="240" t="s">
-        <v>676</v>
       </c>
       <c r="D28" s="241"/>
       <c r="E28" s="185"/>
@@ -10842,7 +10844,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="168" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -11017,7 +11019,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="225" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33">
@@ -11043,7 +11045,7 @@
         <v>277</v>
       </c>
       <c r="I2" s="508" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5">
@@ -11060,10 +11062,10 @@
         <v>40</v>
       </c>
       <c r="E3" s="202" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F3" s="209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G3" s="205"/>
     </row>
@@ -11084,7 +11086,7 @@
     </row>
     <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -11190,7 +11192,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="230" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F9" s="232"/>
       <c r="G9" s="232"/>
@@ -11261,7 +11263,7 @@
         <v>277</v>
       </c>
       <c r="H1" s="508" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5">
@@ -11269,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="201" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="202" t="s">
         <v>404</v>
@@ -11278,11 +11280,11 @@
         <v>8</v>
       </c>
       <c r="E2" s="202" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F2" s="204"/>
       <c r="G2" s="205" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -11290,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="206" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C3" s="202" t="s">
         <v>280</v>
@@ -11299,11 +11301,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="208" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F3" s="209"/>
       <c r="G3" s="205" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33">
@@ -11311,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="201" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C4" s="202" t="s">
         <v>280</v>
@@ -11320,11 +11322,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="202" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F4" s="209"/>
       <c r="G4" s="210" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -11341,10 +11343,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="202" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F5" s="208" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G5" s="213"/>
     </row>
@@ -11365,7 +11367,7 @@
         <v>381</v>
       </c>
       <c r="F6" s="209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G6" s="213"/>
       <c r="L6">
@@ -11389,7 +11391,7 @@
         <v>469</v>
       </c>
       <c r="F7" s="209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G7" s="210"/>
       <c r="L7">
@@ -11401,7 +11403,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="201" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C8" s="202" t="s">
         <v>280</v>
@@ -11410,11 +11412,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="202" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F8" s="209"/>
       <c r="G8" s="210" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L8">
         <v>485</v>
@@ -11425,7 +11427,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="201" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C9" s="202" t="s">
         <v>280</v>
@@ -11434,11 +11436,11 @@
         <v>2</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="205" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L9">
         <v>511</v>
@@ -11458,10 +11460,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="208" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F10" s="209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G10" s="210"/>
       <c r="L10">
@@ -11485,7 +11487,7 @@
         <v>396</v>
       </c>
       <c r="F11" s="209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G11" s="213"/>
       <c r="L11">
@@ -11497,7 +11499,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="201" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C12" s="202" t="s">
         <v>280</v>
@@ -11506,7 +11508,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="202" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F12" s="209"/>
       <c r="G12" s="213"/>
@@ -11519,7 +11521,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="214" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C13" s="202" t="s">
         <v>280</v>
@@ -11528,11 +11530,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="202" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F13" s="209"/>
       <c r="G13" s="210" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L13">
         <v>526</v>
@@ -11543,7 +11545,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="215" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C14" s="216" t="s">
         <v>280</v>
@@ -11552,11 +11554,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="217" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F14" s="209"/>
       <c r="G14" s="210" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L14">
         <v>526</v>
@@ -11567,7 +11569,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="201" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C15" s="216" t="s">
         <v>280</v>
@@ -11576,7 +11578,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="216" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F15" s="218"/>
       <c r="G15" s="213"/>
@@ -11589,7 +11591,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="201" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C16" s="216" t="s">
         <v>455</v>
@@ -11598,7 +11600,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="216" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F16" s="218"/>
       <c r="G16" s="213"/>
@@ -11608,7 +11610,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="201" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C17" s="216" t="s">
         <v>280</v>
@@ -11617,7 +11619,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="216" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F17" s="218"/>
       <c r="G17" s="213"/>
@@ -11625,7 +11627,7 @@
     <row r="18" spans="1:13" ht="33">
       <c r="A18" s="219"/>
       <c r="B18" s="220" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C18" s="195" t="s">
         <v>280</v>
@@ -11634,7 +11636,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="195" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F18" s="222"/>
       <c r="G18" s="223"/>
@@ -11642,7 +11644,7 @@
     <row r="19" spans="1:13" ht="16.5">
       <c r="A19" s="219"/>
       <c r="B19" s="224" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C19" s="195" t="s">
         <v>280</v>
@@ -11651,7 +11653,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="195" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F19" s="222"/>
       <c r="G19" s="223"/>
@@ -11672,7 +11674,7 @@
     </row>
     <row r="22" spans="1:13" ht="42.75">
       <c r="A22" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -11774,7 +11776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -11794,7 +11796,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="174" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
@@ -11802,28 +11804,28 @@
         <v>370</v>
       </c>
       <c r="B2" s="143" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="143" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>498</v>
       </c>
       <c r="D2" s="143" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="143" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" s="143" t="s">
         <v>499</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>631</v>
-      </c>
-      <c r="G2" s="143" t="s">
+      <c r="H2" s="143" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="143" t="s">
-        <v>501</v>
-      </c>
       <c r="J2" s="142" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -11831,10 +11833,10 @@
         <v>382</v>
       </c>
       <c r="B3" s="511" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="145" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -11844,13 +11846,13 @@
     </row>
     <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="498" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B4" s="511" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D4" s="144"/>
       <c r="E4" s="143"/>
@@ -11858,21 +11860,21 @@
       <c r="G4" s="143"/>
       <c r="H4" s="143"/>
       <c r="J4" s="508" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="176" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="177" t="s">
         <v>709</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="C5" s="145" t="s">
         <v>710</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="D5" s="143" t="s">
         <v>711</v>
-      </c>
-      <c r="D5" s="143" t="s">
-        <v>712</v>
       </c>
       <c r="E5" s="143"/>
       <c r="F5" s="143"/>
@@ -11880,16 +11882,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="176" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" s="177" t="s">
         <v>713</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="C6" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" s="143" t="s">
         <v>714</v>
-      </c>
-      <c r="C6" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D6" s="143" t="s">
-        <v>715</v>
       </c>
       <c r="E6" s="143"/>
       <c r="F6" s="143"/>
@@ -11897,16 +11899,16 @@
     </row>
     <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="176" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="177" t="s">
         <v>716</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="C7" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" s="143" t="s">
         <v>717</v>
-      </c>
-      <c r="C7" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D7" s="143" t="s">
-        <v>718</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
@@ -11914,16 +11916,16 @@
     </row>
     <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="176" t="s">
+        <v>718</v>
+      </c>
+      <c r="B8" s="177" t="s">
         <v>719</v>
       </c>
-      <c r="B8" s="177" t="s">
+      <c r="C8" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D8" s="143" t="s">
         <v>720</v>
-      </c>
-      <c r="C8" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D8" s="143" t="s">
-        <v>721</v>
       </c>
       <c r="E8" s="143"/>
       <c r="F8" s="143"/>
@@ -11931,16 +11933,16 @@
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="176" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" s="177" t="s">
         <v>722</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="C9" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D9" s="178" t="s">
         <v>723</v>
-      </c>
-      <c r="C9" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D9" s="178" t="s">
-        <v>724</v>
       </c>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
@@ -11948,16 +11950,16 @@
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="176" t="s">
+        <v>724</v>
+      </c>
+      <c r="B10" s="177" t="s">
         <v>725</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="C10" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" s="143" t="s">
         <v>726</v>
-      </c>
-      <c r="C10" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D10" s="143" t="s">
-        <v>727</v>
       </c>
       <c r="E10" s="143"/>
       <c r="F10" s="143"/>
@@ -11965,16 +11967,16 @@
     </row>
     <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="519" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B11" s="179" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D11" s="180" t="s">
         <v>728</v>
-      </c>
-      <c r="C11" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D11" s="180" t="s">
-        <v>729</v>
       </c>
       <c r="F11" s="143"/>
       <c r="G11" s="143"/>
@@ -11982,13 +11984,13 @@
     </row>
     <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="176" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="177" t="s">
         <v>730</v>
       </c>
-      <c r="B12" s="177" t="s">
-        <v>731</v>
-      </c>
       <c r="C12" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D12" s="143"/>
       <c r="E12" s="143"/>
@@ -11997,16 +11999,16 @@
     </row>
     <row r="13" spans="1:10" ht="34.5">
       <c r="A13" s="176" t="s">
+        <v>731</v>
+      </c>
+      <c r="B13" s="177" t="s">
         <v>732</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="C13" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="143" t="s">
         <v>733</v>
-      </c>
-      <c r="C13" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>734</v>
       </c>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
@@ -12014,16 +12016,16 @@
     </row>
     <row r="14" spans="1:10" ht="18">
       <c r="A14" s="176" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14" s="177" t="s">
         <v>735</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="C14" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" s="143" t="s">
         <v>736</v>
-      </c>
-      <c r="C14" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>737</v>
       </c>
       <c r="E14" s="181"/>
       <c r="F14" s="143"/>
@@ -12031,16 +12033,16 @@
     </row>
     <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="176" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="177" t="s">
         <v>738</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="C15" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D15" s="180" t="s">
         <v>739</v>
-      </c>
-      <c r="C15" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D15" s="180" t="s">
-        <v>740</v>
       </c>
       <c r="F15" s="143"/>
       <c r="G15" s="143"/>
@@ -12048,13 +12050,13 @@
     </row>
     <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="176" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" s="177" t="s">
         <v>741</v>
       </c>
-      <c r="B16" s="177" t="s">
-        <v>742</v>
-      </c>
       <c r="C16" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="143"/>
@@ -12064,13 +12066,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="176" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" s="177" t="s">
         <v>743</v>
       </c>
-      <c r="B17" s="177" t="s">
-        <v>744</v>
-      </c>
       <c r="C17" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D17" s="144"/>
       <c r="E17" s="143"/>
@@ -12080,13 +12082,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="176" t="s">
+        <v>744</v>
+      </c>
+      <c r="B18" s="179" t="s">
         <v>745</v>
       </c>
-      <c r="B18" s="179" t="s">
-        <v>746</v>
-      </c>
       <c r="C18" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="143"/>
@@ -12096,13 +12098,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="176" t="s">
+        <v>746</v>
+      </c>
+      <c r="B19" s="179" t="s">
         <v>747</v>
       </c>
-      <c r="B19" s="179" t="s">
-        <v>748</v>
-      </c>
       <c r="C19" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D19" s="144"/>
       <c r="E19" s="143"/>
@@ -12112,13 +12114,13 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="176" t="s">
+        <v>748</v>
+      </c>
+      <c r="B20" s="179" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="179" t="s">
-        <v>750</v>
-      </c>
       <c r="C20" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D20" s="144"/>
       <c r="E20" s="143"/>
@@ -12128,13 +12130,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="176" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" s="177" t="s">
         <v>751</v>
       </c>
-      <c r="B21" s="177" t="s">
-        <v>752</v>
-      </c>
       <c r="C21" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D21" s="144"/>
       <c r="E21" s="143"/>
@@ -12144,13 +12146,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="176" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" s="177" t="s">
         <v>753</v>
       </c>
-      <c r="B22" s="177" t="s">
-        <v>754</v>
-      </c>
       <c r="C22" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="143"/>
@@ -12160,13 +12162,13 @@
     </row>
     <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="519" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B23" s="177" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="143"/>
@@ -12176,16 +12178,16 @@
     </row>
     <row r="24" spans="1:8" ht="17.25">
       <c r="A24" s="176" t="s">
+        <v>755</v>
+      </c>
+      <c r="B24" s="177" t="s">
         <v>756</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="C24" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D24" s="180" t="s">
         <v>757</v>
-      </c>
-      <c r="C24" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D24" s="180" t="s">
-        <v>758</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
@@ -12193,13 +12195,13 @@
     </row>
     <row r="25" spans="1:8" ht="17.25">
       <c r="A25" s="176" t="s">
+        <v>758</v>
+      </c>
+      <c r="B25" s="179" t="s">
         <v>759</v>
       </c>
-      <c r="B25" s="179" t="s">
-        <v>760</v>
-      </c>
       <c r="C25" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="143"/>
@@ -12209,16 +12211,16 @@
     </row>
     <row r="26" spans="1:8" ht="17.25">
       <c r="A26" s="176" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" s="177" t="s">
+        <v>713</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D26" s="180" t="s">
         <v>761</v>
-      </c>
-      <c r="B26" s="177" t="s">
-        <v>714</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>762</v>
       </c>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
@@ -12226,13 +12228,13 @@
     </row>
     <row r="27" spans="1:8" ht="17.25">
       <c r="A27" s="176" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27" s="182" t="s">
         <v>763</v>
       </c>
-      <c r="B27" s="182" t="s">
-        <v>764</v>
-      </c>
       <c r="C27" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D27" s="144"/>
       <c r="E27" s="143"/>
@@ -12242,13 +12244,13 @@
     </row>
     <row r="28" spans="1:8" ht="17.25">
       <c r="A28" s="176" t="s">
+        <v>764</v>
+      </c>
+      <c r="B28" s="179" t="s">
         <v>765</v>
       </c>
-      <c r="B28" s="179" t="s">
-        <v>766</v>
-      </c>
       <c r="C28" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D28" s="144"/>
       <c r="E28" s="143"/>
@@ -12258,16 +12260,16 @@
     </row>
     <row r="29" spans="1:8" ht="17.25">
       <c r="A29" s="176" t="s">
+        <v>766</v>
+      </c>
+      <c r="B29" s="177" t="s">
         <v>767</v>
       </c>
-      <c r="B29" s="177" t="s">
+      <c r="C29" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D29" s="180" t="s">
         <v>768</v>
-      </c>
-      <c r="C29" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D29" s="180" t="s">
-        <v>769</v>
       </c>
       <c r="E29" s="180"/>
       <c r="F29" s="143"/>
@@ -12275,16 +12277,16 @@
     </row>
     <row r="30" spans="1:8" ht="17.25">
       <c r="A30" s="176" t="s">
+        <v>769</v>
+      </c>
+      <c r="B30" s="177" t="s">
         <v>770</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="C30" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D30" s="180" t="s">
         <v>771</v>
-      </c>
-      <c r="C30" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D30" s="180" t="s">
-        <v>772</v>
       </c>
       <c r="E30" s="180"/>
       <c r="F30" s="143"/>
@@ -12292,16 +12294,16 @@
     </row>
     <row r="31" spans="1:8" ht="17.25">
       <c r="A31" s="176" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" s="177" t="s">
         <v>773</v>
       </c>
-      <c r="B31" s="177" t="s">
+      <c r="C31" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D31" s="180" t="s">
         <v>774</v>
-      </c>
-      <c r="C31" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D31" s="180" t="s">
-        <v>775</v>
       </c>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
@@ -12309,16 +12311,16 @@
     </row>
     <row r="32" spans="1:8" ht="17.25">
       <c r="A32" s="176" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" s="177" t="s">
         <v>776</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="C32" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>777</v>
-      </c>
-      <c r="C32" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>778</v>
       </c>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
@@ -12326,16 +12328,16 @@
     </row>
     <row r="33" spans="1:8" ht="17.25">
       <c r="A33" s="176" t="s">
+        <v>778</v>
+      </c>
+      <c r="B33" s="177" t="s">
         <v>779</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="C33" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D33" s="180" t="s">
         <v>780</v>
-      </c>
-      <c r="C33" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>781</v>
       </c>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
@@ -12353,16 +12355,16 @@
     </row>
     <row r="35" spans="1:8" ht="17.25">
       <c r="A35" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>735</v>
+      </c>
+      <c r="C35" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D35" s="143" t="s">
         <v>782</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>736</v>
-      </c>
-      <c r="C35" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D35" s="143" t="s">
-        <v>783</v>
       </c>
       <c r="E35" s="187"/>
       <c r="F35" s="186"/>
@@ -12370,16 +12372,16 @@
     </row>
     <row r="36" spans="1:8" ht="17.25">
       <c r="A36" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="B36" s="79" t="s">
         <v>784</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="C36" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D36" s="143" t="s">
         <v>785</v>
-      </c>
-      <c r="C36" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D36" s="143" t="s">
-        <v>786</v>
       </c>
       <c r="E36" s="187"/>
       <c r="F36" s="186"/>
@@ -12387,16 +12389,16 @@
     </row>
     <row r="37" spans="1:8" ht="17.25">
       <c r="A37" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B37" s="188" t="s">
+        <v>727</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D37" s="143" t="s">
         <v>787</v>
-      </c>
-      <c r="B37" s="188" t="s">
-        <v>728</v>
-      </c>
-      <c r="C37" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D37" s="143" t="s">
-        <v>788</v>
       </c>
       <c r="E37" s="187"/>
       <c r="F37" s="186"/>
@@ -12404,16 +12406,16 @@
     </row>
     <row r="38" spans="1:8" ht="17.25">
       <c r="A38" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="B38" s="189" t="s">
         <v>789</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="C38" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>790</v>
-      </c>
-      <c r="C38" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>791</v>
       </c>
       <c r="E38" s="187"/>
       <c r="F38" s="186"/>
@@ -12422,13 +12424,13 @@
     </row>
     <row r="39" spans="1:8" ht="17.25">
       <c r="A39" s="186" t="s">
+        <v>791</v>
+      </c>
+      <c r="B39" s="189" t="s">
         <v>792</v>
       </c>
-      <c r="B39" s="189" t="s">
-        <v>793</v>
-      </c>
       <c r="C39" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D39" s="186"/>
       <c r="E39" s="187"/>
@@ -12437,13 +12439,13 @@
     </row>
     <row r="40" spans="1:8" ht="17.25">
       <c r="A40" s="186" t="s">
+        <v>793</v>
+      </c>
+      <c r="B40" s="189" t="s">
         <v>794</v>
       </c>
-      <c r="B40" s="189" t="s">
-        <v>795</v>
-      </c>
       <c r="C40" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D40" s="186"/>
       <c r="E40" s="187"/>
@@ -12453,13 +12455,13 @@
     </row>
     <row r="41" spans="1:8" ht="17.25">
       <c r="A41" s="186" t="s">
+        <v>795</v>
+      </c>
+      <c r="B41" s="189" t="s">
         <v>796</v>
       </c>
-      <c r="B41" s="189" t="s">
-        <v>797</v>
-      </c>
       <c r="C41" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D41" s="186"/>
       <c r="E41" s="187"/>
@@ -12469,13 +12471,13 @@
     </row>
     <row r="42" spans="1:8" ht="17.25">
       <c r="A42" s="186" t="s">
+        <v>797</v>
+      </c>
+      <c r="B42" s="189" t="s">
         <v>798</v>
       </c>
-      <c r="B42" s="189" t="s">
-        <v>799</v>
-      </c>
       <c r="C42" s="145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D42" s="186"/>
       <c r="E42" s="187"/>
@@ -12485,16 +12487,16 @@
     </row>
     <row r="43" spans="1:8" ht="17.25">
       <c r="A43" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>800</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="C43" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>801</v>
-      </c>
-      <c r="C43" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>802</v>
       </c>
       <c r="E43" s="187"/>
       <c r="F43" s="186"/>
@@ -12503,16 +12505,16 @@
     </row>
     <row r="44" spans="1:8" ht="17.25">
       <c r="A44" s="184" t="s">
+        <v>802</v>
+      </c>
+      <c r="B44" s="190" t="s">
         <v>803</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="C44" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D44" s="184" t="s">
         <v>804</v>
-      </c>
-      <c r="C44" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D44" s="184" t="s">
-        <v>805</v>
       </c>
       <c r="E44" s="187"/>
       <c r="F44" s="186"/>
@@ -12521,16 +12523,16 @@
     </row>
     <row r="45" spans="1:8" ht="17.25">
       <c r="A45" s="184" t="s">
+        <v>805</v>
+      </c>
+      <c r="B45" s="190" t="s">
         <v>806</v>
       </c>
-      <c r="B45" s="190" t="s">
+      <c r="C45" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D45" s="184" t="s">
         <v>807</v>
-      </c>
-      <c r="C45" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D45" s="184" t="s">
-        <v>808</v>
       </c>
       <c r="E45" s="187"/>
       <c r="F45" s="186"/>
@@ -12539,16 +12541,16 @@
     </row>
     <row r="46" spans="1:8" ht="17.25">
       <c r="A46" s="184" t="s">
+        <v>808</v>
+      </c>
+      <c r="B46" s="190" t="s">
         <v>809</v>
       </c>
-      <c r="B46" s="190" t="s">
+      <c r="C46" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D46" s="184" t="s">
         <v>810</v>
-      </c>
-      <c r="C46" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D46" s="184" t="s">
-        <v>811</v>
       </c>
       <c r="F46" s="186"/>
       <c r="G46" s="186"/>
@@ -12556,16 +12558,16 @@
     </row>
     <row r="47" spans="1:8" ht="17.25">
       <c r="A47" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="B47" s="79" t="s">
         <v>812</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="C47" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>813</v>
-      </c>
-      <c r="C47" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>814</v>
       </c>
       <c r="F47" s="186"/>
       <c r="G47" s="186"/>
@@ -12573,16 +12575,16 @@
     </row>
     <row r="48" spans="1:8" ht="17.25">
       <c r="A48" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="B48" s="79" t="s">
         <v>815</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="C48" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>816</v>
-      </c>
-      <c r="C48" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>817</v>
       </c>
       <c r="F48" s="186"/>
       <c r="G48" s="186"/>
@@ -12590,16 +12592,16 @@
     </row>
     <row r="49" spans="1:8" ht="17.25">
       <c r="A49" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="B49" s="79" t="s">
         <v>818</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="C49" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>819</v>
-      </c>
-      <c r="C49" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>820</v>
       </c>
       <c r="F49" s="186"/>
       <c r="G49" s="186"/>
@@ -12607,16 +12609,16 @@
     </row>
     <row r="50" spans="1:8" ht="17.25">
       <c r="A50" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="B50" s="191" t="s">
         <v>821</v>
       </c>
-      <c r="B50" s="191" t="s">
+      <c r="C50" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>822</v>
-      </c>
-      <c r="C50" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>823</v>
       </c>
       <c r="F50" s="186"/>
       <c r="G50" s="186"/>
@@ -12624,16 +12626,16 @@
     </row>
     <row r="51" spans="1:8" ht="17.25">
       <c r="A51" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="B51" s="191" t="s">
         <v>824</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="C51" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>825</v>
-      </c>
-      <c r="C51" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>826</v>
       </c>
       <c r="F51" s="186"/>
       <c r="G51" s="186"/>
@@ -12641,16 +12643,16 @@
     </row>
     <row r="52" spans="1:8" ht="17.25">
       <c r="A52" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="B52" s="191" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="191" t="s">
+      <c r="C52" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>828</v>
-      </c>
-      <c r="C52" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>829</v>
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="186"/>
@@ -12658,16 +12660,16 @@
     </row>
     <row r="53" spans="1:8" ht="17.25">
       <c r="A53" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="B53" s="79" t="s">
         <v>830</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="C53" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>831</v>
-      </c>
-      <c r="C53" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>832</v>
       </c>
       <c r="F53" s="186"/>
       <c r="G53" s="186"/>
@@ -12675,16 +12677,16 @@
     </row>
     <row r="54" spans="1:8" ht="17.25">
       <c r="A54" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B54" s="191" t="s">
         <v>833</v>
       </c>
-      <c r="B54" s="191" t="s">
+      <c r="C54" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>834</v>
-      </c>
-      <c r="C54" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>835</v>
       </c>
       <c r="F54" s="186"/>
       <c r="G54" s="186"/>
@@ -12692,16 +12694,16 @@
     </row>
     <row r="55" spans="1:8" ht="17.25">
       <c r="A55" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="B55" s="39" t="s">
         <v>836</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="C55" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D55" s="140" t="s">
         <v>837</v>
-      </c>
-      <c r="C55" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D55" s="140" t="s">
-        <v>838</v>
       </c>
       <c r="F55" s="186"/>
       <c r="G55" s="186"/>
@@ -12709,16 +12711,16 @@
     </row>
     <row r="56" spans="1:8" ht="17.25">
       <c r="A56" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="B56" s="79" t="s">
         <v>839</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="C56" s="145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>840</v>
-      </c>
-      <c r="C56" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>841</v>
       </c>
       <c r="F56" s="186"/>
       <c r="G56" s="186"/>
@@ -12736,10 +12738,10 @@
     </row>
     <row r="58" spans="1:8" ht="17.25">
       <c r="A58" s="194" t="s">
+        <v>841</v>
+      </c>
+      <c r="B58" s="140" t="s">
         <v>842</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>843</v>
       </c>
       <c r="E58" s="186"/>
       <c r="F58" s="186"/>
@@ -12748,10 +12750,10 @@
     </row>
     <row r="59" spans="1:8" ht="17.25">
       <c r="A59" s="194" t="s">
+        <v>843</v>
+      </c>
+      <c r="B59" s="140" t="s">
         <v>844</v>
-      </c>
-      <c r="B59" s="140" t="s">
-        <v>845</v>
       </c>
       <c r="E59" s="186"/>
       <c r="F59" s="186"/>
@@ -12760,10 +12762,10 @@
     </row>
     <row r="60" spans="1:8" ht="17.25">
       <c r="A60" s="194" t="s">
+        <v>845</v>
+      </c>
+      <c r="B60" s="140" t="s">
         <v>846</v>
-      </c>
-      <c r="B60" s="140" t="s">
-        <v>847</v>
       </c>
       <c r="E60" s="186"/>
       <c r="F60" s="186"/>
@@ -12772,10 +12774,10 @@
     </row>
     <row r="61" spans="1:8" ht="17.25">
       <c r="A61" s="194" t="s">
+        <v>847</v>
+      </c>
+      <c r="B61" s="140" t="s">
         <v>848</v>
-      </c>
-      <c r="B61" s="140" t="s">
-        <v>849</v>
       </c>
       <c r="E61" s="186"/>
       <c r="F61" s="186"/>
@@ -12784,10 +12786,10 @@
     </row>
     <row r="62" spans="1:8" ht="17.25">
       <c r="A62" s="194" t="s">
+        <v>849</v>
+      </c>
+      <c r="B62" s="140" t="s">
         <v>850</v>
-      </c>
-      <c r="B62" s="140" t="s">
-        <v>851</v>
       </c>
       <c r="E62" s="186"/>
       <c r="F62" s="186"/>
@@ -12796,10 +12798,10 @@
     </row>
     <row r="63" spans="1:8" ht="17.25">
       <c r="A63" s="194" t="s">
+        <v>851</v>
+      </c>
+      <c r="B63" s="140" t="s">
         <v>852</v>
-      </c>
-      <c r="B63" s="140" t="s">
-        <v>853</v>
       </c>
       <c r="E63" s="186"/>
       <c r="F63" s="186"/>
@@ -12808,10 +12810,10 @@
     </row>
     <row r="64" spans="1:8" ht="17.25">
       <c r="A64" s="194" t="s">
+        <v>853</v>
+      </c>
+      <c r="B64" s="140" t="s">
         <v>854</v>
-      </c>
-      <c r="B64" s="140" t="s">
-        <v>855</v>
       </c>
       <c r="E64" s="186"/>
       <c r="F64" s="186"/>
@@ -12820,10 +12822,10 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="194" t="s">
+        <v>855</v>
+      </c>
+      <c r="B65" s="140" t="s">
         <v>856</v>
-      </c>
-      <c r="B65" s="140" t="s">
-        <v>857</v>
       </c>
       <c r="E65" s="186"/>
       <c r="F65" s="186"/>
@@ -12832,10 +12834,10 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="194" t="s">
+        <v>857</v>
+      </c>
+      <c r="B66" s="140" t="s">
         <v>858</v>
-      </c>
-      <c r="B66" s="140" t="s">
-        <v>859</v>
       </c>
       <c r="E66" s="186"/>
       <c r="F66" s="186"/>
@@ -12844,10 +12846,10 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="194" t="s">
+        <v>859</v>
+      </c>
+      <c r="B67" s="140" t="s">
         <v>860</v>
-      </c>
-      <c r="B67" s="140" t="s">
-        <v>861</v>
       </c>
       <c r="E67" s="186"/>
       <c r="F67" s="186"/>
@@ -12856,10 +12858,10 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="194" t="s">
+        <v>861</v>
+      </c>
+      <c r="B68" s="140" t="s">
         <v>862</v>
-      </c>
-      <c r="B68" s="140" t="s">
-        <v>863</v>
       </c>
       <c r="E68" s="186"/>
       <c r="F68" s="186"/>
@@ -12868,10 +12870,10 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="194" t="s">
+        <v>863</v>
+      </c>
+      <c r="B69" s="140" t="s">
         <v>864</v>
-      </c>
-      <c r="B69" s="140" t="s">
-        <v>865</v>
       </c>
       <c r="E69" s="186"/>
       <c r="F69" s="186"/>
@@ -12880,10 +12882,10 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="194" t="s">
+        <v>865</v>
+      </c>
+      <c r="B70" s="140" t="s">
         <v>866</v>
-      </c>
-      <c r="B70" s="140" t="s">
-        <v>867</v>
       </c>
       <c r="E70" s="186"/>
       <c r="F70" s="186"/>
@@ -12892,10 +12894,10 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="194" t="s">
+        <v>867</v>
+      </c>
+      <c r="B71" s="140" t="s">
         <v>868</v>
-      </c>
-      <c r="B71" s="140" t="s">
-        <v>869</v>
       </c>
       <c r="E71" s="186"/>
       <c r="F71" s="186"/>
@@ -12904,10 +12906,10 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="194" t="s">
+        <v>869</v>
+      </c>
+      <c r="B72" s="140" t="s">
         <v>870</v>
-      </c>
-      <c r="B72" s="140" t="s">
-        <v>871</v>
       </c>
       <c r="E72" s="186"/>
       <c r="F72" s="186"/>
@@ -12916,10 +12918,10 @@
     </row>
     <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="194" t="s">
+        <v>871</v>
+      </c>
+      <c r="B73" s="140" t="s">
         <v>872</v>
-      </c>
-      <c r="B73" s="140" t="s">
-        <v>873</v>
       </c>
       <c r="E73" s="186"/>
       <c r="F73" s="186"/>
@@ -12928,10 +12930,10 @@
     </row>
     <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="194" t="s">
+        <v>873</v>
+      </c>
+      <c r="B74" s="140" t="s">
         <v>874</v>
-      </c>
-      <c r="B74" s="140" t="s">
-        <v>875</v>
       </c>
       <c r="E74" s="186"/>
       <c r="F74" s="186"/>
@@ -12940,10 +12942,10 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="194" t="s">
+        <v>875</v>
+      </c>
+      <c r="B75" s="140" t="s">
         <v>876</v>
-      </c>
-      <c r="B75" s="140" t="s">
-        <v>877</v>
       </c>
       <c r="E75" s="186"/>
       <c r="F75" s="186"/>
@@ -12952,10 +12954,10 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="194" t="s">
+        <v>877</v>
+      </c>
+      <c r="B76" s="140" t="s">
         <v>878</v>
-      </c>
-      <c r="B76" s="140" t="s">
-        <v>879</v>
       </c>
       <c r="E76" s="186"/>
       <c r="F76" s="186"/>
@@ -12964,28 +12966,28 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="194" t="s">
+        <v>879</v>
+      </c>
+      <c r="B77" s="140" t="s">
         <v>880</v>
-      </c>
-      <c r="B77" s="140" t="s">
-        <v>881</v>
       </c>
       <c r="E77" s="186"/>
       <c r="F77" s="186"/>
       <c r="G77" s="186"/>
       <c r="H77" s="143"/>
       <c r="I77" s="517" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.25">
       <c r="A78" s="195" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B78" s="196" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C78" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D78" s="184"/>
       <c r="E78" s="186"/>
@@ -12995,13 +12997,13 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="195" t="s">
+        <v>881</v>
+      </c>
+      <c r="B79" s="196" t="s">
         <v>882</v>
       </c>
-      <c r="B79" s="196" t="s">
-        <v>883</v>
-      </c>
       <c r="C79" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D79" s="184"/>
       <c r="E79" s="186"/>
@@ -13011,13 +13013,13 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="195" t="s">
+        <v>883</v>
+      </c>
+      <c r="B80" s="196" t="s">
         <v>884</v>
       </c>
-      <c r="B80" s="196" t="s">
-        <v>885</v>
-      </c>
       <c r="C80" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D80" s="184"/>
       <c r="E80" s="186"/>
@@ -13027,13 +13029,13 @@
     </row>
     <row r="81" spans="1:13" ht="17.25">
       <c r="A81" s="195" t="s">
+        <v>885</v>
+      </c>
+      <c r="B81" s="196" t="s">
         <v>886</v>
       </c>
-      <c r="B81" s="196" t="s">
-        <v>887</v>
-      </c>
       <c r="C81" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D81" s="184"/>
       <c r="E81" s="186"/>
@@ -13043,13 +13045,13 @@
     </row>
     <row r="82" spans="1:13" ht="17.25">
       <c r="A82" s="195" t="s">
+        <v>887</v>
+      </c>
+      <c r="B82" s="196" t="s">
         <v>888</v>
       </c>
-      <c r="B82" s="196" t="s">
-        <v>889</v>
-      </c>
       <c r="C82" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D82" s="184"/>
       <c r="E82" s="186"/>
@@ -13059,13 +13061,13 @@
     </row>
     <row r="83" spans="1:13" ht="17.25">
       <c r="A83" s="195" t="s">
+        <v>889</v>
+      </c>
+      <c r="B83" s="196" t="s">
         <v>890</v>
       </c>
-      <c r="B83" s="196" t="s">
-        <v>891</v>
-      </c>
       <c r="C83" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D83" s="184"/>
       <c r="E83" s="186"/>
@@ -13075,13 +13077,13 @@
     </row>
     <row r="84" spans="1:13" ht="17.25">
       <c r="A84" s="195" t="s">
+        <v>891</v>
+      </c>
+      <c r="B84" s="196" t="s">
         <v>892</v>
       </c>
-      <c r="B84" s="196" t="s">
-        <v>893</v>
-      </c>
       <c r="C84" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D84" s="184"/>
       <c r="E84" s="186"/>
@@ -13091,13 +13093,13 @@
     </row>
     <row r="85" spans="1:13" ht="17.25">
       <c r="A85" s="195" t="s">
+        <v>893</v>
+      </c>
+      <c r="B85" s="196" t="s">
         <v>894</v>
       </c>
-      <c r="B85" s="196" t="s">
-        <v>895</v>
-      </c>
       <c r="C85" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D85" s="184"/>
       <c r="E85" s="186"/>
@@ -13107,13 +13109,13 @@
     </row>
     <row r="86" spans="1:13" ht="17.25">
       <c r="A86" s="195" t="s">
+        <v>895</v>
+      </c>
+      <c r="B86" s="196" t="s">
         <v>896</v>
       </c>
-      <c r="B86" s="196" t="s">
-        <v>897</v>
-      </c>
       <c r="C86" s="197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D86" s="184"/>
       <c r="E86" s="186"/>
@@ -13145,7 +13147,7 @@
     </row>
     <row r="90" spans="1:13" customFormat="1" ht="33">
       <c r="A90" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>272</v>
@@ -13243,8 +13245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13263,10 +13265,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
       <c r="A1" s="141" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="142" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25">
@@ -13274,36 +13276,36 @@
         <v>370</v>
       </c>
       <c r="B2" s="143" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="143" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>498</v>
       </c>
       <c r="D2" s="143" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="143" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" s="143" t="s">
         <v>499</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>631</v>
-      </c>
-      <c r="G2" s="143" t="s">
+      <c r="H2" s="143" t="s">
         <v>500</v>
-      </c>
-      <c r="H2" s="143" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33">
       <c r="A3" s="498" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B3" s="145" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="144" t="s">
         <v>640</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>641</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -13311,21 +13313,21 @@
       <c r="G3" s="143"/>
       <c r="H3" s="143"/>
       <c r="I3" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="145" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="145" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>506</v>
-      </c>
       <c r="C4" s="491" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D4" s="145" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E4" s="143"/>
       <c r="F4" s="143"/>
@@ -13340,13 +13342,13 @@
     </row>
     <row r="5" spans="1:11" ht="33">
       <c r="A5" s="491" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B5" s="145" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D5" s="145"/>
       <c r="E5" s="143"/>
@@ -13359,10 +13361,10 @@
         <v>382</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="143"/>
@@ -13375,13 +13377,13 @@
         <v>474</v>
       </c>
       <c r="B7" s="491" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D7" s="491" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
@@ -13409,7 +13411,7 @@
         <v>462</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="145" t="s">
         <v>428</v>
@@ -13419,7 +13421,7 @@
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="146" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51.75">
@@ -13437,18 +13439,18 @@
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="146" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="145" t="s">
-        <v>468</v>
+      <c r="A11" s="491" t="s">
+        <v>982</v>
       </c>
       <c r="B11" s="145" t="s">
         <v>489</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11" s="144"/>
       <c r="E11" s="143"/>
@@ -13458,13 +13460,13 @@
     </row>
     <row r="12" spans="1:11" ht="17.25">
       <c r="A12" s="145" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="145" t="s">
         <v>636</v>
       </c>
-      <c r="B12" s="145" t="s">
-        <v>637</v>
-      </c>
       <c r="C12" s="145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="143"/>
@@ -13474,20 +13476,20 @@
     </row>
     <row r="13" spans="1:11" ht="69">
       <c r="A13" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="145" t="s">
         <v>520</v>
       </c>
-      <c r="B13" s="145" t="s">
-        <v>521</v>
-      </c>
       <c r="C13" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D13" s="145"/>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
       <c r="G13" s="143"/>
-      <c r="H13" s="146" t="s">
-        <v>902</v>
+      <c r="H13" s="496" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:11" customFormat="1" ht="15">
@@ -13514,7 +13516,7 @@
         <v>480</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D15" s="145"/>
       <c r="E15" s="143"/>
@@ -13530,7 +13532,7 @@
         <v>487</v>
       </c>
       <c r="C16" s="144" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="145"/>
       <c r="E16" s="143"/>
@@ -13540,13 +13542,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="145" t="s">
+        <v>648</v>
+      </c>
+      <c r="B17" s="144" t="s">
         <v>649</v>
       </c>
-      <c r="B17" s="144" t="s">
-        <v>650</v>
-      </c>
       <c r="C17" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="143"/>
@@ -13556,13 +13558,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="145" t="s">
+        <v>650</v>
+      </c>
+      <c r="B18" s="144" t="s">
         <v>651</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="C18" s="144" t="s">
         <v>652</v>
-      </c>
-      <c r="C18" s="144" t="s">
-        <v>653</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="143"/>
@@ -13572,13 +13574,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B19" s="498" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="143"/>
@@ -13588,16 +13590,16 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="145" t="s">
+        <v>654</v>
+      </c>
+      <c r="B20" s="144" t="s">
         <v>655</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="C20" s="144" t="s">
         <v>656</v>
       </c>
-      <c r="C20" s="144" t="s">
-        <v>657</v>
-      </c>
       <c r="D20" s="145" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E20" s="143"/>
       <c r="F20" s="143"/>
@@ -13606,13 +13608,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="145" t="s">
+        <v>657</v>
+      </c>
+      <c r="B21" s="144" t="s">
         <v>658</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="C21" s="144" t="s">
         <v>659</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>660</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="143"/>
@@ -13622,13 +13624,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="145" t="s">
+        <v>660</v>
+      </c>
+      <c r="B22" s="144" t="s">
         <v>661</v>
       </c>
-      <c r="B22" s="144" t="s">
-        <v>662</v>
-      </c>
       <c r="C22" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="143"/>
@@ -13636,15 +13638,15 @@
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
     </row>
-    <row r="23" spans="1:8" ht="33">
+    <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="145" t="s">
+        <v>662</v>
+      </c>
+      <c r="B23" s="144" t="s">
         <v>663</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="C23" s="144" t="s">
         <v>664</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>665</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="143"/>
@@ -13654,34 +13656,34 @@
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="151" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B24" s="495" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C24" s="152" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D24" s="151"/>
       <c r="E24" s="146"/>
       <c r="F24" s="146"/>
       <c r="G24" s="146"/>
       <c r="H24" s="496" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51.75">
       <c r="A25" s="145" t="s">
+        <v>665</v>
+      </c>
+      <c r="B25" s="144" t="s">
         <v>666</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="C25" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="D25" s="145" t="s">
         <v>668</v>
-      </c>
-      <c r="D25" s="145" t="s">
-        <v>669</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="143"/>
@@ -13692,16 +13694,16 @@
     </row>
     <row r="26" spans="1:8" s="139" customFormat="1" ht="33">
       <c r="A26" s="153" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B26" s="154" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" s="494" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E26" s="155"/>
       <c r="F26" s="155"/>
@@ -13710,38 +13712,38 @@
     </row>
     <row r="27" spans="1:8" s="139" customFormat="1" ht="33">
       <c r="A27" s="515" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B27" s="156" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C27" s="157" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" s="158"/>
       <c r="E27" s="159"/>
       <c r="F27" s="159"/>
       <c r="G27" s="159"/>
       <c r="H27" s="514" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="139" customFormat="1" ht="33">
       <c r="A28" s="160" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C28" s="162" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D28" s="161"/>
       <c r="E28" s="161"/>
       <c r="F28" s="161"/>
       <c r="G28" s="161"/>
       <c r="H28" s="161" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="139" customFormat="1" ht="17.25">
@@ -13755,8 +13757,8 @@
       <c r="H29" s="155"/>
     </row>
     <row r="30" spans="1:8" s="139" customFormat="1" ht="90">
-      <c r="A30" s="601" t="s">
-        <v>1045</v>
+      <c r="A30" s="521" t="s">
+        <v>1043</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>339</v>
@@ -13790,7 +13792,7 @@
     </row>
     <row r="34" spans="1:13" customFormat="1">
       <c r="A34" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -13921,14 +13923,14 @@
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
       <c r="B2" s="507" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
       <c r="G2" s="509" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H2" s="30"/>
     </row>
@@ -13936,11 +13938,11 @@
       <c r="B3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="600" t="s">
+      <c r="C3" s="601" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="600"/>
-      <c r="E3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="601"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29">
         <v>12</v>
@@ -14021,7 +14023,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -14072,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>280</v>
@@ -14081,13 +14083,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G11" s="510" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H11" s="492" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J11" s="134"/>
       <c r="L11" s="135"/>
@@ -14101,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>280</v>
@@ -14110,7 +14112,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>347</v>
@@ -14128,7 +14130,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>280</v>
@@ -14137,13 +14139,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>347</v>
       </c>
       <c r="H13" s="493" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J13" s="97"/>
       <c r="L13" s="98"/>
@@ -14157,7 +14159,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>280</v>
@@ -14166,13 +14168,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J14" s="97"/>
       <c r="L14" s="98"/>
@@ -14186,7 +14188,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>280</v>
@@ -14195,7 +14197,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G15" s="64" t="s">
         <v>351</v>
@@ -14213,7 +14215,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>280</v>
@@ -14222,13 +14224,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G16" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J16" s="97"/>
       <c r="L16" s="98"/>
@@ -14242,7 +14244,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>280</v>
@@ -14251,7 +14253,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>351</v>
@@ -14269,7 +14271,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>280</v>
@@ -14278,7 +14280,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G18" s="64" t="s">
         <v>351</v>
@@ -14296,7 +14298,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>280</v>
@@ -14305,7 +14307,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G19" s="64" t="s">
         <v>351</v>
@@ -14359,13 +14361,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G21" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J21" s="97"/>
       <c r="L21" s="98"/>
@@ -14388,7 +14390,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G22" s="64" t="s">
         <v>347</v>
@@ -14415,7 +14417,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="99" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G23" s="64" t="s">
         <v>351</v>
@@ -14433,7 +14435,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D24" s="128" t="s">
         <v>280</v>
@@ -14442,7 +14444,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="99" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G24" s="64" t="s">
         <v>351</v>
@@ -14460,7 +14462,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D25" s="128" t="s">
         <v>280</v>
@@ -14469,7 +14471,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G25" s="64" t="s">
         <v>351</v>
@@ -14487,16 +14489,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D26" s="128" t="s">
         <v>297</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G26" s="64" t="s">
         <v>351</v>
@@ -14541,16 +14543,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E28" s="128">
         <v>8</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G28" s="64" t="s">
         <v>347</v>
@@ -14568,10 +14570,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D29" s="128" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E29" s="128">
         <v>8</v>
@@ -14595,7 +14597,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D30" s="128" t="s">
         <v>409</v>
@@ -14604,7 +14606,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>347</v>
@@ -14622,7 +14624,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>280</v>
@@ -14631,7 +14633,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>351</v>
@@ -14649,7 +14651,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>280</v>
@@ -14658,7 +14660,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G32" s="64" t="s">
         <v>351</v>
@@ -14676,7 +14678,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D33" s="63" t="s">
         <v>280</v>
@@ -14685,7 +14687,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>351</v>
@@ -14703,7 +14705,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D34" s="63" t="s">
         <v>280</v>
@@ -14712,7 +14714,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G34" s="64" t="s">
         <v>351</v>
@@ -14730,7 +14732,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D35" s="63" t="s">
         <v>280</v>
@@ -14739,7 +14741,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G35" s="64" t="s">
         <v>351</v>
@@ -14757,7 +14759,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D36" s="63" t="s">
         <v>280</v>
@@ -14766,7 +14768,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>351</v>
@@ -14784,7 +14786,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D37" s="63" t="s">
         <v>280</v>
@@ -14793,7 +14795,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G37" s="64" t="s">
         <v>351</v>
@@ -14811,7 +14813,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D38" s="63" t="s">
         <v>280</v>
@@ -14820,7 +14822,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G38" s="64" t="s">
         <v>351</v>
@@ -14838,7 +14840,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D39" s="63" t="s">
         <v>280</v>
@@ -14847,7 +14849,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G39" s="64" t="s">
         <v>351</v>
@@ -14865,7 +14867,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D40" s="63" t="s">
         <v>280</v>
@@ -14874,7 +14876,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G40" s="64" t="s">
         <v>351</v>
@@ -15053,7 +15055,7 @@
         <v>347</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J48" s="114"/>
       <c r="L48" s="115" t="s">
@@ -15069,7 +15071,7 @@
         <v>346</v>
       </c>
       <c r="P48" s="119" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="16.5">
@@ -15145,53 +15147,53 @@
       <c r="J52" s="92"/>
     </row>
     <row r="53" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B53" s="537" t="s">
+      <c r="B53" s="538" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="538"/>
-      <c r="D53" s="538"/>
-      <c r="E53" s="538"/>
-      <c r="F53" s="538"/>
-      <c r="G53" s="539"/>
+      <c r="C53" s="539"/>
+      <c r="D53" s="539"/>
+      <c r="E53" s="539"/>
+      <c r="F53" s="539"/>
+      <c r="G53" s="540"/>
       <c r="H53" s="30"/>
       <c r="I53" s="92"/>
       <c r="J53" s="92"/>
     </row>
     <row r="54" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B54" s="529" t="s">
-        <v>965</v>
-      </c>
-      <c r="C54" s="530"/>
-      <c r="D54" s="530"/>
-      <c r="E54" s="530"/>
-      <c r="F54" s="530"/>
-      <c r="G54" s="531"/>
+      <c r="B54" s="530" t="s">
+        <v>963</v>
+      </c>
+      <c r="C54" s="531"/>
+      <c r="D54" s="531"/>
+      <c r="E54" s="531"/>
+      <c r="F54" s="531"/>
+      <c r="G54" s="532"/>
       <c r="H54" s="30"/>
       <c r="I54" s="92"/>
       <c r="J54" s="92"/>
     </row>
     <row r="55" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B55" s="537" t="s">
+      <c r="B55" s="538" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="538"/>
-      <c r="D55" s="538"/>
-      <c r="E55" s="538"/>
-      <c r="F55" s="538"/>
-      <c r="G55" s="539"/>
+      <c r="C55" s="539"/>
+      <c r="D55" s="539"/>
+      <c r="E55" s="539"/>
+      <c r="F55" s="539"/>
+      <c r="G55" s="540"/>
       <c r="H55" s="30"/>
       <c r="I55" s="92"/>
       <c r="J55" s="92"/>
     </row>
     <row r="56" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B56" s="529" t="s">
-        <v>966</v>
-      </c>
-      <c r="C56" s="530"/>
-      <c r="D56" s="530"/>
-      <c r="E56" s="530"/>
-      <c r="F56" s="530"/>
-      <c r="G56" s="531"/>
+      <c r="B56" s="530" t="s">
+        <v>964</v>
+      </c>
+      <c r="C56" s="531"/>
+      <c r="D56" s="531"/>
+      <c r="E56" s="531"/>
+      <c r="F56" s="531"/>
+      <c r="G56" s="532"/>
       <c r="H56" s="30"/>
       <c r="I56" s="92"/>
       <c r="J56" s="92"/>
@@ -15226,13 +15228,13 @@
       <c r="B59" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="532" t="s">
+      <c r="C59" s="533" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="533"/>
-      <c r="E59" s="533"/>
-      <c r="F59" s="533"/>
-      <c r="G59" s="534"/>
+      <c r="D59" s="534"/>
+      <c r="E59" s="534"/>
+      <c r="F59" s="534"/>
+      <c r="G59" s="535"/>
       <c r="H59" s="30"/>
       <c r="I59" s="92"/>
       <c r="J59" s="92"/>
@@ -15241,13 +15243,13 @@
       <c r="B60" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="532" t="s">
+      <c r="C60" s="533" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="533"/>
-      <c r="E60" s="533"/>
-      <c r="F60" s="533"/>
-      <c r="G60" s="534"/>
+      <c r="D60" s="534"/>
+      <c r="E60" s="534"/>
+      <c r="F60" s="534"/>
+      <c r="G60" s="535"/>
       <c r="H60" s="30"/>
       <c r="I60" s="92"/>
       <c r="J60" s="92"/>
@@ -15256,13 +15258,13 @@
       <c r="B61" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="532" t="s">
+      <c r="C61" s="533" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="533"/>
-      <c r="E61" s="533"/>
-      <c r="F61" s="533"/>
-      <c r="G61" s="534"/>
+      <c r="D61" s="534"/>
+      <c r="E61" s="534"/>
+      <c r="F61" s="534"/>
+      <c r="G61" s="535"/>
       <c r="H61" s="30"/>
       <c r="I61" s="92"/>
       <c r="J61" s="92"/>
@@ -15329,7 +15331,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
       <c r="B2" s="507" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -15338,18 +15340,18 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="600" t="s">
+      <c r="C3" s="601" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="600"/>
-      <c r="E3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="601"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -15428,7 +15430,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -15479,7 +15481,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>280</v>
@@ -15488,7 +15490,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G11" s="64" t="s">
         <v>347</v>
@@ -15506,7 +15508,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>280</v>
@@ -15515,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>347</v>
@@ -15533,7 +15535,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>280</v>
@@ -15542,7 +15544,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>347</v>
@@ -15560,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>280</v>
@@ -15569,7 +15571,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>347</v>
@@ -15587,7 +15589,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>280</v>
@@ -15596,7 +15598,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
@@ -15612,7 +15614,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>280</v>
@@ -15621,7 +15623,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="66"/>
@@ -15637,7 +15639,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>280</v>
@@ -15646,7 +15648,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="66"/>
@@ -15662,7 +15664,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>280</v>
@@ -15671,7 +15673,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="66"/>
@@ -15687,7 +15689,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>280</v>
@@ -15696,7 +15698,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G19" s="64"/>
       <c r="H19" s="66"/>
@@ -15712,7 +15714,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>280</v>
@@ -15721,7 +15723,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
@@ -15737,7 +15739,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>280</v>
@@ -15746,7 +15748,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="66"/>
@@ -15762,7 +15764,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>280</v>
@@ -15771,7 +15773,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G22" s="64"/>
       <c r="H22" s="66"/>
@@ -15787,7 +15789,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>280</v>
@@ -15796,7 +15798,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G23" s="64"/>
       <c r="H23" s="66"/>
@@ -15812,7 +15814,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>280</v>
@@ -15821,7 +15823,7 @@
         <v>200</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="66"/>
@@ -15866,7 +15868,7 @@
         <v>282</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="64"/>
@@ -15887,7 +15889,7 @@
         <v>282</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -15908,7 +15910,7 @@
         <v>282</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F28" s="75"/>
       <c r="G28" s="76"/>
@@ -15919,13 +15921,13 @@
         <v>341</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>282</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="78" t="s">
@@ -16020,7 +16022,7 @@
         <v>347</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J32" s="114"/>
       <c r="L32" s="115" t="s">
@@ -16036,7 +16038,7 @@
         <v>346</v>
       </c>
       <c r="P32" s="119" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5">
@@ -16112,53 +16114,53 @@
       <c r="J36" s="92"/>
     </row>
     <row r="37" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B37" s="537" t="s">
+      <c r="B37" s="538" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="538"/>
-      <c r="D37" s="538"/>
-      <c r="E37" s="538"/>
-      <c r="F37" s="538"/>
-      <c r="G37" s="539"/>
+      <c r="C37" s="539"/>
+      <c r="D37" s="539"/>
+      <c r="E37" s="539"/>
+      <c r="F37" s="539"/>
+      <c r="G37" s="540"/>
       <c r="H37" s="30"/>
       <c r="I37" s="92"/>
       <c r="J37" s="92"/>
     </row>
     <row r="38" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B38" s="529" t="s">
-        <v>965</v>
-      </c>
-      <c r="C38" s="530"/>
-      <c r="D38" s="530"/>
-      <c r="E38" s="530"/>
-      <c r="F38" s="530"/>
-      <c r="G38" s="531"/>
+      <c r="B38" s="530" t="s">
+        <v>963</v>
+      </c>
+      <c r="C38" s="531"/>
+      <c r="D38" s="531"/>
+      <c r="E38" s="531"/>
+      <c r="F38" s="531"/>
+      <c r="G38" s="532"/>
       <c r="H38" s="30"/>
       <c r="I38" s="92"/>
       <c r="J38" s="92"/>
     </row>
     <row r="39" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B39" s="537" t="s">
+      <c r="B39" s="538" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="538"/>
-      <c r="D39" s="538"/>
-      <c r="E39" s="538"/>
-      <c r="F39" s="538"/>
-      <c r="G39" s="539"/>
+      <c r="C39" s="539"/>
+      <c r="D39" s="539"/>
+      <c r="E39" s="539"/>
+      <c r="F39" s="539"/>
+      <c r="G39" s="540"/>
       <c r="H39" s="30"/>
       <c r="I39" s="92"/>
       <c r="J39" s="92"/>
     </row>
     <row r="40" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B40" s="529" t="s">
-        <v>966</v>
-      </c>
-      <c r="C40" s="530"/>
-      <c r="D40" s="530"/>
-      <c r="E40" s="530"/>
-      <c r="F40" s="530"/>
-      <c r="G40" s="531"/>
+      <c r="B40" s="530" t="s">
+        <v>964</v>
+      </c>
+      <c r="C40" s="531"/>
+      <c r="D40" s="531"/>
+      <c r="E40" s="531"/>
+      <c r="F40" s="531"/>
+      <c r="G40" s="532"/>
       <c r="H40" s="30"/>
       <c r="I40" s="92"/>
       <c r="J40" s="92"/>
@@ -16193,13 +16195,13 @@
       <c r="B43" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="532" t="s">
+      <c r="C43" s="533" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="533"/>
-      <c r="E43" s="533"/>
-      <c r="F43" s="533"/>
-      <c r="G43" s="534"/>
+      <c r="D43" s="534"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="534"/>
+      <c r="G43" s="535"/>
       <c r="H43" s="30"/>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
@@ -16208,13 +16210,13 @@
       <c r="B44" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="532" t="s">
+      <c r="C44" s="533" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="533"/>
-      <c r="E44" s="533"/>
-      <c r="F44" s="533"/>
-      <c r="G44" s="534"/>
+      <c r="D44" s="534"/>
+      <c r="E44" s="534"/>
+      <c r="F44" s="534"/>
+      <c r="G44" s="535"/>
       <c r="H44" s="30"/>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
@@ -16223,13 +16225,13 @@
       <c r="B45" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="532" t="s">
+      <c r="C45" s="533" t="s">
         <v>366</v>
       </c>
-      <c r="D45" s="533"/>
-      <c r="E45" s="533"/>
-      <c r="F45" s="533"/>
-      <c r="G45" s="534"/>
+      <c r="D45" s="534"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="534"/>
+      <c r="G45" s="535"/>
       <c r="H45" s="30"/>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
@@ -16287,33 +16289,33 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="535" t="s">
+      <c r="D1" s="536" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5">
       <c r="A2" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
@@ -16321,22 +16323,22 @@
         <v>370</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>272</v>
@@ -16381,10 +16383,10 @@
         <v>382</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -16394,19 +16396,19 @@
         <v>382</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>484</v>
@@ -16422,7 +16424,7 @@
         <v>484</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -16453,13 +16455,13 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -16469,35 +16471,35 @@
         <v>394</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K9" s="23"/>
     </row>
@@ -16578,614 +16580,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="425" customFormat="1" ht="29.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="526" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="521"/>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
-      <c r="F1" s="521"/>
-      <c r="G1" s="521"/>
-      <c r="H1" s="521"/>
-      <c r="I1" s="521"/>
-      <c r="J1" s="521"/>
-      <c r="K1" s="521"/>
-      <c r="L1" s="521"/>
-      <c r="M1" s="521"/>
-      <c r="N1" s="521"/>
+      <c r="B1" s="526"/>
+      <c r="C1" s="526"/>
+      <c r="D1" s="526"/>
+      <c r="E1" s="526"/>
+      <c r="F1" s="526"/>
+      <c r="G1" s="526"/>
+      <c r="H1" s="526"/>
+      <c r="I1" s="526"/>
+      <c r="J1" s="526"/>
+      <c r="K1" s="526"/>
+      <c r="L1" s="526"/>
+      <c r="M1" s="526"/>
+      <c r="N1" s="526"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="524" t="s">
+      <c r="A2" s="527" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="524" t="s">
+      <c r="B2" s="527" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="524" t="s">
+      <c r="C2" s="527" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="525" t="s">
+      <c r="D2" s="528" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="526" t="s">
+      <c r="E2" s="529" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="526" t="s">
+      <c r="F2" s="529" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="527" t="s">
+      <c r="G2" s="522" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="527"/>
-      <c r="I2" s="527" t="s">
+      <c r="H2" s="522"/>
+      <c r="I2" s="522" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="527"/>
-      <c r="K2" s="526" t="s">
+      <c r="J2" s="522"/>
+      <c r="K2" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="526" t="s">
+      <c r="L2" s="529" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="524" t="s">
+      <c r="M2" s="527" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="524" t="s">
+      <c r="N2" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="522" t="s">
+      <c r="O2" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="522"/>
-      <c r="U2" s="522"/>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="522"/>
-      <c r="AB2" s="522"/>
-      <c r="AC2" s="522"/>
-      <c r="AD2" s="522"/>
-      <c r="AE2" s="522"/>
-      <c r="AF2" s="522"/>
-      <c r="AG2" s="522"/>
-      <c r="AH2" s="522"/>
-      <c r="AI2" s="522"/>
-      <c r="AJ2" s="522"/>
-      <c r="AK2" s="522"/>
-      <c r="AL2" s="522"/>
-      <c r="AM2" s="522"/>
-      <c r="AN2" s="522"/>
-      <c r="AO2" s="522"/>
-      <c r="AP2" s="522"/>
-      <c r="AQ2" s="523" t="s">
+      <c r="P2" s="525"/>
+      <c r="Q2" s="525"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="525"/>
+      <c r="T2" s="525"/>
+      <c r="U2" s="525"/>
+      <c r="V2" s="525"/>
+      <c r="W2" s="525"/>
+      <c r="X2" s="525"/>
+      <c r="Y2" s="525"/>
+      <c r="Z2" s="525"/>
+      <c r="AA2" s="525"/>
+      <c r="AB2" s="525"/>
+      <c r="AC2" s="525"/>
+      <c r="AD2" s="525"/>
+      <c r="AE2" s="525"/>
+      <c r="AF2" s="525"/>
+      <c r="AG2" s="525"/>
+      <c r="AH2" s="525"/>
+      <c r="AI2" s="525"/>
+      <c r="AJ2" s="525"/>
+      <c r="AK2" s="525"/>
+      <c r="AL2" s="525"/>
+      <c r="AM2" s="525"/>
+      <c r="AN2" s="525"/>
+      <c r="AO2" s="525"/>
+      <c r="AP2" s="525"/>
+      <c r="AQ2" s="524" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="522"/>
-      <c r="AS2" s="522"/>
-      <c r="AT2" s="522"/>
-      <c r="AU2" s="522"/>
-      <c r="AV2" s="522"/>
-      <c r="AW2" s="522"/>
-      <c r="AX2" s="522"/>
-      <c r="AY2" s="522"/>
-      <c r="AZ2" s="522"/>
-      <c r="BA2" s="522"/>
-      <c r="BB2" s="522"/>
-      <c r="BC2" s="522"/>
-      <c r="BD2" s="522"/>
-      <c r="BE2" s="522"/>
-      <c r="BF2" s="522"/>
-      <c r="BG2" s="522"/>
-      <c r="BH2" s="522"/>
-      <c r="BI2" s="522"/>
-      <c r="BJ2" s="522"/>
-      <c r="BK2" s="522"/>
-      <c r="BL2" s="522"/>
-      <c r="BM2" s="522"/>
-      <c r="BN2" s="522"/>
-      <c r="BO2" s="522"/>
-      <c r="BP2" s="522"/>
-      <c r="BQ2" s="522"/>
-      <c r="BR2" s="522"/>
-      <c r="BS2" s="522"/>
-      <c r="BT2" s="522"/>
-      <c r="BU2" s="522"/>
-      <c r="BV2" s="523" t="s">
+      <c r="AR2" s="525"/>
+      <c r="AS2" s="525"/>
+      <c r="AT2" s="525"/>
+      <c r="AU2" s="525"/>
+      <c r="AV2" s="525"/>
+      <c r="AW2" s="525"/>
+      <c r="AX2" s="525"/>
+      <c r="AY2" s="525"/>
+      <c r="AZ2" s="525"/>
+      <c r="BA2" s="525"/>
+      <c r="BB2" s="525"/>
+      <c r="BC2" s="525"/>
+      <c r="BD2" s="525"/>
+      <c r="BE2" s="525"/>
+      <c r="BF2" s="525"/>
+      <c r="BG2" s="525"/>
+      <c r="BH2" s="525"/>
+      <c r="BI2" s="525"/>
+      <c r="BJ2" s="525"/>
+      <c r="BK2" s="525"/>
+      <c r="BL2" s="525"/>
+      <c r="BM2" s="525"/>
+      <c r="BN2" s="525"/>
+      <c r="BO2" s="525"/>
+      <c r="BP2" s="525"/>
+      <c r="BQ2" s="525"/>
+      <c r="BR2" s="525"/>
+      <c r="BS2" s="525"/>
+      <c r="BT2" s="525"/>
+      <c r="BU2" s="525"/>
+      <c r="BV2" s="524" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="522"/>
-      <c r="BX2" s="522"/>
-      <c r="BY2" s="522"/>
-      <c r="BZ2" s="522"/>
-      <c r="CA2" s="522"/>
-      <c r="CB2" s="522"/>
-      <c r="CC2" s="522"/>
-      <c r="CD2" s="522"/>
-      <c r="CE2" s="522"/>
-      <c r="CF2" s="522"/>
-      <c r="CG2" s="522"/>
-      <c r="CH2" s="522"/>
-      <c r="CI2" s="522"/>
-      <c r="CJ2" s="522"/>
-      <c r="CK2" s="522"/>
-      <c r="CL2" s="522"/>
-      <c r="CM2" s="522"/>
-      <c r="CN2" s="522"/>
-      <c r="CO2" s="522"/>
-      <c r="CP2" s="522"/>
-      <c r="CQ2" s="522"/>
-      <c r="CR2" s="522"/>
-      <c r="CS2" s="522"/>
-      <c r="CT2" s="522"/>
-      <c r="CU2" s="522"/>
-      <c r="CV2" s="522"/>
-      <c r="CW2" s="522"/>
-      <c r="CX2" s="522"/>
-      <c r="CY2" s="522"/>
-      <c r="CZ2" s="522" t="s">
+      <c r="BW2" s="525"/>
+      <c r="BX2" s="525"/>
+      <c r="BY2" s="525"/>
+      <c r="BZ2" s="525"/>
+      <c r="CA2" s="525"/>
+      <c r="CB2" s="525"/>
+      <c r="CC2" s="525"/>
+      <c r="CD2" s="525"/>
+      <c r="CE2" s="525"/>
+      <c r="CF2" s="525"/>
+      <c r="CG2" s="525"/>
+      <c r="CH2" s="525"/>
+      <c r="CI2" s="525"/>
+      <c r="CJ2" s="525"/>
+      <c r="CK2" s="525"/>
+      <c r="CL2" s="525"/>
+      <c r="CM2" s="525"/>
+      <c r="CN2" s="525"/>
+      <c r="CO2" s="525"/>
+      <c r="CP2" s="525"/>
+      <c r="CQ2" s="525"/>
+      <c r="CR2" s="525"/>
+      <c r="CS2" s="525"/>
+      <c r="CT2" s="525"/>
+      <c r="CU2" s="525"/>
+      <c r="CV2" s="525"/>
+      <c r="CW2" s="525"/>
+      <c r="CX2" s="525"/>
+      <c r="CY2" s="525"/>
+      <c r="CZ2" s="525" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="522"/>
-      <c r="DB2" s="522"/>
-      <c r="DC2" s="522"/>
-      <c r="DD2" s="522"/>
-      <c r="DE2" s="522"/>
-      <c r="DF2" s="522"/>
-      <c r="DG2" s="522"/>
-      <c r="DH2" s="522"/>
-      <c r="DI2" s="522"/>
-      <c r="DJ2" s="522"/>
-      <c r="DK2" s="522"/>
-      <c r="DL2" s="522"/>
-      <c r="DM2" s="522"/>
-      <c r="DN2" s="522"/>
-      <c r="DO2" s="522"/>
-      <c r="DP2" s="522"/>
-      <c r="DQ2" s="522"/>
-      <c r="DR2" s="522"/>
-      <c r="DS2" s="522"/>
-      <c r="DT2" s="522"/>
-      <c r="DU2" s="522"/>
-      <c r="DV2" s="522"/>
-      <c r="DW2" s="522"/>
-      <c r="DX2" s="522"/>
-      <c r="DY2" s="522"/>
-      <c r="DZ2" s="522"/>
-      <c r="EA2" s="522"/>
-      <c r="EB2" s="522"/>
-      <c r="EC2" s="522"/>
-      <c r="ED2" s="522"/>
-      <c r="EE2" s="523" t="s">
+      <c r="DA2" s="525"/>
+      <c r="DB2" s="525"/>
+      <c r="DC2" s="525"/>
+      <c r="DD2" s="525"/>
+      <c r="DE2" s="525"/>
+      <c r="DF2" s="525"/>
+      <c r="DG2" s="525"/>
+      <c r="DH2" s="525"/>
+      <c r="DI2" s="525"/>
+      <c r="DJ2" s="525"/>
+      <c r="DK2" s="525"/>
+      <c r="DL2" s="525"/>
+      <c r="DM2" s="525"/>
+      <c r="DN2" s="525"/>
+      <c r="DO2" s="525"/>
+      <c r="DP2" s="525"/>
+      <c r="DQ2" s="525"/>
+      <c r="DR2" s="525"/>
+      <c r="DS2" s="525"/>
+      <c r="DT2" s="525"/>
+      <c r="DU2" s="525"/>
+      <c r="DV2" s="525"/>
+      <c r="DW2" s="525"/>
+      <c r="DX2" s="525"/>
+      <c r="DY2" s="525"/>
+      <c r="DZ2" s="525"/>
+      <c r="EA2" s="525"/>
+      <c r="EB2" s="525"/>
+      <c r="EC2" s="525"/>
+      <c r="ED2" s="525"/>
+      <c r="EE2" s="524" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="522"/>
-      <c r="EG2" s="522"/>
-      <c r="EH2" s="522"/>
-      <c r="EI2" s="522"/>
-      <c r="EJ2" s="522"/>
-      <c r="EK2" s="522"/>
-      <c r="EL2" s="522"/>
-      <c r="EM2" s="522"/>
-      <c r="EN2" s="522"/>
-      <c r="EO2" s="522"/>
-      <c r="EP2" s="522"/>
-      <c r="EQ2" s="522"/>
-      <c r="ER2" s="522"/>
-      <c r="ES2" s="522"/>
-      <c r="ET2" s="522"/>
-      <c r="EU2" s="522"/>
-      <c r="EV2" s="522"/>
-      <c r="EW2" s="522"/>
-      <c r="EX2" s="522"/>
-      <c r="EY2" s="522"/>
-      <c r="EZ2" s="522"/>
-      <c r="FA2" s="522"/>
-      <c r="FB2" s="522"/>
-      <c r="FC2" s="522"/>
-      <c r="FD2" s="522"/>
-      <c r="FE2" s="522"/>
-      <c r="FF2" s="522"/>
-      <c r="FG2" s="522"/>
-      <c r="FH2" s="522"/>
-      <c r="FI2" s="523" t="s">
+      <c r="EF2" s="525"/>
+      <c r="EG2" s="525"/>
+      <c r="EH2" s="525"/>
+      <c r="EI2" s="525"/>
+      <c r="EJ2" s="525"/>
+      <c r="EK2" s="525"/>
+      <c r="EL2" s="525"/>
+      <c r="EM2" s="525"/>
+      <c r="EN2" s="525"/>
+      <c r="EO2" s="525"/>
+      <c r="EP2" s="525"/>
+      <c r="EQ2" s="525"/>
+      <c r="ER2" s="525"/>
+      <c r="ES2" s="525"/>
+      <c r="ET2" s="525"/>
+      <c r="EU2" s="525"/>
+      <c r="EV2" s="525"/>
+      <c r="EW2" s="525"/>
+      <c r="EX2" s="525"/>
+      <c r="EY2" s="525"/>
+      <c r="EZ2" s="525"/>
+      <c r="FA2" s="525"/>
+      <c r="FB2" s="525"/>
+      <c r="FC2" s="525"/>
+      <c r="FD2" s="525"/>
+      <c r="FE2" s="525"/>
+      <c r="FF2" s="525"/>
+      <c r="FG2" s="525"/>
+      <c r="FH2" s="525"/>
+      <c r="FI2" s="524" t="s">
         <v>23</v>
       </c>
-      <c r="FJ2" s="523"/>
-      <c r="FK2" s="523"/>
-      <c r="FL2" s="523"/>
-      <c r="FM2" s="523"/>
-      <c r="FN2" s="523"/>
-      <c r="FO2" s="523"/>
-      <c r="FP2" s="523"/>
-      <c r="FQ2" s="523"/>
-      <c r="FR2" s="523"/>
-      <c r="FS2" s="523"/>
-      <c r="FT2" s="523"/>
-      <c r="FU2" s="523"/>
-      <c r="FV2" s="523"/>
-      <c r="FW2" s="523"/>
-      <c r="FX2" s="523"/>
-      <c r="FY2" s="523"/>
-      <c r="FZ2" s="523"/>
-      <c r="GA2" s="523"/>
-      <c r="GB2" s="523"/>
-      <c r="GC2" s="523"/>
-      <c r="GD2" s="523"/>
-      <c r="GE2" s="523"/>
-      <c r="GF2" s="523"/>
-      <c r="GG2" s="523"/>
-      <c r="GH2" s="523"/>
-      <c r="GI2" s="523"/>
-      <c r="GJ2" s="523"/>
-      <c r="GK2" s="523"/>
-      <c r="GL2" s="523"/>
-      <c r="GM2" s="523"/>
-      <c r="GN2" s="523" t="s">
+      <c r="FJ2" s="524"/>
+      <c r="FK2" s="524"/>
+      <c r="FL2" s="524"/>
+      <c r="FM2" s="524"/>
+      <c r="FN2" s="524"/>
+      <c r="FO2" s="524"/>
+      <c r="FP2" s="524"/>
+      <c r="FQ2" s="524"/>
+      <c r="FR2" s="524"/>
+      <c r="FS2" s="524"/>
+      <c r="FT2" s="524"/>
+      <c r="FU2" s="524"/>
+      <c r="FV2" s="524"/>
+      <c r="FW2" s="524"/>
+      <c r="FX2" s="524"/>
+      <c r="FY2" s="524"/>
+      <c r="FZ2" s="524"/>
+      <c r="GA2" s="524"/>
+      <c r="GB2" s="524"/>
+      <c r="GC2" s="524"/>
+      <c r="GD2" s="524"/>
+      <c r="GE2" s="524"/>
+      <c r="GF2" s="524"/>
+      <c r="GG2" s="524"/>
+      <c r="GH2" s="524"/>
+      <c r="GI2" s="524"/>
+      <c r="GJ2" s="524"/>
+      <c r="GK2" s="524"/>
+      <c r="GL2" s="524"/>
+      <c r="GM2" s="524"/>
+      <c r="GN2" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="GO2" s="523"/>
-      <c r="GP2" s="523"/>
-      <c r="GQ2" s="523"/>
-      <c r="GR2" s="523"/>
-      <c r="GS2" s="523"/>
-      <c r="GT2" s="523"/>
-      <c r="GU2" s="523"/>
-      <c r="GV2" s="523"/>
-      <c r="GW2" s="523"/>
-      <c r="GX2" s="523"/>
-      <c r="GY2" s="523"/>
-      <c r="GZ2" s="523"/>
-      <c r="HA2" s="523"/>
-      <c r="HB2" s="523"/>
-      <c r="HC2" s="523"/>
-      <c r="HD2" s="523"/>
-      <c r="HE2" s="523"/>
-      <c r="HF2" s="523"/>
-      <c r="HG2" s="523"/>
-      <c r="HH2" s="523"/>
-      <c r="HI2" s="523"/>
-      <c r="HJ2" s="523"/>
-      <c r="HK2" s="523"/>
-      <c r="HL2" s="523"/>
-      <c r="HM2" s="523"/>
-      <c r="HN2" s="523"/>
-      <c r="HO2" s="523"/>
-      <c r="HP2" s="523"/>
-      <c r="HQ2" s="523"/>
-      <c r="HR2" s="523"/>
-      <c r="HS2" s="522" t="s">
+      <c r="GO2" s="524"/>
+      <c r="GP2" s="524"/>
+      <c r="GQ2" s="524"/>
+      <c r="GR2" s="524"/>
+      <c r="GS2" s="524"/>
+      <c r="GT2" s="524"/>
+      <c r="GU2" s="524"/>
+      <c r="GV2" s="524"/>
+      <c r="GW2" s="524"/>
+      <c r="GX2" s="524"/>
+      <c r="GY2" s="524"/>
+      <c r="GZ2" s="524"/>
+      <c r="HA2" s="524"/>
+      <c r="HB2" s="524"/>
+      <c r="HC2" s="524"/>
+      <c r="HD2" s="524"/>
+      <c r="HE2" s="524"/>
+      <c r="HF2" s="524"/>
+      <c r="HG2" s="524"/>
+      <c r="HH2" s="524"/>
+      <c r="HI2" s="524"/>
+      <c r="HJ2" s="524"/>
+      <c r="HK2" s="524"/>
+      <c r="HL2" s="524"/>
+      <c r="HM2" s="524"/>
+      <c r="HN2" s="524"/>
+      <c r="HO2" s="524"/>
+      <c r="HP2" s="524"/>
+      <c r="HQ2" s="524"/>
+      <c r="HR2" s="524"/>
+      <c r="HS2" s="525" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="522"/>
-      <c r="HU2" s="522"/>
-      <c r="HV2" s="522"/>
-      <c r="HW2" s="522"/>
-      <c r="HX2" s="522"/>
-      <c r="HY2" s="522"/>
-      <c r="HZ2" s="522"/>
-      <c r="IA2" s="522"/>
-      <c r="IB2" s="522"/>
-      <c r="IC2" s="522"/>
-      <c r="ID2" s="522"/>
+      <c r="HT2" s="525"/>
+      <c r="HU2" s="525"/>
+      <c r="HV2" s="525"/>
+      <c r="HW2" s="525"/>
+      <c r="HX2" s="525"/>
+      <c r="HY2" s="525"/>
+      <c r="HZ2" s="525"/>
+      <c r="IA2" s="525"/>
+      <c r="IB2" s="525"/>
+      <c r="IC2" s="525"/>
+      <c r="ID2" s="525"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="524"/>
-      <c r="B3" s="524"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="525"/>
-      <c r="E3" s="526"/>
-      <c r="F3" s="526"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="527"/>
-      <c r="J3" s="527"/>
-      <c r="K3" s="526"/>
-      <c r="L3" s="526"/>
-      <c r="M3" s="524"/>
-      <c r="N3" s="524"/>
-      <c r="O3" s="528" t="s">
+      <c r="A3" s="527"/>
+      <c r="B3" s="527"/>
+      <c r="C3" s="527"/>
+      <c r="D3" s="528"/>
+      <c r="E3" s="529"/>
+      <c r="F3" s="529"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
+      <c r="J3" s="522"/>
+      <c r="K3" s="529"/>
+      <c r="L3" s="529"/>
+      <c r="M3" s="527"/>
+      <c r="N3" s="527"/>
+      <c r="O3" s="523" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="528"/>
-      <c r="Q3" s="528"/>
-      <c r="R3" s="528"/>
-      <c r="S3" s="528"/>
-      <c r="T3" s="528"/>
-      <c r="U3" s="528"/>
-      <c r="V3" s="528" t="s">
+      <c r="P3" s="523"/>
+      <c r="Q3" s="523"/>
+      <c r="R3" s="523"/>
+      <c r="S3" s="523"/>
+      <c r="T3" s="523"/>
+      <c r="U3" s="523"/>
+      <c r="V3" s="523" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="528"/>
-      <c r="X3" s="528"/>
-      <c r="Y3" s="528"/>
-      <c r="Z3" s="528"/>
-      <c r="AA3" s="528"/>
-      <c r="AB3" s="528"/>
-      <c r="AC3" s="528" t="s">
+      <c r="W3" s="523"/>
+      <c r="X3" s="523"/>
+      <c r="Y3" s="523"/>
+      <c r="Z3" s="523"/>
+      <c r="AA3" s="523"/>
+      <c r="AB3" s="523"/>
+      <c r="AC3" s="523" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="528"/>
-      <c r="AE3" s="528"/>
-      <c r="AF3" s="528"/>
-      <c r="AG3" s="528"/>
-      <c r="AH3" s="528"/>
-      <c r="AI3" s="528"/>
-      <c r="AJ3" s="528" t="s">
+      <c r="AD3" s="523"/>
+      <c r="AE3" s="523"/>
+      <c r="AF3" s="523"/>
+      <c r="AG3" s="523"/>
+      <c r="AH3" s="523"/>
+      <c r="AI3" s="523"/>
+      <c r="AJ3" s="523" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="528"/>
-      <c r="AL3" s="528"/>
-      <c r="AM3" s="528"/>
-      <c r="AN3" s="528"/>
-      <c r="AO3" s="528"/>
-      <c r="AP3" s="528"/>
-      <c r="AQ3" s="528" t="s">
+      <c r="AK3" s="523"/>
+      <c r="AL3" s="523"/>
+      <c r="AM3" s="523"/>
+      <c r="AN3" s="523"/>
+      <c r="AO3" s="523"/>
+      <c r="AP3" s="523"/>
+      <c r="AQ3" s="523" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="528"/>
-      <c r="AS3" s="528"/>
-      <c r="AT3" s="528"/>
-      <c r="AU3" s="528"/>
-      <c r="AV3" s="528"/>
-      <c r="AW3" s="528"/>
-      <c r="AX3" s="528" t="s">
+      <c r="AR3" s="523"/>
+      <c r="AS3" s="523"/>
+      <c r="AT3" s="523"/>
+      <c r="AU3" s="523"/>
+      <c r="AV3" s="523"/>
+      <c r="AW3" s="523"/>
+      <c r="AX3" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="528"/>
-      <c r="AZ3" s="528"/>
-      <c r="BA3" s="528"/>
-      <c r="BB3" s="528"/>
-      <c r="BC3" s="528"/>
-      <c r="BD3" s="528"/>
-      <c r="BE3" s="528" t="s">
+      <c r="AY3" s="523"/>
+      <c r="AZ3" s="523"/>
+      <c r="BA3" s="523"/>
+      <c r="BB3" s="523"/>
+      <c r="BC3" s="523"/>
+      <c r="BD3" s="523"/>
+      <c r="BE3" s="523" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="528"/>
-      <c r="BG3" s="528"/>
-      <c r="BH3" s="528"/>
-      <c r="BI3" s="528"/>
-      <c r="BJ3" s="528"/>
-      <c r="BK3" s="528"/>
-      <c r="BL3" s="528" t="s">
+      <c r="BF3" s="523"/>
+      <c r="BG3" s="523"/>
+      <c r="BH3" s="523"/>
+      <c r="BI3" s="523"/>
+      <c r="BJ3" s="523"/>
+      <c r="BK3" s="523"/>
+      <c r="BL3" s="523" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="528"/>
-      <c r="BN3" s="528"/>
-      <c r="BO3" s="528"/>
-      <c r="BP3" s="528"/>
-      <c r="BQ3" s="528"/>
-      <c r="BR3" s="528"/>
-      <c r="BS3" s="528" t="s">
+      <c r="BM3" s="523"/>
+      <c r="BN3" s="523"/>
+      <c r="BO3" s="523"/>
+      <c r="BP3" s="523"/>
+      <c r="BQ3" s="523"/>
+      <c r="BR3" s="523"/>
+      <c r="BS3" s="523" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="528"/>
-      <c r="BU3" s="528"/>
-      <c r="BV3" s="528"/>
-      <c r="BW3" s="528"/>
-      <c r="BX3" s="528"/>
-      <c r="BY3" s="528"/>
-      <c r="BZ3" s="528" t="s">
+      <c r="BT3" s="523"/>
+      <c r="BU3" s="523"/>
+      <c r="BV3" s="523"/>
+      <c r="BW3" s="523"/>
+      <c r="BX3" s="523"/>
+      <c r="BY3" s="523"/>
+      <c r="BZ3" s="523" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="528"/>
-      <c r="CB3" s="528"/>
-      <c r="CC3" s="528"/>
-      <c r="CD3" s="528"/>
-      <c r="CE3" s="528"/>
-      <c r="CF3" s="528"/>
-      <c r="CG3" s="528" t="s">
+      <c r="CA3" s="523"/>
+      <c r="CB3" s="523"/>
+      <c r="CC3" s="523"/>
+      <c r="CD3" s="523"/>
+      <c r="CE3" s="523"/>
+      <c r="CF3" s="523"/>
+      <c r="CG3" s="523" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="528"/>
-      <c r="CI3" s="528"/>
-      <c r="CJ3" s="528"/>
-      <c r="CK3" s="528"/>
-      <c r="CL3" s="528"/>
-      <c r="CM3" s="528"/>
-      <c r="CN3" s="528" t="s">
+      <c r="CH3" s="523"/>
+      <c r="CI3" s="523"/>
+      <c r="CJ3" s="523"/>
+      <c r="CK3" s="523"/>
+      <c r="CL3" s="523"/>
+      <c r="CM3" s="523"/>
+      <c r="CN3" s="523" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="528"/>
-      <c r="CP3" s="528"/>
-      <c r="CQ3" s="528"/>
-      <c r="CR3" s="528"/>
-      <c r="CS3" s="528"/>
-      <c r="CT3" s="528"/>
-      <c r="CU3" s="528" t="s">
+      <c r="CO3" s="523"/>
+      <c r="CP3" s="523"/>
+      <c r="CQ3" s="523"/>
+      <c r="CR3" s="523"/>
+      <c r="CS3" s="523"/>
+      <c r="CT3" s="523"/>
+      <c r="CU3" s="523" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="528"/>
-      <c r="CW3" s="528"/>
-      <c r="CX3" s="528"/>
-      <c r="CY3" s="528"/>
-      <c r="CZ3" s="528"/>
-      <c r="DA3" s="528"/>
-      <c r="DB3" s="528" t="s">
+      <c r="CV3" s="523"/>
+      <c r="CW3" s="523"/>
+      <c r="CX3" s="523"/>
+      <c r="CY3" s="523"/>
+      <c r="CZ3" s="523"/>
+      <c r="DA3" s="523"/>
+      <c r="DB3" s="523" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="528"/>
-      <c r="DD3" s="528"/>
-      <c r="DE3" s="528"/>
-      <c r="DF3" s="528"/>
-      <c r="DG3" s="528"/>
-      <c r="DH3" s="528"/>
-      <c r="DI3" s="528" t="s">
+      <c r="DC3" s="523"/>
+      <c r="DD3" s="523"/>
+      <c r="DE3" s="523"/>
+      <c r="DF3" s="523"/>
+      <c r="DG3" s="523"/>
+      <c r="DH3" s="523"/>
+      <c r="DI3" s="523" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="528"/>
-      <c r="DK3" s="528"/>
-      <c r="DL3" s="528"/>
-      <c r="DM3" s="528"/>
-      <c r="DN3" s="528"/>
-      <c r="DO3" s="528"/>
-      <c r="DP3" s="528" t="s">
+      <c r="DJ3" s="523"/>
+      <c r="DK3" s="523"/>
+      <c r="DL3" s="523"/>
+      <c r="DM3" s="523"/>
+      <c r="DN3" s="523"/>
+      <c r="DO3" s="523"/>
+      <c r="DP3" s="523" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="528"/>
-      <c r="DR3" s="528"/>
-      <c r="DS3" s="528"/>
-      <c r="DT3" s="528"/>
-      <c r="DU3" s="528"/>
-      <c r="DV3" s="528"/>
-      <c r="DW3" s="528" t="s">
+      <c r="DQ3" s="523"/>
+      <c r="DR3" s="523"/>
+      <c r="DS3" s="523"/>
+      <c r="DT3" s="523"/>
+      <c r="DU3" s="523"/>
+      <c r="DV3" s="523"/>
+      <c r="DW3" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="528"/>
-      <c r="DY3" s="528"/>
-      <c r="DZ3" s="528"/>
-      <c r="EA3" s="528"/>
-      <c r="EB3" s="528"/>
-      <c r="EC3" s="528"/>
-      <c r="ED3" s="528" t="s">
+      <c r="DX3" s="523"/>
+      <c r="DY3" s="523"/>
+      <c r="DZ3" s="523"/>
+      <c r="EA3" s="523"/>
+      <c r="EB3" s="523"/>
+      <c r="EC3" s="523"/>
+      <c r="ED3" s="523" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="528"/>
-      <c r="EF3" s="528"/>
-      <c r="EG3" s="528"/>
-      <c r="EH3" s="528"/>
-      <c r="EI3" s="528"/>
-      <c r="EJ3" s="528"/>
-      <c r="EK3" s="528" t="s">
+      <c r="EE3" s="523"/>
+      <c r="EF3" s="523"/>
+      <c r="EG3" s="523"/>
+      <c r="EH3" s="523"/>
+      <c r="EI3" s="523"/>
+      <c r="EJ3" s="523"/>
+      <c r="EK3" s="523" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="528"/>
-      <c r="EM3" s="528"/>
-      <c r="EN3" s="528"/>
-      <c r="EO3" s="528"/>
-      <c r="EP3" s="528"/>
-      <c r="EQ3" s="528"/>
-      <c r="ER3" s="528" t="s">
+      <c r="EL3" s="523"/>
+      <c r="EM3" s="523"/>
+      <c r="EN3" s="523"/>
+      <c r="EO3" s="523"/>
+      <c r="EP3" s="523"/>
+      <c r="EQ3" s="523"/>
+      <c r="ER3" s="523" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="528"/>
-      <c r="ET3" s="528"/>
-      <c r="EU3" s="528"/>
-      <c r="EV3" s="528"/>
-      <c r="EW3" s="528"/>
-      <c r="EX3" s="528"/>
-      <c r="EY3" s="528" t="s">
+      <c r="ES3" s="523"/>
+      <c r="ET3" s="523"/>
+      <c r="EU3" s="523"/>
+      <c r="EV3" s="523"/>
+      <c r="EW3" s="523"/>
+      <c r="EX3" s="523"/>
+      <c r="EY3" s="523" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="528"/>
-      <c r="FA3" s="528"/>
-      <c r="FB3" s="528"/>
-      <c r="FC3" s="528"/>
-      <c r="FD3" s="528"/>
-      <c r="FE3" s="528"/>
-      <c r="FF3" s="528" t="s">
+      <c r="EZ3" s="523"/>
+      <c r="FA3" s="523"/>
+      <c r="FB3" s="523"/>
+      <c r="FC3" s="523"/>
+      <c r="FD3" s="523"/>
+      <c r="FE3" s="523"/>
+      <c r="FF3" s="523" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="528"/>
-      <c r="FH3" s="528"/>
-      <c r="FI3" s="528"/>
-      <c r="FJ3" s="528"/>
-      <c r="FK3" s="528"/>
-      <c r="FL3" s="528"/>
-      <c r="FM3" s="528" t="s">
+      <c r="FG3" s="523"/>
+      <c r="FH3" s="523"/>
+      <c r="FI3" s="523"/>
+      <c r="FJ3" s="523"/>
+      <c r="FK3" s="523"/>
+      <c r="FL3" s="523"/>
+      <c r="FM3" s="523" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="528"/>
-      <c r="FO3" s="528"/>
-      <c r="FP3" s="528"/>
-      <c r="FQ3" s="528"/>
-      <c r="FR3" s="528"/>
-      <c r="FS3" s="528"/>
-      <c r="FT3" s="528" t="s">
+      <c r="FN3" s="523"/>
+      <c r="FO3" s="523"/>
+      <c r="FP3" s="523"/>
+      <c r="FQ3" s="523"/>
+      <c r="FR3" s="523"/>
+      <c r="FS3" s="523"/>
+      <c r="FT3" s="523" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="528"/>
-      <c r="FV3" s="528"/>
-      <c r="FW3" s="528"/>
-      <c r="FX3" s="528"/>
-      <c r="FY3" s="528"/>
-      <c r="FZ3" s="528"/>
-      <c r="GA3" s="528" t="s">
+      <c r="FU3" s="523"/>
+      <c r="FV3" s="523"/>
+      <c r="FW3" s="523"/>
+      <c r="FX3" s="523"/>
+      <c r="FY3" s="523"/>
+      <c r="FZ3" s="523"/>
+      <c r="GA3" s="523" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="528"/>
-      <c r="GC3" s="528"/>
-      <c r="GD3" s="528"/>
-      <c r="GE3" s="528"/>
-      <c r="GF3" s="528"/>
-      <c r="GG3" s="528"/>
-      <c r="GH3" s="528" t="s">
+      <c r="GB3" s="523"/>
+      <c r="GC3" s="523"/>
+      <c r="GD3" s="523"/>
+      <c r="GE3" s="523"/>
+      <c r="GF3" s="523"/>
+      <c r="GG3" s="523"/>
+      <c r="GH3" s="523" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="528"/>
-      <c r="GJ3" s="528"/>
-      <c r="GK3" s="528"/>
-      <c r="GL3" s="528"/>
-      <c r="GM3" s="528"/>
-      <c r="GN3" s="528"/>
-      <c r="GO3" s="528" t="s">
+      <c r="GI3" s="523"/>
+      <c r="GJ3" s="523"/>
+      <c r="GK3" s="523"/>
+      <c r="GL3" s="523"/>
+      <c r="GM3" s="523"/>
+      <c r="GN3" s="523"/>
+      <c r="GO3" s="523" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="528"/>
-      <c r="GQ3" s="528"/>
-      <c r="GR3" s="528"/>
-      <c r="GS3" s="528"/>
-      <c r="GT3" s="528"/>
-      <c r="GU3" s="528"/>
-      <c r="GV3" s="528" t="s">
+      <c r="GP3" s="523"/>
+      <c r="GQ3" s="523"/>
+      <c r="GR3" s="523"/>
+      <c r="GS3" s="523"/>
+      <c r="GT3" s="523"/>
+      <c r="GU3" s="523"/>
+      <c r="GV3" s="523" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="528"/>
-      <c r="GX3" s="528"/>
-      <c r="GY3" s="528"/>
-      <c r="GZ3" s="528"/>
-      <c r="HA3" s="528"/>
-      <c r="HB3" s="528"/>
-      <c r="HC3" s="528" t="s">
+      <c r="GW3" s="523"/>
+      <c r="GX3" s="523"/>
+      <c r="GY3" s="523"/>
+      <c r="GZ3" s="523"/>
+      <c r="HA3" s="523"/>
+      <c r="HB3" s="523"/>
+      <c r="HC3" s="523" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="528"/>
-      <c r="HE3" s="528"/>
-      <c r="HF3" s="528"/>
-      <c r="HG3" s="528"/>
-      <c r="HH3" s="528"/>
-      <c r="HI3" s="528"/>
-      <c r="HJ3" s="528" t="s">
+      <c r="HD3" s="523"/>
+      <c r="HE3" s="523"/>
+      <c r="HF3" s="523"/>
+      <c r="HG3" s="523"/>
+      <c r="HH3" s="523"/>
+      <c r="HI3" s="523"/>
+      <c r="HJ3" s="523" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="528"/>
-      <c r="HL3" s="528"/>
-      <c r="HM3" s="528"/>
-      <c r="HN3" s="528"/>
-      <c r="HO3" s="528"/>
-      <c r="HP3" s="528"/>
-      <c r="HQ3" s="528" t="s">
+      <c r="HK3" s="523"/>
+      <c r="HL3" s="523"/>
+      <c r="HM3" s="523"/>
+      <c r="HN3" s="523"/>
+      <c r="HO3" s="523"/>
+      <c r="HP3" s="523"/>
+      <c r="HQ3" s="523" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="528"/>
-      <c r="HS3" s="528"/>
-      <c r="HT3" s="528"/>
-      <c r="HU3" s="528"/>
-      <c r="HV3" s="528"/>
-      <c r="HW3" s="528"/>
-      <c r="HX3" s="528" t="s">
+      <c r="HR3" s="523"/>
+      <c r="HS3" s="523"/>
+      <c r="HT3" s="523"/>
+      <c r="HU3" s="523"/>
+      <c r="HV3" s="523"/>
+      <c r="HW3" s="523"/>
+      <c r="HX3" s="523" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="528"/>
-      <c r="HZ3" s="528"/>
-      <c r="IA3" s="528"/>
-      <c r="IB3" s="528"/>
-      <c r="IC3" s="528"/>
-      <c r="ID3" s="528"/>
+      <c r="HY3" s="523"/>
+      <c r="HZ3" s="523"/>
+      <c r="IA3" s="523"/>
+      <c r="IB3" s="523"/>
+      <c r="IC3" s="523"/>
+      <c r="ID3" s="523"/>
     </row>
     <row r="4" spans="1:238" s="426" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="524"/>
-      <c r="B4" s="524"/>
-      <c r="C4" s="524"/>
-      <c r="D4" s="525"/>
-      <c r="E4" s="526"/>
-      <c r="F4" s="526"/>
+      <c r="A4" s="527"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="528"/>
+      <c r="E4" s="529"/>
+      <c r="F4" s="529"/>
       <c r="G4" s="440" t="s">
         <v>58</v>
       </c>
@@ -17198,10 +17200,10 @@
       <c r="J4" s="439" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
-      <c r="M4" s="524"/>
-      <c r="N4" s="524"/>
+      <c r="K4" s="529"/>
+      <c r="L4" s="529"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
       <c r="O4" s="468">
         <v>43497</v>
       </c>
@@ -30005,6 +30007,43 @@
   </sheetData>
   <autoFilter ref="A4:XEI375" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O2:AP2"/>
+    <mergeCell ref="AQ2:BU2"/>
+    <mergeCell ref="BV2:CY2"/>
+    <mergeCell ref="CZ2:ED2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="FI2:GM2"/>
+    <mergeCell ref="GN2:HR2"/>
+    <mergeCell ref="HS2:ID2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="FM3:FS3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="GH3:GN3"/>
+    <mergeCell ref="GO3:GU3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="GV3:HB3"/>
     <mergeCell ref="HC3:HI3"/>
@@ -30021,43 +30060,6 @@
     <mergeCell ref="DP3:DV3"/>
     <mergeCell ref="DW3:EC3"/>
     <mergeCell ref="EE2:FH2"/>
-    <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
-    <mergeCell ref="GH3:GN3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="FI2:GM2"/>
-    <mergeCell ref="GN2:HR2"/>
-    <mergeCell ref="HS2:ID2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O2:AP2"/>
-    <mergeCell ref="AQ2:BU2"/>
-    <mergeCell ref="BV2:CY2"/>
-    <mergeCell ref="CZ2:ED2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.118055555555556" bottom="0.118055555555556" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -34212,26 +34214,26 @@
       <c r="F2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="535" t="s">
+      <c r="G2" s="536" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
-      <c r="M2" s="535"/>
-      <c r="N2" s="535"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="536"/>
+      <c r="M2" s="536"/>
+      <c r="N2" s="536"/>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="536" t="s">
+      <c r="C3" s="537" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="536"/>
-      <c r="E3" s="536"/>
+      <c r="D3" s="537"/>
+      <c r="E3" s="537"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -34894,7 +34896,7 @@
       </c>
       <c r="G26" s="267"/>
       <c r="H26" s="493" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J26" s="97"/>
       <c r="L26" s="370" t="s">
@@ -34931,7 +34933,7 @@
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="383" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J27" s="97"/>
       <c r="L27" s="356" t="s">
@@ -35318,53 +35320,53 @@
       <c r="J42" s="92"/>
     </row>
     <row r="43" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B43" s="537" t="s">
+      <c r="B43" s="538" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="538"/>
-      <c r="D43" s="538"/>
-      <c r="E43" s="538"/>
-      <c r="F43" s="538"/>
-      <c r="G43" s="539"/>
+      <c r="C43" s="539"/>
+      <c r="D43" s="539"/>
+      <c r="E43" s="539"/>
+      <c r="F43" s="539"/>
+      <c r="G43" s="540"/>
       <c r="H43" s="30"/>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
     </row>
     <row r="44" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B44" s="529" t="s">
+      <c r="B44" s="530" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="530"/>
-      <c r="D44" s="530"/>
-      <c r="E44" s="530"/>
-      <c r="F44" s="530"/>
-      <c r="G44" s="531"/>
+      <c r="C44" s="531"/>
+      <c r="D44" s="531"/>
+      <c r="E44" s="531"/>
+      <c r="F44" s="531"/>
+      <c r="G44" s="532"/>
       <c r="H44" s="30"/>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
     </row>
     <row r="45" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B45" s="537" t="s">
+      <c r="B45" s="538" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="538"/>
-      <c r="D45" s="538"/>
-      <c r="E45" s="538"/>
-      <c r="F45" s="538"/>
-      <c r="G45" s="539"/>
+      <c r="C45" s="539"/>
+      <c r="D45" s="539"/>
+      <c r="E45" s="539"/>
+      <c r="F45" s="539"/>
+      <c r="G45" s="540"/>
       <c r="H45" s="30"/>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
     </row>
     <row r="46" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B46" s="529" t="s">
+      <c r="B46" s="530" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="530"/>
-      <c r="D46" s="530"/>
-      <c r="E46" s="530"/>
-      <c r="F46" s="530"/>
-      <c r="G46" s="531"/>
+      <c r="C46" s="531"/>
+      <c r="D46" s="531"/>
+      <c r="E46" s="531"/>
+      <c r="F46" s="531"/>
+      <c r="G46" s="532"/>
       <c r="H46" s="30"/>
       <c r="I46" s="92"/>
       <c r="J46" s="92"/>
@@ -35398,13 +35400,13 @@
       <c r="B49" s="388" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="532" t="s">
+      <c r="C49" s="533" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="533"/>
-      <c r="E49" s="533"/>
-      <c r="F49" s="533"/>
-      <c r="G49" s="534"/>
+      <c r="D49" s="534"/>
+      <c r="E49" s="534"/>
+      <c r="F49" s="534"/>
+      <c r="G49" s="535"/>
       <c r="H49" s="30"/>
       <c r="I49" s="92"/>
       <c r="J49" s="92"/>
@@ -35413,13 +35415,13 @@
       <c r="B50" s="388" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="532" t="s">
+      <c r="C50" s="533" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="533"/>
-      <c r="E50" s="533"/>
-      <c r="F50" s="533"/>
-      <c r="G50" s="534"/>
+      <c r="D50" s="534"/>
+      <c r="E50" s="534"/>
+      <c r="F50" s="534"/>
+      <c r="G50" s="535"/>
       <c r="H50" s="30"/>
       <c r="I50" s="92"/>
       <c r="J50" s="92"/>
@@ -35428,13 +35430,13 @@
       <c r="B51" s="388" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="532" t="s">
+      <c r="C51" s="533" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="533"/>
-      <c r="E51" s="533"/>
-      <c r="F51" s="533"/>
-      <c r="G51" s="534"/>
+      <c r="D51" s="534"/>
+      <c r="E51" s="534"/>
+      <c r="F51" s="534"/>
+      <c r="G51" s="535"/>
       <c r="H51" s="30"/>
       <c r="I51" s="92"/>
       <c r="J51" s="92"/>
@@ -35500,16 +35502,16 @@
       <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="540" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
+      <c r="E2" s="569" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="536"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="J3" s="6" t="s">
@@ -35518,17 +35520,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="336" customFormat="1" ht="15.75">
-      <c r="A4" s="541" t="s">
+      <c r="A4" s="566" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="541"/>
-      <c r="C4" s="541"/>
-      <c r="D4" s="541"/>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
-      <c r="G4" s="541"/>
-      <c r="H4" s="541"/>
-      <c r="I4" s="541"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="566"/>
+      <c r="E4" s="566"/>
+      <c r="F4" s="566"/>
+      <c r="G4" s="566"/>
+      <c r="H4" s="566"/>
+      <c r="I4" s="566"/>
     </row>
     <row r="5" spans="1:14" s="337" customFormat="1" ht="16.5">
       <c r="A5" s="341" t="s">
@@ -35546,12 +35548,12 @@
       <c r="E5" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="542" t="s">
+      <c r="F5" s="567" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="542"/>
-      <c r="H5" s="542"/>
-      <c r="I5" s="542"/>
+      <c r="G5" s="567"/>
+      <c r="H5" s="567"/>
+      <c r="I5" s="567"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35584,12 +35586,12 @@
       <c r="E6" s="342">
         <v>0</v>
       </c>
-      <c r="F6" s="543" t="s">
+      <c r="F6" s="557" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="544"/>
-      <c r="H6" s="544"/>
-      <c r="I6" s="545"/>
+      <c r="G6" s="558"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="559"/>
       <c r="J6" s="342" t="s">
         <v>374</v>
       </c>
@@ -35620,12 +35622,12 @@
       <c r="E7" s="343">
         <v>0</v>
       </c>
-      <c r="F7" s="546" t="s">
+      <c r="F7" s="551" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="547"/>
-      <c r="H7" s="547"/>
-      <c r="I7" s="548"/>
+      <c r="G7" s="570"/>
+      <c r="H7" s="570"/>
+      <c r="I7" s="571"/>
       <c r="J7" s="343" t="s">
         <v>376</v>
       </c>
@@ -35639,7 +35641,7 @@
         <v>377</v>
       </c>
       <c r="N7" s="516" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="337" customFormat="1" ht="16.5">
@@ -35656,12 +35658,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="343"/>
-      <c r="F8" s="549" t="s">
+      <c r="F8" s="544" t="s">
         <v>380</v>
       </c>
-      <c r="G8" s="550"/>
-      <c r="H8" s="550"/>
-      <c r="I8" s="551"/>
+      <c r="G8" s="542"/>
+      <c r="H8" s="542"/>
+      <c r="I8" s="543"/>
       <c r="J8" s="343" t="s">
         <v>378</v>
       </c>
@@ -35694,12 +35696,12 @@
       <c r="E9" s="342">
         <v>0</v>
       </c>
-      <c r="F9" s="543" t="s">
+      <c r="F9" s="557" t="s">
         <v>383</v>
       </c>
-      <c r="G9" s="544"/>
-      <c r="H9" s="544"/>
-      <c r="I9" s="545"/>
+      <c r="G9" s="558"/>
+      <c r="H9" s="558"/>
+      <c r="I9" s="559"/>
       <c r="J9" s="342" t="s">
         <v>382</v>
       </c>
@@ -35732,12 +35734,12 @@
       <c r="E10" s="343">
         <v>0</v>
       </c>
-      <c r="F10" s="549" t="s">
+      <c r="F10" s="544" t="s">
         <v>386</v>
       </c>
-      <c r="G10" s="550"/>
-      <c r="H10" s="550"/>
-      <c r="I10" s="551"/>
+      <c r="G10" s="542"/>
+      <c r="H10" s="542"/>
+      <c r="I10" s="543"/>
       <c r="J10" s="343" t="s">
         <v>385</v>
       </c>
@@ -35768,12 +35770,12 @@
       <c r="E11" s="343">
         <v>0</v>
       </c>
-      <c r="F11" s="549" t="s">
+      <c r="F11" s="544" t="s">
         <v>387</v>
       </c>
-      <c r="G11" s="550"/>
-      <c r="H11" s="550"/>
-      <c r="I11" s="551"/>
+      <c r="G11" s="542"/>
+      <c r="H11" s="542"/>
+      <c r="I11" s="543"/>
       <c r="J11" s="343" t="s">
         <v>318</v>
       </c>
@@ -35804,12 +35806,12 @@
       <c r="E12" s="343">
         <v>3</v>
       </c>
-      <c r="F12" s="549" t="s">
+      <c r="F12" s="544" t="s">
         <v>390</v>
       </c>
-      <c r="G12" s="550"/>
-      <c r="H12" s="550"/>
-      <c r="I12" s="551"/>
+      <c r="G12" s="542"/>
+      <c r="H12" s="542"/>
+      <c r="I12" s="543"/>
       <c r="J12" s="343" t="s">
         <v>388</v>
       </c>
@@ -35840,12 +35842,12 @@
       <c r="E13" s="343">
         <v>3</v>
       </c>
-      <c r="F13" s="549" t="s">
+      <c r="F13" s="544" t="s">
         <v>393</v>
       </c>
-      <c r="G13" s="550"/>
-      <c r="H13" s="550"/>
-      <c r="I13" s="551"/>
+      <c r="G13" s="542"/>
+      <c r="H13" s="542"/>
+      <c r="I13" s="543"/>
       <c r="J13" s="343" t="s">
         <v>391</v>
       </c>
@@ -35876,12 +35878,12 @@
       <c r="E14" s="343">
         <v>0</v>
       </c>
-      <c r="F14" s="549" t="s">
+      <c r="F14" s="544" t="s">
         <v>396</v>
       </c>
-      <c r="G14" s="550"/>
-      <c r="H14" s="550"/>
-      <c r="I14" s="551"/>
+      <c r="G14" s="542"/>
+      <c r="H14" s="542"/>
+      <c r="I14" s="543"/>
       <c r="J14" s="343" t="s">
         <v>394</v>
       </c>
@@ -35914,12 +35916,12 @@
       <c r="E15" s="343">
         <v>3</v>
       </c>
-      <c r="F15" s="549" t="s">
+      <c r="F15" s="544" t="s">
         <v>400</v>
       </c>
-      <c r="G15" s="550"/>
-      <c r="H15" s="550"/>
-      <c r="I15" s="551"/>
+      <c r="G15" s="542"/>
+      <c r="H15" s="542"/>
+      <c r="I15" s="543"/>
       <c r="J15" s="343" t="s">
         <v>398</v>
       </c>
@@ -35950,12 +35952,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="343"/>
-      <c r="F16" s="549" t="s">
+      <c r="F16" s="544" t="s">
         <v>405</v>
       </c>
-      <c r="G16" s="550"/>
-      <c r="H16" s="550"/>
-      <c r="I16" s="551"/>
+      <c r="G16" s="542"/>
+      <c r="H16" s="542"/>
+      <c r="I16" s="543"/>
       <c r="J16" s="343" t="s">
         <v>402</v>
       </c>
@@ -35982,12 +35984,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="343"/>
-      <c r="F17" s="549" t="s">
+      <c r="F17" s="544" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="550"/>
-      <c r="H17" s="550"/>
-      <c r="I17" s="551"/>
+      <c r="G17" s="542"/>
+      <c r="H17" s="542"/>
+      <c r="I17" s="543"/>
       <c r="J17" s="343" t="s">
         <v>407</v>
       </c>
@@ -36014,12 +36016,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="343"/>
-      <c r="F18" s="549" t="s">
+      <c r="F18" s="544" t="s">
         <v>413</v>
       </c>
-      <c r="G18" s="550"/>
-      <c r="H18" s="550"/>
-      <c r="I18" s="551"/>
+      <c r="G18" s="542"/>
+      <c r="H18" s="542"/>
+      <c r="I18" s="543"/>
       <c r="J18" s="343" t="s">
         <v>411</v>
       </c>
@@ -36046,12 +36048,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="343"/>
-      <c r="F19" s="549" t="s">
+      <c r="F19" s="544" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="550"/>
-      <c r="H19" s="550"/>
-      <c r="I19" s="551"/>
+      <c r="G19" s="542"/>
+      <c r="H19" s="542"/>
+      <c r="I19" s="543"/>
       <c r="J19" s="343" t="s">
         <v>414</v>
       </c>
@@ -36078,12 +36080,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="343"/>
-      <c r="F20" s="552" t="s">
+      <c r="F20" s="568" t="s">
         <v>419</v>
       </c>
-      <c r="G20" s="550"/>
-      <c r="H20" s="550"/>
-      <c r="I20" s="551"/>
+      <c r="G20" s="542"/>
+      <c r="H20" s="542"/>
+      <c r="I20" s="543"/>
       <c r="J20" s="343" t="s">
         <v>417</v>
       </c>
@@ -36110,12 +36112,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="343"/>
-      <c r="F21" s="552" t="s">
+      <c r="F21" s="568" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="550"/>
-      <c r="H21" s="550"/>
-      <c r="I21" s="551"/>
+      <c r="G21" s="542"/>
+      <c r="H21" s="542"/>
+      <c r="I21" s="543"/>
       <c r="J21" s="343" t="s">
         <v>420</v>
       </c>
@@ -36142,12 +36144,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="343"/>
-      <c r="F22" s="553" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G22" s="553"/>
-      <c r="H22" s="553"/>
-      <c r="I22" s="553"/>
+      <c r="F22" s="550" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G22" s="550"/>
+      <c r="H22" s="550"/>
+      <c r="I22" s="550"/>
       <c r="J22" s="343" t="s">
         <v>323</v>
       </c>
@@ -36178,12 +36180,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="342"/>
-      <c r="F23" s="554" t="s">
+      <c r="F23" s="563" t="s">
         <v>426</v>
       </c>
-      <c r="G23" s="555"/>
-      <c r="H23" s="555"/>
-      <c r="I23" s="556"/>
+      <c r="G23" s="564"/>
+      <c r="H23" s="564"/>
+      <c r="I23" s="565"/>
       <c r="J23" s="342" t="s">
         <v>425</v>
       </c>
@@ -36210,12 +36212,12 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="343"/>
-      <c r="F24" s="546" t="s">
+      <c r="F24" s="551" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="550"/>
-      <c r="H24" s="550"/>
-      <c r="I24" s="550"/>
+      <c r="G24" s="542"/>
+      <c r="H24" s="542"/>
+      <c r="I24" s="542"/>
       <c r="J24" s="364"/>
       <c r="K24" s="364"/>
       <c r="L24" s="364"/>
@@ -36226,17 +36228,17 @@
       <c r="Q24" s="365"/>
     </row>
     <row r="25" spans="1:18" s="338" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="541" t="s">
+      <c r="A25" s="566" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="541"/>
-      <c r="C25" s="541"/>
-      <c r="D25" s="541"/>
-      <c r="E25" s="541"/>
-      <c r="F25" s="541"/>
-      <c r="G25" s="541"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="541"/>
+      <c r="B25" s="566"/>
+      <c r="C25" s="566"/>
+      <c r="D25" s="566"/>
+      <c r="E25" s="566"/>
+      <c r="F25" s="566"/>
+      <c r="G25" s="566"/>
+      <c r="H25" s="566"/>
+      <c r="I25" s="566"/>
       <c r="J25" s="366" t="s">
         <v>430</v>
       </c>
@@ -36265,12 +36267,12 @@
       <c r="E26" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="542" t="s">
+      <c r="F26" s="567" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="542"/>
-      <c r="H26" s="542"/>
-      <c r="I26" s="542"/>
+      <c r="G26" s="567"/>
+      <c r="H26" s="567"/>
+      <c r="I26" s="567"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36307,12 +36309,12 @@
       <c r="E27" s="342">
         <v>0</v>
       </c>
-      <c r="F27" s="543" t="s">
+      <c r="F27" s="557" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="544"/>
-      <c r="H27" s="544"/>
-      <c r="I27" s="545"/>
+      <c r="G27" s="558"/>
+      <c r="H27" s="558"/>
+      <c r="I27" s="559"/>
       <c r="J27" s="359" t="s">
         <v>374</v>
       </c>
@@ -36341,12 +36343,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="342"/>
-      <c r="F28" s="543" t="s">
+      <c r="F28" s="557" t="s">
         <v>433</v>
       </c>
-      <c r="G28" s="544"/>
-      <c r="H28" s="544"/>
-      <c r="I28" s="545"/>
+      <c r="G28" s="558"/>
+      <c r="H28" s="558"/>
+      <c r="I28" s="559"/>
       <c r="J28" s="362" t="s">
         <v>432</v>
       </c>
@@ -36375,12 +36377,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="343"/>
-      <c r="F29" s="549" t="s">
+      <c r="F29" s="544" t="s">
         <v>436</v>
       </c>
-      <c r="G29" s="550"/>
-      <c r="H29" s="550"/>
-      <c r="I29" s="551"/>
+      <c r="G29" s="542"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="543"/>
       <c r="J29" s="343" t="s">
         <v>435</v>
       </c>
@@ -36412,12 +36414,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="343"/>
-      <c r="F30" s="549" t="s">
+      <c r="F30" s="544" t="s">
         <v>438</v>
       </c>
-      <c r="G30" s="550"/>
-      <c r="H30" s="550"/>
-      <c r="I30" s="551"/>
+      <c r="G30" s="542"/>
+      <c r="H30" s="542"/>
+      <c r="I30" s="543"/>
       <c r="J30" s="244" t="s">
         <v>439</v>
       </c>
@@ -36450,12 +36452,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="244"/>
-      <c r="F31" s="553" t="s">
+      <c r="F31" s="550" t="s">
         <v>443</v>
       </c>
-      <c r="G31" s="553"/>
-      <c r="H31" s="553"/>
-      <c r="I31" s="553"/>
+      <c r="G31" s="550"/>
+      <c r="H31" s="550"/>
+      <c r="I31" s="550"/>
       <c r="J31" s="244" t="s">
         <v>442</v>
       </c>
@@ -36484,12 +36486,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="244"/>
-      <c r="F32" s="557" t="s">
+      <c r="F32" s="560" t="s">
         <v>447</v>
       </c>
-      <c r="G32" s="558"/>
-      <c r="H32" s="558"/>
-      <c r="I32" s="559"/>
+      <c r="G32" s="561"/>
+      <c r="H32" s="561"/>
+      <c r="I32" s="562"/>
       <c r="J32" s="244" t="s">
         <v>446</v>
       </c>
@@ -36518,12 +36520,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="350"/>
-      <c r="F33" s="560" t="s">
+      <c r="F33" s="547" t="s">
         <v>450</v>
       </c>
-      <c r="G33" s="561"/>
-      <c r="H33" s="561"/>
-      <c r="I33" s="562"/>
+      <c r="G33" s="548"/>
+      <c r="H33" s="548"/>
+      <c r="I33" s="549"/>
       <c r="J33" s="348" t="s">
         <v>449</v>
       </c>
@@ -36560,12 +36562,12 @@
       <c r="E34" s="351">
         <v>0</v>
       </c>
-      <c r="F34" s="553" t="s">
+      <c r="F34" s="550" t="s">
         <v>424</v>
       </c>
-      <c r="G34" s="553"/>
-      <c r="H34" s="553"/>
-      <c r="I34" s="553"/>
+      <c r="G34" s="550"/>
+      <c r="H34" s="550"/>
+      <c r="I34" s="550"/>
       <c r="J34" s="343" t="s">
         <v>323</v>
       </c>
@@ -36595,14 +36597,14 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="343"/>
-      <c r="F35" s="546" t="s">
+      <c r="F35" s="551" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="550"/>
-      <c r="H35" s="550"/>
-      <c r="I35" s="550"/>
+      <c r="G35" s="542"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="542"/>
       <c r="J35" s="366" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O35" s="337"/>
       <c r="P35" s="337"/>
@@ -36624,24 +36626,24 @@
       <c r="Q36" s="337"/>
     </row>
     <row r="37" spans="1:18" s="339" customFormat="1" ht="16.5">
-      <c r="A37" s="563" t="s">
+      <c r="A37" s="552" t="s">
         <v>452</v>
       </c>
-      <c r="B37" s="564"/>
-      <c r="C37" s="564"/>
-      <c r="D37" s="564"/>
-      <c r="E37" s="564"/>
-      <c r="F37" s="564"/>
-      <c r="G37" s="564"/>
-      <c r="H37" s="564"/>
-      <c r="I37" s="564"/>
-      <c r="J37" s="565" t="s">
+      <c r="B37" s="553"/>
+      <c r="C37" s="553"/>
+      <c r="D37" s="553"/>
+      <c r="E37" s="553"/>
+      <c r="F37" s="553"/>
+      <c r="G37" s="553"/>
+      <c r="H37" s="553"/>
+      <c r="I37" s="553"/>
+      <c r="J37" s="554" t="s">
         <v>453</v>
       </c>
-      <c r="K37" s="566"/>
-      <c r="L37" s="566"/>
-      <c r="M37" s="566"/>
-      <c r="N37" s="567"/>
+      <c r="K37" s="555"/>
+      <c r="L37" s="555"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="556"/>
     </row>
     <row r="38" spans="1:18" s="339" customFormat="1" ht="16.5">
       <c r="A38" s="341" t="s">
@@ -36659,12 +36661,12 @@
       <c r="E38" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="568" t="s">
+      <c r="F38" s="545" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="569"/>
-      <c r="H38" s="569"/>
-      <c r="I38" s="569"/>
+      <c r="G38" s="546"/>
+      <c r="H38" s="546"/>
+      <c r="I38" s="546"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -36697,12 +36699,12 @@
       <c r="E39" s="343">
         <v>0</v>
       </c>
-      <c r="F39" s="549" t="s">
+      <c r="F39" s="544" t="s">
         <v>375</v>
       </c>
-      <c r="G39" s="550"/>
-      <c r="H39" s="550"/>
-      <c r="I39" s="550"/>
+      <c r="G39" s="542"/>
+      <c r="H39" s="542"/>
+      <c r="I39" s="542"/>
       <c r="J39" s="99" t="s">
         <v>374</v>
       </c>
@@ -36733,12 +36735,12 @@
       <c r="E40" s="343">
         <v>0</v>
       </c>
-      <c r="F40" s="549" t="s">
+      <c r="F40" s="544" t="s">
         <v>456</v>
       </c>
-      <c r="G40" s="550"/>
-      <c r="H40" s="550"/>
-      <c r="I40" s="550"/>
+      <c r="G40" s="542"/>
+      <c r="H40" s="542"/>
+      <c r="I40" s="542"/>
       <c r="J40" s="343" t="s">
         <v>454</v>
       </c>
@@ -36748,12 +36750,12 @@
       <c r="L40" s="343">
         <v>10</v>
       </c>
-      <c r="M40" s="549" t="s">
+      <c r="M40" s="544" t="s">
         <v>456</v>
       </c>
-      <c r="N40" s="550"/>
-      <c r="O40" s="550"/>
-      <c r="P40" s="550"/>
+      <c r="N40" s="542"/>
+      <c r="O40" s="542"/>
+      <c r="P40" s="542"/>
     </row>
     <row r="41" spans="1:18" s="339" customFormat="1" ht="15.75">
       <c r="A41" s="343" t="s">
@@ -36771,12 +36773,12 @@
       <c r="E41" s="343">
         <v>0</v>
       </c>
-      <c r="F41" s="549" t="s">
+      <c r="F41" s="544" t="s">
         <v>458</v>
       </c>
-      <c r="G41" s="550"/>
-      <c r="H41" s="550"/>
-      <c r="I41" s="550"/>
+      <c r="G41" s="542"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="542"/>
       <c r="J41" s="343" t="s">
         <v>457</v>
       </c>
@@ -36786,16 +36788,16 @@
       <c r="L41" s="343">
         <v>4</v>
       </c>
-      <c r="M41" s="549" t="s">
+      <c r="M41" s="544" t="s">
         <v>458</v>
       </c>
-      <c r="N41" s="550"/>
-      <c r="O41" s="550"/>
-      <c r="P41" s="550"/>
+      <c r="N41" s="542"/>
+      <c r="O41" s="542"/>
+      <c r="P41" s="542"/>
     </row>
     <row r="42" spans="1:18" s="337" customFormat="1" ht="15.75">
       <c r="A42" s="518" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B42" s="343" t="s">
         <v>460</v>
@@ -36809,12 +36811,12 @@
       <c r="E42" s="343">
         <v>0</v>
       </c>
-      <c r="F42" s="549" t="s">
+      <c r="F42" s="544" t="s">
         <v>461</v>
       </c>
-      <c r="G42" s="550"/>
-      <c r="H42" s="550"/>
-      <c r="I42" s="550"/>
+      <c r="G42" s="542"/>
+      <c r="H42" s="542"/>
+      <c r="I42" s="542"/>
       <c r="J42" s="343" t="s">
         <v>459</v>
       </c>
@@ -36824,12 +36826,12 @@
       <c r="L42" s="343">
         <v>4</v>
       </c>
-      <c r="M42" s="549" t="s">
+      <c r="M42" s="544" t="s">
         <v>461</v>
       </c>
-      <c r="N42" s="550"/>
-      <c r="O42" s="550"/>
-      <c r="P42" s="550"/>
+      <c r="N42" s="542"/>
+      <c r="O42" s="542"/>
+      <c r="P42" s="542"/>
     </row>
     <row r="43" spans="1:18" s="338" customFormat="1" ht="15.75">
       <c r="A43" s="343" t="s">
@@ -36847,12 +36849,12 @@
       <c r="E43" s="343">
         <v>0</v>
       </c>
-      <c r="F43" s="549" t="s">
+      <c r="F43" s="544" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="550"/>
-      <c r="H43" s="550"/>
-      <c r="I43" s="550"/>
+      <c r="G43" s="542"/>
+      <c r="H43" s="542"/>
+      <c r="I43" s="542"/>
       <c r="J43" s="343" t="s">
         <v>378</v>
       </c>
@@ -36862,12 +36864,12 @@
       <c r="L43" s="343">
         <v>4</v>
       </c>
-      <c r="M43" s="549" t="s">
+      <c r="M43" s="544" t="s">
         <v>381</v>
       </c>
-      <c r="N43" s="550"/>
-      <c r="O43" s="550"/>
-      <c r="P43" s="550"/>
+      <c r="N43" s="542"/>
+      <c r="O43" s="542"/>
+      <c r="P43" s="542"/>
     </row>
     <row r="44" spans="1:18" s="337" customFormat="1" ht="15.75">
       <c r="A44" s="343" t="s">
@@ -36885,12 +36887,12 @@
       <c r="E44" s="343">
         <v>0</v>
       </c>
-      <c r="F44" s="549" t="s">
+      <c r="F44" s="544" t="s">
         <v>464</v>
       </c>
-      <c r="G44" s="550"/>
-      <c r="H44" s="550"/>
-      <c r="I44" s="550"/>
+      <c r="G44" s="542"/>
+      <c r="H44" s="542"/>
+      <c r="I44" s="542"/>
       <c r="J44" s="343" t="s">
         <v>462</v>
       </c>
@@ -36900,12 +36902,12 @@
       <c r="L44" s="343">
         <v>4</v>
       </c>
-      <c r="M44" s="549" t="s">
+      <c r="M44" s="544" t="s">
         <v>465</v>
       </c>
-      <c r="N44" s="550"/>
-      <c r="O44" s="550"/>
-      <c r="P44" s="550"/>
+      <c r="N44" s="542"/>
+      <c r="O44" s="542"/>
+      <c r="P44" s="542"/>
     </row>
     <row r="45" spans="1:18" s="337" customFormat="1" ht="33">
       <c r="A45" s="343" t="s">
@@ -36923,12 +36925,12 @@
       <c r="E45" s="343">
         <v>0</v>
       </c>
-      <c r="F45" s="549" t="s">
+      <c r="F45" s="544" t="s">
         <v>383</v>
       </c>
-      <c r="G45" s="550"/>
-      <c r="H45" s="550"/>
-      <c r="I45" s="550"/>
+      <c r="G45" s="542"/>
+      <c r="H45" s="542"/>
+      <c r="I45" s="542"/>
       <c r="J45" s="99" t="s">
         <v>466</v>
       </c>
@@ -36961,12 +36963,12 @@
       <c r="E46" s="343">
         <v>0</v>
       </c>
-      <c r="F46" s="549" t="s">
+      <c r="F46" s="544" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="550"/>
-      <c r="H46" s="550"/>
-      <c r="I46" s="550"/>
+      <c r="G46" s="542"/>
+      <c r="H46" s="542"/>
+      <c r="I46" s="542"/>
       <c r="J46" s="356" t="s">
         <v>326</v>
       </c>
@@ -36997,12 +36999,12 @@
       <c r="E47" s="343">
         <v>0</v>
       </c>
-      <c r="F47" s="549" t="s">
+      <c r="F47" s="544" t="s">
         <v>469</v>
       </c>
-      <c r="G47" s="550"/>
-      <c r="H47" s="550"/>
-      <c r="I47" s="551"/>
+      <c r="G47" s="542"/>
+      <c r="H47" s="542"/>
+      <c r="I47" s="543"/>
       <c r="J47" s="99" t="s">
         <v>470</v>
       </c>
@@ -37033,12 +37035,12 @@
       <c r="E48" s="343">
         <v>3</v>
       </c>
-      <c r="F48" s="549" t="s">
+      <c r="F48" s="544" t="s">
         <v>473</v>
       </c>
-      <c r="G48" s="550"/>
-      <c r="H48" s="550"/>
-      <c r="I48" s="551"/>
+      <c r="G48" s="542"/>
+      <c r="H48" s="542"/>
+      <c r="I48" s="543"/>
       <c r="J48" s="99" t="s">
         <v>474</v>
       </c>
@@ -37067,12 +37069,12 @@
       <c r="E49" s="343">
         <v>0</v>
       </c>
-      <c r="F49" s="549" t="s">
+      <c r="F49" s="544" t="s">
         <v>396</v>
       </c>
-      <c r="G49" s="550"/>
-      <c r="H49" s="550"/>
-      <c r="I49" s="551"/>
+      <c r="G49" s="542"/>
+      <c r="H49" s="542"/>
+      <c r="I49" s="543"/>
       <c r="J49" s="343" t="s">
         <v>394</v>
       </c>
@@ -37192,12 +37194,12 @@
       <c r="E53" s="351">
         <v>0</v>
       </c>
-      <c r="F53" s="570" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G53" s="550"/>
-      <c r="H53" s="550"/>
-      <c r="I53" s="551"/>
+      <c r="F53" s="541" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G53" s="542"/>
+      <c r="H53" s="542"/>
+      <c r="I53" s="543"/>
       <c r="J53" s="343" t="s">
         <v>323</v>
       </c>
@@ -38144,59 +38146,59 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38208,8 +38210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38237,30 +38239,30 @@
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="540" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
+      <c r="D2" s="569" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
       <c r="N2" s="328" t="s">
-        <v>495</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.5">
       <c r="A3" s="168" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" s="224"/>
       <c r="I3" s="6" t="s">
         <v>268</v>
       </c>
       <c r="J3" s="508" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -38269,22 +38271,22 @@
         <v>370</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>272</v>
@@ -38305,59 +38307,59 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="254" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="I5" s="254" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K5" s="99"/>
       <c r="L5" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M5" s="242"/>
       <c r="N5" s="232"/>
     </row>
     <row r="6" spans="1:14" ht="27">
       <c r="A6" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="I6" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K6" s="99"/>
       <c r="L6" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M6" s="329" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N6" s="321"/>
     </row>
@@ -38366,10 +38368,10 @@
         <v>374</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -38379,11 +38381,11 @@
         <v>374</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K7" s="244"/>
       <c r="L7" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
@@ -38393,14 +38395,14 @@
         <v>382</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -38408,15 +38410,15 @@
         <v>382</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K8" s="99"/>
       <c r="L8" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5">
@@ -38424,13 +38426,13 @@
         <v>474</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>516</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -38439,14 +38441,14 @@
         <v>474</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K9" s="99"/>
       <c r="L9" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -38462,7 +38464,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="501" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -38478,7 +38480,7 @@
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5">
@@ -38486,7 +38488,7 @@
         <v>462</v>
       </c>
       <c r="B11" s="502" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>484</v>
@@ -38503,7 +38505,7 @@
       </c>
       <c r="K11" s="244"/>
       <c r="L11" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
@@ -38547,7 +38549,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -38563,47 +38565,47 @@
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="191.1" customHeight="1">
       <c r="A14" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" s="314" t="s">
         <v>520</v>
       </c>
-      <c r="B14" s="314" t="s">
+      <c r="C14" s="315" t="s">
         <v>521</v>
       </c>
-      <c r="C14" s="315" t="s">
+      <c r="D14" s="315" t="s">
         <v>522</v>
       </c>
-      <c r="D14" s="315" t="s">
-        <v>523</v>
-      </c>
       <c r="E14" s="500" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F14" s="316"/>
       <c r="G14" s="316"/>
       <c r="I14" s="313" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J14" s="315" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K14" s="330"/>
       <c r="L14" s="314" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M14" s="315" t="s">
+        <v>523</v>
+      </c>
+      <c r="N14" s="316" t="s">
         <v>524</v>
-      </c>
-      <c r="N14" s="316" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="233" customFormat="1" ht="28.5">
       <c r="A15" s="234" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B15" s="235" t="s">
         <v>477</v>
@@ -38613,7 +38615,7 @@
       </c>
       <c r="D15" s="234"/>
       <c r="E15" s="512" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F15" s="236"/>
       <c r="G15" s="236"/>
@@ -38693,10 +38695,10 @@
     </row>
     <row r="18" spans="1:15" s="233" customFormat="1" ht="15">
       <c r="A18" s="234" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="317" t="s">
         <v>526</v>
-      </c>
-      <c r="B18" s="317" t="s">
-        <v>527</v>
       </c>
       <c r="C18" s="234" t="s">
         <v>481</v>
@@ -38709,14 +38711,14 @@
       <c r="G18" s="319"/>
       <c r="H18" s="320"/>
       <c r="I18" s="317" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J18" s="317" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K18" s="234"/>
       <c r="L18" s="318" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="318"/>
       <c r="N18" s="236" t="s">
@@ -38731,7 +38733,7 @@
         <v>396</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="321"/>
       <c r="E19" s="321"/>
@@ -38747,17 +38749,17 @@
     </row>
     <row r="20" spans="1:15" ht="28.5">
       <c r="A20" s="322" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="323" t="s">
         <v>530</v>
       </c>
-      <c r="B20" s="323" t="s">
+      <c r="C20" s="323" t="s">
         <v>531</v>
-      </c>
-      <c r="C20" s="323" t="s">
-        <v>532</v>
       </c>
       <c r="D20" s="324"/>
       <c r="E20" s="325" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F20" s="324"/>
       <c r="G20" s="326"/>
@@ -38790,7 +38792,7 @@
     </row>
     <row r="22" spans="1:15" ht="28.5">
       <c r="A22" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I22" s="335" t="s">
         <v>341</v>
@@ -38839,7 +38841,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="513" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C24" s="171" t="s">
         <v>280</v>
@@ -38854,7 +38856,7 @@
         <v>347</v>
       </c>
       <c r="G24" s="499" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H24" s="327"/>
       <c r="I24" s="93" t="s">
@@ -38993,7 +38995,7 @@
     <row r="34" spans="10:14" ht="16.5">
       <c r="J34" s="24"/>
       <c r="K34" s="520" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -39060,53 +39062,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="535" t="s">
+      <c r="D1" s="536" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="572" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="571" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="573"/>
+      <c r="E2" s="573"/>
+      <c r="F2" s="573"/>
+      <c r="G2" s="573"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="574"/>
+      <c r="J2" s="225" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="572"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="572"/>
-      <c r="E2" s="572"/>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="573"/>
-      <c r="J2" s="225" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A3" s="575" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="574" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" s="575"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="575"/>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="576"/>
+      <c r="B3" s="576"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="577"/>
       <c r="J3" s="508" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M3" s="311"/>
     </row>
@@ -39126,19 +39128,19 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="577" t="s">
+      <c r="F4" s="578" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="578"/>
-      <c r="H4" s="578"/>
-      <c r="I4" s="579"/>
+      <c r="G4" s="579"/>
+      <c r="H4" s="579"/>
+      <c r="I4" s="580"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="278" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="276" t="s">
         <v>540</v>
-      </c>
-      <c r="B5" s="276" t="s">
-        <v>541</v>
       </c>
       <c r="C5" s="276" t="s">
         <v>280</v>
@@ -39150,20 +39152,20 @@
         <v>0</v>
       </c>
       <c r="F5" s="291" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G5" s="276" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="276"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="278" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>543</v>
-      </c>
-      <c r="B6" s="276" t="s">
-        <v>544</v>
       </c>
       <c r="C6" s="276" t="s">
         <v>455</v>
@@ -39175,10 +39177,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="291" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G6" s="292" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
@@ -39188,7 +39190,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="276" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C7" s="276" t="s">
         <v>280</v>
@@ -39225,10 +39227,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="291" t="s">
+        <v>546</v>
+      </c>
+      <c r="G8" s="276" t="s">
         <v>547</v>
-      </c>
-      <c r="G8" s="276" t="s">
-        <v>548</v>
       </c>
       <c r="H8" s="276"/>
       <c r="I8" s="276"/>
@@ -39250,20 +39252,20 @@
         <v>0</v>
       </c>
       <c r="F9" s="291" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G9" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H9" s="276"/>
       <c r="I9" s="276"/>
     </row>
     <row r="10" spans="1:13" s="289" customFormat="1" ht="15">
       <c r="A10" s="298" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B10" s="299" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="299" t="s">
         <v>280</v>
@@ -39275,19 +39277,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="299" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G10" s="299" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H10" s="299"/>
       <c r="I10" s="299" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="233" customFormat="1">
       <c r="A11" s="301" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B11" s="302" t="s">
         <v>379</v>
@@ -39305,19 +39307,19 @@
         <v>381</v>
       </c>
       <c r="G11" s="302" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H11" s="302"/>
       <c r="I11" s="302" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="233" customFormat="1">
       <c r="A12" s="301" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="302" t="s">
         <v>555</v>
-      </c>
-      <c r="B12" s="302" t="s">
-        <v>556</v>
       </c>
       <c r="C12" s="302" t="s">
         <v>280</v>
@@ -39329,20 +39331,20 @@
         <v>0</v>
       </c>
       <c r="F12" s="302" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G12" s="302" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H12" s="302"/>
       <c r="I12" s="302"/>
     </row>
     <row r="13" spans="1:13" s="233" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="301" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="301" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C13" s="301" t="s">
         <v>280</v>
@@ -39354,22 +39356,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="503" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G13" s="302" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H13" s="302"/>
       <c r="I13" s="302" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="278" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="278" t="s">
         <v>560</v>
-      </c>
-      <c r="B14" s="278" t="s">
-        <v>561</v>
       </c>
       <c r="C14" s="278" t="s">
         <v>297</v>
@@ -39381,20 +39383,20 @@
         <v>3</v>
       </c>
       <c r="F14" s="276" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G14" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H14" s="276"/>
       <c r="I14" s="276"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="278" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" s="278" t="s">
         <v>563</v>
-      </c>
-      <c r="B15" s="278" t="s">
-        <v>564</v>
       </c>
       <c r="C15" s="278" t="s">
         <v>297</v>
@@ -39406,20 +39408,20 @@
         <v>3</v>
       </c>
       <c r="F15" s="504" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G15" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H15" s="276"/>
       <c r="I15" s="276"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="278" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" s="278" t="s">
         <v>565</v>
-      </c>
-      <c r="B16" s="278" t="s">
-        <v>566</v>
       </c>
       <c r="C16" s="278" t="s">
         <v>303</v>
@@ -39431,20 +39433,20 @@
         <v>0</v>
       </c>
       <c r="F16" s="504" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G16" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H16" s="276"/>
       <c r="I16" s="276"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="278" t="s">
+        <v>566</v>
+      </c>
+      <c r="B17" s="278" t="s">
         <v>567</v>
-      </c>
-      <c r="B17" s="278" t="s">
-        <v>568</v>
       </c>
       <c r="C17" s="278" t="s">
         <v>280</v>
@@ -39456,22 +39458,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="276" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G17" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H17" s="276"/>
       <c r="I17" s="276" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="278" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="278" t="s">
         <v>571</v>
-      </c>
-      <c r="B18" s="278" t="s">
-        <v>572</v>
       </c>
       <c r="C18" s="278" t="s">
         <v>297</v>
@@ -39483,20 +39485,20 @@
         <v>3</v>
       </c>
       <c r="F18" s="504" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H18" s="276"/>
       <c r="I18" s="276"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="278" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" s="278" t="s">
         <v>573</v>
-      </c>
-      <c r="B19" s="278" t="s">
-        <v>574</v>
       </c>
       <c r="C19" s="278" t="s">
         <v>303</v>
@@ -39508,22 +39510,22 @@
         <v>0</v>
       </c>
       <c r="F19" s="276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G19" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H19" s="276"/>
       <c r="I19" s="276" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="278" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B20" s="278" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C20" s="278" t="s">
         <v>297</v>
@@ -39535,20 +39537,20 @@
         <v>3</v>
       </c>
       <c r="F20" s="504" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G20" s="304" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H20" s="276"/>
       <c r="I20" s="276"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="278" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B21" s="278" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C21" s="278" t="s">
         <v>303</v>
@@ -39560,20 +39562,20 @@
         <v>0</v>
       </c>
       <c r="F21" s="276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G21" s="304" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H21" s="276"/>
       <c r="I21" s="276"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="278" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B22" s="278" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C22" s="278" t="s">
         <v>297</v>
@@ -39585,20 +39587,20 @@
         <v>3</v>
       </c>
       <c r="F22" s="276" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G22" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H22" s="276"/>
       <c r="I22" s="276"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="278" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B23" s="278" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C23" s="278" t="s">
         <v>303</v>
@@ -39613,19 +39615,19 @@
         <v>396</v>
       </c>
       <c r="G23" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H23" s="276"/>
       <c r="I23" s="276" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="278" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B24" s="278" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C24" s="278" t="s">
         <v>297</v>
@@ -39637,20 +39639,20 @@
         <v>3</v>
       </c>
       <c r="F24" s="276" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G24" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H24" s="276"/>
       <c r="I24" s="276"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="278" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B25" s="278" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C25" s="278" t="s">
         <v>303</v>
@@ -39665,19 +39667,19 @@
         <v>396</v>
       </c>
       <c r="G25" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H25" s="276"/>
       <c r="I25" s="276" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="278" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B26" s="278" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C26" s="278" t="s">
         <v>297</v>
@@ -39689,20 +39691,20 @@
         <v>3</v>
       </c>
       <c r="F26" s="276" t="s">
+        <v>587</v>
+      </c>
+      <c r="G26" s="276" t="s">
         <v>588</v>
-      </c>
-      <c r="G26" s="276" t="s">
-        <v>589</v>
       </c>
       <c r="H26" s="276"/>
       <c r="I26" s="276"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="278" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B27" s="278" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C27" s="278" t="s">
         <v>303</v>
@@ -39714,20 +39716,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G27" s="276" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H27" s="276"/>
       <c r="I27" s="276"/>
     </row>
     <row r="28" spans="1:9" s="233" customFormat="1">
       <c r="A28" s="301" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B28" s="301" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C28" s="301" t="s">
         <v>297</v>
@@ -39739,20 +39741,20 @@
         <v>3</v>
       </c>
       <c r="F28" s="302" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G28" s="302" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H28" s="302"/>
       <c r="I28" s="302"/>
     </row>
     <row r="29" spans="1:9" s="233" customFormat="1">
       <c r="A29" s="301" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="301" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C29" s="301" t="s">
         <v>303</v>
@@ -39767,19 +39769,19 @@
         <v>396</v>
       </c>
       <c r="G29" s="302" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H29" s="302"/>
       <c r="I29" s="302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="278" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B30" s="278" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" s="278" t="s">
         <v>404</v>
@@ -39791,10 +39793,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="276" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G30" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H30" s="276"/>
       <c r="I30" s="276">
@@ -39803,10 +39805,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="278" t="s">
+        <v>594</v>
+      </c>
+      <c r="B31" s="278" t="s">
         <v>595</v>
-      </c>
-      <c r="B31" s="278" t="s">
-        <v>596</v>
       </c>
       <c r="C31" s="278" t="s">
         <v>280</v>
@@ -39818,22 +39820,22 @@
         <v>0</v>
       </c>
       <c r="F31" s="278" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G31" s="305" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H31" s="278"/>
       <c r="I31" s="278" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="278" t="s">
+        <v>598</v>
+      </c>
+      <c r="B32" s="278" t="s">
         <v>599</v>
-      </c>
-      <c r="B32" s="278" t="s">
-        <v>600</v>
       </c>
       <c r="C32" s="278" t="s">
         <v>280</v>
@@ -39845,20 +39847,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="278" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G32" s="305" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H32" s="278"/>
       <c r="I32" s="278"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="306" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" s="306" t="s">
         <v>602</v>
-      </c>
-      <c r="B33" s="306" t="s">
-        <v>603</v>
       </c>
       <c r="C33" s="306" t="s">
         <v>280</v>
@@ -39870,20 +39872,20 @@
         <v>0</v>
       </c>
       <c r="F33" s="306" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G33" s="307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H33" s="306"/>
       <c r="I33" s="306"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="308" t="s">
+        <v>604</v>
+      </c>
+      <c r="B34" s="308" t="s">
         <v>605</v>
-      </c>
-      <c r="B34" s="308" t="s">
-        <v>606</v>
       </c>
       <c r="C34" s="308" t="s">
         <v>280</v>
@@ -39895,10 +39897,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="308" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G34" s="309" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H34" s="308"/>
       <c r="I34" s="308"/>
@@ -39916,7 +39918,7 @@
     </row>
     <row r="37" spans="1:9" ht="28.5">
       <c r="A37" s="168" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -39962,7 +39964,7 @@
         <v>347</v>
       </c>
       <c r="G39" s="499" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -39985,7 +39987,7 @@
         <v>351</v>
       </c>
       <c r="G40" s="497" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -39993,7 +39995,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C41" s="99" t="s">
         <v>455</v>
@@ -40006,7 +40008,7 @@
         <v>351</v>
       </c>
       <c r="G41" s="284" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -40014,7 +40016,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C42" s="99" t="s">
         <v>455</v>
@@ -40027,7 +40029,7 @@
         <v>351</v>
       </c>
       <c r="G42" s="284" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -40067,49 +40069,49 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="535" t="s">
+      <c r="D1" s="536" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="N1" s="282"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="581"/>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="581"/>
-      <c r="I2" s="582"/>
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="592"/>
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="592"/>
+      <c r="I2" s="593"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="270" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="271" t="s">
         <v>615</v>
-      </c>
-      <c r="B3" s="271" t="s">
-        <v>616</v>
       </c>
       <c r="C3" s="272"/>
       <c r="D3" s="272"/>
@@ -40150,12 +40152,12 @@
       <c r="E4" s="274" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="583" t="s">
+      <c r="F4" s="594" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="584"/>
-      <c r="H4" s="584"/>
-      <c r="I4" s="585"/>
+      <c r="G4" s="595"/>
+      <c r="H4" s="595"/>
+      <c r="I4" s="596"/>
       <c r="J4" s="106"/>
       <c r="K4" s="99"/>
       <c r="L4" s="100"/>
@@ -40164,10 +40166,10 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="275" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B5" s="276" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C5" s="276" t="s">
         <v>280</v>
@@ -40178,14 +40180,14 @@
       <c r="E5" s="278">
         <v>0</v>
       </c>
-      <c r="F5" s="586" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="587"/>
-      <c r="H5" s="587"/>
-      <c r="I5" s="588"/>
+      <c r="F5" s="597" t="s">
+        <v>617</v>
+      </c>
+      <c r="G5" s="598"/>
+      <c r="H5" s="598"/>
+      <c r="I5" s="599"/>
       <c r="J5" s="106" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K5" s="99" t="s">
         <v>455</v>
@@ -40197,15 +40199,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="284" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
       <c r="A6" s="275" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B6" s="276" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" s="276" t="s">
         <v>455</v>
@@ -40216,14 +40218,14 @@
       <c r="E6" s="278">
         <v>0</v>
       </c>
-      <c r="F6" s="586" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" s="587"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="589"/>
+      <c r="F6" s="597" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" s="598"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="600"/>
       <c r="J6" s="106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K6" s="99" t="s">
         <v>455</v>
@@ -40235,7 +40237,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="284" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="62.1" customHeight="1">
@@ -40243,7 +40245,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="276" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C7" s="276" t="s">
         <v>280</v>
@@ -40254,12 +40256,12 @@
       <c r="E7" s="279">
         <v>0</v>
       </c>
-      <c r="F7" s="590" t="s">
-        <v>621</v>
-      </c>
-      <c r="G7" s="591"/>
-      <c r="H7" s="591"/>
-      <c r="I7" s="592"/>
+      <c r="F7" s="581" t="s">
+        <v>620</v>
+      </c>
+      <c r="G7" s="582"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="583"/>
       <c r="J7" s="278" t="s">
         <v>338</v>
       </c>
@@ -40278,7 +40280,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="280" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B8" s="281"/>
       <c r="C8" s="281"/>
@@ -40310,14 +40312,14 @@
       <c r="E9" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="577" t="s">
+      <c r="F9" s="578" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="578"/>
-      <c r="H9" s="578"/>
-      <c r="I9" s="579"/>
+      <c r="G9" s="579"/>
+      <c r="H9" s="579"/>
+      <c r="I9" s="580"/>
       <c r="J9" s="288" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K9" s="99"/>
       <c r="L9" s="100"/>
@@ -40326,10 +40328,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="275" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" s="278" t="s">
         <v>624</v>
-      </c>
-      <c r="B10" s="278" t="s">
-        <v>625</v>
       </c>
       <c r="C10" s="278" t="s">
         <v>280</v>
@@ -40340,14 +40342,14 @@
       <c r="E10" s="278">
         <v>0</v>
       </c>
-      <c r="F10" s="593" t="s">
-        <v>626</v>
-      </c>
-      <c r="G10" s="594"/>
-      <c r="H10" s="594"/>
-      <c r="I10" s="595"/>
+      <c r="F10" s="584" t="s">
+        <v>625</v>
+      </c>
+      <c r="G10" s="585"/>
+      <c r="H10" s="585"/>
+      <c r="I10" s="586"/>
       <c r="J10" s="278" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K10" s="278" t="s">
         <v>280</v>
@@ -40360,10 +40362,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="275" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="278" t="s">
         <v>627</v>
-      </c>
-      <c r="B11" s="278" t="s">
-        <v>628</v>
       </c>
       <c r="C11" s="278" t="s">
         <v>280</v>
@@ -40374,14 +40376,14 @@
       <c r="E11" s="278">
         <v>0</v>
       </c>
-      <c r="F11" s="596" t="s">
-        <v>629</v>
-      </c>
-      <c r="G11" s="597"/>
-      <c r="H11" s="597"/>
-      <c r="I11" s="598"/>
+      <c r="F11" s="587" t="s">
+        <v>628</v>
+      </c>
+      <c r="G11" s="588"/>
+      <c r="H11" s="588"/>
+      <c r="I11" s="589"/>
       <c r="J11" s="278" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K11" s="278" t="s">
         <v>280</v>
@@ -40398,10 +40400,10 @@
       <c r="C12" s="276"/>
       <c r="D12" s="276"/>
       <c r="E12" s="276"/>
-      <c r="F12" s="596"/>
-      <c r="G12" s="597"/>
-      <c r="H12" s="597"/>
-      <c r="I12" s="599"/>
+      <c r="F12" s="587"/>
+      <c r="G12" s="588"/>
+      <c r="H12" s="588"/>
+      <c r="I12" s="590"/>
       <c r="J12" s="106"/>
       <c r="K12" s="99"/>
       <c r="L12" s="100"/>
@@ -40473,16 +40475,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="81" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
